--- a/docs/輸入法鍵盤設計表_河洛注音.xlsx
+++ b/docs/輸入法鍵盤設計表_河洛注音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C99754D-FA8D-4A8B-938A-44F2A42F252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C3C5F1-E474-464A-8F8A-10F7567ABDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{28F1D67D-D646-F742-8C6B-20DFC10DC14C}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="811">
   <si>
     <t>1 !</t>
   </si>
@@ -1298,10 +1298,6 @@
   </si>
   <si>
     <t>濁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>l</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3266,7 +3262,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Z</t>
+    <t>[48]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>:w</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -8042,7 +8046,7 @@
       <c r="AE2" s="283"/>
       <c r="AF2" s="284"/>
       <c r="AG2" s="307" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AH2" s="283"/>
       <c r="AI2" s="284"/>
@@ -8050,7 +8054,7 @@
       <c r="AK2" s="170"/>
       <c r="AL2" s="170"/>
       <c r="AR2" s="186" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
@@ -8067,12 +8071,12 @@
       <c r="G3" s="277"/>
       <c r="H3" s="278"/>
       <c r="I3" s="304" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J3" s="305"/>
       <c r="K3" s="306"/>
       <c r="L3" s="304" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M3" s="305"/>
       <c r="N3" s="306"/>
@@ -8080,12 +8084,12 @@
       <c r="P3" s="305"/>
       <c r="Q3" s="306"/>
       <c r="R3" s="297" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S3" s="298"/>
       <c r="T3" s="299"/>
       <c r="U3" s="304" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="V3" s="305"/>
       <c r="W3" s="306"/>
@@ -8105,60 +8109,60 @@
       <c r="AH3" s="309"/>
       <c r="AI3" s="310"/>
       <c r="AQ3" s="184" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AR3" s="170" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="2:44" s="183" customFormat="1" ht="18" customHeight="1">
       <c r="D4" s="279" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E4" s="280"/>
       <c r="F4" s="281"/>
       <c r="G4" s="279" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H4" s="280"/>
       <c r="I4" s="281"/>
       <c r="J4" s="279" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K4" s="280"/>
       <c r="L4" s="281"/>
       <c r="M4" s="279" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N4" s="280"/>
       <c r="O4" s="281"/>
       <c r="P4" s="279" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q4" s="280"/>
       <c r="R4" s="281"/>
       <c r="S4" s="279" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T4" s="280"/>
       <c r="U4" s="281"/>
       <c r="V4" s="282" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W4" s="283"/>
       <c r="X4" s="284"/>
       <c r="Y4" s="282" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Z4" s="283"/>
       <c r="AA4" s="284"/>
       <c r="AB4" s="282" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AC4" s="283"/>
       <c r="AD4" s="284"/>
       <c r="AE4" s="282" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF4" s="283"/>
       <c r="AG4" s="284"/>
@@ -8222,61 +8226,61 @@
       <c r="AF5" s="286"/>
       <c r="AG5" s="287"/>
       <c r="AQ5" s="184" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AR5" s="170" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="2:44" s="183" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="185"/>
       <c r="E6" s="279" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F6" s="280"/>
       <c r="G6" s="281"/>
       <c r="H6" s="279" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I6" s="280"/>
       <c r="J6" s="281"/>
       <c r="K6" s="279" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L6" s="280"/>
       <c r="M6" s="281"/>
       <c r="N6" s="279" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O6" s="280"/>
       <c r="P6" s="281"/>
       <c r="Q6" s="279" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="R6" s="280"/>
       <c r="S6" s="281"/>
       <c r="T6" s="279" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U6" s="280"/>
       <c r="V6" s="281"/>
       <c r="W6" s="282" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="X6" s="283"/>
       <c r="Y6" s="284"/>
       <c r="Z6" s="282" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AA6" s="283"/>
       <c r="AB6" s="284"/>
       <c r="AC6" s="282" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AD6" s="283"/>
       <c r="AE6" s="284"/>
       <c r="AF6" s="282" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG6" s="283"/>
       <c r="AH6" s="284"/>
@@ -8334,60 +8338,60 @@
       <c r="AG7" s="294"/>
       <c r="AH7" s="295"/>
       <c r="AQ7" s="184" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AR7" s="170" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="2:44" s="183" customFormat="1" ht="18" customHeight="1">
       <c r="F8" s="279" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G8" s="280"/>
       <c r="H8" s="281"/>
       <c r="I8" s="279" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J8" s="280"/>
       <c r="K8" s="281"/>
       <c r="L8" s="279" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M8" s="280"/>
       <c r="N8" s="281"/>
       <c r="O8" s="279" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P8" s="280"/>
       <c r="Q8" s="281"/>
       <c r="R8" s="279" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S8" s="280"/>
       <c r="T8" s="281"/>
       <c r="U8" s="279" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V8" s="280"/>
       <c r="W8" s="281"/>
       <c r="X8" s="282" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Y8" s="283"/>
       <c r="Z8" s="284"/>
       <c r="AA8" s="282" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AB8" s="283"/>
       <c r="AC8" s="284"/>
       <c r="AD8" s="282" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AE8" s="283"/>
       <c r="AF8" s="284"/>
       <c r="AG8" s="311" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AH8" s="283"/>
       <c r="AI8" s="284"/>
@@ -8453,12 +8457,12 @@
     </row>
     <row r="13" spans="2:44">
       <c r="D13" s="170" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="2:44" ht="16.5">
       <c r="B14" s="174" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D14" s="170" t="s">
         <v>11</v>
@@ -8514,7 +8518,7 @@
     </row>
     <row r="15" spans="2:44" ht="19.5">
       <c r="B15" s="174" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D15" s="182" t="s">
         <v>12</v>
@@ -8571,7 +8575,7 @@
     </row>
     <row r="16" spans="2:44" ht="19.5">
       <c r="B16" s="174" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D16" s="178" t="s">
         <v>12</v>
@@ -8580,10 +8584,10 @@
         <v>37</v>
       </c>
       <c r="F16" s="179" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G16" s="181" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H16" s="178" t="s">
         <v>14</v>
@@ -8592,10 +8596,10 @@
         <v>32</v>
       </c>
       <c r="J16" s="179" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K16" s="179" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L16" s="178" t="s">
         <v>46</v>
@@ -8607,7 +8611,7 @@
         <v>49</v>
       </c>
       <c r="O16" s="180" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P16" s="178" t="s">
         <v>101</v>
@@ -8619,7 +8623,7 @@
         <v>88</v>
       </c>
       <c r="S16" s="179" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="T16" s="178" t="s">
         <v>105</v>
@@ -8628,68 +8632,68 @@
     </row>
     <row r="17" spans="2:20" ht="16.5">
       <c r="B17" s="174" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D17" s="176" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E17" s="176" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F17" s="176" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G17" s="176" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H17" s="176" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I17" s="176" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J17" s="176" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K17" s="176" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L17" s="176" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M17" s="176" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N17" s="176" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O17" s="176" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P17" s="176" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="176" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R17" s="176" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="S17" s="176" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T17" s="176" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="2:20">
       <c r="D19" s="170" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="16.5">
       <c r="B20" s="174" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D20" s="170" t="s">
         <v>24</v>
@@ -8710,7 +8714,7 @@
         <v>123</v>
       </c>
       <c r="J20" s="175" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K20" s="170" t="s">
         <v>116</v>
@@ -8736,7 +8740,7 @@
     </row>
     <row r="21" spans="2:20" ht="16.5">
       <c r="B21" s="174" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D21" s="173" t="s">
         <v>25</v>
@@ -8783,96 +8787,96 @@
     </row>
     <row r="22" spans="2:20" ht="16.5">
       <c r="B22" s="174" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D22" s="172" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="172" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F22" s="172" t="s">
         <v>53</v>
       </c>
       <c r="G22" s="172" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H22" s="172" t="s">
         <v>81</v>
       </c>
       <c r="I22" s="172" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J22" s="172" t="s">
         <v>57</v>
       </c>
       <c r="K22" s="172" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L22" s="172" t="s">
         <v>83</v>
       </c>
       <c r="M22" s="172" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N22" s="172" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="O22" s="172" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P22" s="172" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="Q22" s="172" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="16.5">
       <c r="B23" s="174" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D23" s="171" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E23" s="171" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F23" s="171" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G23" s="171" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H23" s="171" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I23" s="171" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J23" s="171" t="s">
+        <v>384</v>
+      </c>
+      <c r="K23" s="171" t="s">
+        <v>391</v>
+      </c>
+      <c r="L23" s="171" t="s">
+        <v>390</v>
+      </c>
+      <c r="M23" s="171" t="s">
+        <v>389</v>
+      </c>
+      <c r="N23" s="171" t="s">
+        <v>388</v>
+      </c>
+      <c r="O23" s="171" t="s">
+        <v>387</v>
+      </c>
+      <c r="P23" s="171" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q23" s="171" t="s">
         <v>385</v>
-      </c>
-      <c r="K23" s="171" t="s">
-        <v>392</v>
-      </c>
-      <c r="L23" s="171" t="s">
-        <v>391</v>
-      </c>
-      <c r="M23" s="171" t="s">
-        <v>390</v>
-      </c>
-      <c r="N23" s="171" t="s">
-        <v>389</v>
-      </c>
-      <c r="O23" s="171" t="s">
-        <v>388</v>
-      </c>
-      <c r="P23" s="171" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q23" s="171" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="25" spans="2:20">
@@ -8892,7 +8896,7 @@
     </row>
     <row r="28" spans="2:20">
       <c r="J28" s="171" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -8992,7 +8996,7 @@
   <dimension ref="A1:AX59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="21"/>
@@ -9073,7 +9077,7 @@
       <c r="L2" s="327"/>
       <c r="M2" s="328"/>
       <c r="N2" s="329" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O2" s="330"/>
       <c r="P2" s="331"/>
@@ -10095,7 +10099,7 @@
         <v>335</v>
       </c>
       <c r="F12" s="153" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G12" s="154" t="s">
         <v>336</v>
@@ -10104,67 +10108,67 @@
         <v>2</v>
       </c>
       <c r="I12" s="153" t="s">
+        <v>365</v>
+      </c>
+      <c r="J12" s="153" t="s">
         <v>366</v>
       </c>
-      <c r="J12" s="153" t="s">
+      <c r="K12" s="153" t="s">
         <v>367</v>
       </c>
-      <c r="K12" s="153" t="s">
+      <c r="L12" s="153" t="s">
         <v>368</v>
-      </c>
-      <c r="L12" s="153" t="s">
-        <v>369</v>
       </c>
       <c r="M12" s="153" t="s">
         <v>170</v>
       </c>
       <c r="N12" s="153" t="s">
+        <v>370</v>
+      </c>
+      <c r="O12" s="153" t="s">
+        <v>369</v>
+      </c>
+      <c r="P12" s="153" t="s">
         <v>371</v>
       </c>
-      <c r="O12" s="153" t="s">
-        <v>370</v>
-      </c>
-      <c r="P12" s="153" t="s">
+      <c r="Q12" s="153" t="s">
+        <v>362</v>
+      </c>
+      <c r="R12" s="153" t="s">
+        <v>353</v>
+      </c>
+      <c r="S12" s="153" t="s">
         <v>372</v>
-      </c>
-      <c r="Q12" s="153" t="s">
-        <v>363</v>
-      </c>
-      <c r="R12" s="153" t="s">
-        <v>354</v>
-      </c>
-      <c r="S12" s="153" t="s">
-        <v>373</v>
       </c>
       <c r="T12" s="153" t="s">
         <v>338</v>
       </c>
       <c r="U12" s="153" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="V12" s="153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W12" s="153">
         <v>8</v>
       </c>
       <c r="X12" s="153" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y12" s="153" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z12" s="153" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA12" s="153" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB12" s="153" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC12" s="164" t="s">
         <v>375</v>
-      </c>
-      <c r="Y12" s="153" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z12" s="153" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA12" s="153" t="s">
-        <v>374</v>
-      </c>
-      <c r="AB12" s="153" t="s">
-        <v>355</v>
-      </c>
-      <c r="AC12" s="164" t="s">
-        <v>376</v>
       </c>
       <c r="AD12" s="153">
         <v>4</v>
@@ -10179,13 +10183,13 @@
         <v>198</v>
       </c>
       <c r="AH12" s="162" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AI12" s="154" t="s">
         <v>343</v>
       </c>
       <c r="AJ12" s="153" t="s">
-        <v>349</v>
+        <v>208</v>
       </c>
       <c r="AT12" s="212" cm="1">
         <f t="array" ref="AT12" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -10239,10 +10243,10 @@
         <v>98</v>
       </c>
       <c r="L13" s="213" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M13" s="213" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N13" s="213" t="s">
         <v>48</v>
@@ -10305,10 +10309,10 @@
         <v>19</v>
       </c>
       <c r="AH13" s="213" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AI13" s="213" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AJ13" s="213" t="s">
         <v>348</v>
@@ -10337,7 +10341,7 @@
     <row r="14" spans="1:50" s="11" customFormat="1" ht="38.1" customHeight="1">
       <c r="A14" s="10"/>
       <c r="B14" s="62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C14" s="63"/>
       <c r="D14" s="159" t="s">
@@ -10359,7 +10363,7 @@
         <v>44</v>
       </c>
       <c r="J14" s="159" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K14" s="159" t="s">
         <v>99</v>
@@ -10407,7 +10411,7 @@
         <v>83</v>
       </c>
       <c r="Z14" s="159" t="s">
-        <v>83</v>
+        <v>809</v>
       </c>
       <c r="AA14" s="161" t="s">
         <v>347</v>
@@ -10430,14 +10434,14 @@
       <c r="AG14" s="159">
         <v>7</v>
       </c>
-      <c r="AH14" s="159">
-        <v>8</v>
+      <c r="AH14" s="159" t="s">
+        <v>808</v>
       </c>
       <c r="AI14" s="161" t="s">
         <v>344</v>
       </c>
       <c r="AJ14" s="161" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AT14" s="212" cm="1">
         <f t="array" ref="AT14" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -10467,40 +10471,40 @@
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="157" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="157" t="s">
         <v>355</v>
       </c>
-      <c r="E15" s="157" t="s">
-        <v>356</v>
-      </c>
       <c r="F15" s="157" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G15" s="157" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="157" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I15" s="157" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J15" s="158" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K15" s="157" t="s">
         <v>99</v>
       </c>
       <c r="L15" s="157" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M15" s="157" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N15" s="157" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O15" s="158" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="P15" s="157" t="s">
         <v>338</v>
@@ -10515,13 +10519,13 @@
         <v>105</v>
       </c>
       <c r="T15" s="157" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U15" s="157" t="s">
+        <v>351</v>
+      </c>
+      <c r="V15" s="157" t="s">
         <v>352</v>
-      </c>
-      <c r="V15" s="157" t="s">
-        <v>353</v>
       </c>
       <c r="W15" s="157" t="s">
         <v>25</v>
@@ -10536,10 +10540,10 @@
         <v>36</v>
       </c>
       <c r="AA15" s="158" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB15" s="158" t="s">
         <v>377</v>
-      </c>
-      <c r="AB15" s="158" t="s">
-        <v>378</v>
       </c>
       <c r="AC15" s="158" t="s">
         <v>308</v>
@@ -10556,14 +10560,14 @@
       <c r="AG15" s="157">
         <v>7</v>
       </c>
-      <c r="AH15" s="165" t="s">
-        <v>809</v>
+      <c r="AH15" s="165">
+        <v>0</v>
       </c>
       <c r="AI15" s="272" t="s">
+        <v>804</v>
+      </c>
+      <c r="AJ15" s="272" t="s">
         <v>805</v>
-      </c>
-      <c r="AJ15" s="272" t="s">
-        <v>806</v>
       </c>
       <c r="AT15" s="212" cm="1">
         <f t="array" ref="AT15" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -10612,7 +10616,9 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="Z16" s="4" t="s">
+        <v>810</v>
+      </c>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -10654,7 +10660,7 @@
     </row>
     <row r="17" spans="2:50" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B17" s="168" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AT17" s="212" cm="1">
         <f t="array" ref="AT17" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -10679,7 +10685,7 @@
     </row>
     <row r="18" spans="2:50" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B18" s="80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C18" s="80"/>
       <c r="D18" s="80"/>
@@ -10699,7 +10705,7 @@
       <c r="R18" s="80"/>
       <c r="S18" s="80"/>
       <c r="T18" s="270" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="U18" s="80"/>
       <c r="V18" s="80"/>
@@ -10824,7 +10830,7 @@
       </c>
       <c r="D20" s="84" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(D15:AJ15, "1")</f>
-        <v>pPbmtTdlkKgwcCzshiuaeoOBDG2357ZNL1</v>
+        <v>pPbmtTdlkKgwcCzshiuaeoOBDG23570NL1</v>
       </c>
       <c r="E20" s="81"/>
       <c r="F20" s="81"/>
@@ -11032,7 +11038,7 @@
     <row r="23" spans="2:50" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B23" s="167" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; D20 &amp; "|" &amp; D21 &amp; "|"</f>
-        <v>- xlit|pPbmtTdlkKgwcCzshiuaeoOBDG2357ZNL1|1qra2wsxedfvyhbncuj8,kimp/4367zol1|</v>
+        <v>- xlit|pPbmtTdlkKgwcCzshiuaeoOBDG23570NL1|1qra2wsxedfvyhbncuj8,kimp/4367zol1|</v>
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="78"/>
@@ -11219,7 +11225,7 @@
       </c>
       <c r="AV25" s="207" t="str" cm="1">
         <f t="array" aca="1" ref="AV25" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$14), COLUMN($C$14) +$AT25) )</f>
-        <v>o</v>
+        <v>oo</v>
       </c>
       <c r="AW25" s="133" t="str" cm="1">
         <f t="array" aca="1" ref="AW25" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$15), COLUMN($C$15) +$AT25) )</f>
@@ -11232,7 +11238,7 @@
     </row>
     <row r="26" spans="2:50" ht="38.1" customHeight="1">
       <c r="B26" s="169" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
@@ -11300,7 +11306,7 @@
     </row>
     <row r="27" spans="2:50" ht="38.1" customHeight="1">
       <c r="B27" s="80" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="80"/>
@@ -11310,7 +11316,7 @@
       <c r="H27" s="80"/>
       <c r="I27" s="80"/>
       <c r="J27" s="270" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K27" s="80"/>
       <c r="L27" s="80"/>
@@ -11441,11 +11447,11 @@
       </c>
       <c r="C29" s="217">
         <f xml:space="preserve"> LEN(D29)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D29" s="91" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(D15:AG15)</f>
-        <v>pPbmtTdlkKgwcCzshiuaeoOBDG2357</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(D15:AJ15)</f>
+        <v>pPbmtTdlkKgwcCzshiuaeoOBDG23570NL</v>
       </c>
       <c r="E29" s="91"/>
       <c r="F29" s="91"/>
@@ -11516,11 +11522,11 @@
       </c>
       <c r="C30" s="218">
         <f>LEN(D30)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D30" s="85" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(D13:AG13)</f>
-        <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄫㄗㄘㆡㄙㄏㄧㄨㄚㄝㄜㆦㆬㄣㄥˋ˪ˊ˫</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(D13:AJ13)</f>
+        <v>ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄫㄗㄘㆡㄙㄏㄧㄨㄚㄝㄜㆦㆬㄣㄥˋ˪ˊ˫入鼻濁</v>
       </c>
       <c r="E30" s="85"/>
       <c r="F30" s="85"/>
@@ -11653,7 +11659,7 @@
     <row r="32" spans="2:50" ht="38.1" customHeight="1">
       <c r="B32" s="167" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; D29 &amp; "|" &amp; D30 &amp; "|"</f>
-        <v>- xlit|pPbmtTdlkKgwcCzshiuaeoOBDG2357|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄫㄗㄘㆡㄙㄏㄧㄨㄚㄝㄜㆦㆬㄣㄥˋ˪ˊ˫|</v>
+        <v>- xlit|pPbmtTdlkKgwcCzshiuaeoOBDG23570NL|ㄅㄆㆠㄇㄉㄊㄋㄌㄍㄎㆣㄫㄗㄘㆡㄙㄏㄧㄨㄚㄝㄜㆦㆬㄣㄥˋ˪ˊ˫入鼻濁|</v>
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="78"/>
@@ -11772,13 +11778,13 @@
         <f t="array" aca="1" ref="AU33" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$13), COLUMN($C$13) +$AT33) )</f>
         <v>入</v>
       </c>
-      <c r="AV33" s="207" cm="1">
+      <c r="AV33" s="207" t="str" cm="1">
         <f t="array" aca="1" ref="AV33" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$14), COLUMN($C$14) +$AT33) )</f>
-        <v>8</v>
-      </c>
-      <c r="AW33" s="133" t="str" cm="1">
+        <v>[48]</v>
+      </c>
+      <c r="AW33" s="133" cm="1">
         <f t="array" aca="1" ref="AW33" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$15), COLUMN($C$15) +$AT33) )</f>
-        <v>Z</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="134" t="str" cm="1">
         <f t="array" aca="1" ref="AX33" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( ROW($C$12), COLUMN($C$12) +$AT33) )</f>
@@ -11853,7 +11859,7 @@
     </row>
     <row r="35" spans="2:50" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B35" s="169" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
@@ -11921,7 +11927,7 @@
     </row>
     <row r="36" spans="2:50" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B36" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C36" s="80"/>
       <c r="D36" s="80"/>
@@ -11940,7 +11946,7 @@
       <c r="Q36" s="80"/>
       <c r="R36" s="80"/>
       <c r="S36" s="270" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="T36" s="80"/>
       <c r="U36" s="80"/>
@@ -15597,8 +15603,8 @@
   </sheetPr>
   <dimension ref="B1:BX72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="32.25"/>
@@ -15626,13 +15632,13 @@
   <sheetData>
     <row r="1" spans="2:76">
       <c r="B1" s="204" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1" s="204" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N1" s="204" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="2:76" s="15" customFormat="1" ht="24" thickBot="1">
@@ -15643,28 +15649,28 @@
         <v>110</v>
       </c>
       <c r="D2" s="199" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E2" s="198" t="s">
         <v>341</v>
       </c>
       <c r="F2" s="197" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H2" s="200" t="s">
         <v>109</v>
       </c>
       <c r="I2" s="201" t="s">
+        <v>536</v>
+      </c>
+      <c r="J2" s="201" t="s">
         <v>537</v>
-      </c>
-      <c r="J2" s="201" t="s">
-        <v>538</v>
       </c>
       <c r="K2" s="202" t="s">
         <v>341</v>
       </c>
       <c r="L2" s="203" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N2" s="200" t="s">
         <v>109</v>
@@ -15673,13 +15679,13 @@
         <v>110</v>
       </c>
       <c r="P2" s="199" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Q2" s="202" t="s">
         <v>341</v>
       </c>
       <c r="R2" s="203" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U2" s="46" t="s">
         <v>109</v>
@@ -15927,7 +15933,7 @@
         <v>52</v>
       </c>
       <c r="J3" s="193" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K3" s="133" t="s">
         <v>53</v>
@@ -15939,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="193" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="P3" s="211" t="s">
         <v>25</v>
@@ -16186,7 +16192,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="133" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F4" s="143" t="s">
         <v>132</v>
@@ -16199,7 +16205,7 @@
         <v>80</v>
       </c>
       <c r="J4" s="193" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K4" s="133" t="s">
         <v>81</v>
@@ -16212,16 +16218,16 @@
         <v>2</v>
       </c>
       <c r="O4" s="193" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="P4" s="211" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q4" s="209" t="s">
         <v>25</v>
       </c>
       <c r="R4" s="208" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U4" s="51" t="s">
         <v>130</v>
@@ -16472,7 +16478,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="193" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K5" s="135" t="s">
         <v>25</v>
@@ -16485,13 +16491,13 @@
         <v>3</v>
       </c>
       <c r="O5" s="193" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P5" s="211" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Q5" s="210" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R5" s="208" t="s">
         <v>324</v>
@@ -16742,10 +16748,10 @@
         <v>4</v>
       </c>
       <c r="I6" s="193" t="s">
+        <v>550</v>
+      </c>
+      <c r="J6" s="193" t="s">
         <v>551</v>
-      </c>
-      <c r="J6" s="193" t="s">
-        <v>552</v>
       </c>
       <c r="K6" s="133" t="s">
         <v>83</v>
@@ -16758,16 +16764,16 @@
         <v>4</v>
       </c>
       <c r="O6" s="193" t="s">
+        <v>709</v>
+      </c>
+      <c r="P6" s="211" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q6" s="210" t="s">
+        <v>407</v>
+      </c>
+      <c r="R6" s="208" t="s">
         <v>710</v>
-      </c>
-      <c r="P6" s="211" t="s">
-        <v>708</v>
-      </c>
-      <c r="Q6" s="210" t="s">
-        <v>408</v>
-      </c>
-      <c r="R6" s="208" t="s">
-        <v>711</v>
       </c>
       <c r="U6" s="53" t="s">
         <v>174</v>
@@ -17018,7 +17024,7 @@
         <v>56</v>
       </c>
       <c r="J7" s="193" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K7" s="133" t="s">
         <v>83</v>
@@ -17037,7 +17043,7 @@
         <v>154</v>
       </c>
       <c r="Q7" s="210" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="R7" s="208" t="s">
         <v>154</v>
@@ -17055,7 +17061,7 @@
         <v>105</v>
       </c>
       <c r="E8" s="133" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F8" s="143" t="s">
         <v>44</v>
@@ -17065,10 +17071,10 @@
         <v>6</v>
       </c>
       <c r="I8" s="193" t="s">
+        <v>550</v>
+      </c>
+      <c r="J8" s="193" t="s">
         <v>551</v>
-      </c>
-      <c r="J8" s="193" t="s">
-        <v>552</v>
       </c>
       <c r="K8" s="133" t="s">
         <v>57</v>
@@ -17081,16 +17087,16 @@
         <v>6</v>
       </c>
       <c r="O8" s="193" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="P8" s="211" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Q8" s="210" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R8" s="208" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="2:76">
@@ -17118,13 +17124,13 @@
         <v>26</v>
       </c>
       <c r="J9" s="193" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K9" s="133" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="143" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N9" s="14">
         <f t="shared" si="3"/>
@@ -17134,13 +17140,13 @@
         <v>27</v>
       </c>
       <c r="P9" s="211" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q9" s="210" t="s">
         <v>663</v>
       </c>
-      <c r="Q9" s="210" t="s">
-        <v>664</v>
-      </c>
       <c r="R9" s="208" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="2:76">
@@ -17168,29 +17174,29 @@
         <v>84</v>
       </c>
       <c r="J10" s="193" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K10" s="133" t="s">
         <v>34</v>
       </c>
       <c r="L10" s="143" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N10" s="14">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="O10" s="193" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="P10" s="211" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Q10" s="210" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R10" s="208" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="2:76">
@@ -17215,16 +17221,16 @@
         <v>9</v>
       </c>
       <c r="I11" s="193" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J11" s="193" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K11" s="133" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="L11" s="143" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" si="3"/>
@@ -17234,13 +17240,13 @@
         <v>85</v>
       </c>
       <c r="P11" s="211" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="Q11" s="210" t="s">
+        <v>670</v>
+      </c>
+      <c r="R11" s="208" t="s">
         <v>671</v>
-      </c>
-      <c r="R11" s="208" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="12" spans="2:76">
@@ -17255,7 +17261,7 @@
         <v>61</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F12" s="143" t="s">
         <v>134</v>
@@ -17265,32 +17271,32 @@
         <v>10</v>
       </c>
       <c r="I12" s="193" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J12" s="193" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K12" s="133" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L12" s="143" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N12" s="14">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="O12" s="193" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P12" s="211" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q12" s="210" t="s">
+        <v>670</v>
+      </c>
+      <c r="R12" s="208" t="s">
         <v>715</v>
-      </c>
-      <c r="Q12" s="210" t="s">
-        <v>671</v>
-      </c>
-      <c r="R12" s="208" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="13" spans="2:76">
@@ -17315,16 +17321,16 @@
         <v>11</v>
       </c>
       <c r="I13" s="193" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J13" s="193" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K13" s="133" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L13" s="143" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="13"/>
@@ -17353,16 +17359,16 @@
         <v>12</v>
       </c>
       <c r="I14" s="193" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J14" s="193" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K14" s="135" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L14" s="143" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -17391,16 +17397,16 @@
         <v>13</v>
       </c>
       <c r="I15" s="193" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J15" s="193" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K15" s="133" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L15" s="143" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="13"/>
@@ -17429,16 +17435,16 @@
         <v>14</v>
       </c>
       <c r="I16" s="193" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J16" s="193" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K16" s="133" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L16" s="143" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O16" s="13"/>
       <c r="P16" s="13"/>
@@ -17467,16 +17473,16 @@
         <v>15</v>
       </c>
       <c r="I17" s="193" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J17" s="193" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K17" s="133" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="L17" s="143" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
@@ -17505,16 +17511,16 @@
         <v>16</v>
       </c>
       <c r="I18" s="193" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J18" s="193" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K18" s="133" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L18" s="143" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -17591,7 +17597,7 @@
         <v>138</v>
       </c>
       <c r="H21" s="204" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
@@ -17619,16 +17625,16 @@
         <v>109</v>
       </c>
       <c r="I22" s="201" t="s">
+        <v>536</v>
+      </c>
+      <c r="J22" s="201" t="s">
         <v>537</v>
-      </c>
-      <c r="J22" s="201" t="s">
-        <v>538</v>
       </c>
       <c r="K22" s="202" t="s">
         <v>341</v>
       </c>
       <c r="L22" s="203" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="13"/>
@@ -17660,7 +17666,7 @@
       </c>
       <c r="J23" s="193"/>
       <c r="K23" s="209" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L23" s="208" t="s">
         <v>162</v>
@@ -17696,7 +17702,7 @@
       </c>
       <c r="J24" s="193"/>
       <c r="K24" s="209" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L24" s="208"/>
       <c r="O24" s="13"/>
@@ -17716,7 +17722,7 @@
         <v>53</v>
       </c>
       <c r="E25" s="133" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F25" s="143" t="s">
         <v>145</v>
@@ -17733,7 +17739,7 @@
         <v>ㆩㆷ</v>
       </c>
       <c r="K25" s="210" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L25" s="208" t="s">
         <v>324</v>
@@ -17772,7 +17778,7 @@
         <v>ㆧㆷ</v>
       </c>
       <c r="K26" s="209" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="L26" s="208" t="s">
         <v>325</v>
@@ -17794,7 +17800,7 @@
         <v>46</v>
       </c>
       <c r="E27" s="133" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F27" s="143" t="s">
         <v>147</v>
@@ -17811,7 +17817,7 @@
         <v>ㆥㆷ</v>
       </c>
       <c r="K27" s="209" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L27" s="208" t="s">
         <v>326</v>
@@ -17847,10 +17853,10 @@
       </c>
       <c r="J28" s="193"/>
       <c r="K28" s="209" t="s">
+        <v>577</v>
+      </c>
+      <c r="L28" s="208" t="s">
         <v>578</v>
-      </c>
-      <c r="L28" s="208" t="s">
-        <v>579</v>
       </c>
       <c r="O28" s="13"/>
       <c r="P28" s="13"/>
@@ -17886,10 +17892,10 @@
         <v>ㆯㆷ</v>
       </c>
       <c r="K29" s="209" t="s">
+        <v>584</v>
+      </c>
+      <c r="L29" s="208" t="s">
         <v>585</v>
-      </c>
-      <c r="L29" s="208" t="s">
-        <v>586</v>
       </c>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
@@ -17908,7 +17914,7 @@
         <v>185</v>
       </c>
       <c r="E30" s="138" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F30" s="145" t="s">
         <v>149</v>
@@ -17918,14 +17924,14 @@
         <v>8</v>
       </c>
       <c r="I30" s="193" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J30" s="193"/>
       <c r="K30" s="209" t="s">
+        <v>591</v>
+      </c>
+      <c r="L30" s="208" t="s">
         <v>592</v>
-      </c>
-      <c r="L30" s="208" t="s">
-        <v>593</v>
       </c>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
@@ -17954,16 +17960,16 @@
         <v>9</v>
       </c>
       <c r="I31" s="193" t="s">
+        <v>596</v>
+      </c>
+      <c r="J31" s="193" t="s">
         <v>597</v>
       </c>
-      <c r="J31" s="193" t="s">
-        <v>598</v>
-      </c>
       <c r="K31" s="209" t="s">
+        <v>599</v>
+      </c>
+      <c r="L31" s="208" t="s">
         <v>600</v>
-      </c>
-      <c r="L31" s="208" t="s">
-        <v>601</v>
       </c>
       <c r="O31" s="13"/>
       <c r="P31" s="13"/>
@@ -17982,7 +17988,7 @@
         <v>103</v>
       </c>
       <c r="E32" s="133" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F32" s="143" t="s">
         <v>162</v>
@@ -17992,14 +17998,14 @@
         <v>10</v>
       </c>
       <c r="I32" s="193" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J32" s="193"/>
       <c r="K32" s="209" t="s">
+        <v>606</v>
+      </c>
+      <c r="L32" s="208" t="s">
         <v>607</v>
-      </c>
-      <c r="L32" s="208" t="s">
-        <v>608</v>
       </c>
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
@@ -18028,14 +18034,14 @@
         <v>11</v>
       </c>
       <c r="I33" s="193" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J33" s="193"/>
       <c r="K33" s="209" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L33" s="208" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
@@ -18054,7 +18060,7 @@
         <v>124</v>
       </c>
       <c r="E34" s="138" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F34" s="145" t="s">
         <v>164</v>
@@ -18064,14 +18070,14 @@
         <v>12</v>
       </c>
       <c r="I34" s="193" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J34" s="193"/>
       <c r="K34" s="210" t="s">
+        <v>619</v>
+      </c>
+      <c r="L34" s="208" t="s">
         <v>620</v>
-      </c>
-      <c r="L34" s="208" t="s">
-        <v>621</v>
       </c>
       <c r="O34" s="13"/>
       <c r="P34" s="13"/>
@@ -18090,7 +18096,7 @@
         <v>186</v>
       </c>
       <c r="E35" s="133" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F35" s="143" t="s">
         <v>150</v>
@@ -18100,14 +18106,14 @@
         <v>13</v>
       </c>
       <c r="I35" s="194" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J35" s="194"/>
       <c r="K35" s="209" t="s">
+        <v>626</v>
+      </c>
+      <c r="L35" s="208" t="s">
         <v>627</v>
-      </c>
-      <c r="L35" s="208" t="s">
-        <v>628</v>
       </c>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
@@ -18126,7 +18132,7 @@
         <v>99</v>
       </c>
       <c r="E36" s="133" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F36" s="143" t="s">
         <v>151</v>
@@ -18136,14 +18142,14 @@
         <v>14</v>
       </c>
       <c r="I36" s="194" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J36" s="194"/>
       <c r="K36" s="209" t="s">
+        <v>633</v>
+      </c>
+      <c r="L36" s="208" t="s">
         <v>634</v>
-      </c>
-      <c r="L36" s="208" t="s">
-        <v>635</v>
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="13"/>
@@ -18162,7 +18168,7 @@
         <v>67</v>
       </c>
       <c r="E37" s="133" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F37" s="143" t="s">
         <v>152</v>
@@ -18172,16 +18178,16 @@
         <v>15</v>
       </c>
       <c r="I37" s="194" t="s">
+        <v>637</v>
+      </c>
+      <c r="J37" s="194" t="s">
         <v>638</v>
       </c>
-      <c r="J37" s="194" t="s">
-        <v>639</v>
-      </c>
       <c r="K37" s="209" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="L37" s="208" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="13"/>
@@ -18200,7 +18206,7 @@
         <v>187</v>
       </c>
       <c r="E38" s="133" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F38" s="143" t="s">
         <v>153</v>
@@ -18226,7 +18232,7 @@
         <v>188</v>
       </c>
       <c r="E39" s="133" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F39" s="143" t="s">
         <v>154</v>
@@ -18252,13 +18258,13 @@
         <v>70</v>
       </c>
       <c r="E40" s="133" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F40" s="143" t="s">
         <v>155</v>
       </c>
       <c r="H40" s="204" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O40" s="13"/>
       <c r="P40" s="13"/>
@@ -18271,7 +18277,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="188" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D41" s="134" t="s">
         <v>189</v>
@@ -18286,16 +18292,16 @@
         <v>109</v>
       </c>
       <c r="I41" s="201" t="s">
+        <v>536</v>
+      </c>
+      <c r="J41" s="201" t="s">
         <v>537</v>
-      </c>
-      <c r="J41" s="201" t="s">
-        <v>538</v>
       </c>
       <c r="K41" s="202" t="s">
         <v>341</v>
       </c>
       <c r="L41" s="203" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O41" s="13"/>
       <c r="P41" s="13"/>
@@ -18314,7 +18320,7 @@
         <v>12</v>
       </c>
       <c r="E42" s="133" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F42" s="143" t="s">
         <v>156</v>
@@ -18323,17 +18329,17 @@
         <v>1</v>
       </c>
       <c r="I42" s="193" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J42" s="193" t="str">
         <f xml:space="preserve"> LEFT(I42, IF(LEN(I42)=1, 1, LEN(I42)-1)) &amp; "ㆴ"</f>
         <v>ㄧㆴ</v>
       </c>
       <c r="K42" s="209" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L42" s="208" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O42" s="13"/>
       <c r="P42" s="13"/>
@@ -18352,7 +18358,7 @@
         <v>190</v>
       </c>
       <c r="E43" s="133" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F43" s="143" t="s">
         <v>157</v>
@@ -18362,17 +18368,17 @@
         <v>2</v>
       </c>
       <c r="I43" s="193" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J43" s="193" t="str">
         <f xml:space="preserve"> LEFT(I43, IF(LEN(I43)=1, 1, LEN(I43)-1)) &amp; "ㆴ"</f>
         <v>ㆰㆴ</v>
       </c>
       <c r="K43" s="209" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L43" s="208" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
@@ -18391,7 +18397,7 @@
         <v>191</v>
       </c>
       <c r="E44" s="133" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F44" s="143" t="s">
         <v>158</v>
@@ -18408,10 +18414,10 @@
         <v>ㆱㆴ</v>
       </c>
       <c r="K44" s="210" t="s">
+        <v>652</v>
+      </c>
+      <c r="L44" s="208" t="s">
         <v>653</v>
-      </c>
-      <c r="L44" s="208" t="s">
-        <v>654</v>
       </c>
       <c r="O44" s="13"/>
       <c r="P44" s="13"/>
@@ -18430,7 +18436,7 @@
         <v>192</v>
       </c>
       <c r="E45" s="133" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F45" s="143" t="s">
         <v>159</v>
@@ -18440,17 +18446,17 @@
         <v>4</v>
       </c>
       <c r="I45" s="193" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J45" s="193" t="str">
         <f t="shared" si="6"/>
         <v>ㄧㆴ</v>
       </c>
       <c r="K45" s="209" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L45" s="208" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O45" s="13"/>
       <c r="P45" s="13"/>
@@ -18469,7 +18475,7 @@
         <v>193</v>
       </c>
       <c r="E46" s="133" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F46" s="147" t="s">
         <v>160</v>
@@ -18523,7 +18529,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="204" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13"/>
@@ -18549,16 +18555,16 @@
         <v>109</v>
       </c>
       <c r="I49" s="201" t="s">
+        <v>536</v>
+      </c>
+      <c r="J49" s="201" t="s">
         <v>537</v>
-      </c>
-      <c r="J49" s="201" t="s">
-        <v>538</v>
       </c>
       <c r="K49" s="202" t="s">
         <v>341</v>
       </c>
       <c r="L49" s="203" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O49" s="13"/>
       <c r="P49" s="13"/>
@@ -18621,17 +18627,17 @@
         <v>2</v>
       </c>
       <c r="I51" s="193" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="J51" s="193" t="str">
         <f t="shared" ref="J51:J55" si="7" xml:space="preserve"> LEFT(I51, IF(LEN(I51)=1, 1, LEN(I51)-1)) &amp; "ㆵ"</f>
         <v>ㄧㆵ</v>
       </c>
       <c r="K51" s="209" t="s">
+        <v>657</v>
+      </c>
+      <c r="L51" s="208" t="s">
         <v>658</v>
-      </c>
-      <c r="L51" s="208" t="s">
-        <v>659</v>
       </c>
       <c r="O51" s="13"/>
       <c r="P51" s="13"/>
@@ -18658,17 +18664,17 @@
         <v>3</v>
       </c>
       <c r="I52" s="193" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J52" s="193" t="str">
         <f t="shared" si="7"/>
         <v>ㄨㆵ</v>
       </c>
       <c r="K52" s="210" t="s">
+        <v>660</v>
+      </c>
+      <c r="L52" s="208" t="s">
         <v>661</v>
-      </c>
-      <c r="L52" s="208" t="s">
-        <v>662</v>
       </c>
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
@@ -18702,10 +18708,10 @@
         <v>ㄢㆵ</v>
       </c>
       <c r="K53" s="209" t="s">
+        <v>662</v>
+      </c>
+      <c r="L53" s="208" t="s">
         <v>663</v>
-      </c>
-      <c r="L53" s="208" t="s">
-        <v>664</v>
       </c>
       <c r="O53" s="13"/>
       <c r="P53" s="13"/>
@@ -18732,17 +18738,17 @@
         <v>5</v>
       </c>
       <c r="I54" s="193" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J54" s="193" t="str">
         <f t="shared" si="7"/>
         <v>ㄧㆵ</v>
       </c>
       <c r="K54" s="209" t="s">
+        <v>665</v>
+      </c>
+      <c r="L54" s="208" t="s">
         <v>666</v>
-      </c>
-      <c r="L54" s="208" t="s">
-        <v>667</v>
       </c>
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
@@ -18769,17 +18775,17 @@
         <v>6</v>
       </c>
       <c r="I55" s="193" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J55" s="193" t="str">
         <f t="shared" si="7"/>
         <v>ㄨㆵ</v>
       </c>
       <c r="K55" s="209" t="s">
+        <v>668</v>
+      </c>
+      <c r="L55" s="208" t="s">
         <v>669</v>
-      </c>
-      <c r="L55" s="208" t="s">
-        <v>670</v>
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13"/>
@@ -18834,7 +18840,7 @@
     </row>
     <row r="58" spans="2:18">
       <c r="H58" s="204" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
@@ -18846,16 +18852,16 @@
         <v>109</v>
       </c>
       <c r="I59" s="201" t="s">
+        <v>536</v>
+      </c>
+      <c r="J59" s="201" t="s">
         <v>537</v>
-      </c>
-      <c r="J59" s="201" t="s">
-        <v>538</v>
       </c>
       <c r="K59" s="202" t="s">
         <v>341</v>
       </c>
       <c r="L59" s="203" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O59" s="13"/>
       <c r="P59" s="13"/>
@@ -18874,10 +18880,10 @@
         <v>ㄤㆻ</v>
       </c>
       <c r="K60" s="209" t="s">
+        <v>670</v>
+      </c>
+      <c r="L60" s="208" t="s">
         <v>671</v>
-      </c>
-      <c r="L60" s="208" t="s">
-        <v>672</v>
       </c>
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
@@ -18897,7 +18903,7 @@
         <v>ㄥㆻ</v>
       </c>
       <c r="K61" s="209" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L61" s="208"/>
       <c r="O61" s="13"/>
@@ -18918,10 +18924,10 @@
         <v>ㆲㆻ</v>
       </c>
       <c r="K62" s="210" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="L62" s="208" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
@@ -18934,17 +18940,17 @@
         <v>4</v>
       </c>
       <c r="I63" s="193" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J63" s="193" t="str">
         <f t="shared" si="9"/>
         <v>ㄧㆻ</v>
       </c>
       <c r="K63" s="209" t="s">
+        <v>676</v>
+      </c>
+      <c r="L63" s="208" t="s">
         <v>677</v>
-      </c>
-      <c r="L63" s="208" t="s">
-        <v>678</v>
       </c>
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
@@ -18957,17 +18963,17 @@
         <v>5</v>
       </c>
       <c r="I64" s="193" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J64" s="193" t="str">
         <f t="shared" si="9"/>
         <v>ㄧㆻ</v>
       </c>
       <c r="K64" s="209" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L64" s="208" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
@@ -18980,17 +18986,17 @@
         <v>6</v>
       </c>
       <c r="I65" s="193" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J65" s="193" t="str">
         <f t="shared" si="9"/>
         <v>ㄧㆻ</v>
       </c>
       <c r="K65" s="209" t="s">
+        <v>681</v>
+      </c>
+      <c r="L65" s="208" t="s">
         <v>682</v>
-      </c>
-      <c r="L65" s="208" t="s">
-        <v>683</v>
       </c>
       <c r="O65" s="13"/>
       <c r="P65" s="13"/>
@@ -19002,17 +19008,17 @@
         <v>7</v>
       </c>
       <c r="I66" s="193" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J66" s="193" t="str">
         <f t="shared" si="9"/>
         <v>ㄨㆻ</v>
       </c>
       <c r="K66" s="209" t="s">
+        <v>684</v>
+      </c>
+      <c r="L66" s="208" t="s">
         <v>685</v>
-      </c>
-      <c r="L66" s="208" t="s">
-        <v>686</v>
       </c>
       <c r="O66" s="13"/>
       <c r="P66" s="13"/>
@@ -19033,7 +19039,7 @@
     </row>
     <row r="69" spans="8:18">
       <c r="H69" s="204" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O69" s="13"/>
       <c r="P69" s="13"/>
@@ -19045,16 +19051,16 @@
         <v>109</v>
       </c>
       <c r="I70" s="201" t="s">
+        <v>536</v>
+      </c>
+      <c r="J70" s="201" t="s">
         <v>537</v>
-      </c>
-      <c r="J70" s="201" t="s">
-        <v>538</v>
       </c>
       <c r="K70" s="202" t="s">
         <v>341</v>
       </c>
       <c r="L70" s="203" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O70" s="13"/>
       <c r="P70" s="13"/>
@@ -19089,7 +19095,7 @@
         <v>2</v>
       </c>
       <c r="I72" s="193" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J72" s="193" t="str">
         <f t="shared" si="11"/>
@@ -19120,8 +19126,8 @@
   </sheetPr>
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="2"/>
@@ -19149,62 +19155,62 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="E1" s="219" t="s">
+        <v>730</v>
+      </c>
+      <c r="L1" s="219" t="s">
         <v>731</v>
       </c>
-      <c r="L1" s="219" t="s">
+      <c r="Q1" s="219" t="s">
         <v>732</v>
-      </c>
-      <c r="Q1" s="219" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="25.5">
       <c r="A2" s="219" t="s">
+        <v>733</v>
+      </c>
+      <c r="F2" s="223" t="s">
         <v>734</v>
       </c>
-      <c r="F2" s="223" t="s">
+      <c r="G2" s="223" t="s">
         <v>735</v>
       </c>
-      <c r="G2" s="223" t="s">
+      <c r="H2" s="224" t="s">
         <v>736</v>
       </c>
-      <c r="H2" s="224" t="s">
+      <c r="I2" s="223" t="s">
         <v>737</v>
       </c>
-      <c r="I2" s="223" t="s">
+      <c r="M2" s="225" t="s">
+        <v>735</v>
+      </c>
+      <c r="N2" s="226" t="s">
         <v>738</v>
       </c>
-      <c r="M2" s="225" t="s">
+      <c r="R2" s="223" t="s">
         <v>736</v>
       </c>
-      <c r="N2" s="226" t="s">
-        <v>739</v>
-      </c>
-      <c r="R2" s="223" t="s">
+      <c r="S2" s="224" t="s">
         <v>737</v>
       </c>
-      <c r="S2" s="224" t="s">
-        <v>738</v>
-      </c>
       <c r="W2" s="227" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="X2" s="227" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Y2" s="227" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Z2" s="227" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AA2" s="227" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="228" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B3" s="219">
         <f xml:space="preserve"> LEN(A3)</f>
@@ -19262,12 +19268,12 @@
         <v>12</v>
       </c>
       <c r="AA3" s="237" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="228" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B4" s="219">
         <f xml:space="preserve"> LEN(A4)</f>
@@ -19313,7 +19319,7 @@
         <v>ㄆ</v>
       </c>
       <c r="W4" s="242" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="X4" s="222" t="s">
         <v>41</v>
@@ -19325,7 +19331,7 @@
         <v>37</v>
       </c>
       <c r="AA4" s="237" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -19369,7 +19375,7 @@
         <v>ㄇ</v>
       </c>
       <c r="W5" s="242" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="X5" s="222" t="s">
         <v>59</v>
@@ -19378,15 +19384,15 @@
         <v>70</v>
       </c>
       <c r="Z5" s="236" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AA5" s="237" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="219" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E6" s="219">
         <v>4</v>
@@ -19428,7 +19434,7 @@
         <v>ㆠ</v>
       </c>
       <c r="W6" s="247" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="X6" s="222" t="s">
         <v>96</v>
@@ -19440,12 +19446,12 @@
         <v>97</v>
       </c>
       <c r="AA6" s="237" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="228" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B7" s="219">
         <f xml:space="preserve"> LEN(A7)</f>
@@ -19503,12 +19509,12 @@
         <v>14</v>
       </c>
       <c r="AA7" s="237" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="228" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B8" s="219">
         <f xml:space="preserve"> LEN(A8)</f>
@@ -19554,7 +19560,7 @@
         <v>ㄊ</v>
       </c>
       <c r="W8" s="242" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="X8" s="222" t="s">
         <v>43</v>
@@ -19566,7 +19572,7 @@
         <v>32</v>
       </c>
       <c r="AA8" s="237" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -19610,7 +19616,7 @@
         <v>ㄋ</v>
       </c>
       <c r="W9" s="242" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="X9" s="222" t="s">
         <v>71</v>
@@ -19619,10 +19625,10 @@
         <v>72</v>
       </c>
       <c r="Z9" s="236" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AA9" s="237" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -19666,7 +19672,7 @@
         <v>ㄌ</v>
       </c>
       <c r="W10" s="242" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="X10" s="222" t="s">
         <v>98</v>
@@ -19678,12 +19684,12 @@
         <v>170</v>
       </c>
       <c r="AA10" s="237" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="219" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E11" s="219">
         <v>9</v>
@@ -19725,7 +19731,7 @@
         <v>ㄍ</v>
       </c>
       <c r="W11" s="242" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="X11" s="222" t="s">
         <v>45</v>
@@ -19737,12 +19743,12 @@
         <v>46</v>
       </c>
       <c r="AA11" s="237" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="228" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B12" s="219">
         <f xml:space="preserve"> LEN(A12)</f>
@@ -19788,7 +19794,7 @@
         <v>ㄎ</v>
       </c>
       <c r="W12" s="242" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="X12" s="222" t="s">
         <v>73</v>
@@ -19800,12 +19806,12 @@
         <v>66</v>
       </c>
       <c r="AA12" s="237" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="271" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B13" s="219">
         <f xml:space="preserve"> LEN(A13)</f>
@@ -19851,7 +19857,7 @@
         <v>ㄏ</v>
       </c>
       <c r="W13" s="242" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="X13" s="222" t="s">
         <v>100</v>
@@ -19863,7 +19869,7 @@
         <v>101</v>
       </c>
       <c r="AA13" s="237" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -19907,19 +19913,19 @@
         <v>ㄐ</v>
       </c>
       <c r="W14" s="242" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="X14" s="222" t="s">
         <v>47</v>
       </c>
       <c r="Y14" s="235" t="s">
+        <v>757</v>
+      </c>
+      <c r="Z14" s="236" t="s">
         <v>758</v>
       </c>
-      <c r="Z14" s="236" t="s">
+      <c r="AA14" s="237" t="s">
         <v>759</v>
-      </c>
-      <c r="AA14" s="237" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -19963,19 +19969,19 @@
         <v>ㄑ</v>
       </c>
       <c r="W15" s="242" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="X15" s="222" t="s">
         <v>75</v>
       </c>
       <c r="Y15" s="235" t="s">
+        <v>761</v>
+      </c>
+      <c r="Z15" s="236" t="s">
         <v>762</v>
       </c>
-      <c r="Z15" s="236" t="s">
+      <c r="AA15" s="237" t="s">
         <v>763</v>
-      </c>
-      <c r="AA15" s="237" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -20019,19 +20025,19 @@
         <v>ㄒ</v>
       </c>
       <c r="W16" s="242" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="X16" s="222" t="s">
         <v>102</v>
       </c>
       <c r="Y16" s="235" t="s">
+        <v>765</v>
+      </c>
+      <c r="Z16" s="236" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA16" s="237" t="s">
         <v>766</v>
-      </c>
-      <c r="Z16" s="236" t="s">
-        <v>766</v>
-      </c>
-      <c r="AA16" s="237" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="17" spans="5:27">
@@ -20075,7 +20081,7 @@
         <v>ㆣ</v>
       </c>
       <c r="W17" s="247" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="X17" s="222" t="s">
         <v>48</v>
@@ -20087,7 +20093,7 @@
         <v>49</v>
       </c>
       <c r="AA17" s="237" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="5:27">
@@ -20131,7 +20137,7 @@
         <v>ㄫ</v>
       </c>
       <c r="W18" s="247" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="X18" s="222" t="s">
         <v>76</v>
@@ -20140,10 +20146,10 @@
         <v>77</v>
       </c>
       <c r="Z18" s="236" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AA18" s="237" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="5:27">
@@ -20187,7 +20193,7 @@
         <v>ㆡ</v>
       </c>
       <c r="W19" s="247" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X19" s="222" t="s">
         <v>111</v>
@@ -20196,10 +20202,10 @@
         <v>323</v>
       </c>
       <c r="Z19" s="236" t="s">
+        <v>771</v>
+      </c>
+      <c r="AA19" s="237" t="s">
         <v>772</v>
-      </c>
-      <c r="AA19" s="237" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="20" spans="5:27">
@@ -20243,7 +20249,7 @@
         <v>ㄗ</v>
       </c>
       <c r="W20" s="247" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="X20" s="222" t="s">
         <v>112</v>
@@ -20255,7 +20261,7 @@
         <v>172</v>
       </c>
       <c r="AA20" s="237" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="5:27">
@@ -20299,19 +20305,19 @@
         <v>ㄘ</v>
       </c>
       <c r="W21" s="242" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="X21" s="222" t="s">
         <v>50</v>
       </c>
       <c r="Y21" s="235" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="Z21" s="236" t="s">
         <v>173</v>
       </c>
       <c r="AA21" s="237" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="5:27">
@@ -20355,19 +20361,19 @@
         <v>ㄙ</v>
       </c>
       <c r="W22" s="242" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="X22" s="222" t="s">
         <v>78</v>
       </c>
       <c r="Y22" s="235" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Z22" s="236" t="s">
         <v>88</v>
       </c>
       <c r="AA22" s="237" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="5:27">
@@ -20411,7 +20417,7 @@
         <v>ㄧ</v>
       </c>
       <c r="W23" s="242" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="X23" s="222" t="s">
         <v>104</v>
@@ -20423,7 +20429,7 @@
         <v>105</v>
       </c>
       <c r="AA23" s="237" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="5:27">
@@ -20467,7 +20473,7 @@
         <v>ㄨ</v>
       </c>
       <c r="W24" s="242" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="X24" s="222" t="s">
         <v>52</v>
@@ -20479,7 +20485,7 @@
         <v>53</v>
       </c>
       <c r="AA24" s="268" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="5:27">
@@ -20523,7 +20529,7 @@
         <v>ㆬ</v>
       </c>
       <c r="W25" s="242" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="X25" s="222" t="s">
         <v>80</v>
@@ -20535,7 +20541,7 @@
         <v>81</v>
       </c>
       <c r="AA25" s="268" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="5:27">
@@ -20579,7 +20585,7 @@
         <v>ㄚ</v>
       </c>
       <c r="W26" s="242" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="X26" s="222" t="s">
         <v>106</v>
@@ -20591,7 +20597,7 @@
         <v>90</v>
       </c>
       <c r="AA26" s="268" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="5:27">
@@ -20647,7 +20653,7 @@
         <v>25</v>
       </c>
       <c r="AA27" s="268" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="5:27">
@@ -20659,7 +20665,7 @@
         <v>o</v>
       </c>
       <c r="G28" s="264" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H28" s="264" t="s">
         <v>46</v>
@@ -20691,7 +20697,7 @@
         <v>ㄜ</v>
       </c>
       <c r="W28" s="242" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="X28" s="222" t="s">
         <v>54</v>
@@ -20703,7 +20709,7 @@
         <v>83</v>
       </c>
       <c r="AA28" s="268" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="5:27">
@@ -20737,7 +20743,7 @@
         <v>ㆰ</v>
       </c>
       <c r="W29" s="242" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="X29" s="222" t="s">
         <v>82</v>
@@ -20746,10 +20752,10 @@
         <v>83</v>
       </c>
       <c r="Z29" s="267" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AA29" s="268" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="5:27">
@@ -20789,13 +20795,13 @@
         <v>26</v>
       </c>
       <c r="Y30" s="266" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="Z30" s="267" t="s">
         <v>35</v>
       </c>
       <c r="AA30" s="268" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="5:27">
@@ -20829,7 +20835,7 @@
         <v>ㆤ</v>
       </c>
       <c r="W31" s="242" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="X31" s="222" t="s">
         <v>56</v>
@@ -20841,7 +20847,7 @@
         <v>57</v>
       </c>
       <c r="AA31" s="268" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="5:27">
@@ -20875,19 +20881,19 @@
         <v>ㄠ</v>
       </c>
       <c r="W32" s="247" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="X32" s="222" t="s">
         <v>84</v>
       </c>
       <c r="Y32" s="266" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Z32" s="267" t="s">
         <v>34</v>
       </c>
       <c r="AA32" s="268" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="33" spans="5:27">
@@ -20902,7 +20908,7 @@
         <v>33</v>
       </c>
       <c r="H33" s="264" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I33" s="265" t="str">
         <f t="shared" si="1"/>
@@ -20921,19 +20927,19 @@
         <v>ㆲ</v>
       </c>
       <c r="W33" s="269" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="X33" s="222" t="s">
         <v>107</v>
       </c>
       <c r="Y33" s="266" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Z33" s="267" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AA33" s="268" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="34" spans="5:27">
@@ -20973,13 +20979,13 @@
         <v>27</v>
       </c>
       <c r="Y34" s="266" t="s">
+        <v>662</v>
+      </c>
+      <c r="Z34" s="267" t="s">
         <v>663</v>
       </c>
-      <c r="Z34" s="267" t="s">
-        <v>664</v>
-      </c>
       <c r="AA34" s="268" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="35" spans="5:27">
@@ -21013,7 +21019,7 @@
         <v>ㄣ</v>
       </c>
       <c r="W35" s="242" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="X35" s="222" t="s">
         <v>58</v>
@@ -21025,7 +21031,7 @@
         <v>61</v>
       </c>
       <c r="AA35" s="268" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="5:27">
@@ -21059,19 +21065,19 @@
         <v>ㄤ</v>
       </c>
       <c r="W36" s="242" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="X36" s="222" t="s">
         <v>85</v>
       </c>
       <c r="Y36" s="266" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Z36" s="267" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AA36" s="268" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="37" spans="5:27">
@@ -21105,7 +21111,7 @@
         <v>ㆭ</v>
       </c>
       <c r="W37" s="269" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="X37" s="222" t="s">
         <v>121</v>
@@ -21114,10 +21120,10 @@
         <v>329</v>
       </c>
       <c r="Z37" s="267" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AA37" s="268" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="38" spans="5:27">
@@ -21151,7 +21157,7 @@
         <v>ｎ</v>
       </c>
       <c r="W38" s="269" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="X38" s="222" t="s">
         <v>108</v>
@@ -21163,7 +21169,7 @@
         <v>63</v>
       </c>
       <c r="AA38" s="268" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="5:27">
@@ -21197,19 +21203,19 @@
         <v>ˋ</v>
       </c>
       <c r="W39" s="247" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="X39" s="222" t="s">
         <v>119</v>
       </c>
       <c r="Y39" s="266" t="s">
+        <v>650</v>
+      </c>
+      <c r="Z39" s="267" t="s">
         <v>651</v>
       </c>
-      <c r="Z39" s="267" t="s">
-        <v>652</v>
-      </c>
       <c r="AA39" s="268" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="40" spans="5:27">
@@ -21243,19 +21249,19 @@
         <v>˪</v>
       </c>
       <c r="W40" s="242" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="X40" s="222" t="s">
         <v>120</v>
       </c>
       <c r="Y40" s="266" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Z40" s="267" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AA40" s="268" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="41" spans="5:27">
@@ -21296,10 +21302,10 @@
         <v>324</v>
       </c>
       <c r="Z41" s="267" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AA41" s="268" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="5:27">
@@ -21340,10 +21346,10 @@
         <v>327</v>
       </c>
       <c r="Z42" s="267" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AA42" s="268" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="5:27">
@@ -21384,10 +21390,10 @@
         <v>328</v>
       </c>
       <c r="Z43" s="267" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AA43" s="268" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="5:27">
@@ -21418,10 +21424,10 @@
         <v>326</v>
       </c>
       <c r="Z44" s="267" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AA44" s="268" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="5:27">
@@ -21435,10 +21441,10 @@
         <v>325</v>
       </c>
       <c r="Z45" s="267" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA45" s="268" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="5:27">
@@ -21447,13 +21453,13 @@
         <v>117</v>
       </c>
       <c r="Y46" s="266" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="Z46" s="267" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AA46" s="268" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="47" spans="5:27">
@@ -21462,13 +21468,13 @@
         <v>118</v>
       </c>
       <c r="Y47" s="266" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Z47" s="267" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AA47" s="268" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -21499,7 +21505,7 @@
         <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D2" t="s">
         <v>53</v>
@@ -21517,29 +21523,29 @@
         <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K2" s="205" t="s">
         <v>122</v>
       </c>
       <c r="L2" s="205"/>
       <c r="M2" s="205" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N2" s="206" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="O2" s="205" t="s">
         <v>327</v>
       </c>
       <c r="P2" s="205" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q2" s="205" t="s">
         <v>558</v>
       </c>
-      <c r="Q2" s="205" t="s">
+      <c r="R2" s="205" t="s">
         <v>559</v>
-      </c>
-      <c r="R2" s="205" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="3" spans="2:18">
@@ -21547,7 +21553,7 @@
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D3" t="s">
         <v>81</v>
@@ -21565,17 +21571,17 @@
         <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K3" s="205" t="s">
         <v>123</v>
       </c>
       <c r="L3" s="205"/>
       <c r="M3" s="205" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N3" s="206" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O3" s="205"/>
       <c r="P3" s="205"/>
@@ -21587,7 +21593,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -21605,42 +21611,42 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K4" s="205" t="s">
         <v>113</v>
       </c>
       <c r="L4" s="205" t="s">
+        <v>561</v>
+      </c>
+      <c r="M4" s="205" t="s">
         <v>562</v>
       </c>
-      <c r="M4" s="205" t="s">
-        <v>563</v>
-      </c>
       <c r="N4" s="206" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="O4" s="205" t="s">
         <v>324</v>
       </c>
       <c r="P4" s="205" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q4" s="205" t="s">
         <v>564</v>
       </c>
-      <c r="Q4" s="205" t="s">
+      <c r="R4" s="205" t="s">
         <v>565</v>
-      </c>
-      <c r="R4" s="205" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C5" t="s">
         <v>488</v>
       </c>
-      <c r="C5" t="s">
-        <v>489</v>
-      </c>
       <c r="D5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
@@ -21649,37 +21655,37 @@
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H5" t="s">
         <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K5" s="205" t="s">
         <v>114</v>
       </c>
       <c r="L5" s="205" t="s">
+        <v>566</v>
+      </c>
+      <c r="M5" s="205" t="s">
         <v>567</v>
       </c>
-      <c r="M5" s="205" t="s">
-        <v>568</v>
-      </c>
       <c r="N5" s="206" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="O5" s="205" t="s">
         <v>325</v>
       </c>
       <c r="P5" s="205" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q5" s="205" t="s">
         <v>569</v>
       </c>
-      <c r="Q5" s="205" t="s">
+      <c r="R5" s="205" t="s">
         <v>570</v>
-      </c>
-      <c r="R5" s="205" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -21687,10 +21693,10 @@
         <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E6" t="s">
         <v>83</v>
@@ -21705,39 +21711,39 @@
         <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K6" s="205" t="s">
         <v>116</v>
       </c>
       <c r="L6" s="205" t="s">
+        <v>571</v>
+      </c>
+      <c r="M6" s="205" t="s">
         <v>572</v>
       </c>
-      <c r="M6" s="205" t="s">
-        <v>573</v>
-      </c>
       <c r="N6" s="206" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="O6" s="205" t="s">
         <v>326</v>
       </c>
       <c r="P6" s="205" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q6" s="205" t="s">
         <v>574</v>
       </c>
-      <c r="Q6" s="205" t="s">
+      <c r="R6" s="205" t="s">
         <v>575</v>
-      </c>
-      <c r="R6" s="205" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" t="s">
+        <v>487</v>
+      </c>
+      <c r="C7" t="s">
         <v>488</v>
-      </c>
-      <c r="C7" t="s">
-        <v>489</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
@@ -21755,29 +21761,29 @@
         <v>57</v>
       </c>
       <c r="I7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K7" s="205" t="s">
         <v>117</v>
       </c>
       <c r="L7" s="205"/>
       <c r="M7" s="205" t="s">
+        <v>576</v>
+      </c>
+      <c r="N7" s="206" t="s">
         <v>577</v>
       </c>
-      <c r="N7" s="206" t="s">
+      <c r="O7" s="205" t="s">
         <v>578</v>
       </c>
-      <c r="O7" s="205" t="s">
+      <c r="P7" s="205" t="s">
         <v>579</v>
       </c>
-      <c r="P7" s="205" t="s">
+      <c r="Q7" s="205" t="s">
         <v>580</v>
       </c>
-      <c r="Q7" s="205" t="s">
+      <c r="R7" s="205" t="s">
         <v>581</v>
-      </c>
-      <c r="R7" s="205" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -21785,49 +21791,49 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D8" t="s">
         <v>495</v>
-      </c>
-      <c r="D8" t="s">
-        <v>496</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
+        <v>495</v>
+      </c>
+      <c r="G8" t="s">
+        <v>495</v>
+      </c>
+      <c r="H8" t="s">
+        <v>495</v>
+      </c>
+      <c r="I8" t="s">
         <v>496</v>
-      </c>
-      <c r="G8" t="s">
-        <v>496</v>
-      </c>
-      <c r="H8" t="s">
-        <v>496</v>
-      </c>
-      <c r="I8" t="s">
-        <v>497</v>
       </c>
       <c r="K8" s="205" t="s">
         <v>118</v>
       </c>
       <c r="L8" s="205" t="s">
+        <v>582</v>
+      </c>
+      <c r="M8" s="205" t="s">
         <v>583</v>
       </c>
-      <c r="M8" s="205" t="s">
+      <c r="N8" s="206" t="s">
         <v>584</v>
       </c>
-      <c r="N8" s="206" t="s">
+      <c r="O8" s="205" t="s">
         <v>585</v>
       </c>
-      <c r="O8" s="205" t="s">
+      <c r="P8" s="205" t="s">
         <v>586</v>
       </c>
-      <c r="P8" s="205" t="s">
+      <c r="Q8" s="205" t="s">
         <v>587</v>
       </c>
-      <c r="Q8" s="205" t="s">
+      <c r="R8" s="205" t="s">
         <v>588</v>
-      </c>
-      <c r="R8" s="205" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -21835,409 +21841,409 @@
         <v>84</v>
       </c>
       <c r="C9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D9" t="s">
         <v>498</v>
-      </c>
-      <c r="D9" t="s">
-        <v>499</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9" t="s">
+        <v>498</v>
+      </c>
+      <c r="G9" t="s">
+        <v>498</v>
+      </c>
+      <c r="H9" t="s">
+        <v>498</v>
+      </c>
+      <c r="I9" t="s">
         <v>499</v>
       </c>
-      <c r="G9" t="s">
-        <v>499</v>
-      </c>
-      <c r="H9" t="s">
-        <v>499</v>
-      </c>
-      <c r="I9" t="s">
-        <v>500</v>
-      </c>
       <c r="K9" s="205" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L9" s="205"/>
       <c r="M9" s="205" t="s">
+        <v>590</v>
+      </c>
+      <c r="N9" s="206" t="s">
         <v>591</v>
       </c>
-      <c r="N9" s="206" t="s">
+      <c r="O9" s="205" t="s">
         <v>592</v>
       </c>
-      <c r="O9" s="205" t="s">
+      <c r="P9" s="205" t="s">
         <v>593</v>
       </c>
-      <c r="P9" s="205" t="s">
+      <c r="Q9" s="205" t="s">
         <v>594</v>
       </c>
-      <c r="Q9" s="205" t="s">
+      <c r="R9" s="205" t="s">
         <v>595</v>
-      </c>
-      <c r="R9" s="205" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" t="s">
         <v>501</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>502</v>
       </c>
-      <c r="D10" t="s">
-        <v>503</v>
-      </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I10" t="s">
         <v>47</v>
       </c>
       <c r="K10" s="205" t="s">
+        <v>596</v>
+      </c>
+      <c r="L10" s="205" t="s">
         <v>597</v>
       </c>
-      <c r="L10" s="205" t="s">
+      <c r="M10" s="205" t="s">
         <v>598</v>
       </c>
-      <c r="M10" s="205" t="s">
+      <c r="N10" s="206" t="s">
         <v>599</v>
       </c>
-      <c r="N10" s="206" t="s">
+      <c r="O10" s="205" t="s">
         <v>600</v>
       </c>
-      <c r="O10" s="205" t="s">
+      <c r="P10" s="205" t="s">
         <v>601</v>
       </c>
-      <c r="P10" s="205" t="s">
+      <c r="Q10" s="205" t="s">
         <v>602</v>
       </c>
-      <c r="Q10" s="205" t="s">
+      <c r="R10" s="205" t="s">
         <v>603</v>
-      </c>
-      <c r="R10" s="205" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C11" t="s">
         <v>504</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>505</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>505</v>
+      </c>
+      <c r="F11" t="s">
+        <v>505</v>
+      </c>
+      <c r="G11" t="s">
+        <v>505</v>
+      </c>
+      <c r="H11" t="s">
+        <v>505</v>
+      </c>
+      <c r="I11" t="s">
         <v>506</v>
       </c>
-      <c r="E11" t="s">
-        <v>506</v>
-      </c>
-      <c r="F11" t="s">
-        <v>506</v>
-      </c>
-      <c r="G11" t="s">
-        <v>506</v>
-      </c>
-      <c r="H11" t="s">
-        <v>506</v>
-      </c>
-      <c r="I11" t="s">
-        <v>507</v>
-      </c>
       <c r="K11" s="205" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L11" s="205"/>
       <c r="M11" s="205" t="s">
+        <v>605</v>
+      </c>
+      <c r="N11" s="206" t="s">
         <v>606</v>
       </c>
-      <c r="N11" s="206" t="s">
+      <c r="O11" s="205" t="s">
         <v>607</v>
       </c>
-      <c r="O11" s="205" t="s">
+      <c r="P11" s="205" t="s">
         <v>608</v>
       </c>
-      <c r="P11" s="205" t="s">
+      <c r="Q11" s="205" t="s">
         <v>609</v>
-      </c>
-      <c r="Q11" s="205" t="s">
-        <v>610</v>
       </c>
       <c r="R11" s="205"/>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12" t="s">
         <v>508</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>509</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>510</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>510</v>
+      </c>
+      <c r="G12" t="s">
+        <v>510</v>
+      </c>
+      <c r="H12" t="s">
+        <v>510</v>
+      </c>
+      <c r="I12" t="s">
         <v>511</v>
       </c>
-      <c r="F12" t="s">
-        <v>511</v>
-      </c>
-      <c r="G12" t="s">
-        <v>511</v>
-      </c>
-      <c r="H12" t="s">
-        <v>511</v>
-      </c>
-      <c r="I12" t="s">
-        <v>512</v>
-      </c>
       <c r="K12" s="205" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L12" s="205"/>
       <c r="M12" s="205" t="s">
+        <v>611</v>
+      </c>
+      <c r="N12" s="206" t="s">
         <v>612</v>
       </c>
-      <c r="N12" s="206" t="s">
+      <c r="O12" s="205" t="s">
         <v>613</v>
       </c>
-      <c r="O12" s="205" t="s">
+      <c r="P12" s="205" t="s">
         <v>614</v>
       </c>
-      <c r="P12" s="205" t="s">
+      <c r="Q12" s="205" t="s">
         <v>615</v>
       </c>
-      <c r="Q12" s="205" t="s">
+      <c r="R12" s="205" t="s">
         <v>616</v>
-      </c>
-      <c r="R12" s="205" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" t="s">
         <v>513</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>514</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>515</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>514</v>
+      </c>
+      <c r="G13" t="s">
+        <v>514</v>
+      </c>
+      <c r="H13" t="s">
+        <v>514</v>
+      </c>
+      <c r="I13" t="s">
         <v>516</v>
       </c>
-      <c r="F13" t="s">
-        <v>515</v>
-      </c>
-      <c r="G13" t="s">
-        <v>515</v>
-      </c>
-      <c r="H13" t="s">
-        <v>515</v>
-      </c>
-      <c r="I13" t="s">
-        <v>517</v>
-      </c>
       <c r="K13" s="205" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="L13" s="205"/>
       <c r="M13" s="205" t="s">
+        <v>618</v>
+      </c>
+      <c r="N13" s="206" t="s">
         <v>619</v>
       </c>
-      <c r="N13" s="206" t="s">
+      <c r="O13" s="205" t="s">
         <v>620</v>
       </c>
-      <c r="O13" s="205" t="s">
+      <c r="P13" s="205" t="s">
         <v>621</v>
       </c>
-      <c r="P13" s="205" t="s">
+      <c r="Q13" s="205" t="s">
         <v>622</v>
       </c>
-      <c r="Q13" s="205" t="s">
+      <c r="R13" s="205" t="s">
         <v>623</v>
-      </c>
-      <c r="R13" s="205" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" t="s">
+        <v>517</v>
+      </c>
+      <c r="C14" t="s">
         <v>518</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>519</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>519</v>
+      </c>
+      <c r="F14" t="s">
+        <v>519</v>
+      </c>
+      <c r="G14" t="s">
+        <v>519</v>
+      </c>
+      <c r="H14" t="s">
+        <v>519</v>
+      </c>
+      <c r="I14" t="s">
         <v>520</v>
       </c>
-      <c r="E14" t="s">
-        <v>520</v>
-      </c>
-      <c r="F14" t="s">
-        <v>520</v>
-      </c>
-      <c r="G14" t="s">
-        <v>520</v>
-      </c>
-      <c r="H14" t="s">
-        <v>520</v>
-      </c>
-      <c r="I14" t="s">
-        <v>521</v>
-      </c>
       <c r="K14" s="205" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="L14" s="205"/>
       <c r="M14" s="205" t="s">
+        <v>625</v>
+      </c>
+      <c r="N14" s="206" t="s">
         <v>626</v>
       </c>
-      <c r="N14" s="206" t="s">
+      <c r="O14" s="205" t="s">
         <v>627</v>
       </c>
-      <c r="O14" s="205" t="s">
+      <c r="P14" s="205" t="s">
         <v>628</v>
       </c>
-      <c r="P14" s="205" t="s">
+      <c r="Q14" s="205" t="s">
         <v>629</v>
       </c>
-      <c r="Q14" s="205" t="s">
+      <c r="R14" s="205" t="s">
         <v>630</v>
-      </c>
-      <c r="R14" s="205" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C15" t="s">
         <v>522</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>523</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>523</v>
+      </c>
+      <c r="F15" t="s">
+        <v>523</v>
+      </c>
+      <c r="G15" t="s">
         <v>524</v>
       </c>
-      <c r="E15" t="s">
-        <v>524</v>
-      </c>
-      <c r="F15" t="s">
-        <v>524</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>523</v>
+      </c>
+      <c r="I15" t="s">
         <v>525</v>
       </c>
-      <c r="H15" t="s">
-        <v>524</v>
-      </c>
-      <c r="I15" t="s">
-        <v>526</v>
-      </c>
       <c r="K15" s="205" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L15" s="205"/>
       <c r="M15" s="205" t="s">
+        <v>632</v>
+      </c>
+      <c r="N15" s="206" t="s">
         <v>633</v>
       </c>
-      <c r="N15" s="206" t="s">
+      <c r="O15" s="205" t="s">
         <v>634</v>
       </c>
-      <c r="O15" s="205" t="s">
+      <c r="P15" s="205" t="s">
         <v>635</v>
       </c>
-      <c r="P15" s="205" t="s">
+      <c r="Q15" s="205" t="s">
         <v>636</v>
-      </c>
-      <c r="Q15" s="205" t="s">
-        <v>637</v>
       </c>
       <c r="R15" s="205"/>
     </row>
     <row r="16" spans="2:18" ht="34.5">
       <c r="B16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C16" t="s">
+        <v>526</v>
+      </c>
+      <c r="D16" t="s">
         <v>527</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>527</v>
+      </c>
+      <c r="F16" t="s">
+        <v>527</v>
+      </c>
+      <c r="G16" t="s">
         <v>528</v>
       </c>
-      <c r="E16" t="s">
-        <v>528</v>
-      </c>
-      <c r="F16" t="s">
-        <v>528</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>527</v>
+      </c>
+      <c r="I16" t="s">
         <v>529</v>
       </c>
-      <c r="H16" t="s">
-        <v>528</v>
-      </c>
-      <c r="I16" t="s">
-        <v>530</v>
-      </c>
       <c r="K16" s="205" t="s">
+        <v>637</v>
+      </c>
+      <c r="L16" s="205" t="s">
         <v>638</v>
       </c>
-      <c r="L16" s="205" t="s">
+      <c r="M16" s="205" t="s">
         <v>639</v>
       </c>
-      <c r="M16" s="205" t="s">
+      <c r="N16" s="206" t="s">
         <v>640</v>
       </c>
-      <c r="N16" s="206" t="s">
+      <c r="O16" s="205" t="s">
         <v>641</v>
       </c>
-      <c r="O16" s="205" t="s">
+      <c r="P16" s="205" t="s">
         <v>642</v>
       </c>
-      <c r="P16" s="205" t="s">
+      <c r="Q16" s="205" t="s">
         <v>643</v>
       </c>
-      <c r="Q16" s="205" t="s">
+      <c r="R16" s="205" t="s">
         <v>644</v>
-      </c>
-      <c r="R16" s="205" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
+        <v>530</v>
+      </c>
+      <c r="C17" t="s">
         <v>531</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>532</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>533</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>532</v>
+      </c>
+      <c r="G17" t="s">
         <v>534</v>
       </c>
-      <c r="F17" t="s">
-        <v>533</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>532</v>
+      </c>
+      <c r="I17" t="s">
         <v>535</v>
-      </c>
-      <c r="H17" t="s">
-        <v>533</v>
-      </c>
-      <c r="I17" t="s">
-        <v>536</v>
       </c>
     </row>
   </sheetData>

--- a/docs/輸入法鍵盤設計表_河洛注音.xlsx
+++ b/docs/輸入法鍵盤設計表_河洛注音.xlsx
@@ -8,45 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27F7097-8EC4-48D1-9E32-44605ED67EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC07D83-FB81-497C-99A7-D21E7915FEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{28F1D67D-D646-F742-8C6B-20DFC10DC14C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{28F1D67D-D646-F742-8C6B-20DFC10DC14C}"/>
   </bookViews>
   <sheets>
     <sheet name="RIME對映編碼 (注音符號)" sheetId="10" r:id="rId1"/>
     <sheet name="RIME對映編碼 (台語方音)" sheetId="11" r:id="rId2"/>
-    <sheet name="鍵盤圖" sheetId="6" r:id="rId3"/>
-    <sheet name="RIME對映編碼" sheetId="2" r:id="rId4"/>
-    <sheet name="編碼設計" sheetId="3" r:id="rId5"/>
-    <sheet name="編碼設計 (原設計)" sheetId="7" r:id="rId6"/>
-    <sheet name="RIME對映編碼 (原設計)" sheetId="9" r:id="rId7"/>
-    <sheet name="工作表2" sheetId="8" r:id="rId8"/>
-    <sheet name="RIME指令 (與漢字拼音相容版)" sheetId="5" r:id="rId9"/>
-    <sheet name="聲母發音表" sheetId="4" r:id="rId10"/>
+    <sheet name="RIME對映編碼 (注音符號V2)" sheetId="12" r:id="rId3"/>
+    <sheet name="鍵盤圖" sheetId="6" r:id="rId4"/>
+    <sheet name="RIME對映編碼" sheetId="2" r:id="rId5"/>
+    <sheet name="編碼設計" sheetId="3" r:id="rId6"/>
+    <sheet name="編碼設計 (原設計)" sheetId="7" r:id="rId7"/>
+    <sheet name="RIME對映編碼 (原設計)" sheetId="9" r:id="rId8"/>
+    <sheet name="工作表2" sheetId="8" r:id="rId9"/>
+    <sheet name="RIME指令 (與漢字拼音相容版)" sheetId="5" r:id="rId10"/>
+    <sheet name="聲母發音表" sheetId="4" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="方音符號" localSheetId="1">'RIME對映編碼 (台語方音)'!$T$3:$T$44</definedName>
     <definedName name="方音符號" localSheetId="0">'RIME對映編碼 (注音符號)'!$T$3:$T$44</definedName>
-    <definedName name="方音符號" localSheetId="6">'RIME對映編碼 (原設計)'!$X$3:$X$47</definedName>
+    <definedName name="方音符號" localSheetId="2">'RIME對映編碼 (注音符號V2)'!$T$3:$T$44</definedName>
+    <definedName name="方音符號" localSheetId="7">'RIME對映編碼 (原設計)'!$X$3:$X$47</definedName>
     <definedName name="方音符號">[1]RIME編碼!$AA$3:$AA$45</definedName>
     <definedName name="字典編碼">[1]RIME編碼!$AB$3:$AB$45</definedName>
     <definedName name="拼音字母" localSheetId="1">'RIME對映編碼 (台語方音)'!#REF!</definedName>
     <definedName name="拼音字母" localSheetId="0">'RIME對映編碼 (注音符號)'!#REF!</definedName>
-    <definedName name="拼音字母" localSheetId="6">'RIME對映編碼 (原設計)'!$Y$3:$Y$47</definedName>
+    <definedName name="拼音字母" localSheetId="2">'RIME對映編碼 (注音符號V2)'!#REF!</definedName>
+    <definedName name="拼音字母" localSheetId="7">'RIME對映編碼 (原設計)'!$Y$3:$Y$47</definedName>
     <definedName name="拼音字母">[1]RIME編碼!$AC$3:$AC$45</definedName>
     <definedName name="按鍵編碼" localSheetId="1">'RIME對映編碼 (台語方音)'!$S$3:$S$44</definedName>
     <definedName name="按鍵編碼" localSheetId="0">'RIME對映編碼 (注音符號)'!$S$3:$S$44</definedName>
-    <definedName name="按鍵編碼" localSheetId="6">'RIME對映編碼 (原設計)'!$Z$3:$Z$47</definedName>
+    <definedName name="按鍵編碼" localSheetId="2">'RIME對映編碼 (注音符號V2)'!$S$3:$S$44</definedName>
+    <definedName name="按鍵編碼" localSheetId="7">'RIME對映編碼 (原設計)'!$Z$3:$Z$47</definedName>
     <definedName name="國際音標" localSheetId="1">'RIME對映編碼 (台語方音)'!#REF!</definedName>
     <definedName name="國際音標" localSheetId="0">'RIME對映編碼 (注音符號)'!#REF!</definedName>
-    <definedName name="國際音標" localSheetId="6">'RIME對映編碼 (原設計)'!$AA$3:$AA$47</definedName>
+    <definedName name="國際音標" localSheetId="2">'RIME對映編碼 (注音符號V2)'!#REF!</definedName>
+    <definedName name="國際音標" localSheetId="7">'RIME對映編碼 (原設計)'!$AA$3:$AA$47</definedName>
     <definedName name="鍵盤位置" localSheetId="1">'RIME對映編碼 (台語方音)'!$R$3:$R$44</definedName>
     <definedName name="鍵盤位置" localSheetId="0">'RIME對映編碼 (注音符號)'!$R$3:$R$44</definedName>
-    <definedName name="鍵盤位置" localSheetId="6">'RIME對映編碼 (原設計)'!$W$3:$W$47</definedName>
+    <definedName name="鍵盤位置" localSheetId="2">'RIME對映編碼 (注音符號V2)'!$R$3:$R$44</definedName>
+    <definedName name="鍵盤位置" localSheetId="7">'RIME對映編碼 (原設計)'!$W$3:$W$47</definedName>
     <definedName name="鍵盤位置">[1]RIME編碼!$W$3:$W$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -92,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="825">
   <si>
     <t>1 !</t>
   </si>
@@ -3312,6 +3318,29 @@
   <si>
     <t>鍵盤按鍵</t>
   </si>
+  <si>
+    <t>ㄞ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>speller</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>preedit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>- xlit|pPbtTdkKgcCzshiuaoøeIUBDGN|ㄅㄆㆠㄉㄊㄌㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆦㄜㆤㄞㄠㆬㄣㆭｎ|</t>
+  </si>
+  <si>
+    <t>ㆻ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3322,7 +3351,7 @@
     <numFmt numFmtId="177" formatCode="&quot;/ &quot;@&quot; /&quot;"/>
     <numFmt numFmtId="178" formatCode="General;;"/>
   </numFmts>
-  <fonts count="155">
+  <fonts count="160">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -4328,6 +4357,41 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Serif TC SemiBold"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Iansui 094"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -4487,7 +4551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -4785,6 +4849,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4795,7 +4872,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="124" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="378">
+  <cellXfs count="390">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5868,6 +5945,32 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="25" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="25" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="25" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="26" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{B91D425B-26B7-5B46-882C-36B2847BF71B}"/>
@@ -5876,7 +5979,87 @@
     <cellStyle name="一般 3" xfId="3" xr:uid="{FDF1285A-79B2-4316-AEDD-24C4B8A9348F}"/>
     <cellStyle name="一般 4" xfId="4" xr:uid="{EEC31A27-66EA-4D5E-A3E5-D3011515E366}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Iansui 094"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <name val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6175,6 +6358,138 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228D0B10-42EF-CDBB-3E4B-3886E9125DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="30403800" y="742950"/>
+          <a:ext cx="13173075" cy="5791200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B8A19E9-7F95-445B-9696-052B870CCDAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="30403800" y="742950"/>
+          <a:ext cx="13173075" cy="5791200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
@@ -6412,7 +6727,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6533,7 +6848,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7990,15 +8305,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D158DAF-25D4-4568-A508-EE11C04B2A42}" name="表格1_33" displayName="表格1_33" ref="R2:T44" totalsRowShown="0" headerRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D158DAF-25D4-4568-A508-EE11C04B2A42}" name="表格1_33" displayName="表格1_33" ref="R2:T44" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
     <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B73500C-76A1-44B0-B58B-77DFAEAD05BE}" name="鍵盤位置" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{64D6493B-BE28-4D5C-8028-F0E91296CD5E}" name="字典編碼" dataDxfId="11" dataCellStyle="一般 4"/>
-    <tableColumn id="2" xr3:uid="{1165FEF4-C5CE-495D-B4D7-2C4D25F7136A}" name="方音符號" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{3B73500C-76A1-44B0-B58B-77DFAEAD05BE}" name="鍵盤位置" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{64D6493B-BE28-4D5C-8028-F0E91296CD5E}" name="字典編碼" dataDxfId="15" dataCellStyle="一般 4"/>
+    <tableColumn id="2" xr3:uid="{1165FEF4-C5CE-495D-B4D7-2C4D25F7136A}" name="方音符號" dataDxfId="14">
       <calculatedColumnFormula xml:space="preserve"> INDEX($K$3:$K$44, MATCH(表格1_33[[#This Row],[鍵盤位置]], $J$3:$J$44,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8007,19 +8322,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C959FCF-9C95-4231-83C0-482928301036}" name="表格1_334" displayName="表格1_334" ref="R2:T44" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C959FCF-9C95-4231-83C0-482928301036}" name="表格1_334" displayName="表格1_334" ref="R2:T44" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
     <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EA38850C-01C2-4304-8447-B29C26276ED8}" name="鍵盤按鍵" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{EA38850C-01C2-4304-8447-B29C26276ED8}" name="鍵盤按鍵" dataDxfId="12">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4ECEBB4D-55DC-4D4B-9996-AEA5734CF4E0}" name="字典編碼" dataDxfId="7" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{4ECEBB4D-55DC-4D4B-9996-AEA5734CF4E0}" name="字典編碼" dataDxfId="11" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DE6DDD52-3A19-4642-8167-79627FC56DE7}" name="方音符號" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{DE6DDD52-3A19-4642-8167-79627FC56DE7}" name="方音符號" dataDxfId="10">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8028,17 +8343,38 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28456E6C-4285-4B6F-9853-AAC05DB79DF7}" name="表格1_3" displayName="表格1_3" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0277D331-C73A-444C-956E-FEF9D2B9E58B}" name="表格1_3345" displayName="表格1_3345" ref="R2:T44" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
+    <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0CB4C971-45FE-4EF1-8E93-03D0BAFFA9AB}" name="鍵盤按鍵" dataDxfId="2">
+      <calculatedColumnFormula>G3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{730A345D-24E2-4C76-943A-E64802DD029D}" name="字典編碼" dataDxfId="1" dataCellStyle="一般 4">
+      <calculatedColumnFormula>F3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{4C3C4DD4-6C51-4A0A-99B3-DF9F0D69AF51}" name="方音符號" dataDxfId="0">
+      <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28456E6C-4285-4B6F-9853-AAC05DB79DF7}" name="表格1_3" displayName="表格1_3" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="W2:AA47" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W3:AA47">
     <sortCondition ref="W3:W47" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C7CC57E6-DD0D-4C69-8097-C90E6E1A0323}" name="鍵盤位置" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{63964A11-33C3-4775-A61B-A34CA9D7D33B}" name="方音符號" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{F5A33025-421F-49C0-AF9F-4A9A0D4562CC}" name="拼音字母" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{D331036C-A530-49C9-BE79-22670ABE9163}" name="按鍵編碼" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{3CD879B3-0434-4959-B532-198774D28491}" name="國際音標" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C7CC57E6-DD0D-4C69-8097-C90E6E1A0323}" name="鍵盤位置" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{63964A11-33C3-4775-A61B-A34CA9D7D33B}" name="方音符號" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F5A33025-421F-49C0-AF9F-4A9A0D4562CC}" name="拼音字母" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D331036C-A530-49C9-BE79-22670ABE9163}" name="按鍵編碼" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{3CD879B3-0434-4959-B532-198774D28491}" name="國際音標" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11108,6 +11444,2013 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A44C6B-5C2B-244E-B1C3-BDDB4706BDFC}">
+  <dimension ref="A1:AU39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="25.5"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="95" customWidth="1"/>
+    <col min="2" max="2" width="28.8984375" style="95" customWidth="1"/>
+    <col min="3" max="47" width="8.69921875" style="95" customWidth="1"/>
+    <col min="48" max="16384" width="10.8984375" style="95"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="355"/>
+      <c r="AR1" s="355"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97"/>
+      <c r="AU1" s="97"/>
+    </row>
+    <row r="2" spans="1:47" s="96" customFormat="1" ht="34.5">
+      <c r="B2" s="102" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" s="96" customFormat="1" ht="23.25">
+      <c r="B3" s="127" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="126" cm="1">
+        <f t="array" ref="C3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="126" cm="1">
+        <f t="array" ref="D3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="126" cm="1">
+        <f t="array" ref="E3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="126" cm="1">
+        <f t="array" ref="F3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="126" cm="1">
+        <f t="array" ref="G3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="126" cm="1">
+        <f t="array" ref="H3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="126" cm="1">
+        <f t="array" ref="I3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>7</v>
+      </c>
+      <c r="J3" s="126" cm="1">
+        <f t="array" ref="J3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>8</v>
+      </c>
+      <c r="K3" s="126" cm="1">
+        <f t="array" ref="K3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>9</v>
+      </c>
+      <c r="L3" s="126" cm="1">
+        <f t="array" ref="L3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>10</v>
+      </c>
+      <c r="M3" s="126" cm="1">
+        <f t="array" ref="M3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>11</v>
+      </c>
+      <c r="N3" s="126" cm="1">
+        <f t="array" ref="N3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>12</v>
+      </c>
+      <c r="O3" s="126" cm="1">
+        <f t="array" ref="O3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>13</v>
+      </c>
+      <c r="P3" s="126" cm="1">
+        <f t="array" ref="P3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>14</v>
+      </c>
+      <c r="Q3" s="126" cm="1">
+        <f t="array" ref="Q3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>15</v>
+      </c>
+      <c r="R3" s="126" cm="1">
+        <f t="array" ref="R3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>16</v>
+      </c>
+      <c r="S3" s="126" cm="1">
+        <f t="array" ref="S3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>17</v>
+      </c>
+      <c r="T3" s="126" cm="1">
+        <f t="array" ref="T3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>18</v>
+      </c>
+      <c r="U3" s="126" cm="1">
+        <f t="array" ref="U3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>19</v>
+      </c>
+      <c r="V3" s="126" cm="1">
+        <f t="array" ref="V3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>20</v>
+      </c>
+      <c r="W3" s="126" cm="1">
+        <f t="array" ref="W3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>21</v>
+      </c>
+      <c r="X3" s="126" cm="1">
+        <f t="array" ref="X3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>22</v>
+      </c>
+      <c r="Y3" s="126" cm="1">
+        <f t="array" ref="Y3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>23</v>
+      </c>
+      <c r="Z3" s="126" cm="1">
+        <f t="array" ref="Z3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>24</v>
+      </c>
+      <c r="AA3" s="126" cm="1">
+        <f t="array" ref="AA3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>25</v>
+      </c>
+      <c r="AB3" s="126" cm="1">
+        <f t="array" ref="AB3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>26</v>
+      </c>
+      <c r="AC3" s="126" cm="1">
+        <f t="array" ref="AC3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>27</v>
+      </c>
+      <c r="AD3" s="126" cm="1">
+        <f t="array" ref="AD3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>28</v>
+      </c>
+      <c r="AE3" s="126" cm="1">
+        <f t="array" ref="AE3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>29</v>
+      </c>
+      <c r="AF3" s="126" cm="1">
+        <f t="array" ref="AF3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>30</v>
+      </c>
+      <c r="AG3" s="126" cm="1">
+        <f t="array" ref="AG3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>31</v>
+      </c>
+      <c r="AH3" s="126" cm="1">
+        <f t="array" ref="AH3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>32</v>
+      </c>
+      <c r="AI3" s="126" cm="1">
+        <f t="array" ref="AI3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="126" cm="1">
+        <f t="array" ref="AJ3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>34</v>
+      </c>
+      <c r="AK3" s="126" cm="1">
+        <f t="array" ref="AK3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>35</v>
+      </c>
+      <c r="AL3" s="126" cm="1">
+        <f t="array" ref="AL3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>36</v>
+      </c>
+      <c r="AM3" s="126" cm="1">
+        <f t="array" ref="AM3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>37</v>
+      </c>
+      <c r="AN3" s="126" cm="1">
+        <f t="array" ref="AN3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>38</v>
+      </c>
+      <c r="AO3" s="126" cm="1">
+        <f t="array" ref="AO3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>39</v>
+      </c>
+      <c r="AP3" s="126" cm="1">
+        <f t="array" ref="AP3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>40</v>
+      </c>
+      <c r="AQ3" s="126" cm="1">
+        <f t="array" ref="AQ3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>41</v>
+      </c>
+      <c r="AR3" s="126" cm="1">
+        <f t="array" ref="AR3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>42</v>
+      </c>
+      <c r="AS3" s="126" cm="1">
+        <f t="array" ref="AS3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>43</v>
+      </c>
+      <c r="AT3" s="126" cm="1">
+        <f t="array" ref="AT3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>44</v>
+      </c>
+      <c r="AU3" s="126" cm="1">
+        <f t="array" ref="AU3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" s="96" customFormat="1" ht="32.25">
+      <c r="B4" s="125" t="str">
+        <f>'[2](5)鍵盤表'!B16</f>
+        <v>方音符號</v>
+      </c>
+      <c r="C4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!C16</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="D4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!D16</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="E4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!E16</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="F4" s="124" t="str">
+        <f>'[2](5)鍵盤表'!F16</f>
+        <v>ㆠ</v>
+      </c>
+      <c r="G4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!G16</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="H4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!H16</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="I4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!I16</f>
+        <v>ㄋ</v>
+      </c>
+      <c r="J4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!J16</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="K4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!K16</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="L4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!L16</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="M4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!M16</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="N4" s="124" t="str">
+        <f>'[2](5)鍵盤表'!N16</f>
+        <v>ㆣ</v>
+      </c>
+      <c r="O4" s="124" t="str">
+        <f>'[2](5)鍵盤表'!O16</f>
+        <v>ㄫ</v>
+      </c>
+      <c r="P4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!P16</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="Q4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!Q16</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="R4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!R16</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="S4" s="124" t="str">
+        <f>'[2](5)鍵盤表'!S16</f>
+        <v>ㆡ</v>
+      </c>
+      <c r="T4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!T16</f>
+        <v>ㄐ</v>
+      </c>
+      <c r="U4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!U16</f>
+        <v>ㄑ</v>
+      </c>
+      <c r="V4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!V16</f>
+        <v>ㄒ</v>
+      </c>
+      <c r="W4" s="124" t="str">
+        <f>'[2](5)鍵盤表'!W16</f>
+        <v>ㆢ</v>
+      </c>
+      <c r="X4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!X16</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="Y4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!Y16</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="Z4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!Z16</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="AA4" s="124" t="str">
+        <f>'[2](5)鍵盤表'!AA16</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="AB4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AB16</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="AC4" s="124" t="str">
+        <f>'[2](5)鍵盤表'!AC16</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="AD4" s="124" t="str">
+        <f>'[2](5)鍵盤表'!AD16</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="AE4" s="124" t="str">
+        <f>'[2](5)鍵盤表'!AE16</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="AF4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AF16</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="AG4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AG16</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="AH4" s="124" t="str">
+        <f>'[2](5)鍵盤表'!AH16</f>
+        <v>ㆰ</v>
+      </c>
+      <c r="AI4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AI16</f>
+        <v>ㆱ</v>
+      </c>
+      <c r="AJ4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AJ16</f>
+        <v>ㄢ</v>
+      </c>
+      <c r="AK4" s="124" t="str">
+        <f>'[2](5)鍵盤表'!AK16</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="AL4" s="124" t="str">
+        <f>'[2](5)鍵盤表'!AL16</f>
+        <v>ㄤ</v>
+      </c>
+      <c r="AM4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AM16</f>
+        <v>ㄥ</v>
+      </c>
+      <c r="AN4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AN16</f>
+        <v>ㆲ</v>
+      </c>
+      <c r="AO4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AO16</f>
+        <v>ｎ</v>
+      </c>
+      <c r="AP4" s="123">
+        <f>'[2](5)鍵盤表'!AP16</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AQ16</f>
+        <v>˪</v>
+      </c>
+      <c r="AR4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AR16</f>
+        <v>ˋ</v>
+      </c>
+      <c r="AS4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AS16</f>
+        <v>˫</v>
+      </c>
+      <c r="AT4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AT16</f>
+        <v>ˊ</v>
+      </c>
+      <c r="AU4" s="123" t="str">
+        <f>'[2](5)鍵盤表'!AU16</f>
+        <v>·</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" s="96" customFormat="1" ht="32.25">
+      <c r="B5" s="122" t="str">
+        <f>'[2](5)鍵盤表'!B17</f>
+        <v>國際音標</v>
+      </c>
+      <c r="C5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!C17</f>
+        <v>p</v>
+      </c>
+      <c r="D5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!D17</f>
+        <v>pʰ</v>
+      </c>
+      <c r="E5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!E17</f>
+        <v>m</v>
+      </c>
+      <c r="F5" s="119" t="str">
+        <f>'[2](5)鍵盤表'!F17</f>
+        <v>b</v>
+      </c>
+      <c r="G5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!G17</f>
+        <v>t</v>
+      </c>
+      <c r="H5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!H17</f>
+        <v>tʰ</v>
+      </c>
+      <c r="I5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!I17</f>
+        <v>n</v>
+      </c>
+      <c r="J5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!J17</f>
+        <v>l</v>
+      </c>
+      <c r="K5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!K17</f>
+        <v>k</v>
+      </c>
+      <c r="L5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!L17</f>
+        <v>kʰ</v>
+      </c>
+      <c r="M5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!M17</f>
+        <v>h</v>
+      </c>
+      <c r="N5" s="119" t="str">
+        <f>'[2](5)鍵盤表'!N17</f>
+        <v>g</v>
+      </c>
+      <c r="O5" s="119" t="str">
+        <f>'[2](5)鍵盤表'!O17</f>
+        <v>ŋ</v>
+      </c>
+      <c r="P5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!P17</f>
+        <v>t͡s</v>
+      </c>
+      <c r="Q5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!Q17</f>
+        <v>t͡sʰ</v>
+      </c>
+      <c r="R5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!R17</f>
+        <v>s</v>
+      </c>
+      <c r="S5" s="119" t="str">
+        <f>'[2](5)鍵盤表'!S17</f>
+        <v xml:space="preserve"> 	d͡z / z</v>
+      </c>
+      <c r="T5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!T17</f>
+        <v xml:space="preserve"> 	t͡ɕ</v>
+      </c>
+      <c r="U5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!U17</f>
+        <v>t͡ɕʰ</v>
+      </c>
+      <c r="V5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!V17</f>
+        <v>ɕ</v>
+      </c>
+      <c r="W5" s="119" t="str">
+        <f>'[2](5)鍵盤表'!W17</f>
+        <v>d͡ʑ / ʑ[</v>
+      </c>
+      <c r="X5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!X17</f>
+        <v>i</v>
+      </c>
+      <c r="Y5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!Y17</f>
+        <v>u</v>
+      </c>
+      <c r="Z5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!Z17</f>
+        <v>a</v>
+      </c>
+      <c r="AA5" s="119" t="str">
+        <f>'[2](5)鍵盤表'!AA17</f>
+        <v>ɔ</v>
+      </c>
+      <c r="AB5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!AB17</f>
+        <v>o</v>
+      </c>
+      <c r="AC5" s="119" t="str">
+        <f>'[2](5)鍵盤表'!AC17</f>
+        <v>e</v>
+      </c>
+      <c r="AD5" s="121" t="str">
+        <f>'[2](5)鍵盤表'!AD17</f>
+        <v>m̩</v>
+      </c>
+      <c r="AE5" s="121" t="str">
+        <f>'[2](5)鍵盤表'!AE17</f>
+        <v>ŋ̍</v>
+      </c>
+      <c r="AF5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!AF17</f>
+        <v>ai</v>
+      </c>
+      <c r="AG5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!AG17</f>
+        <v>au</v>
+      </c>
+      <c r="AH5" s="119" t="str">
+        <f>'[2](5)鍵盤表'!AH17</f>
+        <v>am</v>
+      </c>
+      <c r="AI5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!AI17</f>
+        <v>ɔm</v>
+      </c>
+      <c r="AJ5" s="120" t="str">
+        <f>'[2](5)鍵盤表'!AJ17</f>
+        <v>an</v>
+      </c>
+      <c r="AK5" s="119" t="str">
+        <f>'[2](5)鍵盤表'!AK17</f>
+        <v>n</v>
+      </c>
+      <c r="AL5" s="119" t="str">
+        <f>'[2](5)鍵盤表'!AL17</f>
+        <v>aŋ</v>
+      </c>
+      <c r="AM5" s="118" t="str">
+        <f>'[2](5)鍵盤表'!AM17</f>
+        <v>əŋ</v>
+      </c>
+      <c r="AN5" s="118" t="str">
+        <f>'[2](5)鍵盤表'!AN17</f>
+        <v>ɔŋ</v>
+      </c>
+      <c r="AO5" s="118" t="str">
+        <f>'[2](5)鍵盤表'!AO17</f>
+        <v>ã</v>
+      </c>
+      <c r="AP5" s="117">
+        <f>'[2](5)鍵盤表'!AP17</f>
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="117">
+        <f>'[2](5)鍵盤表'!AQ17</f>
+        <v>0</v>
+      </c>
+      <c r="AR5" s="117">
+        <f>'[2](5)鍵盤表'!AR17</f>
+        <v>0</v>
+      </c>
+      <c r="AS5" s="117">
+        <f>'[2](5)鍵盤表'!AS17</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="117">
+        <f>'[2](5)鍵盤表'!AT17</f>
+        <v>0</v>
+      </c>
+      <c r="AU5" s="117">
+        <f>'[2](5)鍵盤表'!AU17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" s="96" customFormat="1">
+      <c r="B6" s="116" t="str">
+        <f>'[2](5)鍵盤表'!B18</f>
+        <v>羅馬拼音</v>
+      </c>
+      <c r="C6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!C18</f>
+        <v>p</v>
+      </c>
+      <c r="D6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!D18</f>
+        <v>ph</v>
+      </c>
+      <c r="E6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!E18</f>
+        <v>m</v>
+      </c>
+      <c r="F6" s="112" t="str">
+        <f>'[2](5)鍵盤表'!F18</f>
+        <v>b</v>
+      </c>
+      <c r="G6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!G18</f>
+        <v>t</v>
+      </c>
+      <c r="H6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!H18</f>
+        <v>th</v>
+      </c>
+      <c r="I6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!I18</f>
+        <v>n</v>
+      </c>
+      <c r="J6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!J18</f>
+        <v>l</v>
+      </c>
+      <c r="K6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!K18</f>
+        <v>k</v>
+      </c>
+      <c r="L6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!L18</f>
+        <v>kh</v>
+      </c>
+      <c r="M6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!M18</f>
+        <v>h</v>
+      </c>
+      <c r="N6" s="112" t="str">
+        <f>'[2](5)鍵盤表'!N18</f>
+        <v>g</v>
+      </c>
+      <c r="O6" s="112" t="str">
+        <f>'[2](5)鍵盤表'!O18</f>
+        <v>ng</v>
+      </c>
+      <c r="P6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!P18</f>
+        <v>ts</v>
+      </c>
+      <c r="Q6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!Q18</f>
+        <v>tsh</v>
+      </c>
+      <c r="R6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!R18</f>
+        <v>s</v>
+      </c>
+      <c r="S6" s="112" t="str">
+        <f>'[2](5)鍵盤表'!S18</f>
+        <v>j</v>
+      </c>
+      <c r="T6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!T18</f>
+        <v>tsi</v>
+      </c>
+      <c r="U6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!U18</f>
+        <v>tshi</v>
+      </c>
+      <c r="V6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!V18</f>
+        <v>si</v>
+      </c>
+      <c r="W6" s="112" t="str">
+        <f>'[2](5)鍵盤表'!W18</f>
+        <v>ji</v>
+      </c>
+      <c r="X6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!X18</f>
+        <v>i</v>
+      </c>
+      <c r="Y6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!Y18</f>
+        <v>u</v>
+      </c>
+      <c r="Z6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!Z18</f>
+        <v>a</v>
+      </c>
+      <c r="AA6" s="112" t="str">
+        <f>'[2](5)鍵盤表'!AA18</f>
+        <v>oo</v>
+      </c>
+      <c r="AB6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!AB18</f>
+        <v>o</v>
+      </c>
+      <c r="AC6" s="112" t="str">
+        <f>'[2](5)鍵盤表'!AC18</f>
+        <v>e</v>
+      </c>
+      <c r="AD6" s="115" t="str">
+        <f>'[2](5)鍵盤表'!AD18</f>
+        <v>-m</v>
+      </c>
+      <c r="AE6" s="115" t="str">
+        <f>'[2](5)鍵盤表'!AE18</f>
+        <v>-ng</v>
+      </c>
+      <c r="AF6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!AF18</f>
+        <v>ai</v>
+      </c>
+      <c r="AG6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!AG18</f>
+        <v>au</v>
+      </c>
+      <c r="AH6" s="112" t="str">
+        <f>'[2](5)鍵盤表'!AH18</f>
+        <v>am</v>
+      </c>
+      <c r="AI6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!AI18</f>
+        <v>om</v>
+      </c>
+      <c r="AJ6" s="114" t="str">
+        <f>'[2](5)鍵盤表'!AJ18</f>
+        <v>an</v>
+      </c>
+      <c r="AK6" s="112" t="str">
+        <f>'[2](5)鍵盤表'!AK18</f>
+        <v>-n</v>
+      </c>
+      <c r="AL6" s="112" t="str">
+        <f>'[2](5)鍵盤表'!AL18</f>
+        <v>ang</v>
+      </c>
+      <c r="AM6" s="113" t="str">
+        <f>'[2](5)鍵盤表'!AM18</f>
+        <v>-ng</v>
+      </c>
+      <c r="AN6" s="113" t="str">
+        <f>'[2](5)鍵盤表'!AN18</f>
+        <v>ong</v>
+      </c>
+      <c r="AO6" s="113" t="str">
+        <f>'[2](5)鍵盤表'!AO18</f>
+        <v>-nn</v>
+      </c>
+      <c r="AP6" s="112">
+        <f>'[2](5)鍵盤表'!AP18</f>
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="112">
+        <f>'[2](5)鍵盤表'!AQ18</f>
+        <v>3</v>
+      </c>
+      <c r="AR6" s="112">
+        <f>'[2](5)鍵盤表'!AR18</f>
+        <v>2</v>
+      </c>
+      <c r="AS6" s="112">
+        <f>'[2](5)鍵盤表'!AS18</f>
+        <v>7</v>
+      </c>
+      <c r="AT6" s="112">
+        <f>'[2](5)鍵盤表'!AT18</f>
+        <v>5</v>
+      </c>
+      <c r="AU6" s="112">
+        <f>'[2](5)鍵盤表'!AU18</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" s="96" customFormat="1" ht="23.25">
+      <c r="B7" s="104" t="str">
+        <f>'[2](5)鍵盤表'!B19</f>
+        <v>拼音字母</v>
+      </c>
+      <c r="C7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!C19</f>
+        <v>p</v>
+      </c>
+      <c r="D7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!D19</f>
+        <v>P</v>
+      </c>
+      <c r="E7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!E19</f>
+        <v>m</v>
+      </c>
+      <c r="F7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!F19</f>
+        <v>b</v>
+      </c>
+      <c r="G7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!G19</f>
+        <v>t</v>
+      </c>
+      <c r="H7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!H19</f>
+        <v>T</v>
+      </c>
+      <c r="I7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!I19</f>
+        <v>d</v>
+      </c>
+      <c r="J7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!J19</f>
+        <v>d</v>
+      </c>
+      <c r="K7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!K19</f>
+        <v>k</v>
+      </c>
+      <c r="L7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!L19</f>
+        <v>K</v>
+      </c>
+      <c r="M7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!M19</f>
+        <v>h</v>
+      </c>
+      <c r="N7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!N19</f>
+        <v>g</v>
+      </c>
+      <c r="O7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!O19</f>
+        <v>g</v>
+      </c>
+      <c r="P7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!P19</f>
+        <v>c</v>
+      </c>
+      <c r="Q7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!Q19</f>
+        <v>C</v>
+      </c>
+      <c r="R7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!R19</f>
+        <v>s</v>
+      </c>
+      <c r="S7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!S19</f>
+        <v>z</v>
+      </c>
+      <c r="T7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!T19</f>
+        <v>ci</v>
+      </c>
+      <c r="U7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!U19</f>
+        <v>Ci</v>
+      </c>
+      <c r="V7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!V19</f>
+        <v>si</v>
+      </c>
+      <c r="W7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!W19</f>
+        <v>zi</v>
+      </c>
+      <c r="X7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!X19</f>
+        <v>i</v>
+      </c>
+      <c r="Y7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!Y19</f>
+        <v>u</v>
+      </c>
+      <c r="Z7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!Z19</f>
+        <v>a</v>
+      </c>
+      <c r="AA7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AA19</f>
+        <v>o</v>
+      </c>
+      <c r="AB7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AB19</f>
+        <v>ø</v>
+      </c>
+      <c r="AC7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AC19</f>
+        <v>e</v>
+      </c>
+      <c r="AD7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AD19</f>
+        <v>B</v>
+      </c>
+      <c r="AE7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AE19</f>
+        <v>G</v>
+      </c>
+      <c r="AF7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AF19</f>
+        <v>I</v>
+      </c>
+      <c r="AG7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AG19</f>
+        <v>U</v>
+      </c>
+      <c r="AH7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AH19</f>
+        <v>aB</v>
+      </c>
+      <c r="AI7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AI19</f>
+        <v>oB</v>
+      </c>
+      <c r="AJ7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AJ19</f>
+        <v>aD</v>
+      </c>
+      <c r="AK7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AK19</f>
+        <v>D</v>
+      </c>
+      <c r="AL7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AL19</f>
+        <v>aG</v>
+      </c>
+      <c r="AM7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AM19</f>
+        <v>øG</v>
+      </c>
+      <c r="AN7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AN19</f>
+        <v>oG</v>
+      </c>
+      <c r="AO7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AO19</f>
+        <v>N</v>
+      </c>
+      <c r="AP7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AP19</f>
+        <v/>
+      </c>
+      <c r="AQ7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AQ19</f>
+        <v/>
+      </c>
+      <c r="AR7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AR19</f>
+        <v/>
+      </c>
+      <c r="AS7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AS19</f>
+        <v/>
+      </c>
+      <c r="AT7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AT19</f>
+        <v/>
+      </c>
+      <c r="AU7" s="111" t="str">
+        <f>'[2](5)鍵盤表'!AU19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:47" s="96" customFormat="1" ht="23.25">
+      <c r="B8" s="110" t="str">
+        <f>'[2](5)鍵盤表'!B20</f>
+        <v>鍵盤按鍵</v>
+      </c>
+      <c r="C8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!C20</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!D20</f>
+        <v>q</v>
+      </c>
+      <c r="E8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!E20</f>
+        <v>a</v>
+      </c>
+      <c r="F8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!F20</f>
+        <v>z</v>
+      </c>
+      <c r="G8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!G20</f>
+        <v>2</v>
+      </c>
+      <c r="H8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!H20</f>
+        <v>w</v>
+      </c>
+      <c r="I8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!I20</f>
+        <v>s</v>
+      </c>
+      <c r="J8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!J20</f>
+        <v>x</v>
+      </c>
+      <c r="K8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!K20</f>
+        <v>e</v>
+      </c>
+      <c r="L8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!L20</f>
+        <v>d</v>
+      </c>
+      <c r="M8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!M20</f>
+        <v>c</v>
+      </c>
+      <c r="N8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!N20</f>
+        <v>t</v>
+      </c>
+      <c r="O8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!O20</f>
+        <v>g</v>
+      </c>
+      <c r="P8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!P20</f>
+        <v>y</v>
+      </c>
+      <c r="Q8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!Q20</f>
+        <v>h</v>
+      </c>
+      <c r="R8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!R20</f>
+        <v>n</v>
+      </c>
+      <c r="S8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!S20</f>
+        <v>b</v>
+      </c>
+      <c r="T8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!T20</f>
+        <v>r</v>
+      </c>
+      <c r="U8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!U20</f>
+        <v>f</v>
+      </c>
+      <c r="V8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!V20</f>
+        <v>v</v>
+      </c>
+      <c r="W8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!W20</f>
+        <v>b</v>
+      </c>
+      <c r="X8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!X20</f>
+        <v>u</v>
+      </c>
+      <c r="Y8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!Y20</f>
+        <v>j</v>
+      </c>
+      <c r="Z8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!Z20</f>
+        <v>8</v>
+      </c>
+      <c r="AA8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AA20</f>
+        <v>i</v>
+      </c>
+      <c r="AB8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AB20</f>
+        <v>k</v>
+      </c>
+      <c r="AC8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AC20</f>
+        <v>o</v>
+      </c>
+      <c r="AD8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AD20</f>
+        <v>m</v>
+      </c>
+      <c r="AE8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AE20</f>
+        <v>/</v>
+      </c>
+      <c r="AF8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AF20</f>
+        <v>9</v>
+      </c>
+      <c r="AG8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AG20</f>
+        <v>l</v>
+      </c>
+      <c r="AH8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AH20</f>
+        <v>,</v>
+      </c>
+      <c r="AI8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AI20</f>
+        <v>,</v>
+      </c>
+      <c r="AJ8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AJ20</f>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AK20</f>
+        <v>p</v>
+      </c>
+      <c r="AL8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AL20</f>
+        <v>;</v>
+      </c>
+      <c r="AM8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AM20</f>
+        <v/>
+      </c>
+      <c r="AN8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AN20</f>
+        <v>.</v>
+      </c>
+      <c r="AO8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AO20</f>
+        <v>-</v>
+      </c>
+      <c r="AP8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AP20</f>
+        <v/>
+      </c>
+      <c r="AQ8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AQ20</f>
+        <v>3</v>
+      </c>
+      <c r="AR8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AR20</f>
+        <v>4</v>
+      </c>
+      <c r="AS8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AS20</f>
+        <v>5</v>
+      </c>
+      <c r="AT8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AT20</f>
+        <v>6</v>
+      </c>
+      <c r="AU8" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AU20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:47" s="96" customFormat="1" ht="23.25">
+      <c r="B9" s="110" t="str">
+        <f>'[2](5)鍵盤表'!B21</f>
+        <v>鍵盤行號</v>
+      </c>
+      <c r="C9" s="106">
+        <f>'[2](5)鍵盤表'!C21</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="106">
+        <f>'[2](5)鍵盤表'!D21</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="106">
+        <f>'[2](5)鍵盤表'!E21</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="106">
+        <f>'[2](5)鍵盤表'!F21</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="109">
+        <f>'[2](5)鍵盤表'!G21</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="109">
+        <f>'[2](5)鍵盤表'!H21</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="109">
+        <f>'[2](5)鍵盤表'!I21</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="109">
+        <f>'[2](5)鍵盤表'!J21</f>
+        <v>2</v>
+      </c>
+      <c r="K9" s="106">
+        <f>'[2](5)鍵盤表'!K21</f>
+        <v>3</v>
+      </c>
+      <c r="L9" s="106">
+        <f>'[2](5)鍵盤表'!L21</f>
+        <v>3</v>
+      </c>
+      <c r="M9" s="106">
+        <f>'[2](5)鍵盤表'!M21</f>
+        <v>3</v>
+      </c>
+      <c r="N9" s="106">
+        <f>'[2](5)鍵盤表'!N21</f>
+        <v>3</v>
+      </c>
+      <c r="O9" s="108">
+        <f>'[2](5)鍵盤表'!O21</f>
+        <v>5</v>
+      </c>
+      <c r="P9" s="109">
+        <f>'[2](5)鍵盤表'!P21</f>
+        <v>6</v>
+      </c>
+      <c r="Q9" s="109">
+        <f>'[2](5)鍵盤表'!Q21</f>
+        <v>6</v>
+      </c>
+      <c r="R9" s="109">
+        <f>'[2](5)鍵盤表'!R21</f>
+        <v>6</v>
+      </c>
+      <c r="S9" s="108">
+        <f>'[2](5)鍵盤表'!S21</f>
+        <v>5</v>
+      </c>
+      <c r="T9" s="106">
+        <f>'[2](5)鍵盤表'!T21</f>
+        <v>4</v>
+      </c>
+      <c r="U9" s="106">
+        <f>'[2](5)鍵盤表'!U21</f>
+        <v>4</v>
+      </c>
+      <c r="V9" s="106">
+        <f>'[2](5)鍵盤表'!V21</f>
+        <v>4</v>
+      </c>
+      <c r="W9" s="107">
+        <f>'[2](5)鍵盤表'!W21</f>
+        <v>5</v>
+      </c>
+      <c r="X9" s="106">
+        <f>'[2](5)鍵盤表'!X21</f>
+        <v>7</v>
+      </c>
+      <c r="Y9" s="106">
+        <f>'[2](5)鍵盤表'!Y21</f>
+        <v>7</v>
+      </c>
+      <c r="Z9" s="106">
+        <f>'[2](5)鍵盤表'!Z21</f>
+        <v>8</v>
+      </c>
+      <c r="AA9" s="106">
+        <f>'[2](5)鍵盤表'!AA21</f>
+        <v>8</v>
+      </c>
+      <c r="AB9" s="106">
+        <f>'[2](5)鍵盤表'!AB21</f>
+        <v>8</v>
+      </c>
+      <c r="AC9" s="106">
+        <f>'[2](5)鍵盤表'!AC21</f>
+        <v>9</v>
+      </c>
+      <c r="AD9" s="106">
+        <f>'[2](5)鍵盤表'!AD21</f>
+        <v>7</v>
+      </c>
+      <c r="AE9" s="106">
+        <f>'[2](5)鍵盤表'!AE21</f>
+        <v>7</v>
+      </c>
+      <c r="AF9" s="106">
+        <f>'[2](5)鍵盤表'!AF21</f>
+        <v>9</v>
+      </c>
+      <c r="AG9" s="106">
+        <f>'[2](5)鍵盤表'!AG21</f>
+        <v>9</v>
+      </c>
+      <c r="AH9" s="106">
+        <f>'[2](5)鍵盤表'!AH21</f>
+        <v>8</v>
+      </c>
+      <c r="AI9" s="106">
+        <f>'[2](5)鍵盤表'!AI21</f>
+        <v>8</v>
+      </c>
+      <c r="AJ9" s="106">
+        <f>'[2](5)鍵盤表'!AJ21</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="106">
+        <f>'[2](5)鍵盤表'!AK21</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="106">
+        <f>'[2](5)鍵盤表'!AL21</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="106">
+        <f>'[2](5)鍵盤表'!AM21</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="106">
+        <f>'[2](5)鍵盤表'!AN21</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AO21</f>
+        <v>A</v>
+      </c>
+      <c r="AP9" s="106" t="str">
+        <f>'[2](5)鍵盤表'!AP21</f>
+        <v>&lt;SP&gt;</v>
+      </c>
+      <c r="AQ9" s="106">
+        <f>'[2](5)鍵盤表'!AQ21</f>
+        <v>3</v>
+      </c>
+      <c r="AR9" s="106">
+        <f>'[2](5)鍵盤表'!AR21</f>
+        <v>4</v>
+      </c>
+      <c r="AS9" s="106">
+        <f>'[2](5)鍵盤表'!AS21</f>
+        <v>5</v>
+      </c>
+      <c r="AT9" s="106">
+        <f>'[2](5)鍵盤表'!AT21</f>
+        <v>6</v>
+      </c>
+      <c r="AU9" s="106">
+        <f>'[2](5)鍵盤表'!AU21</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" s="96" customFormat="1" ht="23.25"/>
+    <row r="11" spans="1:47" s="96" customFormat="1" ht="23.25">
+      <c r="B11" s="104" t="str">
+        <f>B7</f>
+        <v>拼音字母</v>
+      </c>
+      <c r="C11" s="353" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
+        <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
+      </c>
+      <c r="D11" s="353"/>
+      <c r="E11" s="353"/>
+      <c r="F11" s="353"/>
+      <c r="G11" s="353"/>
+      <c r="H11" s="353"/>
+      <c r="I11" s="353"/>
+      <c r="J11" s="353"/>
+      <c r="K11" s="353"/>
+      <c r="L11" s="353"/>
+      <c r="M11" s="353"/>
+      <c r="N11" s="353"/>
+      <c r="O11" s="353"/>
+      <c r="P11" s="353"/>
+      <c r="Q11" s="353"/>
+      <c r="R11" s="353"/>
+      <c r="S11" s="353"/>
+      <c r="T11" s="353"/>
+      <c r="U11" s="353"/>
+      <c r="V11" s="353"/>
+      <c r="W11" s="353"/>
+      <c r="X11" s="353"/>
+      <c r="Y11" s="353"/>
+      <c r="Z11" s="353"/>
+    </row>
+    <row r="12" spans="1:47" s="96" customFormat="1" ht="23.25">
+      <c r="B12" s="105" t="str">
+        <f>B8</f>
+        <v>鍵盤按鍵</v>
+      </c>
+      <c r="C12" s="354" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
+        <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
+      </c>
+      <c r="D12" s="354"/>
+      <c r="E12" s="354"/>
+      <c r="F12" s="354"/>
+      <c r="G12" s="354"/>
+      <c r="H12" s="354"/>
+      <c r="I12" s="354"/>
+      <c r="J12" s="354"/>
+      <c r="K12" s="354"/>
+      <c r="L12" s="354"/>
+      <c r="M12" s="354"/>
+      <c r="N12" s="354"/>
+      <c r="O12" s="354"/>
+      <c r="P12" s="354"/>
+      <c r="Q12" s="354"/>
+      <c r="R12" s="354"/>
+      <c r="S12" s="354"/>
+      <c r="T12" s="354"/>
+      <c r="U12" s="354"/>
+      <c r="V12" s="354"/>
+      <c r="W12" s="354"/>
+      <c r="X12" s="354"/>
+      <c r="Y12" s="354"/>
+      <c r="Z12" s="354"/>
+    </row>
+    <row r="13" spans="1:47" s="96" customFormat="1" ht="23.25"/>
+    <row r="14" spans="1:47" s="96" customFormat="1" ht="34.5">
+      <c r="B14" s="102" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" s="96" customFormat="1" ht="23.25">
+      <c r="B15" s="352" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
+        <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
+      </c>
+      <c r="C15" s="352"/>
+      <c r="D15" s="352"/>
+      <c r="E15" s="352"/>
+      <c r="F15" s="352"/>
+      <c r="G15" s="352"/>
+      <c r="H15" s="352"/>
+      <c r="I15" s="352"/>
+      <c r="J15" s="352"/>
+      <c r="K15" s="352"/>
+      <c r="L15" s="352"/>
+      <c r="M15" s="352"/>
+      <c r="N15" s="352"/>
+      <c r="O15" s="352"/>
+      <c r="P15" s="352"/>
+      <c r="Q15" s="352"/>
+      <c r="R15" s="352"/>
+      <c r="S15" s="352"/>
+      <c r="T15" s="352"/>
+      <c r="U15" s="352"/>
+      <c r="V15" s="352"/>
+      <c r="W15" s="352"/>
+      <c r="X15" s="352"/>
+      <c r="Y15" s="352"/>
+      <c r="Z15" s="352"/>
+    </row>
+    <row r="16" spans="1:47" s="96" customFormat="1" ht="23.25"/>
+    <row r="17" spans="2:26" s="96" customFormat="1" ht="34.5">
+      <c r="B17" s="102" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" s="96" customFormat="1" ht="23.25"/>
+    <row r="19" spans="2:26" s="96" customFormat="1" ht="23.25">
+      <c r="B19" s="104" t="str">
+        <f>B7</f>
+        <v>拼音字母</v>
+      </c>
+      <c r="C19" s="353" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
+        <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
+      </c>
+      <c r="D19" s="353"/>
+      <c r="E19" s="353"/>
+      <c r="F19" s="353"/>
+      <c r="G19" s="353"/>
+      <c r="H19" s="353"/>
+      <c r="I19" s="353"/>
+      <c r="J19" s="353"/>
+      <c r="K19" s="353"/>
+      <c r="L19" s="353"/>
+      <c r="M19" s="353"/>
+      <c r="N19" s="353"/>
+      <c r="O19" s="353"/>
+      <c r="P19" s="353"/>
+      <c r="Q19" s="353"/>
+      <c r="R19" s="353"/>
+      <c r="S19" s="353"/>
+      <c r="T19" s="353"/>
+      <c r="U19" s="353"/>
+      <c r="V19" s="353"/>
+      <c r="W19" s="353"/>
+      <c r="X19" s="353"/>
+      <c r="Y19" s="353"/>
+      <c r="Z19" s="353"/>
+    </row>
+    <row r="20" spans="2:26" s="96" customFormat="1" ht="23.25">
+      <c r="B20" s="103" t="str">
+        <f>B4</f>
+        <v>方音符號</v>
+      </c>
+      <c r="C20" s="354" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
+        <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
+      </c>
+      <c r="D20" s="354"/>
+      <c r="E20" s="354"/>
+      <c r="F20" s="354"/>
+      <c r="G20" s="354"/>
+      <c r="H20" s="354"/>
+      <c r="I20" s="354"/>
+      <c r="J20" s="354"/>
+      <c r="K20" s="354"/>
+      <c r="L20" s="354"/>
+      <c r="M20" s="354"/>
+      <c r="N20" s="354"/>
+      <c r="O20" s="354"/>
+      <c r="P20" s="354"/>
+      <c r="Q20" s="354"/>
+      <c r="R20" s="354"/>
+      <c r="S20" s="354"/>
+      <c r="T20" s="354"/>
+      <c r="U20" s="354"/>
+      <c r="V20" s="354"/>
+      <c r="W20" s="354"/>
+      <c r="X20" s="354"/>
+      <c r="Y20" s="354"/>
+      <c r="Z20" s="354"/>
+    </row>
+    <row r="21" spans="2:26" s="96" customFormat="1" ht="23.25"/>
+    <row r="22" spans="2:26" s="96" customFormat="1" ht="34.5">
+      <c r="B22" s="102" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" s="96" customFormat="1" ht="23.25">
+      <c r="B23" s="352" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
+        <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
+      </c>
+      <c r="C23" s="352"/>
+      <c r="D23" s="352"/>
+      <c r="E23" s="352"/>
+      <c r="F23" s="352"/>
+      <c r="G23" s="352"/>
+      <c r="H23" s="352"/>
+      <c r="I23" s="352"/>
+      <c r="J23" s="352"/>
+      <c r="K23" s="352"/>
+      <c r="L23" s="352"/>
+      <c r="M23" s="352"/>
+      <c r="N23" s="352"/>
+      <c r="O23" s="352"/>
+      <c r="P23" s="352"/>
+      <c r="Q23" s="352"/>
+      <c r="R23" s="352"/>
+      <c r="S23" s="352"/>
+      <c r="T23" s="352"/>
+      <c r="U23" s="352"/>
+      <c r="V23" s="352"/>
+      <c r="W23" s="352"/>
+      <c r="X23" s="352"/>
+      <c r="Y23" s="352"/>
+      <c r="Z23" s="352"/>
+    </row>
+    <row r="24" spans="2:26" s="96" customFormat="1" ht="23.25"/>
+    <row r="25" spans="2:26" s="96" customFormat="1" ht="34.5">
+      <c r="B25" s="102" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" s="96" customFormat="1" ht="23.25"/>
+    <row r="27" spans="2:26" s="96" customFormat="1" ht="23.25">
+      <c r="B27" s="104" t="str">
+        <f>B12</f>
+        <v>鍵盤按鍵</v>
+      </c>
+      <c r="C27" s="353" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
+        <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
+      </c>
+      <c r="D27" s="353"/>
+      <c r="E27" s="353"/>
+      <c r="F27" s="353"/>
+      <c r="G27" s="353"/>
+      <c r="H27" s="353"/>
+      <c r="I27" s="353"/>
+      <c r="J27" s="353"/>
+      <c r="K27" s="353"/>
+      <c r="L27" s="353"/>
+      <c r="M27" s="353"/>
+      <c r="N27" s="353"/>
+      <c r="O27" s="353"/>
+      <c r="P27" s="353"/>
+      <c r="Q27" s="353"/>
+      <c r="R27" s="353"/>
+      <c r="S27" s="353"/>
+      <c r="T27" s="353"/>
+      <c r="U27" s="353"/>
+      <c r="V27" s="353"/>
+      <c r="W27" s="353"/>
+      <c r="X27" s="353"/>
+      <c r="Y27" s="353"/>
+      <c r="Z27" s="353"/>
+    </row>
+    <row r="28" spans="2:26" s="96" customFormat="1" ht="23.25">
+      <c r="B28" s="103" t="str">
+        <f>B4</f>
+        <v>方音符號</v>
+      </c>
+      <c r="C28" s="354" t="str">
+        <f>_xlfn.CONCAT(C4:AO4)</f>
+        <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
+      </c>
+      <c r="D28" s="354"/>
+      <c r="E28" s="354"/>
+      <c r="F28" s="354"/>
+      <c r="G28" s="354"/>
+      <c r="H28" s="354"/>
+      <c r="I28" s="354"/>
+      <c r="J28" s="354"/>
+      <c r="K28" s="354"/>
+      <c r="L28" s="354"/>
+      <c r="M28" s="354"/>
+      <c r="N28" s="354"/>
+      <c r="O28" s="354"/>
+      <c r="P28" s="354"/>
+      <c r="Q28" s="354"/>
+      <c r="R28" s="354"/>
+      <c r="S28" s="354"/>
+      <c r="T28" s="354"/>
+      <c r="U28" s="354"/>
+      <c r="V28" s="354"/>
+      <c r="W28" s="354"/>
+      <c r="X28" s="354"/>
+      <c r="Y28" s="354"/>
+      <c r="Z28" s="354"/>
+    </row>
+    <row r="29" spans="2:26" s="96" customFormat="1" ht="23.25"/>
+    <row r="30" spans="2:26" s="96" customFormat="1" ht="34.5">
+      <c r="B30" s="102" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="2:26" s="96" customFormat="1" ht="23.25">
+      <c r="B31" s="352" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
+        <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
+      </c>
+      <c r="C31" s="352"/>
+      <c r="D31" s="352"/>
+      <c r="E31" s="352"/>
+      <c r="F31" s="352"/>
+      <c r="G31" s="352"/>
+      <c r="H31" s="352"/>
+      <c r="I31" s="352"/>
+      <c r="J31" s="352"/>
+      <c r="K31" s="352"/>
+      <c r="L31" s="352"/>
+      <c r="M31" s="352"/>
+      <c r="N31" s="352"/>
+      <c r="O31" s="352"/>
+      <c r="P31" s="352"/>
+      <c r="Q31" s="352"/>
+      <c r="R31" s="352"/>
+      <c r="S31" s="352"/>
+      <c r="T31" s="352"/>
+      <c r="U31" s="352"/>
+      <c r="V31" s="352"/>
+      <c r="W31" s="352"/>
+      <c r="X31" s="352"/>
+      <c r="Y31" s="352"/>
+      <c r="Z31" s="352"/>
+    </row>
+    <row r="32" spans="2:26" s="96" customFormat="1" ht="23.25"/>
+    <row r="33" spans="1:47" s="98" customFormat="1">
+      <c r="A33" s="99"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
+      <c r="U33" s="101"/>
+      <c r="V33" s="101"/>
+      <c r="W33" s="101"/>
+      <c r="X33" s="101"/>
+      <c r="Y33" s="101"/>
+      <c r="Z33" s="101"/>
+      <c r="AA33" s="101"/>
+      <c r="AB33" s="101"/>
+      <c r="AC33" s="101"/>
+      <c r="AD33" s="101"/>
+      <c r="AE33" s="101"/>
+      <c r="AF33" s="101"/>
+      <c r="AG33" s="101"/>
+      <c r="AH33" s="101"/>
+      <c r="AI33" s="101"/>
+      <c r="AJ33" s="101"/>
+      <c r="AK33" s="101"/>
+      <c r="AL33" s="101"/>
+      <c r="AM33" s="101"/>
+      <c r="AN33" s="101"/>
+      <c r="AO33" s="101"/>
+      <c r="AP33" s="101"/>
+      <c r="AQ33" s="101"/>
+      <c r="AR33" s="101"/>
+      <c r="AS33" s="101"/>
+      <c r="AT33" s="101"/>
+      <c r="AU33" s="101"/>
+    </row>
+    <row r="34" spans="1:47" s="98" customFormat="1">
+      <c r="A34" s="99"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="99"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="99"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="99"/>
+      <c r="AB34" s="99"/>
+      <c r="AC34" s="99"/>
+      <c r="AD34" s="99"/>
+      <c r="AE34" s="99"/>
+      <c r="AF34" s="99"/>
+      <c r="AG34" s="99"/>
+      <c r="AH34" s="99"/>
+      <c r="AI34" s="99"/>
+      <c r="AJ34" s="99"/>
+      <c r="AK34" s="99"/>
+      <c r="AL34" s="99"/>
+      <c r="AM34" s="99"/>
+      <c r="AN34" s="99"/>
+      <c r="AO34" s="99"/>
+      <c r="AP34" s="99"/>
+      <c r="AQ34" s="100"/>
+      <c r="AR34" s="99"/>
+      <c r="AS34" s="99"/>
+      <c r="AT34" s="99"/>
+      <c r="AU34" s="99"/>
+    </row>
+    <row r="35" spans="1:47" s="98" customFormat="1">
+      <c r="A35" s="99"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="99"/>
+      <c r="X35" s="99"/>
+      <c r="Y35" s="99"/>
+      <c r="Z35" s="99"/>
+      <c r="AA35" s="99"/>
+      <c r="AB35" s="99"/>
+      <c r="AC35" s="99"/>
+      <c r="AD35" s="99"/>
+      <c r="AE35" s="99"/>
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="99"/>
+      <c r="AH35" s="99"/>
+      <c r="AI35" s="99"/>
+      <c r="AJ35" s="99"/>
+      <c r="AK35" s="99"/>
+      <c r="AL35" s="99"/>
+      <c r="AM35" s="99"/>
+      <c r="AN35" s="99"/>
+      <c r="AO35" s="99"/>
+      <c r="AP35" s="99"/>
+      <c r="AQ35" s="100"/>
+      <c r="AR35" s="100"/>
+      <c r="AS35" s="99"/>
+      <c r="AT35" s="99"/>
+      <c r="AU35" s="99"/>
+    </row>
+    <row r="36" spans="1:47" s="98" customFormat="1">
+      <c r="A36" s="99"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="99"/>
+      <c r="R36" s="99"/>
+      <c r="S36" s="99"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="99"/>
+      <c r="V36" s="99"/>
+      <c r="W36" s="99"/>
+      <c r="X36" s="99"/>
+      <c r="Y36" s="99"/>
+      <c r="Z36" s="99"/>
+      <c r="AA36" s="99"/>
+      <c r="AB36" s="99"/>
+      <c r="AC36" s="99"/>
+      <c r="AD36" s="99"/>
+      <c r="AE36" s="99"/>
+      <c r="AF36" s="99"/>
+      <c r="AG36" s="99"/>
+      <c r="AH36" s="99"/>
+      <c r="AI36" s="99"/>
+      <c r="AJ36" s="99"/>
+      <c r="AK36" s="99"/>
+      <c r="AL36" s="99"/>
+      <c r="AM36" s="99"/>
+      <c r="AN36" s="99"/>
+      <c r="AO36" s="99"/>
+      <c r="AP36" s="99"/>
+      <c r="AQ36" s="100"/>
+      <c r="AR36" s="100"/>
+      <c r="AS36" s="99"/>
+      <c r="AT36" s="99"/>
+      <c r="AU36" s="99"/>
+    </row>
+    <row r="37" spans="1:47" s="98" customFormat="1">
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
+      <c r="Q37" s="99"/>
+      <c r="R37" s="99"/>
+      <c r="S37" s="99"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="99"/>
+      <c r="V37" s="99"/>
+      <c r="W37" s="99"/>
+      <c r="X37" s="99"/>
+      <c r="Y37" s="99"/>
+      <c r="Z37" s="99"/>
+      <c r="AA37" s="99"/>
+      <c r="AB37" s="99"/>
+      <c r="AC37" s="99"/>
+      <c r="AD37" s="99"/>
+      <c r="AE37" s="99"/>
+      <c r="AF37" s="99"/>
+      <c r="AG37" s="99"/>
+      <c r="AH37" s="99"/>
+      <c r="AI37" s="99"/>
+      <c r="AJ37" s="99"/>
+      <c r="AK37" s="99"/>
+      <c r="AL37" s="99"/>
+      <c r="AM37" s="99"/>
+      <c r="AN37" s="99"/>
+      <c r="AO37" s="99"/>
+      <c r="AP37" s="99"/>
+      <c r="AQ37" s="100"/>
+      <c r="AR37" s="99"/>
+      <c r="AS37" s="99"/>
+      <c r="AT37" s="99"/>
+      <c r="AU37" s="99"/>
+    </row>
+    <row r="38" spans="1:47">
+      <c r="A38" s="97"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="97"/>
+      <c r="T38" s="97"/>
+      <c r="U38" s="97"/>
+      <c r="V38" s="97"/>
+      <c r="W38" s="97"/>
+      <c r="X38" s="97"/>
+      <c r="Y38" s="97"/>
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="97"/>
+      <c r="AB38" s="97"/>
+      <c r="AC38" s="97"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
+      <c r="AF38" s="97"/>
+      <c r="AG38" s="97"/>
+      <c r="AH38" s="97"/>
+      <c r="AI38" s="97"/>
+      <c r="AJ38" s="97"/>
+      <c r="AK38" s="97"/>
+      <c r="AL38" s="97"/>
+      <c r="AM38" s="97"/>
+      <c r="AN38" s="97"/>
+      <c r="AO38" s="97"/>
+      <c r="AP38" s="97"/>
+      <c r="AQ38" s="355"/>
+      <c r="AR38" s="355"/>
+      <c r="AS38" s="97"/>
+      <c r="AT38" s="97"/>
+      <c r="AU38" s="97"/>
+    </row>
+    <row r="39" spans="1:47" s="96" customFormat="1" ht="23.25"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C20:Z20"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="C11:Z11"/>
+    <mergeCell ref="C12:Z12"/>
+    <mergeCell ref="B15:Z15"/>
+    <mergeCell ref="C19:Z19"/>
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD212CC-0B4A-E448-85BE-AB9506DEBF96}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
@@ -12014,12 +14357,12 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AA57"/>
+  <dimension ref="A1:AC57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomLeft" activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
@@ -12047,7 +14390,7 @@
     <col min="28" max="16384" width="8.796875" style="219"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="32.25">
+    <row r="1" spans="1:29" ht="32.25">
       <c r="A1" s="277" t="s">
         <v>733</v>
       </c>
@@ -12071,7 +14414,7 @@
       <c r="Z1" s="142"/>
       <c r="AA1" s="142"/>
     </row>
-    <row r="2" spans="1:27" ht="26.25" thickBot="1">
+    <row r="2" spans="1:29" ht="26.25" thickBot="1">
       <c r="A2" s="291" t="s">
         <v>816</v>
       </c>
@@ -12118,7 +14461,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="33" thickTop="1">
+    <row r="3" spans="1:29" ht="33" thickTop="1">
       <c r="A3" s="219">
         <f xml:space="preserve"> SEARCH("|",$A$2,1)</f>
         <v>7</v>
@@ -12189,8 +14532,9 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X3, 表格1_334[方音符號], 0)), "")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="32.25">
+      <c r="AC3"/>
+    </row>
+    <row r="4" spans="1:29" ht="32.25">
       <c r="A4" s="219">
         <f xml:space="preserve"> SEARCH("|",$A$2,A3+1)</f>
         <v>50</v>
@@ -12263,7 +14607,7 @@
         <v>q</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="32.25">
+    <row r="5" spans="1:29" ht="32.25">
       <c r="A5" s="219">
         <f xml:space="preserve"> SEARCH("|",$A$2,A4+1)</f>
         <v>93</v>
@@ -12336,7 +14680,7 @@
         <v>z</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="32.25">
+    <row r="6" spans="1:29" ht="32.25">
       <c r="A6" s="274" t="str">
         <f xml:space="preserve"> MID($A$2,A3+1, A4-A3-1)</f>
         <v>pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN123570</v>
@@ -12413,7 +14757,7 @@
         <v>a</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="32.25">
+    <row r="7" spans="1:29" ht="32.25">
       <c r="A7" s="274" t="str">
         <f xml:space="preserve"> MID($A$2,A4+1, A5-A4-1)</f>
         <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657</v>
@@ -12490,7 +14834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="32.25">
+    <row r="8" spans="1:29" ht="32.25">
       <c r="E8" s="219" cm="1">
         <f t="array" ref="E8" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>6</v>
@@ -12559,7 +14903,7 @@
         <v>w</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="32.25">
+    <row r="9" spans="1:29" ht="32.25">
       <c r="E9" s="219" cm="1">
         <f t="array" ref="E9" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>7</v>
@@ -12628,7 +14972,7 @@
         <v>s</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="32.25">
+    <row r="10" spans="1:29" ht="32.25">
       <c r="A10" s="277" t="s">
         <v>732</v>
       </c>
@@ -12700,7 +15044,7 @@
         <v>x</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="32.25">
+    <row r="11" spans="1:29" ht="32.25">
       <c r="A11" s="291" t="s">
         <v>817</v>
       </c>
@@ -12772,7 +15116,7 @@
         <v>e</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="32.25">
+    <row r="12" spans="1:29" ht="32.25">
       <c r="A12" s="219">
         <f xml:space="preserve"> SEARCH("|",$A$11,1)</f>
         <v>7</v>
@@ -12845,7 +15189,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="32.25">
+    <row r="13" spans="1:29" ht="32.25">
       <c r="A13" s="219">
         <f xml:space="preserve"> SEARCH("|",$A$11,A12+1)</f>
         <v>49</v>
@@ -12918,7 +15262,7 @@
         <v>t</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="32.25">
+    <row r="14" spans="1:29" ht="32.25">
       <c r="A14" s="219">
         <f xml:space="preserve"> SEARCH("|",$A$11,A13+1)</f>
         <v>91</v>
@@ -12991,7 +15335,7 @@
         <v>g</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="32.25">
+    <row r="15" spans="1:29" ht="32.25">
       <c r="A15" s="274" t="str">
         <f xml:space="preserve"> MID($A$11,A12+1, A13-A12-1)</f>
         <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-43657</v>
@@ -13068,7 +15412,7 @@
         <v>y</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="32.25">
+    <row r="16" spans="1:29" ht="32.25">
       <c r="A16" s="274" t="str">
         <f xml:space="preserve"> MID($A$11,A13+1, A14-A13-1)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
@@ -13564,7 +15908,7 @@
         <v>20</v>
       </c>
       <c r="X22" s="188" t="s">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="Y22" s="143" t="s">
         <v>140</v>
@@ -14473,7 +16817,7 @@
         <v>33</v>
       </c>
       <c r="X35" s="188" t="s">
-        <v>26</v>
+        <v>819</v>
       </c>
       <c r="Y35" s="143" t="s">
         <v>150</v>
@@ -15382,13 +17726,3476 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252F69BE-AE37-4AC3-818E-BBD50392A57D}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:AG57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="Y28" sqref="Y28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="99.19921875" style="219" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" style="219" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="219" customWidth="1"/>
+    <col min="4" max="4" width="5.09765625" style="219" customWidth="1"/>
+    <col min="5" max="5" width="4.69921875" style="219" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="7" width="10.09765625" style="221" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="5.09765625" style="219" customWidth="1"/>
+    <col min="9" max="9" width="4.69921875" style="219" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" style="220" customWidth="1"/>
+    <col min="11" max="11" width="10.09765625" style="221" customWidth="1"/>
+    <col min="12" max="12" width="5.09765625" style="219" customWidth="1"/>
+    <col min="13" max="13" width="4.69921875" style="219" customWidth="1"/>
+    <col min="14" max="14" width="10.09765625" style="219" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" style="222" customWidth="1"/>
+    <col min="16" max="16" width="8.796875" style="219"/>
+    <col min="17" max="17" width="4.69921875" style="219" customWidth="1"/>
+    <col min="18" max="20" width="9.796875" style="219" customWidth="1"/>
+    <col min="21" max="21" width="7.8984375" style="219" customWidth="1"/>
+    <col min="22" max="22" width="4.796875" style="219" customWidth="1"/>
+    <col min="23" max="23" width="7.8984375" style="219" customWidth="1"/>
+    <col min="24" max="24" width="6.19921875" style="219" customWidth="1"/>
+    <col min="25" max="28" width="11.296875" style="219" customWidth="1"/>
+    <col min="29" max="29" width="8.796875" style="219"/>
+    <col min="30" max="30" width="16.296875" style="219" customWidth="1"/>
+    <col min="31" max="31" width="7.09765625" style="219" customWidth="1"/>
+    <col min="32" max="16384" width="8.796875" style="219"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="32.25">
+      <c r="A1" s="277" t="s">
+        <v>733</v>
+      </c>
+      <c r="E1" s="277" t="s">
+        <v>730</v>
+      </c>
+      <c r="I1" s="277" t="s">
+        <v>732</v>
+      </c>
+      <c r="M1" s="277" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q1" s="278" t="s">
+        <v>814</v>
+      </c>
+      <c r="X1" s="288" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+    </row>
+    <row r="2" spans="1:30" ht="26.25" thickBot="1">
+      <c r="A2" s="291" t="s">
+        <v>816</v>
+      </c>
+      <c r="F2" s="223" t="s">
+        <v>813</v>
+      </c>
+      <c r="G2" s="224" t="s">
+        <v>736</v>
+      </c>
+      <c r="J2" s="223" t="s">
+        <v>736</v>
+      </c>
+      <c r="K2" s="224" t="s">
+        <v>737</v>
+      </c>
+      <c r="N2" s="223" t="s">
+        <v>813</v>
+      </c>
+      <c r="O2" s="224" t="s">
+        <v>738</v>
+      </c>
+      <c r="R2" s="227" t="s">
+        <v>818</v>
+      </c>
+      <c r="S2" s="227" t="s">
+        <v>815</v>
+      </c>
+      <c r="T2" s="227" t="s">
+        <v>411</v>
+      </c>
+      <c r="X2" s="195" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y2" s="196" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z2" s="197" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA2" s="198" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB2" s="199" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="33" thickTop="1">
+      <c r="A3" s="219">
+        <f xml:space="preserve"> SEARCH("|",$A$2,1)</f>
+        <v>7</v>
+      </c>
+      <c r="E3" s="219" cm="1">
+        <f t="array" ref="E3" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="230" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$6, $E3, 1), "")</f>
+        <v>p</v>
+      </c>
+      <c r="G3" s="231" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$7, $E3, 1), "")</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="219">
+        <v>1</v>
+      </c>
+      <c r="J3" s="234" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$15, $E3, 1), "")</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="234" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$16, $E3, 1), "")</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="M3" s="219">
+        <v>1</v>
+      </c>
+      <c r="N3" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E3, 1), "")</f>
+        <v>p</v>
+      </c>
+      <c r="O3" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E3, 1), "")</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="Q3" s="219">
+        <v>1</v>
+      </c>
+      <c r="R3" s="222" t="str">
+        <f>G3</f>
+        <v>1</v>
+      </c>
+      <c r="S3" s="236" t="str">
+        <f>F3</f>
+        <v>p</v>
+      </c>
+      <c r="T3" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄅ</v>
+      </c>
+      <c r="X3" s="14">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="188" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="143" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA3" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y3, 表格1_3345[方音符號], 0)), "")</f>
+        <v>p</v>
+      </c>
+      <c r="AB3" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y3, 表格1_3345[方音符號], 0)), "")</f>
+        <v>1</v>
+      </c>
+      <c r="AD3"/>
+    </row>
+    <row r="4" spans="1:30" ht="32.25">
+      <c r="A4" s="219">
+        <f xml:space="preserve"> SEARCH("|",$A$2,A3+1)</f>
+        <v>50</v>
+      </c>
+      <c r="E4" s="219" cm="1">
+        <f t="array" ref="E4" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="239" t="str">
+        <f t="shared" ref="F4:F44" si="0" xml:space="preserve"> IFERROR( MID($A$6, $E4, 1), "")</f>
+        <v>P</v>
+      </c>
+      <c r="G4" s="240" t="str">
+        <f t="shared" ref="G4:G44" si="1" xml:space="preserve"> IFERROR( MID($A$7, $E4, 1), "")</f>
+        <v>q</v>
+      </c>
+      <c r="I4" s="219">
+        <v>2</v>
+      </c>
+      <c r="J4" s="234" t="str">
+        <f t="shared" ref="J4:J44" si="2" xml:space="preserve"> IFERROR( MID($A$15, $E4, 1), "")</f>
+        <v>q</v>
+      </c>
+      <c r="K4" s="234" t="str">
+        <f t="shared" ref="K4:K44" si="3" xml:space="preserve"> IFERROR( MID($A$16, $E4, 1), "")</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="M4" s="219">
+        <v>2</v>
+      </c>
+      <c r="N4" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E4, 1), "")</f>
+        <v>P</v>
+      </c>
+      <c r="O4" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E4, 1), "")</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="Q4" s="219">
+        <v>2</v>
+      </c>
+      <c r="R4" s="222" t="str">
+        <f t="shared" ref="R4:R44" si="4">G4</f>
+        <v>q</v>
+      </c>
+      <c r="S4" s="236" t="str">
+        <f t="shared" ref="S4:S44" si="5">F4</f>
+        <v>P</v>
+      </c>
+      <c r="T4" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄆ</v>
+      </c>
+      <c r="X4" s="14">
+        <f>X3+1</f>
+        <v>2</v>
+      </c>
+      <c r="Y4" s="188" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA4" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y4, 表格1_3345[方音符號], 0)), "")</f>
+        <v>P</v>
+      </c>
+      <c r="AB4" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y4, 表格1_3345[方音符號], 0)), "")</f>
+        <v>q</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="32.25">
+      <c r="A5" s="219">
+        <f xml:space="preserve"> SEARCH("|",$A$2,A4+1)</f>
+        <v>93</v>
+      </c>
+      <c r="E5" s="219" cm="1">
+        <f t="array" ref="E5" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="239" t="str">
+        <f t="shared" si="0"/>
+        <v>m</v>
+      </c>
+      <c r="G5" s="240" t="str">
+        <f t="shared" si="1"/>
+        <v>a</v>
+      </c>
+      <c r="I5" s="219">
+        <v>3</v>
+      </c>
+      <c r="J5" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>a</v>
+      </c>
+      <c r="K5" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄇ</v>
+      </c>
+      <c r="M5" s="219">
+        <v>3</v>
+      </c>
+      <c r="N5" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E5, 1), "")</f>
+        <v>b</v>
+      </c>
+      <c r="O5" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E5, 1), "")</f>
+        <v>ㆠ</v>
+      </c>
+      <c r="Q5" s="219">
+        <v>3</v>
+      </c>
+      <c r="R5" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>a</v>
+      </c>
+      <c r="S5" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>m</v>
+      </c>
+      <c r="T5" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄇ</v>
+      </c>
+      <c r="X5" s="14">
+        <f t="shared" ref="X5:X57" si="6">X4+1</f>
+        <v>3</v>
+      </c>
+      <c r="Y5" s="188" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z5" s="143" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA5" s="135" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y5, 表格1_3345[方音符號], 0)), "")</f>
+        <v>b</v>
+      </c>
+      <c r="AB5" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y5, 表格1_3345[方音符號], 0)), "")</f>
+        <v>z</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="32.25">
+      <c r="A6" s="274" t="str">
+        <f xml:space="preserve"> MID($A$2,A3+1, A4-A3-1)</f>
+        <v>pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN123570</v>
+      </c>
+      <c r="B6" s="275">
+        <f xml:space="preserve"> LEN(A6)</f>
+        <v>42</v>
+      </c>
+      <c r="E6" s="219" cm="1">
+        <f t="array" ref="E6" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="244" t="str">
+        <f t="shared" si="0"/>
+        <v>b</v>
+      </c>
+      <c r="G6" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>z</v>
+      </c>
+      <c r="I6" s="219">
+        <v>4</v>
+      </c>
+      <c r="J6" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>z</v>
+      </c>
+      <c r="K6" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㆠ</v>
+      </c>
+      <c r="M6" s="219">
+        <v>4</v>
+      </c>
+      <c r="N6" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E6, 1), "")</f>
+        <v>t</v>
+      </c>
+      <c r="O6" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E6, 1), "")</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="Q6" s="219">
+        <v>4</v>
+      </c>
+      <c r="R6" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>z</v>
+      </c>
+      <c r="S6" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>b</v>
+      </c>
+      <c r="T6" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㆠ</v>
+      </c>
+      <c r="X6" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Y6" s="188" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA6" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y6, 表格1_3345[方音符號], 0)), "")</f>
+        <v>m</v>
+      </c>
+      <c r="AB6" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y6, 表格1_3345[方音符號], 0)), "")</f>
+        <v>a</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="32.25">
+      <c r="A7" s="274" t="str">
+        <f xml:space="preserve"> MID($A$2,A4+1, A5-A4-1)</f>
+        <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657</v>
+      </c>
+      <c r="B7" s="275">
+        <f xml:space="preserve"> LEN(A7)</f>
+        <v>42</v>
+      </c>
+      <c r="E7" s="219" cm="1">
+        <f t="array" ref="E7" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>5</v>
+      </c>
+      <c r="F7" s="239" t="str">
+        <f t="shared" si="0"/>
+        <v>t</v>
+      </c>
+      <c r="G7" s="240" t="str">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="219">
+        <v>5</v>
+      </c>
+      <c r="J7" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K7" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄉ</v>
+      </c>
+      <c r="M7" s="219">
+        <v>5</v>
+      </c>
+      <c r="N7" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E7, 1), "")</f>
+        <v>T</v>
+      </c>
+      <c r="O7" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E7, 1), "")</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="Q7" s="219">
+        <v>5</v>
+      </c>
+      <c r="R7" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S7" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>t</v>
+      </c>
+      <c r="T7" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄉ</v>
+      </c>
+      <c r="X7" s="41">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Y7" s="189" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" s="144" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="136" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y7, 表格1_3345[方音符號], 0)), "")</f>
+        <v>t</v>
+      </c>
+      <c r="AB7" s="137" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y7, 表格1_3345[方音符號], 0)), "")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="32.25">
+      <c r="E8" s="219" cm="1">
+        <f t="array" ref="E8" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="239" t="str">
+        <f t="shared" si="0"/>
+        <v>T</v>
+      </c>
+      <c r="G8" s="240" t="str">
+        <f t="shared" si="1"/>
+        <v>w</v>
+      </c>
+      <c r="I8" s="219">
+        <v>6</v>
+      </c>
+      <c r="J8" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>w</v>
+      </c>
+      <c r="K8" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄊ</v>
+      </c>
+      <c r="M8" s="219">
+        <v>6</v>
+      </c>
+      <c r="N8" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E8, 1), "")</f>
+        <v>d</v>
+      </c>
+      <c r="O8" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E8, 1), "")</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="Q8" s="219">
+        <v>6</v>
+      </c>
+      <c r="R8" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>w</v>
+      </c>
+      <c r="S8" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="T8" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄊ</v>
+      </c>
+      <c r="X8" s="42">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Y8" s="188" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="143" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y8, 表格1_3345[方音符號], 0)), "")</f>
+        <v>T</v>
+      </c>
+      <c r="AB8" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y8, 表格1_3345[方音符號], 0)), "")</f>
+        <v>w</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="32.25">
+      <c r="E9" s="219" cm="1">
+        <f t="array" ref="E9" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>7</v>
+      </c>
+      <c r="F9" s="239" t="str">
+        <f t="shared" si="0"/>
+        <v>n</v>
+      </c>
+      <c r="G9" s="240" t="str">
+        <f t="shared" si="1"/>
+        <v>s</v>
+      </c>
+      <c r="I9" s="219">
+        <v>7</v>
+      </c>
+      <c r="J9" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>s</v>
+      </c>
+      <c r="K9" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄋ</v>
+      </c>
+      <c r="M9" s="219">
+        <v>7</v>
+      </c>
+      <c r="N9" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E9, 1), "")</f>
+        <v>k</v>
+      </c>
+      <c r="O9" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E9, 1), "")</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="Q9" s="219">
+        <v>7</v>
+      </c>
+      <c r="R9" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>s</v>
+      </c>
+      <c r="S9" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>n</v>
+      </c>
+      <c r="T9" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄋ</v>
+      </c>
+      <c r="X9" s="42">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Y9" s="188" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y9, 表格1_3345[方音符號], 0)), "")</f>
+        <v>n</v>
+      </c>
+      <c r="AB9" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y9, 表格1_3345[方音符號], 0)), "")</f>
+        <v>s</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="32.25">
+      <c r="A10" s="277" t="s">
+        <v>732</v>
+      </c>
+      <c r="E10" s="219" cm="1">
+        <f t="array" ref="E10" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>8</v>
+      </c>
+      <c r="F10" s="249" t="str">
+        <f t="shared" si="0"/>
+        <v>d</v>
+      </c>
+      <c r="G10" s="250" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="I10" s="219">
+        <v>8</v>
+      </c>
+      <c r="J10" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>x</v>
+      </c>
+      <c r="K10" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄌ</v>
+      </c>
+      <c r="M10" s="219">
+        <v>8</v>
+      </c>
+      <c r="N10" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E10, 1), "")</f>
+        <v>K</v>
+      </c>
+      <c r="O10" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E10, 1), "")</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="Q10" s="219">
+        <v>8</v>
+      </c>
+      <c r="R10" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>x</v>
+      </c>
+      <c r="S10" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>d</v>
+      </c>
+      <c r="T10" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄌ</v>
+      </c>
+      <c r="X10" s="43">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Y10" s="190" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z10" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA10" s="138" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y10, 表格1_3345[方音符號], 0)), "")</f>
+        <v>d</v>
+      </c>
+      <c r="AB10" s="139" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y10, 表格1_3345[方音符號], 0)), "")</f>
+        <v>x</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="32.25">
+      <c r="A11" s="291" t="s">
+        <v>817</v>
+      </c>
+      <c r="E11" s="219" cm="1">
+        <f t="array" ref="E11" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>9</v>
+      </c>
+      <c r="F11" s="230" t="str">
+        <f t="shared" si="0"/>
+        <v>k</v>
+      </c>
+      <c r="G11" s="231" t="str">
+        <f t="shared" si="1"/>
+        <v>e</v>
+      </c>
+      <c r="I11" s="219">
+        <v>9</v>
+      </c>
+      <c r="J11" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>e</v>
+      </c>
+      <c r="K11" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄍ</v>
+      </c>
+      <c r="M11" s="219">
+        <v>9</v>
+      </c>
+      <c r="N11" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E11, 1), "")</f>
+        <v>g</v>
+      </c>
+      <c r="O11" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E11, 1), "")</f>
+        <v>ㆣ</v>
+      </c>
+      <c r="Q11" s="219">
+        <v>9</v>
+      </c>
+      <c r="R11" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>e</v>
+      </c>
+      <c r="S11" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>k</v>
+      </c>
+      <c r="T11" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="X11" s="14">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Y11" s="188" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="143" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA11" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y11, 表格1_3345[方音符號], 0)), "")</f>
+        <v>k</v>
+      </c>
+      <c r="AB11" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y11, 表格1_3345[方音符號], 0)), "")</f>
+        <v>e</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="32.25">
+      <c r="A12" s="219">
+        <f xml:space="preserve"> SEARCH("|",$A$11,1)</f>
+        <v>7</v>
+      </c>
+      <c r="E12" s="219" cm="1">
+        <f t="array" ref="E12" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>10</v>
+      </c>
+      <c r="F12" s="239" t="str">
+        <f t="shared" si="0"/>
+        <v>K</v>
+      </c>
+      <c r="G12" s="240" t="str">
+        <f t="shared" si="1"/>
+        <v>d</v>
+      </c>
+      <c r="I12" s="219">
+        <v>10</v>
+      </c>
+      <c r="J12" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>d</v>
+      </c>
+      <c r="K12" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄎ</v>
+      </c>
+      <c r="M12" s="219">
+        <v>10</v>
+      </c>
+      <c r="N12" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E12, 1), "")</f>
+        <v>c</v>
+      </c>
+      <c r="O12" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E12, 1), "")</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="Q12" s="219">
+        <v>10</v>
+      </c>
+      <c r="R12" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>d</v>
+      </c>
+      <c r="S12" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>K</v>
+      </c>
+      <c r="T12" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄎ</v>
+      </c>
+      <c r="X12" s="14">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Y12" s="188" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z12" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA12" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y12, 表格1_3345[方音符號], 0)), "")</f>
+        <v>K</v>
+      </c>
+      <c r="AB12" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y12, 表格1_3345[方音符號], 0)), "")</f>
+        <v>d</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="32.25">
+      <c r="A13" s="219">
+        <f xml:space="preserve"> SEARCH("|",$A$11,A12+1)</f>
+        <v>49</v>
+      </c>
+      <c r="E13" s="219" cm="1">
+        <f t="array" ref="E13" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>11</v>
+      </c>
+      <c r="F13" s="249" t="str">
+        <f t="shared" si="0"/>
+        <v>h</v>
+      </c>
+      <c r="G13" s="250" t="str">
+        <f t="shared" si="1"/>
+        <v>c</v>
+      </c>
+      <c r="I13" s="219">
+        <v>11</v>
+      </c>
+      <c r="J13" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>c</v>
+      </c>
+      <c r="K13" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄏ</v>
+      </c>
+      <c r="M13" s="219">
+        <v>11</v>
+      </c>
+      <c r="N13" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E13, 1), "")</f>
+        <v>C</v>
+      </c>
+      <c r="O13" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E13, 1), "")</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="Q13" s="219">
+        <v>11</v>
+      </c>
+      <c r="R13" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>c</v>
+      </c>
+      <c r="S13" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>h</v>
+      </c>
+      <c r="T13" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="X13" s="14">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="Y13" s="188" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z13" s="143" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA13" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y13, 表格1_3345[方音符號], 0)), "")</f>
+        <v>g</v>
+      </c>
+      <c r="AB13" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y13, 表格1_3345[方音符號], 0)), "")</f>
+        <v>t</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="32.25">
+      <c r="A14" s="219">
+        <f xml:space="preserve"> SEARCH("|",$A$11,A13+1)</f>
+        <v>91</v>
+      </c>
+      <c r="E14" s="219" cm="1">
+        <f t="array" ref="E14" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>12</v>
+      </c>
+      <c r="F14" s="230" t="str">
+        <f t="shared" si="0"/>
+        <v>j</v>
+      </c>
+      <c r="G14" s="231" t="str">
+        <f t="shared" si="1"/>
+        <v>r</v>
+      </c>
+      <c r="I14" s="219">
+        <v>12</v>
+      </c>
+      <c r="J14" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>r</v>
+      </c>
+      <c r="K14" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄐ</v>
+      </c>
+      <c r="M14" s="219">
+        <v>12</v>
+      </c>
+      <c r="N14" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E14, 1), "")</f>
+        <v>z</v>
+      </c>
+      <c r="O14" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E14, 1), "")</f>
+        <v>ㆡ</v>
+      </c>
+      <c r="Q14" s="219">
+        <v>12</v>
+      </c>
+      <c r="R14" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>r</v>
+      </c>
+      <c r="S14" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>j</v>
+      </c>
+      <c r="T14" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄐ</v>
+      </c>
+      <c r="X14" s="14">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="Y14" s="188" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z14" s="143" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA14" s="135" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y14, 表格1_3345[方音符號], 0)), "")</f>
+        <v>q</v>
+      </c>
+      <c r="AB14" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y14, 表格1_3345[方音符號], 0)), "")</f>
+        <v>g</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="32.25">
+      <c r="A15" s="274" t="str">
+        <f xml:space="preserve"> MID($A$11,A12+1, A13-A12-1)</f>
+        <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-43657</v>
+      </c>
+      <c r="B15" s="275">
+        <f xml:space="preserve"> LEN(A15)</f>
+        <v>41</v>
+      </c>
+      <c r="E15" s="219" cm="1">
+        <f t="array" ref="E15" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>13</v>
+      </c>
+      <c r="F15" s="239" t="str">
+        <f t="shared" si="0"/>
+        <v>J</v>
+      </c>
+      <c r="G15" s="240" t="str">
+        <f t="shared" si="1"/>
+        <v>f</v>
+      </c>
+      <c r="I15" s="219">
+        <v>13</v>
+      </c>
+      <c r="J15" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>f</v>
+      </c>
+      <c r="K15" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄑ</v>
+      </c>
+      <c r="M15" s="219">
+        <v>13</v>
+      </c>
+      <c r="N15" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E15, 1), "")</f>
+        <v>s</v>
+      </c>
+      <c r="O15" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E15, 1), "")</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="Q15" s="219">
+        <v>13</v>
+      </c>
+      <c r="R15" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>f</v>
+      </c>
+      <c r="S15" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>J</v>
+      </c>
+      <c r="T15" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄑ</v>
+      </c>
+      <c r="X15" s="41">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="Y15" s="189" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z15" s="144" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA15" s="136" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y15, 表格1_3345[方音符號], 0)), "")</f>
+        <v>c</v>
+      </c>
+      <c r="AB15" s="137" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y15, 表格1_3345[方音符號], 0)), "")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="32.25">
+      <c r="A16" s="274" t="str">
+        <f xml:space="preserve"> MID($A$11,A13+1, A14-A13-1)</f>
+        <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
+      </c>
+      <c r="B16" s="275">
+        <f xml:space="preserve"> LEN(A16)</f>
+        <v>41</v>
+      </c>
+      <c r="E16" s="219" cm="1">
+        <f t="array" ref="E16" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>14</v>
+      </c>
+      <c r="F16" s="244" t="str">
+        <f t="shared" si="0"/>
+        <v>S</v>
+      </c>
+      <c r="G16" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>v</v>
+      </c>
+      <c r="I16" s="219">
+        <v>14</v>
+      </c>
+      <c r="J16" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>v</v>
+      </c>
+      <c r="K16" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄒ</v>
+      </c>
+      <c r="M16" s="219">
+        <v>14</v>
+      </c>
+      <c r="N16" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E16, 1), "")</f>
+        <v>h</v>
+      </c>
+      <c r="O16" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E16, 1), "")</f>
+        <v>ㄏ</v>
+      </c>
+      <c r="Q16" s="219">
+        <v>14</v>
+      </c>
+      <c r="R16" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>v</v>
+      </c>
+      <c r="S16" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="T16" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄒ</v>
+      </c>
+      <c r="X16" s="42">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="Y16" s="188" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z16" s="143" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA16" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y16, 表格1_3345[方音符號], 0)), "")</f>
+        <v>C</v>
+      </c>
+      <c r="AB16" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y16, 表格1_3345[方音符號], 0)), "")</f>
+        <v>h</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" ht="32.25">
+      <c r="E17" s="219" cm="1">
+        <f t="array" ref="E17" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>15</v>
+      </c>
+      <c r="F17" s="230" t="str">
+        <f t="shared" si="0"/>
+        <v>g</v>
+      </c>
+      <c r="G17" s="231" t="str">
+        <f t="shared" si="1"/>
+        <v>t</v>
+      </c>
+      <c r="I17" s="219">
+        <v>15</v>
+      </c>
+      <c r="J17" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>t</v>
+      </c>
+      <c r="K17" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㆣ</v>
+      </c>
+      <c r="M17" s="219">
+        <v>15</v>
+      </c>
+      <c r="N17" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E17, 1), "")</f>
+        <v>i</v>
+      </c>
+      <c r="O17" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E17, 1), "")</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="Q17" s="219">
+        <v>15</v>
+      </c>
+      <c r="R17" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>t</v>
+      </c>
+      <c r="S17" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>g</v>
+      </c>
+      <c r="T17" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㆣ</v>
+      </c>
+      <c r="X17" s="42">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="Y17" s="188" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z17" s="143" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA17" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y17, 表格1_3345[方音符號], 0)), "")</f>
+        <v>z</v>
+      </c>
+      <c r="AB17" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y17, 表格1_3345[方音符號], 0)), "")</f>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" ht="32.25">
+      <c r="E18" s="219" cm="1">
+        <f t="array" ref="E18" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>16</v>
+      </c>
+      <c r="F18" s="239" t="str">
+        <f t="shared" si="0"/>
+        <v>q</v>
+      </c>
+      <c r="G18" s="240" t="str">
+        <f t="shared" si="1"/>
+        <v>g</v>
+      </c>
+      <c r="I18" s="219">
+        <v>16</v>
+      </c>
+      <c r="J18" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>g</v>
+      </c>
+      <c r="K18" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄫ</v>
+      </c>
+      <c r="M18" s="219">
+        <v>16</v>
+      </c>
+      <c r="N18" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E18, 1), "")</f>
+        <v>u</v>
+      </c>
+      <c r="O18" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E18, 1), "")</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="Q18" s="219">
+        <v>16</v>
+      </c>
+      <c r="R18" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>g</v>
+      </c>
+      <c r="S18" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>q</v>
+      </c>
+      <c r="T18" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄫ</v>
+      </c>
+      <c r="X18" s="43">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="Y18" s="190" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z18" s="145" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA18" s="138" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y18, 表格1_3345[方音符號], 0)), "")</f>
+        <v>s</v>
+      </c>
+      <c r="AB18" s="139" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y18, 表格1_3345[方音符號], 0)), "")</f>
+        <v>n</v>
+      </c>
+      <c r="AD18" s="383" t="s">
+        <v>820</v>
+      </c>
+      <c r="AF18" s="388" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; AF19 &amp; "|" &amp; AF20 &amp; "|"</f>
+        <v>- xlit|pPmbtTndkKhjJSgqzcCsiuBaOoMIeUYLDQGN123570|1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657|</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" ht="32.25">
+      <c r="E19" s="219" cm="1">
+        <f t="array" ref="E19" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>17</v>
+      </c>
+      <c r="F19" s="244" t="str">
+        <f t="shared" si="0"/>
+        <v>z</v>
+      </c>
+      <c r="G19" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>b</v>
+      </c>
+      <c r="I19" s="219">
+        <v>17</v>
+      </c>
+      <c r="J19" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>b</v>
+      </c>
+      <c r="K19" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㆡ</v>
+      </c>
+      <c r="M19" s="219">
+        <v>17</v>
+      </c>
+      <c r="N19" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E19, 1), "")</f>
+        <v>a</v>
+      </c>
+      <c r="O19" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E19, 1), "")</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="Q19" s="219">
+        <v>17</v>
+      </c>
+      <c r="R19" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>b</v>
+      </c>
+      <c r="S19" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>z</v>
+      </c>
+      <c r="T19" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㆡ</v>
+      </c>
+      <c r="X19" s="14">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="Y19" s="188" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z19" s="143" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA19" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y19, 表格1_3345[方音符號], 0)), "")</f>
+        <v>j</v>
+      </c>
+      <c r="AB19" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y19, 表格1_3345[方音符號], 0)), "")</f>
+        <v>r</v>
+      </c>
+      <c r="AD19" s="379" t="s">
+        <v>815</v>
+      </c>
+      <c r="AE19" s="277">
+        <f xml:space="preserve"> LEN(AF19)</f>
+        <v>42</v>
+      </c>
+      <c r="AF19" s="386" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(F$3:F$44)</f>
+        <v>pPmbtTndkKhjJSgqzcCsiuBaOoMIeUYLDQGN123570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="32.25">
+      <c r="A20" s="277" t="s">
+        <v>744</v>
+      </c>
+      <c r="E20" s="219" cm="1">
+        <f t="array" ref="E20" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>18</v>
+      </c>
+      <c r="F20" s="255" t="str">
+        <f t="shared" si="0"/>
+        <v>c</v>
+      </c>
+      <c r="G20" s="256" t="str">
+        <f t="shared" si="1"/>
+        <v>y</v>
+      </c>
+      <c r="I20" s="219">
+        <v>18</v>
+      </c>
+      <c r="J20" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>y</v>
+      </c>
+      <c r="K20" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄗ</v>
+      </c>
+      <c r="M20" s="219">
+        <v>18</v>
+      </c>
+      <c r="N20" s="233" t="s">
+        <v>315</v>
+      </c>
+      <c r="O20" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E20, 1), "")</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="Q20" s="219">
+        <v>18</v>
+      </c>
+      <c r="R20" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>y</v>
+      </c>
+      <c r="S20" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>c</v>
+      </c>
+      <c r="T20" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄗ</v>
+      </c>
+      <c r="X20" s="14">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="Y20" s="188" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z20" s="143" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA20" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y20, 表格1_3345[方音符號], 0)), "")</f>
+        <v>J</v>
+      </c>
+      <c r="AB20" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y20, 表格1_3345[方音符號], 0)), "")</f>
+        <v>f</v>
+      </c>
+      <c r="AD20" s="381" t="s">
+        <v>818</v>
+      </c>
+      <c r="AE20" s="277">
+        <f xml:space="preserve"> LEN(AF20)</f>
+        <v>42</v>
+      </c>
+      <c r="AF20" s="386" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(G$3:G$44)</f>
+        <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="32.25">
+      <c r="A21" s="291" t="s">
+        <v>823</v>
+      </c>
+      <c r="E21" s="219" cm="1">
+        <f t="array" ref="E21" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>19</v>
+      </c>
+      <c r="F21" s="260" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="G21" s="261" t="str">
+        <f t="shared" si="1"/>
+        <v>h</v>
+      </c>
+      <c r="I21" s="219">
+        <v>19</v>
+      </c>
+      <c r="J21" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>h</v>
+      </c>
+      <c r="K21" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄘ</v>
+      </c>
+      <c r="M21" s="219">
+        <v>19</v>
+      </c>
+      <c r="N21" s="233" t="s">
+        <v>146</v>
+      </c>
+      <c r="O21" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E21, 1), "")</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="Q21" s="219">
+        <v>19</v>
+      </c>
+      <c r="R21" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>h</v>
+      </c>
+      <c r="S21" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+      <c r="T21" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄘ</v>
+      </c>
+      <c r="X21" s="14">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="Y21" s="188" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z21" s="143" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA21" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y21, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB21" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y21, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AF21" s="384"/>
+    </row>
+    <row r="22" spans="1:33" ht="32.25">
+      <c r="A22" s="219">
+        <f xml:space="preserve"> SEARCH("|",A21,1)</f>
+        <v>7</v>
+      </c>
+      <c r="E22" s="219" cm="1">
+        <f t="array" ref="E22" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>20</v>
+      </c>
+      <c r="F22" s="244" t="str">
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="G22" s="245" t="str">
+        <f t="shared" si="1"/>
+        <v>n</v>
+      </c>
+      <c r="I22" s="219">
+        <v>20</v>
+      </c>
+      <c r="J22" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>n</v>
+      </c>
+      <c r="K22" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄙ</v>
+      </c>
+      <c r="M22" s="219">
+        <v>20</v>
+      </c>
+      <c r="N22" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E22, 1), "")</f>
+        <v>e</v>
+      </c>
+      <c r="O22" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E22, 1), "")</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="Q22" s="219">
+        <v>20</v>
+      </c>
+      <c r="R22" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>n</v>
+      </c>
+      <c r="S22" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>s</v>
+      </c>
+      <c r="T22" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄙ</v>
+      </c>
+      <c r="X22" s="14">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="Y22" s="188" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z22" s="143" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA22" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y22, 表格1_3345[方音符號], 0)), "")</f>
+        <v>S</v>
+      </c>
+      <c r="AB22" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y22, 表格1_3345[方音符號], 0)), "")</f>
+        <v>v</v>
+      </c>
+      <c r="AD22" s="383" t="s">
+        <v>821</v>
+      </c>
+      <c r="AF22" s="389" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; AF23 &amp; "|" &amp; AF24 &amp; "|"</f>
+        <v>- xlit|1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-43657|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．|</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="32.25">
+      <c r="A23" s="219">
+        <f xml:space="preserve"> SEARCH("|",A21,A22+1)</f>
+        <v>34</v>
+      </c>
+      <c r="E23" s="219" cm="1">
+        <f t="array" ref="E23" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>21</v>
+      </c>
+      <c r="F23" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="G23" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>u</v>
+      </c>
+      <c r="I23" s="219">
+        <v>21</v>
+      </c>
+      <c r="J23" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>u</v>
+      </c>
+      <c r="K23" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄧ</v>
+      </c>
+      <c r="M23" s="219">
+        <v>21</v>
+      </c>
+      <c r="N23" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E23, 1), "")</f>
+        <v>I</v>
+      </c>
+      <c r="O23" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E23, 1), "")</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="Q23" s="219">
+        <v>21</v>
+      </c>
+      <c r="R23" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>u</v>
+      </c>
+      <c r="S23" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>i</v>
+      </c>
+      <c r="T23" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄧ</v>
+      </c>
+      <c r="X23" s="40">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="Y23" s="191" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="146" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA23" s="140" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y23, 表格1_3345[方音符號], 0)), "")</f>
+        <v>h</v>
+      </c>
+      <c r="AB23" s="141" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y23, 表格1_3345[方音符號], 0)), "")</f>
+        <v>c</v>
+      </c>
+      <c r="AD23" s="381" t="s">
+        <v>818</v>
+      </c>
+      <c r="AE23" s="277">
+        <f xml:space="preserve"> LEN(AF23)</f>
+        <v>41</v>
+      </c>
+      <c r="AF23" s="386" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(J$3:J$43)</f>
+        <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-43657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="32.25">
+      <c r="A24" s="219">
+        <f xml:space="preserve"> SEARCH("|",A21,A23+1)</f>
+        <v>61</v>
+      </c>
+      <c r="E24" s="219" cm="1">
+        <f t="array" ref="E24" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>22</v>
+      </c>
+      <c r="F24" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>u</v>
+      </c>
+      <c r="G24" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>j</v>
+      </c>
+      <c r="I24" s="219">
+        <v>22</v>
+      </c>
+      <c r="J24" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>j</v>
+      </c>
+      <c r="K24" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄨ</v>
+      </c>
+      <c r="M24" s="219">
+        <v>22</v>
+      </c>
+      <c r="N24" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E24, 1), "")</f>
+        <v>U</v>
+      </c>
+      <c r="O24" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E24, 1), "")</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="Q24" s="219">
+        <v>22</v>
+      </c>
+      <c r="R24" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>j</v>
+      </c>
+      <c r="S24" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>u</v>
+      </c>
+      <c r="T24" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄨ</v>
+      </c>
+      <c r="X24" s="44">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="Y24" s="189" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z24" s="144" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA24" s="136" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y24, 表格1_3345[方音符號], 0)), "")</f>
+        <v>a</v>
+      </c>
+      <c r="AB24" s="137" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y24, 表格1_3345[方音符號], 0)), "")</f>
+        <v>8</v>
+      </c>
+      <c r="AD24" s="380" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE24" s="277">
+        <f xml:space="preserve"> LEN(AF24)</f>
+        <v>41</v>
+      </c>
+      <c r="AF24" s="386" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(K$3:K$43)</f>
+        <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="32.25">
+      <c r="A25" s="274" t="str">
+        <f xml:space="preserve"> MID($A$21,A22+1, A23-A22-1)</f>
+        <v>pPbtTdkKgcCzshiuaoøeIUBDGN</v>
+      </c>
+      <c r="B25" s="219">
+        <f xml:space="preserve"> LEN(A25)</f>
+        <v>26</v>
+      </c>
+      <c r="E25" s="219" cm="1">
+        <f t="array" ref="E25" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>23</v>
+      </c>
+      <c r="F25" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="G25" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>m</v>
+      </c>
+      <c r="I25" s="219">
+        <v>23</v>
+      </c>
+      <c r="J25" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>m</v>
+      </c>
+      <c r="K25" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㆬ</v>
+      </c>
+      <c r="M25" s="219">
+        <v>23</v>
+      </c>
+      <c r="N25" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E25, 1), "")</f>
+        <v>B</v>
+      </c>
+      <c r="O25" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E25, 1), "")</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="Q25" s="219">
+        <v>23</v>
+      </c>
+      <c r="R25" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>m</v>
+      </c>
+      <c r="S25" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="T25" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㆬ</v>
+      </c>
+      <c r="X25" s="14">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="Y25" s="188" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z25" s="143" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA25" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y25, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB25" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y25, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AG25" s="385"/>
+    </row>
+    <row r="26" spans="1:33" ht="32.25">
+      <c r="A26" s="387" t="str">
+        <f xml:space="preserve"> MID($A$21,A23+1, A24-A23-1)</f>
+        <v>ㄅㄆㆠㄉㄊㄌㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆦㄜㆤㄞㄠㆬㄣㆭｎ</v>
+      </c>
+      <c r="B26" s="219">
+        <f xml:space="preserve"> LEN(A26)</f>
+        <v>26</v>
+      </c>
+      <c r="E26" s="219" cm="1">
+        <f t="array" ref="E26" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>24</v>
+      </c>
+      <c r="F26" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="G26" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I26" s="219">
+        <v>24</v>
+      </c>
+      <c r="J26" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K26" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄚ</v>
+      </c>
+      <c r="M26" s="219">
+        <v>24</v>
+      </c>
+      <c r="N26" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E26, 1), "")</f>
+        <v>D</v>
+      </c>
+      <c r="O26" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E26, 1), "")</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="Q26" s="219">
+        <v>24</v>
+      </c>
+      <c r="R26" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="S26" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>a</v>
+      </c>
+      <c r="T26" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄚ</v>
+      </c>
+      <c r="X26" s="14">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="Y26" s="188" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z26" s="143" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA26" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y26, 表格1_3345[方音符號], 0)), "")</f>
+        <v>O</v>
+      </c>
+      <c r="AB26" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y26, 表格1_3345[方音符號], 0)), "")</f>
+        <v>i</v>
+      </c>
+      <c r="AD26" s="383" t="s">
+        <v>822</v>
+      </c>
+      <c r="AF26" s="388" t="str">
+        <f xml:space="preserve"> "- xlit|" &amp; AF27 &amp; "|" &amp; AF28 &amp; "|"</f>
+        <v>- xlit|pPbtTdkKgcCzshiuaOoeIUBDGN|ㄅㄆㆠㄉㄊㄌㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆦㄜㆤㄞㄠㆬㄣㆭｎ|</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" ht="32.25">
+      <c r="E27" s="219" cm="1">
+        <f t="array" ref="E27" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>25</v>
+      </c>
+      <c r="F27" s="264" t="s">
+        <v>315</v>
+      </c>
+      <c r="G27" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>i</v>
+      </c>
+      <c r="I27" s="219">
+        <v>25</v>
+      </c>
+      <c r="J27" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>i</v>
+      </c>
+      <c r="K27" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㆦ</v>
+      </c>
+      <c r="M27" s="219">
+        <v>25</v>
+      </c>
+      <c r="N27" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E27, 1), "")</f>
+        <v>G</v>
+      </c>
+      <c r="O27" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E27, 1), "")</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="Q27" s="219">
+        <v>25</v>
+      </c>
+      <c r="R27" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>i</v>
+      </c>
+      <c r="S27" s="378" t="s">
+        <v>315</v>
+      </c>
+      <c r="T27" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="X27" s="14">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="Y27" s="188" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z27" s="143" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA27" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y27, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB27" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y27, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AD27" s="379" t="s">
+        <v>815</v>
+      </c>
+      <c r="AE27" s="277">
+        <f xml:space="preserve"> LEN(AF27)</f>
+        <v>26</v>
+      </c>
+      <c r="AF27" s="386" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(N$3:N$28)</f>
+        <v>pPbtTdkKgcCzshiuaOoeIUBDGN</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" ht="32.25">
+      <c r="E28" s="219" cm="1">
+        <f t="array" ref="E28" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>26</v>
+      </c>
+      <c r="F28" s="264" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>k</v>
+      </c>
+      <c r="I28" s="219">
+        <v>26</v>
+      </c>
+      <c r="J28" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>k</v>
+      </c>
+      <c r="K28" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄜ</v>
+      </c>
+      <c r="M28" s="219">
+        <v>26</v>
+      </c>
+      <c r="N28" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E28, 1), "")</f>
+        <v>N</v>
+      </c>
+      <c r="O28" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E28, 1), "")</f>
+        <v>ｎ</v>
+      </c>
+      <c r="Q28" s="219">
+        <v>26</v>
+      </c>
+      <c r="R28" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>k</v>
+      </c>
+      <c r="S28" s="378" t="s">
+        <v>146</v>
+      </c>
+      <c r="T28" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄜ</v>
+      </c>
+      <c r="X28" s="14">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="Y28" s="188" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z28" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA28" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y28, 表格1_3345[方音符號], 0)), "")</f>
+        <v>o</v>
+      </c>
+      <c r="AB28" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y28, 表格1_3345[方音符號], 0)), "")</f>
+        <v>k</v>
+      </c>
+      <c r="AD28" s="380" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE28" s="277">
+        <f xml:space="preserve"> LEN(AF28)</f>
+        <v>26</v>
+      </c>
+      <c r="AF28" s="386" t="str">
+        <f xml:space="preserve"> _xlfn.CONCAT(O$3:O$28)</f>
+        <v>ㄅㄆㆠㄉㄊㄌㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆦㄜㆤㄞㄠㆬㄣㆭｎ</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" ht="32.25">
+      <c r="E29" s="219" cm="1">
+        <f t="array" ref="E29" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>27</v>
+      </c>
+      <c r="F29" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>M</v>
+      </c>
+      <c r="G29" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>,</v>
+      </c>
+      <c r="I29" s="219">
+        <v>27</v>
+      </c>
+      <c r="J29" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>,</v>
+      </c>
+      <c r="K29" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㆰ</v>
+      </c>
+      <c r="M29" s="219">
+        <v>27</v>
+      </c>
+      <c r="N29" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E29, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O29" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E29, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q29" s="219">
+        <v>27</v>
+      </c>
+      <c r="R29" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>,</v>
+      </c>
+      <c r="S29" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>M</v>
+      </c>
+      <c r="T29" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㆰ</v>
+      </c>
+      <c r="X29" s="14">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="Y29" s="188" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z29" s="143" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA29" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y29, 表格1_3345[方音符號], 0)), "")</f>
+        <v>e</v>
+      </c>
+      <c r="AB29" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y29, 表格1_3345[方音符號], 0)), "")</f>
+        <v>o</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="32.25">
+      <c r="E30" s="219" cm="1">
+        <f t="array" ref="E30" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>28</v>
+      </c>
+      <c r="F30" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>I</v>
+      </c>
+      <c r="G30" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I30" s="219">
+        <v>28</v>
+      </c>
+      <c r="J30" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="K30" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄞ</v>
+      </c>
+      <c r="M30" s="219">
+        <v>28</v>
+      </c>
+      <c r="N30" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E30, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O30" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E30, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q30" s="219">
+        <v>28</v>
+      </c>
+      <c r="R30" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="S30" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>I</v>
+      </c>
+      <c r="T30" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄞ</v>
+      </c>
+      <c r="X30" s="45">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="Y30" s="190" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z30" s="145" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA30" s="138" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y30, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB30" s="139" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y30, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:33" ht="32.25">
+      <c r="E31" s="219" cm="1">
+        <f t="array" ref="E31" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>29</v>
+      </c>
+      <c r="F31" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="G31" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>o</v>
+      </c>
+      <c r="I31" s="219">
+        <v>29</v>
+      </c>
+      <c r="J31" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>o</v>
+      </c>
+      <c r="K31" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㆤ</v>
+      </c>
+      <c r="M31" s="219">
+        <v>29</v>
+      </c>
+      <c r="N31" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E31, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O31" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E31, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q31" s="219">
+        <v>29</v>
+      </c>
+      <c r="R31" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>o</v>
+      </c>
+      <c r="S31" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>e</v>
+      </c>
+      <c r="T31" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㆤ</v>
+      </c>
+      <c r="X31" s="44">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="Y31" s="189" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z31" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA31" s="136" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y31, 表格1_3345[方音符號], 0)), "")</f>
+        <v>i</v>
+      </c>
+      <c r="AB31" s="137" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y31, 表格1_3345[方音符號], 0)), "")</f>
+        <v>u</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="32.25">
+      <c r="E32" s="219" cm="1">
+        <f t="array" ref="E32" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>30</v>
+      </c>
+      <c r="F32" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>U</v>
+      </c>
+      <c r="G32" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>l</v>
+      </c>
+      <c r="I32" s="219">
+        <v>30</v>
+      </c>
+      <c r="J32" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>l</v>
+      </c>
+      <c r="K32" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄠ</v>
+      </c>
+      <c r="M32" s="219">
+        <v>30</v>
+      </c>
+      <c r="N32" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E32, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O32" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E32, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="219">
+        <v>30</v>
+      </c>
+      <c r="R32" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>l</v>
+      </c>
+      <c r="S32" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>U</v>
+      </c>
+      <c r="T32" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄠ</v>
+      </c>
+      <c r="X32" s="14">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="Y32" s="188" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z32" s="143" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA32" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y32, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB32" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y32, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:28" ht="32.25">
+      <c r="E33" s="219" cm="1">
+        <f t="array" ref="E33" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>31</v>
+      </c>
+      <c r="F33" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>Y</v>
+      </c>
+      <c r="G33" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>.</v>
+      </c>
+      <c r="I33" s="219">
+        <v>31</v>
+      </c>
+      <c r="J33" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>.</v>
+      </c>
+      <c r="K33" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㆲ</v>
+      </c>
+      <c r="M33" s="219">
+        <v>31</v>
+      </c>
+      <c r="N33" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E33, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O33" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E33, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="219">
+        <v>31</v>
+      </c>
+      <c r="R33" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>.</v>
+      </c>
+      <c r="S33" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="T33" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㆲ</v>
+      </c>
+      <c r="X33" s="14">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="Y33" s="188" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z33" s="143" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA33" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y33, 表格1_3345[方音符號], 0)), "")</f>
+        <v>u</v>
+      </c>
+      <c r="AB33" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y33, 表格1_3345[方音符號], 0)), "")</f>
+        <v>j</v>
+      </c>
+    </row>
+    <row r="34" spans="5:28" ht="32.25">
+      <c r="E34" s="219" cm="1">
+        <f t="array" ref="E34" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>32</v>
+      </c>
+      <c r="F34" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>L</v>
+      </c>
+      <c r="G34" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="219">
+        <v>32</v>
+      </c>
+      <c r="J34" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄢ</v>
+      </c>
+      <c r="M34" s="219">
+        <v>32</v>
+      </c>
+      <c r="N34" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E34, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O34" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E34, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q34" s="219">
+        <v>32</v>
+      </c>
+      <c r="R34" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>L</v>
+      </c>
+      <c r="T34" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄢ</v>
+      </c>
+      <c r="X34" s="45">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="Y34" s="190" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z34" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA34" s="138" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y34, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB34" s="139" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y34, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:28" ht="32.25">
+      <c r="E35" s="219" cm="1">
+        <f t="array" ref="E35" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>33</v>
+      </c>
+      <c r="F35" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="G35" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>p</v>
+      </c>
+      <c r="I35" s="219">
+        <v>33</v>
+      </c>
+      <c r="J35" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>p</v>
+      </c>
+      <c r="K35" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄣ</v>
+      </c>
+      <c r="M35" s="219">
+        <v>33</v>
+      </c>
+      <c r="N35" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E35, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O35" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E35, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q35" s="219">
+        <v>33</v>
+      </c>
+      <c r="R35" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>p</v>
+      </c>
+      <c r="S35" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="T35" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄣ</v>
+      </c>
+      <c r="X35" s="14">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="Y35" s="188" t="s">
+        <v>819</v>
+      </c>
+      <c r="Z35" s="143" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA35" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y35, 表格1_3345[方音符號], 0)), "")</f>
+        <v>I</v>
+      </c>
+      <c r="AB35" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y35, 表格1_3345[方音符號], 0)), "")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="5:28" ht="32.25">
+      <c r="E36" s="219" cm="1">
+        <f t="array" ref="E36" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>34</v>
+      </c>
+      <c r="F36" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>Q</v>
+      </c>
+      <c r="G36" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>;</v>
+      </c>
+      <c r="I36" s="219">
+        <v>34</v>
+      </c>
+      <c r="J36" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>;</v>
+      </c>
+      <c r="K36" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㄤ</v>
+      </c>
+      <c r="M36" s="219">
+        <v>34</v>
+      </c>
+      <c r="N36" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E36, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O36" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E36, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q36" s="219">
+        <v>34</v>
+      </c>
+      <c r="R36" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>;</v>
+      </c>
+      <c r="S36" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="T36" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㄤ</v>
+      </c>
+      <c r="X36" s="14">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="Y36" s="188" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z36" s="143" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA36" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y36, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB36" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y36, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="5:28" ht="32.25">
+      <c r="E37" s="219" cm="1">
+        <f t="array" ref="E37" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>35</v>
+      </c>
+      <c r="F37" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>G</v>
+      </c>
+      <c r="G37" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>/</v>
+      </c>
+      <c r="I37" s="219">
+        <v>35</v>
+      </c>
+      <c r="J37" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>/</v>
+      </c>
+      <c r="K37" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ㆭ</v>
+      </c>
+      <c r="M37" s="219">
+        <v>35</v>
+      </c>
+      <c r="N37" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E37, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O37" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E37, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q37" s="219">
+        <v>35</v>
+      </c>
+      <c r="R37" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>/</v>
+      </c>
+      <c r="S37" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>G</v>
+      </c>
+      <c r="T37" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="X37" s="14">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="Y37" s="188" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z37" s="143" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA37" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y37, 表格1_3345[方音符號], 0)), "")</f>
+        <v>U</v>
+      </c>
+      <c r="AB37" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y37, 表格1_3345[方音符號], 0)), "")</f>
+        <v>l</v>
+      </c>
+    </row>
+    <row r="38" spans="5:28" ht="32.25">
+      <c r="E38" s="219" cm="1">
+        <f t="array" ref="E38" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>36</v>
+      </c>
+      <c r="F38" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>N</v>
+      </c>
+      <c r="G38" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="I38" s="219">
+        <v>36</v>
+      </c>
+      <c r="J38" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="K38" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ｎ</v>
+      </c>
+      <c r="M38" s="219">
+        <v>36</v>
+      </c>
+      <c r="N38" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E38, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O38" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E38, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q38" s="219">
+        <v>36</v>
+      </c>
+      <c r="R38" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="S38" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="T38" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ｎ</v>
+      </c>
+      <c r="X38" s="14">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="Y38" s="188" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z38" s="143" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA38" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y38, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB38" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y38, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:28" ht="32.25">
+      <c r="E39" s="219" cm="1">
+        <f t="array" ref="E39" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>37</v>
+      </c>
+      <c r="F39" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I39" s="219">
+        <v>37</v>
+      </c>
+      <c r="J39" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K39" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ˋ</v>
+      </c>
+      <c r="M39" s="219">
+        <v>37</v>
+      </c>
+      <c r="N39" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E39, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O39" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E39, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q39" s="219">
+        <v>37</v>
+      </c>
+      <c r="R39" s="286" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S39" s="287" t="str">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T39" s="290" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v/>
+      </c>
+      <c r="X39" s="14">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="Y39" s="188" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z39" s="143" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA39" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y39, 表格1_3345[方音符號], 0)), "")</f>
+        <v>M</v>
+      </c>
+      <c r="AB39" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y39, 表格1_3345[方音符號], 0)), "")</f>
+        <v>,</v>
+      </c>
+    </row>
+    <row r="40" spans="5:28" ht="32.25">
+      <c r="E40" s="219" cm="1">
+        <f t="array" ref="E40" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>38</v>
+      </c>
+      <c r="F40" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G40" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I40" s="219">
+        <v>38</v>
+      </c>
+      <c r="J40" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K40" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>˪</v>
+      </c>
+      <c r="M40" s="219">
+        <v>38</v>
+      </c>
+      <c r="N40" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E40, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O40" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E40, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q40" s="219">
+        <v>38</v>
+      </c>
+      <c r="R40" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="S40" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="T40" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ˋ</v>
+      </c>
+      <c r="X40" s="14">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="Y40" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z40" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA40" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y40, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB40" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y40, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="5:28" ht="32.25">
+      <c r="E41" s="219" cm="1">
+        <f t="array" ref="E41" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>39</v>
+      </c>
+      <c r="F41" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G41" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I41" s="219">
+        <v>39</v>
+      </c>
+      <c r="J41" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K41" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>ˊ</v>
+      </c>
+      <c r="M41" s="219">
+        <v>39</v>
+      </c>
+      <c r="N41" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E41, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O41" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E41, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q41" s="219">
+        <v>39</v>
+      </c>
+      <c r="R41" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S41" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="T41" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>˪</v>
+      </c>
+      <c r="X41" s="14">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="Y41" s="188" t="s">
+        <v>687</v>
+      </c>
+      <c r="Z41" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA41" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y41, 表格1_3345[方音符號], 0)), "")</f>
+        <v>B</v>
+      </c>
+      <c r="AB41" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y41, 表格1_3345[方音符號], 0)), "")</f>
+        <v>m</v>
+      </c>
+    </row>
+    <row r="42" spans="5:28" ht="32.25">
+      <c r="E42" s="219" cm="1">
+        <f t="array" ref="E42" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>40</v>
+      </c>
+      <c r="F42" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G42" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I42" s="219">
+        <v>40</v>
+      </c>
+      <c r="J42" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K42" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>˫</v>
+      </c>
+      <c r="M42" s="219">
+        <v>40</v>
+      </c>
+      <c r="N42" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E42, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O42" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E42, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q42" s="219">
+        <v>40</v>
+      </c>
+      <c r="R42" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="S42" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="T42" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>ˊ</v>
+      </c>
+      <c r="X42" s="14">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="Y42" s="188" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z42" s="143" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA42" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y42, 表格1_3345[方音符號], 0)), "")</f>
+        <v>L</v>
+      </c>
+      <c r="AB42" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y42, 表格1_3345[方音符號], 0)), "")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:28" ht="32.25">
+      <c r="E43" s="219" cm="1">
+        <f t="array" ref="E43" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>41</v>
+      </c>
+      <c r="F43" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G43" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I43" s="219">
+        <v>41</v>
+      </c>
+      <c r="J43" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K43" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v>．</v>
+      </c>
+      <c r="M43" s="219">
+        <v>41</v>
+      </c>
+      <c r="N43" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E43, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O43" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E43, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q43" s="219">
+        <v>41</v>
+      </c>
+      <c r="R43" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="S43" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="T43" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>˫</v>
+      </c>
+      <c r="X43" s="14">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="Y43" s="188" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z43" s="143" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA43" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y43, 表格1_3345[方音符號], 0)), "")</f>
+        <v>D</v>
+      </c>
+      <c r="AB43" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y43, 表格1_3345[方音符號], 0)), "")</f>
+        <v>p</v>
+      </c>
+    </row>
+    <row r="44" spans="5:28" ht="32.25">
+      <c r="E44" s="219" cm="1">
+        <f t="array" ref="E44" xml:space="preserve"> ROW() - ROW($2:$2)</f>
+        <v>42</v>
+      </c>
+      <c r="F44" s="264" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="264" t="str">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I44" s="219">
+        <v>42</v>
+      </c>
+      <c r="J44" s="234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K44" s="234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M44" s="219">
+        <v>42</v>
+      </c>
+      <c r="N44" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$25, $E44, 1), "")</f>
+        <v/>
+      </c>
+      <c r="O44" s="233" t="str">
+        <f xml:space="preserve"> IFERROR( MID($A$26, $E44, 1), "")</f>
+        <v/>
+      </c>
+      <c r="Q44" s="219">
+        <v>42</v>
+      </c>
+      <c r="R44" s="222" t="str">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="S44" s="236" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="289" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
+        <v>．</v>
+      </c>
+      <c r="X44" s="14">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="Y44" s="188" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z44" s="143" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA44" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y44, 表格1_3345[方音符號], 0)), "")</f>
+        <v>Q</v>
+      </c>
+      <c r="AB44" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y44, 表格1_3345[方音符號], 0)), "")</f>
+        <v>;</v>
+      </c>
+    </row>
+    <row r="45" spans="5:28" ht="32.25">
+      <c r="O45" s="219"/>
+      <c r="X45" s="14">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="Y45" s="188" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z45" s="143" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA45" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y45, 表格1_3345[方音符號], 0)), "")</f>
+        <v>Y</v>
+      </c>
+      <c r="AB45" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y45, 表格1_3345[方音符號], 0)), "")</f>
+        <v>.</v>
+      </c>
+    </row>
+    <row r="46" spans="5:28" ht="32.25">
+      <c r="N46" s="382"/>
+      <c r="X46" s="14">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="Y46" s="188" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z46" s="147" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA46" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y46, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB46" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y46, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="5:28" ht="32.25">
+      <c r="X47" s="14">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="Y47" s="188" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z47" s="143"/>
+      <c r="AA47" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y47, 表格1_3345[方音符號], 0)), "")</f>
+        <v>G</v>
+      </c>
+      <c r="AB47" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y47, 表格1_3345[方音符號], 0)), "")</f>
+        <v>/</v>
+      </c>
+    </row>
+    <row r="48" spans="5:28" ht="32.25">
+      <c r="R48" s="285"/>
+      <c r="X48" s="44">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="Y48" s="189" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z48" s="144">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="136" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y48, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB48" s="137" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y48, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="24:28" ht="32.25">
+      <c r="X49" s="14">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="Y49" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z49" s="143">
+        <v>2</v>
+      </c>
+      <c r="AA49" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y49, 表格1_3345[方音符號], 0)), "")</f>
+        <v>2</v>
+      </c>
+      <c r="AB49" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y49, 表格1_3345[方音符號], 0)), "")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="24:28" ht="32.25">
+      <c r="X50" s="14">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="Y50" s="188" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z50" s="143">
+        <v>3</v>
+      </c>
+      <c r="AA50" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y50, 表格1_3345[方音符號], 0)), "")</f>
+        <v>3</v>
+      </c>
+      <c r="AB50" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y50, 表格1_3345[方音符號], 0)), "")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="24:28" ht="32.25">
+      <c r="X51" s="14">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="Y51" s="188" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z51" s="143" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA51" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y51, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB51" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y51, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="24:28" ht="32.25">
+      <c r="X52" s="14">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="Y52" s="188" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z52" s="143" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA52" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y52, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB52" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y52, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="24:28" ht="32.25">
+      <c r="X53" s="14">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="Y53" s="188" t="s">
+        <v>824</v>
+      </c>
+      <c r="Z53" s="143" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA53" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y53, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB53" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y53, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="24:28" ht="32.25">
+      <c r="X54" s="14">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="Y54" s="188" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z54" s="143" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA54" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y54, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB54" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y54, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="24:28" ht="32.25">
+      <c r="X55" s="14">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="Y55" s="188" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z55" s="143">
+        <v>5</v>
+      </c>
+      <c r="AA55" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y55, 表格1_3345[方音符號], 0)), "")</f>
+        <v>5</v>
+      </c>
+      <c r="AB55" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y55, 表格1_3345[方音符號], 0)), "")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="24:28" ht="32.25">
+      <c r="X56" s="14">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="Y56" s="188" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z56" s="143">
+        <v>7</v>
+      </c>
+      <c r="AA56" s="133" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y56, 表格1_3345[方音符號], 0)), "")</f>
+        <v>7</v>
+      </c>
+      <c r="AB56" s="134" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y56, 表格1_3345[方音符號], 0)), "")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="24:28" ht="32.25">
+      <c r="X57" s="45">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="Y57" s="190" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z57" s="145">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="138" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[字典編碼], MATCH($Y57, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+      <c r="AB57" s="139" t="str">
+        <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y57, 表格1_3345[方音符號], 0)), "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CBD17D-634F-4659-8FED-405C2A4672D9}">
   <dimension ref="B1:AR28"/>
   <sheetViews>
@@ -16404,7 +22211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E8EA02-61C4-2F42-B8BB-0AF59DDC5292}">
   <dimension ref="A1:AX59"/>
   <sheetViews>
@@ -20893,7 +26700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC859DA-7B96-B047-A186-83B979CDDECF}">
   <dimension ref="B2:BK57"/>
   <sheetViews>
@@ -23009,7 +28816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750CEE5B-4D8C-43E0-A4AB-4EADA957FC1E}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -26532,7 +32339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E60580-1911-43C1-BAEF-682A6D6EBCFF}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -28899,7 +34706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EA7F4-FBCF-47D0-A702-D6A889B6B19D}">
   <dimension ref="A2:R17"/>
   <sheetViews>
@@ -29663,2011 +35470,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A44C6B-5C2B-244E-B1C3-BDDB4706BDFC}">
-  <dimension ref="A1:AU39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="25.5"/>
-  <cols>
-    <col min="1" max="1" width="3.5" style="95" customWidth="1"/>
-    <col min="2" max="2" width="28.8984375" style="95" customWidth="1"/>
-    <col min="3" max="47" width="8.69921875" style="95" customWidth="1"/>
-    <col min="48" max="16384" width="10.8984375" style="95"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:47" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
-      <c r="Y1" s="97"/>
-      <c r="Z1" s="97"/>
-      <c r="AA1" s="97"/>
-      <c r="AB1" s="97"/>
-      <c r="AC1" s="97"/>
-      <c r="AD1" s="97"/>
-      <c r="AE1" s="97"/>
-      <c r="AF1" s="97"/>
-      <c r="AG1" s="97"/>
-      <c r="AH1" s="97"/>
-      <c r="AI1" s="97"/>
-      <c r="AJ1" s="97"/>
-      <c r="AK1" s="97"/>
-      <c r="AL1" s="97"/>
-      <c r="AM1" s="97"/>
-      <c r="AN1" s="97"/>
-      <c r="AO1" s="97"/>
-      <c r="AP1" s="97"/>
-      <c r="AQ1" s="355"/>
-      <c r="AR1" s="355"/>
-      <c r="AS1" s="97"/>
-      <c r="AT1" s="97"/>
-      <c r="AU1" s="97"/>
-    </row>
-    <row r="2" spans="1:47" s="96" customFormat="1" ht="34.5">
-      <c r="B2" s="102" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" s="96" customFormat="1" ht="23.25">
-      <c r="B3" s="127" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" s="126" cm="1">
-        <f t="array" ref="C3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="126" cm="1">
-        <f t="array" ref="D3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="126" cm="1">
-        <f t="array" ref="E3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>3</v>
-      </c>
-      <c r="F3" s="126" cm="1">
-        <f t="array" ref="F3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>4</v>
-      </c>
-      <c r="G3" s="126" cm="1">
-        <f t="array" ref="G3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>5</v>
-      </c>
-      <c r="H3" s="126" cm="1">
-        <f t="array" ref="H3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>6</v>
-      </c>
-      <c r="I3" s="126" cm="1">
-        <f t="array" ref="I3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>7</v>
-      </c>
-      <c r="J3" s="126" cm="1">
-        <f t="array" ref="J3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>8</v>
-      </c>
-      <c r="K3" s="126" cm="1">
-        <f t="array" ref="K3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>9</v>
-      </c>
-      <c r="L3" s="126" cm="1">
-        <f t="array" ref="L3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>10</v>
-      </c>
-      <c r="M3" s="126" cm="1">
-        <f t="array" ref="M3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>11</v>
-      </c>
-      <c r="N3" s="126" cm="1">
-        <f t="array" ref="N3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>12</v>
-      </c>
-      <c r="O3" s="126" cm="1">
-        <f t="array" ref="O3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>13</v>
-      </c>
-      <c r="P3" s="126" cm="1">
-        <f t="array" ref="P3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>14</v>
-      </c>
-      <c r="Q3" s="126" cm="1">
-        <f t="array" ref="Q3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>15</v>
-      </c>
-      <c r="R3" s="126" cm="1">
-        <f t="array" ref="R3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>16</v>
-      </c>
-      <c r="S3" s="126" cm="1">
-        <f t="array" ref="S3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>17</v>
-      </c>
-      <c r="T3" s="126" cm="1">
-        <f t="array" ref="T3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>18</v>
-      </c>
-      <c r="U3" s="126" cm="1">
-        <f t="array" ref="U3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>19</v>
-      </c>
-      <c r="V3" s="126" cm="1">
-        <f t="array" ref="V3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>20</v>
-      </c>
-      <c r="W3" s="126" cm="1">
-        <f t="array" ref="W3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>21</v>
-      </c>
-      <c r="X3" s="126" cm="1">
-        <f t="array" ref="X3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>22</v>
-      </c>
-      <c r="Y3" s="126" cm="1">
-        <f t="array" ref="Y3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>23</v>
-      </c>
-      <c r="Z3" s="126" cm="1">
-        <f t="array" ref="Z3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>24</v>
-      </c>
-      <c r="AA3" s="126" cm="1">
-        <f t="array" ref="AA3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>25</v>
-      </c>
-      <c r="AB3" s="126" cm="1">
-        <f t="array" ref="AB3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>26</v>
-      </c>
-      <c r="AC3" s="126" cm="1">
-        <f t="array" ref="AC3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>27</v>
-      </c>
-      <c r="AD3" s="126" cm="1">
-        <f t="array" ref="AD3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>28</v>
-      </c>
-      <c r="AE3" s="126" cm="1">
-        <f t="array" ref="AE3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>29</v>
-      </c>
-      <c r="AF3" s="126" cm="1">
-        <f t="array" ref="AF3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>30</v>
-      </c>
-      <c r="AG3" s="126" cm="1">
-        <f t="array" ref="AG3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>31</v>
-      </c>
-      <c r="AH3" s="126" cm="1">
-        <f t="array" ref="AH3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>32</v>
-      </c>
-      <c r="AI3" s="126" cm="1">
-        <f t="array" ref="AI3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>33</v>
-      </c>
-      <c r="AJ3" s="126" cm="1">
-        <f t="array" ref="AJ3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>34</v>
-      </c>
-      <c r="AK3" s="126" cm="1">
-        <f t="array" ref="AK3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>35</v>
-      </c>
-      <c r="AL3" s="126" cm="1">
-        <f t="array" ref="AL3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>36</v>
-      </c>
-      <c r="AM3" s="126" cm="1">
-        <f t="array" ref="AM3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>37</v>
-      </c>
-      <c r="AN3" s="126" cm="1">
-        <f t="array" ref="AN3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>38</v>
-      </c>
-      <c r="AO3" s="126" cm="1">
-        <f t="array" ref="AO3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>39</v>
-      </c>
-      <c r="AP3" s="126" cm="1">
-        <f t="array" ref="AP3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>40</v>
-      </c>
-      <c r="AQ3" s="126" cm="1">
-        <f t="array" ref="AQ3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>41</v>
-      </c>
-      <c r="AR3" s="126" cm="1">
-        <f t="array" ref="AR3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>42</v>
-      </c>
-      <c r="AS3" s="126" cm="1">
-        <f t="array" ref="AS3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>43</v>
-      </c>
-      <c r="AT3" s="126" cm="1">
-        <f t="array" ref="AT3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>44</v>
-      </c>
-      <c r="AU3" s="126" cm="1">
-        <f t="array" ref="AU3" xml:space="preserve"> COLUMN() - COLUMN($B:$B)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:47" s="96" customFormat="1" ht="32.25">
-      <c r="B4" s="125" t="str">
-        <f>'[2](5)鍵盤表'!B16</f>
-        <v>方音符號</v>
-      </c>
-      <c r="C4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!C16</f>
-        <v>ㄅ</v>
-      </c>
-      <c r="D4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!D16</f>
-        <v>ㄆ</v>
-      </c>
-      <c r="E4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!E16</f>
-        <v>ㄇ</v>
-      </c>
-      <c r="F4" s="124" t="str">
-        <f>'[2](5)鍵盤表'!F16</f>
-        <v>ㆠ</v>
-      </c>
-      <c r="G4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!G16</f>
-        <v>ㄉ</v>
-      </c>
-      <c r="H4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!H16</f>
-        <v>ㄊ</v>
-      </c>
-      <c r="I4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!I16</f>
-        <v>ㄋ</v>
-      </c>
-      <c r="J4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!J16</f>
-        <v>ㄌ</v>
-      </c>
-      <c r="K4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!K16</f>
-        <v>ㄍ</v>
-      </c>
-      <c r="L4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!L16</f>
-        <v>ㄎ</v>
-      </c>
-      <c r="M4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!M16</f>
-        <v>ㄏ</v>
-      </c>
-      <c r="N4" s="124" t="str">
-        <f>'[2](5)鍵盤表'!N16</f>
-        <v>ㆣ</v>
-      </c>
-      <c r="O4" s="124" t="str">
-        <f>'[2](5)鍵盤表'!O16</f>
-        <v>ㄫ</v>
-      </c>
-      <c r="P4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!P16</f>
-        <v>ㄗ</v>
-      </c>
-      <c r="Q4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!Q16</f>
-        <v>ㄘ</v>
-      </c>
-      <c r="R4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!R16</f>
-        <v>ㄙ</v>
-      </c>
-      <c r="S4" s="124" t="str">
-        <f>'[2](5)鍵盤表'!S16</f>
-        <v>ㆡ</v>
-      </c>
-      <c r="T4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!T16</f>
-        <v>ㄐ</v>
-      </c>
-      <c r="U4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!U16</f>
-        <v>ㄑ</v>
-      </c>
-      <c r="V4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!V16</f>
-        <v>ㄒ</v>
-      </c>
-      <c r="W4" s="124" t="str">
-        <f>'[2](5)鍵盤表'!W16</f>
-        <v>ㆢ</v>
-      </c>
-      <c r="X4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!X16</f>
-        <v>ㄧ</v>
-      </c>
-      <c r="Y4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!Y16</f>
-        <v>ㄨ</v>
-      </c>
-      <c r="Z4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!Z16</f>
-        <v>ㄚ</v>
-      </c>
-      <c r="AA4" s="124" t="str">
-        <f>'[2](5)鍵盤表'!AA16</f>
-        <v>ㆦ</v>
-      </c>
-      <c r="AB4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AB16</f>
-        <v>ㄜ</v>
-      </c>
-      <c r="AC4" s="124" t="str">
-        <f>'[2](5)鍵盤表'!AC16</f>
-        <v>ㆤ</v>
-      </c>
-      <c r="AD4" s="124" t="str">
-        <f>'[2](5)鍵盤表'!AD16</f>
-        <v>ㆬ</v>
-      </c>
-      <c r="AE4" s="124" t="str">
-        <f>'[2](5)鍵盤表'!AE16</f>
-        <v>ㆭ</v>
-      </c>
-      <c r="AF4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AF16</f>
-        <v>ㄞ</v>
-      </c>
-      <c r="AG4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AG16</f>
-        <v>ㄠ</v>
-      </c>
-      <c r="AH4" s="124" t="str">
-        <f>'[2](5)鍵盤表'!AH16</f>
-        <v>ㆰ</v>
-      </c>
-      <c r="AI4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AI16</f>
-        <v>ㆱ</v>
-      </c>
-      <c r="AJ4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AJ16</f>
-        <v>ㄢ</v>
-      </c>
-      <c r="AK4" s="124" t="str">
-        <f>'[2](5)鍵盤表'!AK16</f>
-        <v>ㄣ</v>
-      </c>
-      <c r="AL4" s="124" t="str">
-        <f>'[2](5)鍵盤表'!AL16</f>
-        <v>ㄤ</v>
-      </c>
-      <c r="AM4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AM16</f>
-        <v>ㄥ</v>
-      </c>
-      <c r="AN4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AN16</f>
-        <v>ㆲ</v>
-      </c>
-      <c r="AO4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AO16</f>
-        <v>ｎ</v>
-      </c>
-      <c r="AP4" s="123">
-        <f>'[2](5)鍵盤表'!AP16</f>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AQ16</f>
-        <v>˪</v>
-      </c>
-      <c r="AR4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AR16</f>
-        <v>ˋ</v>
-      </c>
-      <c r="AS4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AS16</f>
-        <v>˫</v>
-      </c>
-      <c r="AT4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AT16</f>
-        <v>ˊ</v>
-      </c>
-      <c r="AU4" s="123" t="str">
-        <f>'[2](5)鍵盤表'!AU16</f>
-        <v>·</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" s="96" customFormat="1" ht="32.25">
-      <c r="B5" s="122" t="str">
-        <f>'[2](5)鍵盤表'!B17</f>
-        <v>國際音標</v>
-      </c>
-      <c r="C5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!C17</f>
-        <v>p</v>
-      </c>
-      <c r="D5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!D17</f>
-        <v>pʰ</v>
-      </c>
-      <c r="E5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!E17</f>
-        <v>m</v>
-      </c>
-      <c r="F5" s="119" t="str">
-        <f>'[2](5)鍵盤表'!F17</f>
-        <v>b</v>
-      </c>
-      <c r="G5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!G17</f>
-        <v>t</v>
-      </c>
-      <c r="H5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!H17</f>
-        <v>tʰ</v>
-      </c>
-      <c r="I5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!I17</f>
-        <v>n</v>
-      </c>
-      <c r="J5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!J17</f>
-        <v>l</v>
-      </c>
-      <c r="K5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!K17</f>
-        <v>k</v>
-      </c>
-      <c r="L5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!L17</f>
-        <v>kʰ</v>
-      </c>
-      <c r="M5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!M17</f>
-        <v>h</v>
-      </c>
-      <c r="N5" s="119" t="str">
-        <f>'[2](5)鍵盤表'!N17</f>
-        <v>g</v>
-      </c>
-      <c r="O5" s="119" t="str">
-        <f>'[2](5)鍵盤表'!O17</f>
-        <v>ŋ</v>
-      </c>
-      <c r="P5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!P17</f>
-        <v>t͡s</v>
-      </c>
-      <c r="Q5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!Q17</f>
-        <v>t͡sʰ</v>
-      </c>
-      <c r="R5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!R17</f>
-        <v>s</v>
-      </c>
-      <c r="S5" s="119" t="str">
-        <f>'[2](5)鍵盤表'!S17</f>
-        <v xml:space="preserve"> 	d͡z / z</v>
-      </c>
-      <c r="T5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!T17</f>
-        <v xml:space="preserve"> 	t͡ɕ</v>
-      </c>
-      <c r="U5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!U17</f>
-        <v>t͡ɕʰ</v>
-      </c>
-      <c r="V5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!V17</f>
-        <v>ɕ</v>
-      </c>
-      <c r="W5" s="119" t="str">
-        <f>'[2](5)鍵盤表'!W17</f>
-        <v>d͡ʑ / ʑ[</v>
-      </c>
-      <c r="X5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!X17</f>
-        <v>i</v>
-      </c>
-      <c r="Y5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!Y17</f>
-        <v>u</v>
-      </c>
-      <c r="Z5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!Z17</f>
-        <v>a</v>
-      </c>
-      <c r="AA5" s="119" t="str">
-        <f>'[2](5)鍵盤表'!AA17</f>
-        <v>ɔ</v>
-      </c>
-      <c r="AB5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!AB17</f>
-        <v>o</v>
-      </c>
-      <c r="AC5" s="119" t="str">
-        <f>'[2](5)鍵盤表'!AC17</f>
-        <v>e</v>
-      </c>
-      <c r="AD5" s="121" t="str">
-        <f>'[2](5)鍵盤表'!AD17</f>
-        <v>m̩</v>
-      </c>
-      <c r="AE5" s="121" t="str">
-        <f>'[2](5)鍵盤表'!AE17</f>
-        <v>ŋ̍</v>
-      </c>
-      <c r="AF5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!AF17</f>
-        <v>ai</v>
-      </c>
-      <c r="AG5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!AG17</f>
-        <v>au</v>
-      </c>
-      <c r="AH5" s="119" t="str">
-        <f>'[2](5)鍵盤表'!AH17</f>
-        <v>am</v>
-      </c>
-      <c r="AI5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!AI17</f>
-        <v>ɔm</v>
-      </c>
-      <c r="AJ5" s="120" t="str">
-        <f>'[2](5)鍵盤表'!AJ17</f>
-        <v>an</v>
-      </c>
-      <c r="AK5" s="119" t="str">
-        <f>'[2](5)鍵盤表'!AK17</f>
-        <v>n</v>
-      </c>
-      <c r="AL5" s="119" t="str">
-        <f>'[2](5)鍵盤表'!AL17</f>
-        <v>aŋ</v>
-      </c>
-      <c r="AM5" s="118" t="str">
-        <f>'[2](5)鍵盤表'!AM17</f>
-        <v>əŋ</v>
-      </c>
-      <c r="AN5" s="118" t="str">
-        <f>'[2](5)鍵盤表'!AN17</f>
-        <v>ɔŋ</v>
-      </c>
-      <c r="AO5" s="118" t="str">
-        <f>'[2](5)鍵盤表'!AO17</f>
-        <v>ã</v>
-      </c>
-      <c r="AP5" s="117">
-        <f>'[2](5)鍵盤表'!AP17</f>
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="117">
-        <f>'[2](5)鍵盤表'!AQ17</f>
-        <v>0</v>
-      </c>
-      <c r="AR5" s="117">
-        <f>'[2](5)鍵盤表'!AR17</f>
-        <v>0</v>
-      </c>
-      <c r="AS5" s="117">
-        <f>'[2](5)鍵盤表'!AS17</f>
-        <v>0</v>
-      </c>
-      <c r="AT5" s="117">
-        <f>'[2](5)鍵盤表'!AT17</f>
-        <v>0</v>
-      </c>
-      <c r="AU5" s="117">
-        <f>'[2](5)鍵盤表'!AU17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" s="96" customFormat="1">
-      <c r="B6" s="116" t="str">
-        <f>'[2](5)鍵盤表'!B18</f>
-        <v>羅馬拼音</v>
-      </c>
-      <c r="C6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!C18</f>
-        <v>p</v>
-      </c>
-      <c r="D6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!D18</f>
-        <v>ph</v>
-      </c>
-      <c r="E6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!E18</f>
-        <v>m</v>
-      </c>
-      <c r="F6" s="112" t="str">
-        <f>'[2](5)鍵盤表'!F18</f>
-        <v>b</v>
-      </c>
-      <c r="G6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!G18</f>
-        <v>t</v>
-      </c>
-      <c r="H6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!H18</f>
-        <v>th</v>
-      </c>
-      <c r="I6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!I18</f>
-        <v>n</v>
-      </c>
-      <c r="J6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!J18</f>
-        <v>l</v>
-      </c>
-      <c r="K6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!K18</f>
-        <v>k</v>
-      </c>
-      <c r="L6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!L18</f>
-        <v>kh</v>
-      </c>
-      <c r="M6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!M18</f>
-        <v>h</v>
-      </c>
-      <c r="N6" s="112" t="str">
-        <f>'[2](5)鍵盤表'!N18</f>
-        <v>g</v>
-      </c>
-      <c r="O6" s="112" t="str">
-        <f>'[2](5)鍵盤表'!O18</f>
-        <v>ng</v>
-      </c>
-      <c r="P6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!P18</f>
-        <v>ts</v>
-      </c>
-      <c r="Q6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!Q18</f>
-        <v>tsh</v>
-      </c>
-      <c r="R6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!R18</f>
-        <v>s</v>
-      </c>
-      <c r="S6" s="112" t="str">
-        <f>'[2](5)鍵盤表'!S18</f>
-        <v>j</v>
-      </c>
-      <c r="T6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!T18</f>
-        <v>tsi</v>
-      </c>
-      <c r="U6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!U18</f>
-        <v>tshi</v>
-      </c>
-      <c r="V6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!V18</f>
-        <v>si</v>
-      </c>
-      <c r="W6" s="112" t="str">
-        <f>'[2](5)鍵盤表'!W18</f>
-        <v>ji</v>
-      </c>
-      <c r="X6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!X18</f>
-        <v>i</v>
-      </c>
-      <c r="Y6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!Y18</f>
-        <v>u</v>
-      </c>
-      <c r="Z6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!Z18</f>
-        <v>a</v>
-      </c>
-      <c r="AA6" s="112" t="str">
-        <f>'[2](5)鍵盤表'!AA18</f>
-        <v>oo</v>
-      </c>
-      <c r="AB6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!AB18</f>
-        <v>o</v>
-      </c>
-      <c r="AC6" s="112" t="str">
-        <f>'[2](5)鍵盤表'!AC18</f>
-        <v>e</v>
-      </c>
-      <c r="AD6" s="115" t="str">
-        <f>'[2](5)鍵盤表'!AD18</f>
-        <v>-m</v>
-      </c>
-      <c r="AE6" s="115" t="str">
-        <f>'[2](5)鍵盤表'!AE18</f>
-        <v>-ng</v>
-      </c>
-      <c r="AF6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!AF18</f>
-        <v>ai</v>
-      </c>
-      <c r="AG6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!AG18</f>
-        <v>au</v>
-      </c>
-      <c r="AH6" s="112" t="str">
-        <f>'[2](5)鍵盤表'!AH18</f>
-        <v>am</v>
-      </c>
-      <c r="AI6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!AI18</f>
-        <v>om</v>
-      </c>
-      <c r="AJ6" s="114" t="str">
-        <f>'[2](5)鍵盤表'!AJ18</f>
-        <v>an</v>
-      </c>
-      <c r="AK6" s="112" t="str">
-        <f>'[2](5)鍵盤表'!AK18</f>
-        <v>-n</v>
-      </c>
-      <c r="AL6" s="112" t="str">
-        <f>'[2](5)鍵盤表'!AL18</f>
-        <v>ang</v>
-      </c>
-      <c r="AM6" s="113" t="str">
-        <f>'[2](5)鍵盤表'!AM18</f>
-        <v>-ng</v>
-      </c>
-      <c r="AN6" s="113" t="str">
-        <f>'[2](5)鍵盤表'!AN18</f>
-        <v>ong</v>
-      </c>
-      <c r="AO6" s="113" t="str">
-        <f>'[2](5)鍵盤表'!AO18</f>
-        <v>-nn</v>
-      </c>
-      <c r="AP6" s="112">
-        <f>'[2](5)鍵盤表'!AP18</f>
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="112">
-        <f>'[2](5)鍵盤表'!AQ18</f>
-        <v>3</v>
-      </c>
-      <c r="AR6" s="112">
-        <f>'[2](5)鍵盤表'!AR18</f>
-        <v>2</v>
-      </c>
-      <c r="AS6" s="112">
-        <f>'[2](5)鍵盤表'!AS18</f>
-        <v>7</v>
-      </c>
-      <c r="AT6" s="112">
-        <f>'[2](5)鍵盤表'!AT18</f>
-        <v>5</v>
-      </c>
-      <c r="AU6" s="112">
-        <f>'[2](5)鍵盤表'!AU18</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" s="96" customFormat="1" ht="23.25">
-      <c r="B7" s="104" t="str">
-        <f>'[2](5)鍵盤表'!B19</f>
-        <v>拼音字母</v>
-      </c>
-      <c r="C7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!C19</f>
-        <v>p</v>
-      </c>
-      <c r="D7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!D19</f>
-        <v>P</v>
-      </c>
-      <c r="E7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!E19</f>
-        <v>m</v>
-      </c>
-      <c r="F7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!F19</f>
-        <v>b</v>
-      </c>
-      <c r="G7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!G19</f>
-        <v>t</v>
-      </c>
-      <c r="H7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!H19</f>
-        <v>T</v>
-      </c>
-      <c r="I7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!I19</f>
-        <v>d</v>
-      </c>
-      <c r="J7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!J19</f>
-        <v>d</v>
-      </c>
-      <c r="K7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!K19</f>
-        <v>k</v>
-      </c>
-      <c r="L7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!L19</f>
-        <v>K</v>
-      </c>
-      <c r="M7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!M19</f>
-        <v>h</v>
-      </c>
-      <c r="N7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!N19</f>
-        <v>g</v>
-      </c>
-      <c r="O7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!O19</f>
-        <v>g</v>
-      </c>
-      <c r="P7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!P19</f>
-        <v>c</v>
-      </c>
-      <c r="Q7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!Q19</f>
-        <v>C</v>
-      </c>
-      <c r="R7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!R19</f>
-        <v>s</v>
-      </c>
-      <c r="S7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!S19</f>
-        <v>z</v>
-      </c>
-      <c r="T7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!T19</f>
-        <v>ci</v>
-      </c>
-      <c r="U7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!U19</f>
-        <v>Ci</v>
-      </c>
-      <c r="V7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!V19</f>
-        <v>si</v>
-      </c>
-      <c r="W7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!W19</f>
-        <v>zi</v>
-      </c>
-      <c r="X7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!X19</f>
-        <v>i</v>
-      </c>
-      <c r="Y7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!Y19</f>
-        <v>u</v>
-      </c>
-      <c r="Z7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!Z19</f>
-        <v>a</v>
-      </c>
-      <c r="AA7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AA19</f>
-        <v>o</v>
-      </c>
-      <c r="AB7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AB19</f>
-        <v>ø</v>
-      </c>
-      <c r="AC7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AC19</f>
-        <v>e</v>
-      </c>
-      <c r="AD7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AD19</f>
-        <v>B</v>
-      </c>
-      <c r="AE7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AE19</f>
-        <v>G</v>
-      </c>
-      <c r="AF7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AF19</f>
-        <v>I</v>
-      </c>
-      <c r="AG7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AG19</f>
-        <v>U</v>
-      </c>
-      <c r="AH7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AH19</f>
-        <v>aB</v>
-      </c>
-      <c r="AI7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AI19</f>
-        <v>oB</v>
-      </c>
-      <c r="AJ7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AJ19</f>
-        <v>aD</v>
-      </c>
-      <c r="AK7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AK19</f>
-        <v>D</v>
-      </c>
-      <c r="AL7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AL19</f>
-        <v>aG</v>
-      </c>
-      <c r="AM7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AM19</f>
-        <v>øG</v>
-      </c>
-      <c r="AN7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AN19</f>
-        <v>oG</v>
-      </c>
-      <c r="AO7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AO19</f>
-        <v>N</v>
-      </c>
-      <c r="AP7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AP19</f>
-        <v/>
-      </c>
-      <c r="AQ7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AQ19</f>
-        <v/>
-      </c>
-      <c r="AR7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AR19</f>
-        <v/>
-      </c>
-      <c r="AS7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AS19</f>
-        <v/>
-      </c>
-      <c r="AT7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AT19</f>
-        <v/>
-      </c>
-      <c r="AU7" s="111" t="str">
-        <f>'[2](5)鍵盤表'!AU19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:47" s="96" customFormat="1" ht="23.25">
-      <c r="B8" s="110" t="str">
-        <f>'[2](5)鍵盤表'!B20</f>
-        <v>鍵盤按鍵</v>
-      </c>
-      <c r="C8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!C20</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!D20</f>
-        <v>q</v>
-      </c>
-      <c r="E8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!E20</f>
-        <v>a</v>
-      </c>
-      <c r="F8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!F20</f>
-        <v>z</v>
-      </c>
-      <c r="G8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!G20</f>
-        <v>2</v>
-      </c>
-      <c r="H8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!H20</f>
-        <v>w</v>
-      </c>
-      <c r="I8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!I20</f>
-        <v>s</v>
-      </c>
-      <c r="J8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!J20</f>
-        <v>x</v>
-      </c>
-      <c r="K8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!K20</f>
-        <v>e</v>
-      </c>
-      <c r="L8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!L20</f>
-        <v>d</v>
-      </c>
-      <c r="M8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!M20</f>
-        <v>c</v>
-      </c>
-      <c r="N8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!N20</f>
-        <v>t</v>
-      </c>
-      <c r="O8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!O20</f>
-        <v>g</v>
-      </c>
-      <c r="P8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!P20</f>
-        <v>y</v>
-      </c>
-      <c r="Q8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!Q20</f>
-        <v>h</v>
-      </c>
-      <c r="R8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!R20</f>
-        <v>n</v>
-      </c>
-      <c r="S8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!S20</f>
-        <v>b</v>
-      </c>
-      <c r="T8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!T20</f>
-        <v>r</v>
-      </c>
-      <c r="U8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!U20</f>
-        <v>f</v>
-      </c>
-      <c r="V8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!V20</f>
-        <v>v</v>
-      </c>
-      <c r="W8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!W20</f>
-        <v>b</v>
-      </c>
-      <c r="X8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!X20</f>
-        <v>u</v>
-      </c>
-      <c r="Y8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!Y20</f>
-        <v>j</v>
-      </c>
-      <c r="Z8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!Z20</f>
-        <v>8</v>
-      </c>
-      <c r="AA8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AA20</f>
-        <v>i</v>
-      </c>
-      <c r="AB8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AB20</f>
-        <v>k</v>
-      </c>
-      <c r="AC8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AC20</f>
-        <v>o</v>
-      </c>
-      <c r="AD8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AD20</f>
-        <v>m</v>
-      </c>
-      <c r="AE8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AE20</f>
-        <v>/</v>
-      </c>
-      <c r="AF8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AF20</f>
-        <v>9</v>
-      </c>
-      <c r="AG8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AG20</f>
-        <v>l</v>
-      </c>
-      <c r="AH8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AH20</f>
-        <v>,</v>
-      </c>
-      <c r="AI8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AI20</f>
-        <v>,</v>
-      </c>
-      <c r="AJ8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AJ20</f>
-        <v>0</v>
-      </c>
-      <c r="AK8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AK20</f>
-        <v>p</v>
-      </c>
-      <c r="AL8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AL20</f>
-        <v>;</v>
-      </c>
-      <c r="AM8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AM20</f>
-        <v/>
-      </c>
-      <c r="AN8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AN20</f>
-        <v>.</v>
-      </c>
-      <c r="AO8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AO20</f>
-        <v>-</v>
-      </c>
-      <c r="AP8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AP20</f>
-        <v/>
-      </c>
-      <c r="AQ8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AQ20</f>
-        <v>3</v>
-      </c>
-      <c r="AR8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AR20</f>
-        <v>4</v>
-      </c>
-      <c r="AS8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AS20</f>
-        <v>5</v>
-      </c>
-      <c r="AT8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AT20</f>
-        <v>6</v>
-      </c>
-      <c r="AU8" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AU20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:47" s="96" customFormat="1" ht="23.25">
-      <c r="B9" s="110" t="str">
-        <f>'[2](5)鍵盤表'!B21</f>
-        <v>鍵盤行號</v>
-      </c>
-      <c r="C9" s="106">
-        <f>'[2](5)鍵盤表'!C21</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="106">
-        <f>'[2](5)鍵盤表'!D21</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="106">
-        <f>'[2](5)鍵盤表'!E21</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="106">
-        <f>'[2](5)鍵盤表'!F21</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="109">
-        <f>'[2](5)鍵盤表'!G21</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="109">
-        <f>'[2](5)鍵盤表'!H21</f>
-        <v>2</v>
-      </c>
-      <c r="I9" s="109">
-        <f>'[2](5)鍵盤表'!I21</f>
-        <v>2</v>
-      </c>
-      <c r="J9" s="109">
-        <f>'[2](5)鍵盤表'!J21</f>
-        <v>2</v>
-      </c>
-      <c r="K9" s="106">
-        <f>'[2](5)鍵盤表'!K21</f>
-        <v>3</v>
-      </c>
-      <c r="L9" s="106">
-        <f>'[2](5)鍵盤表'!L21</f>
-        <v>3</v>
-      </c>
-      <c r="M9" s="106">
-        <f>'[2](5)鍵盤表'!M21</f>
-        <v>3</v>
-      </c>
-      <c r="N9" s="106">
-        <f>'[2](5)鍵盤表'!N21</f>
-        <v>3</v>
-      </c>
-      <c r="O9" s="108">
-        <f>'[2](5)鍵盤表'!O21</f>
-        <v>5</v>
-      </c>
-      <c r="P9" s="109">
-        <f>'[2](5)鍵盤表'!P21</f>
-        <v>6</v>
-      </c>
-      <c r="Q9" s="109">
-        <f>'[2](5)鍵盤表'!Q21</f>
-        <v>6</v>
-      </c>
-      <c r="R9" s="109">
-        <f>'[2](5)鍵盤表'!R21</f>
-        <v>6</v>
-      </c>
-      <c r="S9" s="108">
-        <f>'[2](5)鍵盤表'!S21</f>
-        <v>5</v>
-      </c>
-      <c r="T9" s="106">
-        <f>'[2](5)鍵盤表'!T21</f>
-        <v>4</v>
-      </c>
-      <c r="U9" s="106">
-        <f>'[2](5)鍵盤表'!U21</f>
-        <v>4</v>
-      </c>
-      <c r="V9" s="106">
-        <f>'[2](5)鍵盤表'!V21</f>
-        <v>4</v>
-      </c>
-      <c r="W9" s="107">
-        <f>'[2](5)鍵盤表'!W21</f>
-        <v>5</v>
-      </c>
-      <c r="X9" s="106">
-        <f>'[2](5)鍵盤表'!X21</f>
-        <v>7</v>
-      </c>
-      <c r="Y9" s="106">
-        <f>'[2](5)鍵盤表'!Y21</f>
-        <v>7</v>
-      </c>
-      <c r="Z9" s="106">
-        <f>'[2](5)鍵盤表'!Z21</f>
-        <v>8</v>
-      </c>
-      <c r="AA9" s="106">
-        <f>'[2](5)鍵盤表'!AA21</f>
-        <v>8</v>
-      </c>
-      <c r="AB9" s="106">
-        <f>'[2](5)鍵盤表'!AB21</f>
-        <v>8</v>
-      </c>
-      <c r="AC9" s="106">
-        <f>'[2](5)鍵盤表'!AC21</f>
-        <v>9</v>
-      </c>
-      <c r="AD9" s="106">
-        <f>'[2](5)鍵盤表'!AD21</f>
-        <v>7</v>
-      </c>
-      <c r="AE9" s="106">
-        <f>'[2](5)鍵盤表'!AE21</f>
-        <v>7</v>
-      </c>
-      <c r="AF9" s="106">
-        <f>'[2](5)鍵盤表'!AF21</f>
-        <v>9</v>
-      </c>
-      <c r="AG9" s="106">
-        <f>'[2](5)鍵盤表'!AG21</f>
-        <v>9</v>
-      </c>
-      <c r="AH9" s="106">
-        <f>'[2](5)鍵盤表'!AH21</f>
-        <v>8</v>
-      </c>
-      <c r="AI9" s="106">
-        <f>'[2](5)鍵盤表'!AI21</f>
-        <v>8</v>
-      </c>
-      <c r="AJ9" s="106">
-        <f>'[2](5)鍵盤表'!AJ21</f>
-        <v>0</v>
-      </c>
-      <c r="AK9" s="106">
-        <f>'[2](5)鍵盤表'!AK21</f>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="106">
-        <f>'[2](5)鍵盤表'!AL21</f>
-        <v>0</v>
-      </c>
-      <c r="AM9" s="106">
-        <f>'[2](5)鍵盤表'!AM21</f>
-        <v>0</v>
-      </c>
-      <c r="AN9" s="106">
-        <f>'[2](5)鍵盤表'!AN21</f>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AO21</f>
-        <v>A</v>
-      </c>
-      <c r="AP9" s="106" t="str">
-        <f>'[2](5)鍵盤表'!AP21</f>
-        <v>&lt;SP&gt;</v>
-      </c>
-      <c r="AQ9" s="106">
-        <f>'[2](5)鍵盤表'!AQ21</f>
-        <v>3</v>
-      </c>
-      <c r="AR9" s="106">
-        <f>'[2](5)鍵盤表'!AR21</f>
-        <v>4</v>
-      </c>
-      <c r="AS9" s="106">
-        <f>'[2](5)鍵盤表'!AS21</f>
-        <v>5</v>
-      </c>
-      <c r="AT9" s="106">
-        <f>'[2](5)鍵盤表'!AT21</f>
-        <v>6</v>
-      </c>
-      <c r="AU9" s="106">
-        <f>'[2](5)鍵盤表'!AU21</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47" s="96" customFormat="1" ht="23.25"/>
-    <row r="11" spans="1:47" s="96" customFormat="1" ht="23.25">
-      <c r="B11" s="104" t="str">
-        <f>B7</f>
-        <v>拼音字母</v>
-      </c>
-      <c r="C11" s="353" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
-        <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
-      </c>
-      <c r="D11" s="353"/>
-      <c r="E11" s="353"/>
-      <c r="F11" s="353"/>
-      <c r="G11" s="353"/>
-      <c r="H11" s="353"/>
-      <c r="I11" s="353"/>
-      <c r="J11" s="353"/>
-      <c r="K11" s="353"/>
-      <c r="L11" s="353"/>
-      <c r="M11" s="353"/>
-      <c r="N11" s="353"/>
-      <c r="O11" s="353"/>
-      <c r="P11" s="353"/>
-      <c r="Q11" s="353"/>
-      <c r="R11" s="353"/>
-      <c r="S11" s="353"/>
-      <c r="T11" s="353"/>
-      <c r="U11" s="353"/>
-      <c r="V11" s="353"/>
-      <c r="W11" s="353"/>
-      <c r="X11" s="353"/>
-      <c r="Y11" s="353"/>
-      <c r="Z11" s="353"/>
-    </row>
-    <row r="12" spans="1:47" s="96" customFormat="1" ht="23.25">
-      <c r="B12" s="105" t="str">
-        <f>B8</f>
-        <v>鍵盤按鍵</v>
-      </c>
-      <c r="C12" s="354" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
-        <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
-      </c>
-      <c r="D12" s="354"/>
-      <c r="E12" s="354"/>
-      <c r="F12" s="354"/>
-      <c r="G12" s="354"/>
-      <c r="H12" s="354"/>
-      <c r="I12" s="354"/>
-      <c r="J12" s="354"/>
-      <c r="K12" s="354"/>
-      <c r="L12" s="354"/>
-      <c r="M12" s="354"/>
-      <c r="N12" s="354"/>
-      <c r="O12" s="354"/>
-      <c r="P12" s="354"/>
-      <c r="Q12" s="354"/>
-      <c r="R12" s="354"/>
-      <c r="S12" s="354"/>
-      <c r="T12" s="354"/>
-      <c r="U12" s="354"/>
-      <c r="V12" s="354"/>
-      <c r="W12" s="354"/>
-      <c r="X12" s="354"/>
-      <c r="Y12" s="354"/>
-      <c r="Z12" s="354"/>
-    </row>
-    <row r="13" spans="1:47" s="96" customFormat="1" ht="23.25"/>
-    <row r="14" spans="1:47" s="96" customFormat="1" ht="34.5">
-      <c r="B14" s="102" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" s="96" customFormat="1" ht="23.25">
-      <c r="B15" s="352" t="str">
-        <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
-        <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
-      </c>
-      <c r="C15" s="352"/>
-      <c r="D15" s="352"/>
-      <c r="E15" s="352"/>
-      <c r="F15" s="352"/>
-      <c r="G15" s="352"/>
-      <c r="H15" s="352"/>
-      <c r="I15" s="352"/>
-      <c r="J15" s="352"/>
-      <c r="K15" s="352"/>
-      <c r="L15" s="352"/>
-      <c r="M15" s="352"/>
-      <c r="N15" s="352"/>
-      <c r="O15" s="352"/>
-      <c r="P15" s="352"/>
-      <c r="Q15" s="352"/>
-      <c r="R15" s="352"/>
-      <c r="S15" s="352"/>
-      <c r="T15" s="352"/>
-      <c r="U15" s="352"/>
-      <c r="V15" s="352"/>
-      <c r="W15" s="352"/>
-      <c r="X15" s="352"/>
-      <c r="Y15" s="352"/>
-      <c r="Z15" s="352"/>
-    </row>
-    <row r="16" spans="1:47" s="96" customFormat="1" ht="23.25"/>
-    <row r="17" spans="2:26" s="96" customFormat="1" ht="34.5">
-      <c r="B17" s="102" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" s="96" customFormat="1" ht="23.25"/>
-    <row r="19" spans="2:26" s="96" customFormat="1" ht="23.25">
-      <c r="B19" s="104" t="str">
-        <f>B7</f>
-        <v>拼音字母</v>
-      </c>
-      <c r="C19" s="353" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
-        <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
-      </c>
-      <c r="D19" s="353"/>
-      <c r="E19" s="353"/>
-      <c r="F19" s="353"/>
-      <c r="G19" s="353"/>
-      <c r="H19" s="353"/>
-      <c r="I19" s="353"/>
-      <c r="J19" s="353"/>
-      <c r="K19" s="353"/>
-      <c r="L19" s="353"/>
-      <c r="M19" s="353"/>
-      <c r="N19" s="353"/>
-      <c r="O19" s="353"/>
-      <c r="P19" s="353"/>
-      <c r="Q19" s="353"/>
-      <c r="R19" s="353"/>
-      <c r="S19" s="353"/>
-      <c r="T19" s="353"/>
-      <c r="U19" s="353"/>
-      <c r="V19" s="353"/>
-      <c r="W19" s="353"/>
-      <c r="X19" s="353"/>
-      <c r="Y19" s="353"/>
-      <c r="Z19" s="353"/>
-    </row>
-    <row r="20" spans="2:26" s="96" customFormat="1" ht="23.25">
-      <c r="B20" s="103" t="str">
-        <f>B4</f>
-        <v>方音符號</v>
-      </c>
-      <c r="C20" s="354" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
-        <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
-      </c>
-      <c r="D20" s="354"/>
-      <c r="E20" s="354"/>
-      <c r="F20" s="354"/>
-      <c r="G20" s="354"/>
-      <c r="H20" s="354"/>
-      <c r="I20" s="354"/>
-      <c r="J20" s="354"/>
-      <c r="K20" s="354"/>
-      <c r="L20" s="354"/>
-      <c r="M20" s="354"/>
-      <c r="N20" s="354"/>
-      <c r="O20" s="354"/>
-      <c r="P20" s="354"/>
-      <c r="Q20" s="354"/>
-      <c r="R20" s="354"/>
-      <c r="S20" s="354"/>
-      <c r="T20" s="354"/>
-      <c r="U20" s="354"/>
-      <c r="V20" s="354"/>
-      <c r="W20" s="354"/>
-      <c r="X20" s="354"/>
-      <c r="Y20" s="354"/>
-      <c r="Z20" s="354"/>
-    </row>
-    <row r="21" spans="2:26" s="96" customFormat="1" ht="23.25"/>
-    <row r="22" spans="2:26" s="96" customFormat="1" ht="34.5">
-      <c r="B22" s="102" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" s="96" customFormat="1" ht="23.25">
-      <c r="B23" s="352" t="str">
-        <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
-        <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
-      </c>
-      <c r="C23" s="352"/>
-      <c r="D23" s="352"/>
-      <c r="E23" s="352"/>
-      <c r="F23" s="352"/>
-      <c r="G23" s="352"/>
-      <c r="H23" s="352"/>
-      <c r="I23" s="352"/>
-      <c r="J23" s="352"/>
-      <c r="K23" s="352"/>
-      <c r="L23" s="352"/>
-      <c r="M23" s="352"/>
-      <c r="N23" s="352"/>
-      <c r="O23" s="352"/>
-      <c r="P23" s="352"/>
-      <c r="Q23" s="352"/>
-      <c r="R23" s="352"/>
-      <c r="S23" s="352"/>
-      <c r="T23" s="352"/>
-      <c r="U23" s="352"/>
-      <c r="V23" s="352"/>
-      <c r="W23" s="352"/>
-      <c r="X23" s="352"/>
-      <c r="Y23" s="352"/>
-      <c r="Z23" s="352"/>
-    </row>
-    <row r="24" spans="2:26" s="96" customFormat="1" ht="23.25"/>
-    <row r="25" spans="2:26" s="96" customFormat="1" ht="34.5">
-      <c r="B25" s="102" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" s="96" customFormat="1" ht="23.25"/>
-    <row r="27" spans="2:26" s="96" customFormat="1" ht="23.25">
-      <c r="B27" s="104" t="str">
-        <f>B12</f>
-        <v>鍵盤按鍵</v>
-      </c>
-      <c r="C27" s="353" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
-        <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
-      </c>
-      <c r="D27" s="353"/>
-      <c r="E27" s="353"/>
-      <c r="F27" s="353"/>
-      <c r="G27" s="353"/>
-      <c r="H27" s="353"/>
-      <c r="I27" s="353"/>
-      <c r="J27" s="353"/>
-      <c r="K27" s="353"/>
-      <c r="L27" s="353"/>
-      <c r="M27" s="353"/>
-      <c r="N27" s="353"/>
-      <c r="O27" s="353"/>
-      <c r="P27" s="353"/>
-      <c r="Q27" s="353"/>
-      <c r="R27" s="353"/>
-      <c r="S27" s="353"/>
-      <c r="T27" s="353"/>
-      <c r="U27" s="353"/>
-      <c r="V27" s="353"/>
-      <c r="W27" s="353"/>
-      <c r="X27" s="353"/>
-      <c r="Y27" s="353"/>
-      <c r="Z27" s="353"/>
-    </row>
-    <row r="28" spans="2:26" s="96" customFormat="1" ht="23.25">
-      <c r="B28" s="103" t="str">
-        <f>B4</f>
-        <v>方音符號</v>
-      </c>
-      <c r="C28" s="354" t="str">
-        <f>_xlfn.CONCAT(C4:AO4)</f>
-        <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
-      </c>
-      <c r="D28" s="354"/>
-      <c r="E28" s="354"/>
-      <c r="F28" s="354"/>
-      <c r="G28" s="354"/>
-      <c r="H28" s="354"/>
-      <c r="I28" s="354"/>
-      <c r="J28" s="354"/>
-      <c r="K28" s="354"/>
-      <c r="L28" s="354"/>
-      <c r="M28" s="354"/>
-      <c r="N28" s="354"/>
-      <c r="O28" s="354"/>
-      <c r="P28" s="354"/>
-      <c r="Q28" s="354"/>
-      <c r="R28" s="354"/>
-      <c r="S28" s="354"/>
-      <c r="T28" s="354"/>
-      <c r="U28" s="354"/>
-      <c r="V28" s="354"/>
-      <c r="W28" s="354"/>
-      <c r="X28" s="354"/>
-      <c r="Y28" s="354"/>
-      <c r="Z28" s="354"/>
-    </row>
-    <row r="29" spans="2:26" s="96" customFormat="1" ht="23.25"/>
-    <row r="30" spans="2:26" s="96" customFormat="1" ht="34.5">
-      <c r="B30" s="102" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="31" spans="2:26" s="96" customFormat="1" ht="23.25">
-      <c r="B31" s="352" t="str">
-        <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
-        <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
-      </c>
-      <c r="C31" s="352"/>
-      <c r="D31" s="352"/>
-      <c r="E31" s="352"/>
-      <c r="F31" s="352"/>
-      <c r="G31" s="352"/>
-      <c r="H31" s="352"/>
-      <c r="I31" s="352"/>
-      <c r="J31" s="352"/>
-      <c r="K31" s="352"/>
-      <c r="L31" s="352"/>
-      <c r="M31" s="352"/>
-      <c r="N31" s="352"/>
-      <c r="O31" s="352"/>
-      <c r="P31" s="352"/>
-      <c r="Q31" s="352"/>
-      <c r="R31" s="352"/>
-      <c r="S31" s="352"/>
-      <c r="T31" s="352"/>
-      <c r="U31" s="352"/>
-      <c r="V31" s="352"/>
-      <c r="W31" s="352"/>
-      <c r="X31" s="352"/>
-      <c r="Y31" s="352"/>
-      <c r="Z31" s="352"/>
-    </row>
-    <row r="32" spans="2:26" s="96" customFormat="1" ht="23.25"/>
-    <row r="33" spans="1:47" s="98" customFormat="1">
-      <c r="A33" s="99"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
-      <c r="U33" s="101"/>
-      <c r="V33" s="101"/>
-      <c r="W33" s="101"/>
-      <c r="X33" s="101"/>
-      <c r="Y33" s="101"/>
-      <c r="Z33" s="101"/>
-      <c r="AA33" s="101"/>
-      <c r="AB33" s="101"/>
-      <c r="AC33" s="101"/>
-      <c r="AD33" s="101"/>
-      <c r="AE33" s="101"/>
-      <c r="AF33" s="101"/>
-      <c r="AG33" s="101"/>
-      <c r="AH33" s="101"/>
-      <c r="AI33" s="101"/>
-      <c r="AJ33" s="101"/>
-      <c r="AK33" s="101"/>
-      <c r="AL33" s="101"/>
-      <c r="AM33" s="101"/>
-      <c r="AN33" s="101"/>
-      <c r="AO33" s="101"/>
-      <c r="AP33" s="101"/>
-      <c r="AQ33" s="101"/>
-      <c r="AR33" s="101"/>
-      <c r="AS33" s="101"/>
-      <c r="AT33" s="101"/>
-      <c r="AU33" s="101"/>
-    </row>
-    <row r="34" spans="1:47" s="98" customFormat="1">
-      <c r="A34" s="99"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="99"/>
-      <c r="U34" s="99"/>
-      <c r="V34" s="99"/>
-      <c r="W34" s="99"/>
-      <c r="X34" s="99"/>
-      <c r="Y34" s="99"/>
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="99"/>
-      <c r="AB34" s="99"/>
-      <c r="AC34" s="99"/>
-      <c r="AD34" s="99"/>
-      <c r="AE34" s="99"/>
-      <c r="AF34" s="99"/>
-      <c r="AG34" s="99"/>
-      <c r="AH34" s="99"/>
-      <c r="AI34" s="99"/>
-      <c r="AJ34" s="99"/>
-      <c r="AK34" s="99"/>
-      <c r="AL34" s="99"/>
-      <c r="AM34" s="99"/>
-      <c r="AN34" s="99"/>
-      <c r="AO34" s="99"/>
-      <c r="AP34" s="99"/>
-      <c r="AQ34" s="100"/>
-      <c r="AR34" s="99"/>
-      <c r="AS34" s="99"/>
-      <c r="AT34" s="99"/>
-      <c r="AU34" s="99"/>
-    </row>
-    <row r="35" spans="1:47" s="98" customFormat="1">
-      <c r="A35" s="99"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="99"/>
-      <c r="T35" s="99"/>
-      <c r="U35" s="99"/>
-      <c r="V35" s="99"/>
-      <c r="W35" s="99"/>
-      <c r="X35" s="99"/>
-      <c r="Y35" s="99"/>
-      <c r="Z35" s="99"/>
-      <c r="AA35" s="99"/>
-      <c r="AB35" s="99"/>
-      <c r="AC35" s="99"/>
-      <c r="AD35" s="99"/>
-      <c r="AE35" s="99"/>
-      <c r="AF35" s="99"/>
-      <c r="AG35" s="99"/>
-      <c r="AH35" s="99"/>
-      <c r="AI35" s="99"/>
-      <c r="AJ35" s="99"/>
-      <c r="AK35" s="99"/>
-      <c r="AL35" s="99"/>
-      <c r="AM35" s="99"/>
-      <c r="AN35" s="99"/>
-      <c r="AO35" s="99"/>
-      <c r="AP35" s="99"/>
-      <c r="AQ35" s="100"/>
-      <c r="AR35" s="100"/>
-      <c r="AS35" s="99"/>
-      <c r="AT35" s="99"/>
-      <c r="AU35" s="99"/>
-    </row>
-    <row r="36" spans="1:47" s="98" customFormat="1">
-      <c r="A36" s="99"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="99"/>
-      <c r="S36" s="99"/>
-      <c r="T36" s="99"/>
-      <c r="U36" s="99"/>
-      <c r="V36" s="99"/>
-      <c r="W36" s="99"/>
-      <c r="X36" s="99"/>
-      <c r="Y36" s="99"/>
-      <c r="Z36" s="99"/>
-      <c r="AA36" s="99"/>
-      <c r="AB36" s="99"/>
-      <c r="AC36" s="99"/>
-      <c r="AD36" s="99"/>
-      <c r="AE36" s="99"/>
-      <c r="AF36" s="99"/>
-      <c r="AG36" s="99"/>
-      <c r="AH36" s="99"/>
-      <c r="AI36" s="99"/>
-      <c r="AJ36" s="99"/>
-      <c r="AK36" s="99"/>
-      <c r="AL36" s="99"/>
-      <c r="AM36" s="99"/>
-      <c r="AN36" s="99"/>
-      <c r="AO36" s="99"/>
-      <c r="AP36" s="99"/>
-      <c r="AQ36" s="100"/>
-      <c r="AR36" s="100"/>
-      <c r="AS36" s="99"/>
-      <c r="AT36" s="99"/>
-      <c r="AU36" s="99"/>
-    </row>
-    <row r="37" spans="1:47" s="98" customFormat="1">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="99"/>
-      <c r="T37" s="99"/>
-      <c r="U37" s="99"/>
-      <c r="V37" s="99"/>
-      <c r="W37" s="99"/>
-      <c r="X37" s="99"/>
-      <c r="Y37" s="99"/>
-      <c r="Z37" s="99"/>
-      <c r="AA37" s="99"/>
-      <c r="AB37" s="99"/>
-      <c r="AC37" s="99"/>
-      <c r="AD37" s="99"/>
-      <c r="AE37" s="99"/>
-      <c r="AF37" s="99"/>
-      <c r="AG37" s="99"/>
-      <c r="AH37" s="99"/>
-      <c r="AI37" s="99"/>
-      <c r="AJ37" s="99"/>
-      <c r="AK37" s="99"/>
-      <c r="AL37" s="99"/>
-      <c r="AM37" s="99"/>
-      <c r="AN37" s="99"/>
-      <c r="AO37" s="99"/>
-      <c r="AP37" s="99"/>
-      <c r="AQ37" s="100"/>
-      <c r="AR37" s="99"/>
-      <c r="AS37" s="99"/>
-      <c r="AT37" s="99"/>
-      <c r="AU37" s="99"/>
-    </row>
-    <row r="38" spans="1:47">
-      <c r="A38" s="97"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="97"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="97"/>
-      <c r="P38" s="97"/>
-      <c r="Q38" s="97"/>
-      <c r="R38" s="97"/>
-      <c r="S38" s="97"/>
-      <c r="T38" s="97"/>
-      <c r="U38" s="97"/>
-      <c r="V38" s="97"/>
-      <c r="W38" s="97"/>
-      <c r="X38" s="97"/>
-      <c r="Y38" s="97"/>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="97"/>
-      <c r="AB38" s="97"/>
-      <c r="AC38" s="97"/>
-      <c r="AD38" s="97"/>
-      <c r="AE38" s="97"/>
-      <c r="AF38" s="97"/>
-      <c r="AG38" s="97"/>
-      <c r="AH38" s="97"/>
-      <c r="AI38" s="97"/>
-      <c r="AJ38" s="97"/>
-      <c r="AK38" s="97"/>
-      <c r="AL38" s="97"/>
-      <c r="AM38" s="97"/>
-      <c r="AN38" s="97"/>
-      <c r="AO38" s="97"/>
-      <c r="AP38" s="97"/>
-      <c r="AQ38" s="355"/>
-      <c r="AR38" s="355"/>
-      <c r="AS38" s="97"/>
-      <c r="AT38" s="97"/>
-      <c r="AU38" s="97"/>
-    </row>
-    <row r="39" spans="1:47" s="96" customFormat="1" ht="23.25"/>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C20:Z20"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="C11:Z11"/>
-    <mergeCell ref="C12:Z12"/>
-    <mergeCell ref="B15:Z15"/>
-    <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/輸入法鍵盤設計表_河洛注音.xlsx
+++ b/docs/輸入法鍵盤設計表_河洛注音.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC07D83-FB81-497C-99A7-D21E7915FEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798D527B-1396-4F12-86E4-BE6EB553D0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{28F1D67D-D646-F742-8C6B-20DFC10DC14C}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2141" uniqueCount="826">
   <si>
     <t>1 !</t>
   </si>
@@ -3341,6 +3341,10 @@
     <t>ㆻ</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>找字母：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3351,7 +3355,7 @@
     <numFmt numFmtId="177" formatCode="&quot;/ &quot;@&quot; /&quot;"/>
     <numFmt numFmtId="178" formatCode="General;;"/>
   </numFmts>
-  <fonts count="160">
+  <fonts count="162">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -4392,6 +4396,21 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="Noto Serif TC SemiBold"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="27">
     <fill>
@@ -4872,7 +4891,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="124" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="395">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5690,271 +5709,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="25" borderId="25" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="25" borderId="26" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="25" borderId="27" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="131" fillId="25" borderId="27" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -5968,9 +5726,283 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="26" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="108" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="9" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{B91D425B-26B7-5B46-882C-36B2847BF71B}"/>
@@ -5980,86 +6012,6 @@
     <cellStyle name="一般 4" xfId="4" xr:uid="{EEC31A27-66EA-4D5E-A3E5-D3011515E366}"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Iansui 094"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFFFF00"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6142,6 +6094,86 @@
         <sz val="18"/>
         <color auto="1"/>
         <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <name val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Iansui 094"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6432,8 +6464,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>455839</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -8343,19 +8375,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0277D331-C73A-444C-956E-FEF9D2B9E58B}" name="表格1_3345" displayName="表格1_3345" ref="R2:T44" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0277D331-C73A-444C-956E-FEF9D2B9E58B}" name="表格1_3345" displayName="表格1_3345" ref="R2:T44" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
     <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0CB4C971-45FE-4EF1-8E93-03D0BAFFA9AB}" name="鍵盤按鍵" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{0CB4C971-45FE-4EF1-8E93-03D0BAFFA9AB}" name="鍵盤按鍵" dataDxfId="8">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{730A345D-24E2-4C76-943A-E64802DD029D}" name="字典編碼" dataDxfId="1" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{730A345D-24E2-4C76-943A-E64802DD029D}" name="字典編碼" dataDxfId="7" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4C3C4DD4-6C51-4A0A-99B3-DF9F0D69AF51}" name="方音符號" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{4C3C4DD4-6C51-4A0A-99B3-DF9F0D69AF51}" name="方音符號" dataDxfId="6">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8364,17 +8396,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28456E6C-4285-4B6F-9853-AAC05DB79DF7}" name="表格1_3" displayName="表格1_3" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28456E6C-4285-4B6F-9853-AAC05DB79DF7}" name="表格1_3" displayName="表格1_3" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="W2:AA47" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W3:AA47">
     <sortCondition ref="W3:W47" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C7CC57E6-DD0D-4C69-8097-C90E6E1A0323}" name="鍵盤位置" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{63964A11-33C3-4775-A61B-A34CA9D7D33B}" name="方音符號" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F5A33025-421F-49C0-AF9F-4A9A0D4562CC}" name="拼音字母" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{D331036C-A530-49C9-BE79-22670ABE9163}" name="按鍵編碼" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3CD879B3-0434-4959-B532-198774D28491}" name="國際音標" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C7CC57E6-DD0D-4C69-8097-C90E6E1A0323}" name="鍵盤位置" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{63964A11-33C3-4775-A61B-A34CA9D7D33B}" name="方音符號" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F5A33025-421F-49C0-AF9F-4A9A0D4562CC}" name="拼音字母" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D331036C-A530-49C9-BE79-22670ABE9163}" name="按鍵編碼" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3CD879B3-0434-4959-B532-198774D28491}" name="國際音標" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11502,8 +11534,8 @@
       <c r="AN1" s="97"/>
       <c r="AO1" s="97"/>
       <c r="AP1" s="97"/>
-      <c r="AQ1" s="355"/>
-      <c r="AR1" s="355"/>
+      <c r="AQ1" s="362"/>
+      <c r="AR1" s="362"/>
       <c r="AS1" s="97"/>
       <c r="AT1" s="97"/>
       <c r="AU1" s="97"/>
@@ -12820,66 +12852,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="353" t="str">
+      <c r="C11" s="363" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="353"/>
-      <c r="E11" s="353"/>
-      <c r="F11" s="353"/>
-      <c r="G11" s="353"/>
-      <c r="H11" s="353"/>
-      <c r="I11" s="353"/>
-      <c r="J11" s="353"/>
-      <c r="K11" s="353"/>
-      <c r="L11" s="353"/>
-      <c r="M11" s="353"/>
-      <c r="N11" s="353"/>
-      <c r="O11" s="353"/>
-      <c r="P11" s="353"/>
-      <c r="Q11" s="353"/>
-      <c r="R11" s="353"/>
-      <c r="S11" s="353"/>
-      <c r="T11" s="353"/>
-      <c r="U11" s="353"/>
-      <c r="V11" s="353"/>
-      <c r="W11" s="353"/>
-      <c r="X11" s="353"/>
-      <c r="Y11" s="353"/>
-      <c r="Z11" s="353"/>
+      <c r="D11" s="363"/>
+      <c r="E11" s="363"/>
+      <c r="F11" s="363"/>
+      <c r="G11" s="363"/>
+      <c r="H11" s="363"/>
+      <c r="I11" s="363"/>
+      <c r="J11" s="363"/>
+      <c r="K11" s="363"/>
+      <c r="L11" s="363"/>
+      <c r="M11" s="363"/>
+      <c r="N11" s="363"/>
+      <c r="O11" s="363"/>
+      <c r="P11" s="363"/>
+      <c r="Q11" s="363"/>
+      <c r="R11" s="363"/>
+      <c r="S11" s="363"/>
+      <c r="T11" s="363"/>
+      <c r="U11" s="363"/>
+      <c r="V11" s="363"/>
+      <c r="W11" s="363"/>
+      <c r="X11" s="363"/>
+      <c r="Y11" s="363"/>
+      <c r="Z11" s="363"/>
     </row>
     <row r="12" spans="1:47" s="96" customFormat="1" ht="23.25">
       <c r="B12" s="105" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="354" t="str">
+      <c r="C12" s="361" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="354"/>
-      <c r="E12" s="354"/>
-      <c r="F12" s="354"/>
-      <c r="G12" s="354"/>
-      <c r="H12" s="354"/>
-      <c r="I12" s="354"/>
-      <c r="J12" s="354"/>
-      <c r="K12" s="354"/>
-      <c r="L12" s="354"/>
-      <c r="M12" s="354"/>
-      <c r="N12" s="354"/>
-      <c r="O12" s="354"/>
-      <c r="P12" s="354"/>
-      <c r="Q12" s="354"/>
-      <c r="R12" s="354"/>
-      <c r="S12" s="354"/>
-      <c r="T12" s="354"/>
-      <c r="U12" s="354"/>
-      <c r="V12" s="354"/>
-      <c r="W12" s="354"/>
-      <c r="X12" s="354"/>
-      <c r="Y12" s="354"/>
-      <c r="Z12" s="354"/>
+      <c r="D12" s="361"/>
+      <c r="E12" s="361"/>
+      <c r="F12" s="361"/>
+      <c r="G12" s="361"/>
+      <c r="H12" s="361"/>
+      <c r="I12" s="361"/>
+      <c r="J12" s="361"/>
+      <c r="K12" s="361"/>
+      <c r="L12" s="361"/>
+      <c r="M12" s="361"/>
+      <c r="N12" s="361"/>
+      <c r="O12" s="361"/>
+      <c r="P12" s="361"/>
+      <c r="Q12" s="361"/>
+      <c r="R12" s="361"/>
+      <c r="S12" s="361"/>
+      <c r="T12" s="361"/>
+      <c r="U12" s="361"/>
+      <c r="V12" s="361"/>
+      <c r="W12" s="361"/>
+      <c r="X12" s="361"/>
+      <c r="Y12" s="361"/>
+      <c r="Z12" s="361"/>
     </row>
     <row r="13" spans="1:47" s="96" customFormat="1" ht="23.25"/>
     <row r="14" spans="1:47" s="96" customFormat="1" ht="34.5">
@@ -12888,34 +12920,34 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="96" customFormat="1" ht="23.25">
-      <c r="B15" s="352" t="str">
+      <c r="B15" s="364" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="352"/>
-      <c r="D15" s="352"/>
-      <c r="E15" s="352"/>
-      <c r="F15" s="352"/>
-      <c r="G15" s="352"/>
-      <c r="H15" s="352"/>
-      <c r="I15" s="352"/>
-      <c r="J15" s="352"/>
-      <c r="K15" s="352"/>
-      <c r="L15" s="352"/>
-      <c r="M15" s="352"/>
-      <c r="N15" s="352"/>
-      <c r="O15" s="352"/>
-      <c r="P15" s="352"/>
-      <c r="Q15" s="352"/>
-      <c r="R15" s="352"/>
-      <c r="S15" s="352"/>
-      <c r="T15" s="352"/>
-      <c r="U15" s="352"/>
-      <c r="V15" s="352"/>
-      <c r="W15" s="352"/>
-      <c r="X15" s="352"/>
-      <c r="Y15" s="352"/>
-      <c r="Z15" s="352"/>
+      <c r="C15" s="364"/>
+      <c r="D15" s="364"/>
+      <c r="E15" s="364"/>
+      <c r="F15" s="364"/>
+      <c r="G15" s="364"/>
+      <c r="H15" s="364"/>
+      <c r="I15" s="364"/>
+      <c r="J15" s="364"/>
+      <c r="K15" s="364"/>
+      <c r="L15" s="364"/>
+      <c r="M15" s="364"/>
+      <c r="N15" s="364"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="364"/>
+      <c r="Q15" s="364"/>
+      <c r="R15" s="364"/>
+      <c r="S15" s="364"/>
+      <c r="T15" s="364"/>
+      <c r="U15" s="364"/>
+      <c r="V15" s="364"/>
+      <c r="W15" s="364"/>
+      <c r="X15" s="364"/>
+      <c r="Y15" s="364"/>
+      <c r="Z15" s="364"/>
     </row>
     <row r="16" spans="1:47" s="96" customFormat="1" ht="23.25"/>
     <row r="17" spans="2:26" s="96" customFormat="1" ht="34.5">
@@ -12929,66 +12961,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="353" t="str">
+      <c r="C19" s="363" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="353"/>
-      <c r="E19" s="353"/>
-      <c r="F19" s="353"/>
-      <c r="G19" s="353"/>
-      <c r="H19" s="353"/>
-      <c r="I19" s="353"/>
-      <c r="J19" s="353"/>
-      <c r="K19" s="353"/>
-      <c r="L19" s="353"/>
-      <c r="M19" s="353"/>
-      <c r="N19" s="353"/>
-      <c r="O19" s="353"/>
-      <c r="P19" s="353"/>
-      <c r="Q19" s="353"/>
-      <c r="R19" s="353"/>
-      <c r="S19" s="353"/>
-      <c r="T19" s="353"/>
-      <c r="U19" s="353"/>
-      <c r="V19" s="353"/>
-      <c r="W19" s="353"/>
-      <c r="X19" s="353"/>
-      <c r="Y19" s="353"/>
-      <c r="Z19" s="353"/>
+      <c r="D19" s="363"/>
+      <c r="E19" s="363"/>
+      <c r="F19" s="363"/>
+      <c r="G19" s="363"/>
+      <c r="H19" s="363"/>
+      <c r="I19" s="363"/>
+      <c r="J19" s="363"/>
+      <c r="K19" s="363"/>
+      <c r="L19" s="363"/>
+      <c r="M19" s="363"/>
+      <c r="N19" s="363"/>
+      <c r="O19" s="363"/>
+      <c r="P19" s="363"/>
+      <c r="Q19" s="363"/>
+      <c r="R19" s="363"/>
+      <c r="S19" s="363"/>
+      <c r="T19" s="363"/>
+      <c r="U19" s="363"/>
+      <c r="V19" s="363"/>
+      <c r="W19" s="363"/>
+      <c r="X19" s="363"/>
+      <c r="Y19" s="363"/>
+      <c r="Z19" s="363"/>
     </row>
     <row r="20" spans="2:26" s="96" customFormat="1" ht="23.25">
       <c r="B20" s="103" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="354" t="str">
+      <c r="C20" s="361" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="354"/>
-      <c r="E20" s="354"/>
-      <c r="F20" s="354"/>
-      <c r="G20" s="354"/>
-      <c r="H20" s="354"/>
-      <c r="I20" s="354"/>
-      <c r="J20" s="354"/>
-      <c r="K20" s="354"/>
-      <c r="L20" s="354"/>
-      <c r="M20" s="354"/>
-      <c r="N20" s="354"/>
-      <c r="O20" s="354"/>
-      <c r="P20" s="354"/>
-      <c r="Q20" s="354"/>
-      <c r="R20" s="354"/>
-      <c r="S20" s="354"/>
-      <c r="T20" s="354"/>
-      <c r="U20" s="354"/>
-      <c r="V20" s="354"/>
-      <c r="W20" s="354"/>
-      <c r="X20" s="354"/>
-      <c r="Y20" s="354"/>
-      <c r="Z20" s="354"/>
+      <c r="D20" s="361"/>
+      <c r="E20" s="361"/>
+      <c r="F20" s="361"/>
+      <c r="G20" s="361"/>
+      <c r="H20" s="361"/>
+      <c r="I20" s="361"/>
+      <c r="J20" s="361"/>
+      <c r="K20" s="361"/>
+      <c r="L20" s="361"/>
+      <c r="M20" s="361"/>
+      <c r="N20" s="361"/>
+      <c r="O20" s="361"/>
+      <c r="P20" s="361"/>
+      <c r="Q20" s="361"/>
+      <c r="R20" s="361"/>
+      <c r="S20" s="361"/>
+      <c r="T20" s="361"/>
+      <c r="U20" s="361"/>
+      <c r="V20" s="361"/>
+      <c r="W20" s="361"/>
+      <c r="X20" s="361"/>
+      <c r="Y20" s="361"/>
+      <c r="Z20" s="361"/>
     </row>
     <row r="21" spans="2:26" s="96" customFormat="1" ht="23.25"/>
     <row r="22" spans="2:26" s="96" customFormat="1" ht="34.5">
@@ -12997,34 +13029,34 @@
       </c>
     </row>
     <row r="23" spans="2:26" s="96" customFormat="1" ht="23.25">
-      <c r="B23" s="352" t="str">
+      <c r="B23" s="364" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="352"/>
-      <c r="D23" s="352"/>
-      <c r="E23" s="352"/>
-      <c r="F23" s="352"/>
-      <c r="G23" s="352"/>
-      <c r="H23" s="352"/>
-      <c r="I23" s="352"/>
-      <c r="J23" s="352"/>
-      <c r="K23" s="352"/>
-      <c r="L23" s="352"/>
-      <c r="M23" s="352"/>
-      <c r="N23" s="352"/>
-      <c r="O23" s="352"/>
-      <c r="P23" s="352"/>
-      <c r="Q23" s="352"/>
-      <c r="R23" s="352"/>
-      <c r="S23" s="352"/>
-      <c r="T23" s="352"/>
-      <c r="U23" s="352"/>
-      <c r="V23" s="352"/>
-      <c r="W23" s="352"/>
-      <c r="X23" s="352"/>
-      <c r="Y23" s="352"/>
-      <c r="Z23" s="352"/>
+      <c r="C23" s="364"/>
+      <c r="D23" s="364"/>
+      <c r="E23" s="364"/>
+      <c r="F23" s="364"/>
+      <c r="G23" s="364"/>
+      <c r="H23" s="364"/>
+      <c r="I23" s="364"/>
+      <c r="J23" s="364"/>
+      <c r="K23" s="364"/>
+      <c r="L23" s="364"/>
+      <c r="M23" s="364"/>
+      <c r="N23" s="364"/>
+      <c r="O23" s="364"/>
+      <c r="P23" s="364"/>
+      <c r="Q23" s="364"/>
+      <c r="R23" s="364"/>
+      <c r="S23" s="364"/>
+      <c r="T23" s="364"/>
+      <c r="U23" s="364"/>
+      <c r="V23" s="364"/>
+      <c r="W23" s="364"/>
+      <c r="X23" s="364"/>
+      <c r="Y23" s="364"/>
+      <c r="Z23" s="364"/>
     </row>
     <row r="24" spans="2:26" s="96" customFormat="1" ht="23.25"/>
     <row r="25" spans="2:26" s="96" customFormat="1" ht="34.5">
@@ -13038,66 +13070,66 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="353" t="str">
+      <c r="C27" s="363" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="353"/>
-      <c r="E27" s="353"/>
-      <c r="F27" s="353"/>
-      <c r="G27" s="353"/>
-      <c r="H27" s="353"/>
-      <c r="I27" s="353"/>
-      <c r="J27" s="353"/>
-      <c r="K27" s="353"/>
-      <c r="L27" s="353"/>
-      <c r="M27" s="353"/>
-      <c r="N27" s="353"/>
-      <c r="O27" s="353"/>
-      <c r="P27" s="353"/>
-      <c r="Q27" s="353"/>
-      <c r="R27" s="353"/>
-      <c r="S27" s="353"/>
-      <c r="T27" s="353"/>
-      <c r="U27" s="353"/>
-      <c r="V27" s="353"/>
-      <c r="W27" s="353"/>
-      <c r="X27" s="353"/>
-      <c r="Y27" s="353"/>
-      <c r="Z27" s="353"/>
+      <c r="D27" s="363"/>
+      <c r="E27" s="363"/>
+      <c r="F27" s="363"/>
+      <c r="G27" s="363"/>
+      <c r="H27" s="363"/>
+      <c r="I27" s="363"/>
+      <c r="J27" s="363"/>
+      <c r="K27" s="363"/>
+      <c r="L27" s="363"/>
+      <c r="M27" s="363"/>
+      <c r="N27" s="363"/>
+      <c r="O27" s="363"/>
+      <c r="P27" s="363"/>
+      <c r="Q27" s="363"/>
+      <c r="R27" s="363"/>
+      <c r="S27" s="363"/>
+      <c r="T27" s="363"/>
+      <c r="U27" s="363"/>
+      <c r="V27" s="363"/>
+      <c r="W27" s="363"/>
+      <c r="X27" s="363"/>
+      <c r="Y27" s="363"/>
+      <c r="Z27" s="363"/>
     </row>
     <row r="28" spans="2:26" s="96" customFormat="1" ht="23.25">
       <c r="B28" s="103" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="354" t="str">
+      <c r="C28" s="361" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="354"/>
-      <c r="E28" s="354"/>
-      <c r="F28" s="354"/>
-      <c r="G28" s="354"/>
-      <c r="H28" s="354"/>
-      <c r="I28" s="354"/>
-      <c r="J28" s="354"/>
-      <c r="K28" s="354"/>
-      <c r="L28" s="354"/>
-      <c r="M28" s="354"/>
-      <c r="N28" s="354"/>
-      <c r="O28" s="354"/>
-      <c r="P28" s="354"/>
-      <c r="Q28" s="354"/>
-      <c r="R28" s="354"/>
-      <c r="S28" s="354"/>
-      <c r="T28" s="354"/>
-      <c r="U28" s="354"/>
-      <c r="V28" s="354"/>
-      <c r="W28" s="354"/>
-      <c r="X28" s="354"/>
-      <c r="Y28" s="354"/>
-      <c r="Z28" s="354"/>
+      <c r="D28" s="361"/>
+      <c r="E28" s="361"/>
+      <c r="F28" s="361"/>
+      <c r="G28" s="361"/>
+      <c r="H28" s="361"/>
+      <c r="I28" s="361"/>
+      <c r="J28" s="361"/>
+      <c r="K28" s="361"/>
+      <c r="L28" s="361"/>
+      <c r="M28" s="361"/>
+      <c r="N28" s="361"/>
+      <c r="O28" s="361"/>
+      <c r="P28" s="361"/>
+      <c r="Q28" s="361"/>
+      <c r="R28" s="361"/>
+      <c r="S28" s="361"/>
+      <c r="T28" s="361"/>
+      <c r="U28" s="361"/>
+      <c r="V28" s="361"/>
+      <c r="W28" s="361"/>
+      <c r="X28" s="361"/>
+      <c r="Y28" s="361"/>
+      <c r="Z28" s="361"/>
     </row>
     <row r="29" spans="2:26" s="96" customFormat="1" ht="23.25"/>
     <row r="30" spans="2:26" s="96" customFormat="1" ht="34.5">
@@ -13106,34 +13138,34 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="96" customFormat="1" ht="23.25">
-      <c r="B31" s="352" t="str">
+      <c r="B31" s="364" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="352"/>
-      <c r="D31" s="352"/>
-      <c r="E31" s="352"/>
-      <c r="F31" s="352"/>
-      <c r="G31" s="352"/>
-      <c r="H31" s="352"/>
-      <c r="I31" s="352"/>
-      <c r="J31" s="352"/>
-      <c r="K31" s="352"/>
-      <c r="L31" s="352"/>
-      <c r="M31" s="352"/>
-      <c r="N31" s="352"/>
-      <c r="O31" s="352"/>
-      <c r="P31" s="352"/>
-      <c r="Q31" s="352"/>
-      <c r="R31" s="352"/>
-      <c r="S31" s="352"/>
-      <c r="T31" s="352"/>
-      <c r="U31" s="352"/>
-      <c r="V31" s="352"/>
-      <c r="W31" s="352"/>
-      <c r="X31" s="352"/>
-      <c r="Y31" s="352"/>
-      <c r="Z31" s="352"/>
+      <c r="C31" s="364"/>
+      <c r="D31" s="364"/>
+      <c r="E31" s="364"/>
+      <c r="F31" s="364"/>
+      <c r="G31" s="364"/>
+      <c r="H31" s="364"/>
+      <c r="I31" s="364"/>
+      <c r="J31" s="364"/>
+      <c r="K31" s="364"/>
+      <c r="L31" s="364"/>
+      <c r="M31" s="364"/>
+      <c r="N31" s="364"/>
+      <c r="O31" s="364"/>
+      <c r="P31" s="364"/>
+      <c r="Q31" s="364"/>
+      <c r="R31" s="364"/>
+      <c r="S31" s="364"/>
+      <c r="T31" s="364"/>
+      <c r="U31" s="364"/>
+      <c r="V31" s="364"/>
+      <c r="W31" s="364"/>
+      <c r="X31" s="364"/>
+      <c r="Y31" s="364"/>
+      <c r="Z31" s="364"/>
     </row>
     <row r="32" spans="2:26" s="96" customFormat="1" ht="23.25"/>
     <row r="33" spans="1:47" s="98" customFormat="1">
@@ -13424,8 +13456,8 @@
       <c r="AN38" s="97"/>
       <c r="AO38" s="97"/>
       <c r="AP38" s="97"/>
-      <c r="AQ38" s="355"/>
-      <c r="AR38" s="355"/>
+      <c r="AQ38" s="362"/>
+      <c r="AR38" s="362"/>
       <c r="AS38" s="97"/>
       <c r="AT38" s="97"/>
       <c r="AU38" s="97"/>
@@ -13433,17 +13465,17 @@
     <row r="39" spans="1:47" s="96" customFormat="1" ht="23.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13481,161 +13513,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="23" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="377" t="s">
+      <c r="B2" s="365" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="377"/>
-      <c r="D2" s="377"/>
-      <c r="E2" s="377" t="s">
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="365" t="s">
         <v>212</v>
       </c>
-      <c r="F2" s="377"/>
-      <c r="G2" s="377" t="s">
+      <c r="F2" s="365"/>
+      <c r="G2" s="365" t="s">
         <v>213</v>
       </c>
-      <c r="H2" s="377"/>
-      <c r="I2" s="377" t="s">
+      <c r="H2" s="365"/>
+      <c r="I2" s="365" t="s">
         <v>214</v>
       </c>
-      <c r="J2" s="377"/>
-      <c r="K2" s="377" t="s">
+      <c r="J2" s="365"/>
+      <c r="K2" s="365" t="s">
         <v>215</v>
       </c>
-      <c r="L2" s="377"/>
-      <c r="M2" s="377"/>
-      <c r="N2" s="377"/>
-      <c r="O2" s="377" t="s">
+      <c r="L2" s="365"/>
+      <c r="M2" s="365"/>
+      <c r="N2" s="365"/>
+      <c r="O2" s="365" t="s">
         <v>216</v>
       </c>
-      <c r="P2" s="377"/>
+      <c r="P2" s="365"/>
     </row>
     <row r="3" spans="2:16" s="23" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="365" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="377"/>
-      <c r="D3" s="377"/>
-      <c r="E3" s="377" t="s">
+      <c r="C3" s="365"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="365" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="377"/>
-      <c r="G3" s="377" t="s">
+      <c r="F3" s="365"/>
+      <c r="G3" s="365" t="s">
         <v>218</v>
       </c>
-      <c r="H3" s="377"/>
-      <c r="I3" s="377" t="s">
+      <c r="H3" s="365"/>
+      <c r="I3" s="365" t="s">
         <v>219</v>
       </c>
-      <c r="J3" s="377"/>
-      <c r="K3" s="377" t="s">
+      <c r="J3" s="365"/>
+      <c r="K3" s="365" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="377"/>
-      <c r="M3" s="377"/>
-      <c r="N3" s="377"/>
-      <c r="O3" s="377" t="s">
+      <c r="L3" s="365"/>
+      <c r="M3" s="365"/>
+      <c r="N3" s="365"/>
+      <c r="O3" s="365" t="s">
         <v>216</v>
       </c>
-      <c r="P3" s="377"/>
+      <c r="P3" s="365"/>
     </row>
     <row r="4" spans="2:16" s="23" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="377" t="s">
+      <c r="B4" s="365" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="377"/>
-      <c r="D4" s="377"/>
-      <c r="E4" s="377" t="s">
+      <c r="C4" s="365"/>
+      <c r="D4" s="365"/>
+      <c r="E4" s="365" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="377"/>
-      <c r="G4" s="377" t="s">
+      <c r="F4" s="365"/>
+      <c r="G4" s="365" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="377"/>
-      <c r="I4" s="377" t="s">
+      <c r="H4" s="365"/>
+      <c r="I4" s="365" t="s">
         <v>219</v>
       </c>
-      <c r="J4" s="377"/>
-      <c r="K4" s="377" t="s">
+      <c r="J4" s="365"/>
+      <c r="K4" s="365" t="s">
         <v>223</v>
       </c>
-      <c r="L4" s="377"/>
-      <c r="M4" s="377"/>
-      <c r="N4" s="377"/>
-      <c r="O4" s="377" t="s">
+      <c r="L4" s="365"/>
+      <c r="M4" s="365"/>
+      <c r="N4" s="365"/>
+      <c r="O4" s="365" t="s">
         <v>216</v>
       </c>
-      <c r="P4" s="377"/>
+      <c r="P4" s="365"/>
     </row>
     <row r="5" spans="2:16" s="23" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="377" t="s">
+      <c r="B5" s="365" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="377"/>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377" t="s">
+      <c r="C5" s="365"/>
+      <c r="D5" s="365"/>
+      <c r="E5" s="365" t="s">
         <v>225</v>
       </c>
-      <c r="F5" s="377"/>
-      <c r="G5" s="377" t="s">
+      <c r="F5" s="365"/>
+      <c r="G5" s="365" t="s">
         <v>226</v>
       </c>
-      <c r="H5" s="377"/>
-      <c r="I5" s="377" t="s">
+      <c r="H5" s="365"/>
+      <c r="I5" s="365" t="s">
         <v>227</v>
       </c>
-      <c r="J5" s="377"/>
-      <c r="K5" s="377" t="s">
+      <c r="J5" s="365"/>
+      <c r="K5" s="365" t="s">
         <v>226</v>
       </c>
-      <c r="L5" s="377"/>
-      <c r="M5" s="377"/>
-      <c r="N5" s="377"/>
-      <c r="O5" s="377" t="s">
+      <c r="L5" s="365"/>
+      <c r="M5" s="365"/>
+      <c r="N5" s="365"/>
+      <c r="O5" s="365" t="s">
         <v>228</v>
       </c>
-      <c r="P5" s="377"/>
+      <c r="P5" s="365"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="370" t="s">
+      <c r="B7" s="374" t="s">
         <v>229</v>
       </c>
-      <c r="C7" s="371"/>
-      <c r="D7" s="372"/>
-      <c r="E7" s="373" t="s">
+      <c r="C7" s="375"/>
+      <c r="D7" s="376"/>
+      <c r="E7" s="377" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="374"/>
-      <c r="G7" s="365" t="s">
+      <c r="F7" s="378"/>
+      <c r="G7" s="366" t="s">
         <v>230</v>
       </c>
-      <c r="H7" s="366"/>
-      <c r="I7" s="375" t="s">
+      <c r="H7" s="367"/>
+      <c r="I7" s="379" t="s">
         <v>231</v>
       </c>
-      <c r="J7" s="376"/>
-      <c r="K7" s="365" t="s">
+      <c r="J7" s="380"/>
+      <c r="K7" s="366" t="s">
         <v>232</v>
       </c>
-      <c r="L7" s="366"/>
-      <c r="M7" s="365" t="s">
+      <c r="L7" s="367"/>
+      <c r="M7" s="366" t="s">
         <v>233</v>
       </c>
-      <c r="N7" s="366"/>
-      <c r="O7" s="365" t="s">
+      <c r="N7" s="367"/>
+      <c r="O7" s="366" t="s">
         <v>234</v>
       </c>
-      <c r="P7" s="366"/>
+      <c r="P7" s="367"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="356" t="s">
+      <c r="B8" s="368" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="367" t="s">
+      <c r="C8" s="369" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="368" t="s">
+      <c r="D8" s="370" t="s">
         <v>237</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -13668,9 +13700,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="356"/>
-      <c r="C9" s="367"/>
-      <c r="D9" s="368"/>
+      <c r="B9" s="368"/>
+      <c r="C9" s="369"/>
+      <c r="D9" s="370"/>
       <c r="E9" s="29" t="s">
         <v>240</v>
       </c>
@@ -13701,9 +13733,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="356"/>
-      <c r="C10" s="367"/>
-      <c r="D10" s="364" t="s">
+      <c r="B10" s="368"/>
+      <c r="C10" s="369"/>
+      <c r="D10" s="371" t="s">
         <v>248</v>
       </c>
       <c r="E10" s="24" t="s">
@@ -13732,9 +13764,9 @@
       <c r="P10" s="25"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="356"/>
-      <c r="C11" s="367"/>
-      <c r="D11" s="364"/>
+      <c r="B11" s="368"/>
+      <c r="C11" s="369"/>
+      <c r="D11" s="371"/>
       <c r="E11" s="29" t="s">
         <v>249</v>
       </c>
@@ -13761,11 +13793,11 @@
       <c r="P11" s="30"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="356"/>
-      <c r="C12" s="357" t="s">
+      <c r="B12" s="368"/>
+      <c r="C12" s="372" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="369" t="s">
+      <c r="D12" s="373" t="s">
         <v>256</v>
       </c>
       <c r="E12" s="24" t="s">
@@ -13790,9 +13822,9 @@
       <c r="P12" s="25"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="356"/>
-      <c r="C13" s="357"/>
-      <c r="D13" s="369"/>
+      <c r="B13" s="368"/>
+      <c r="C13" s="372"/>
+      <c r="D13" s="373"/>
       <c r="E13" s="29" t="s">
         <v>200</v>
       </c>
@@ -13815,13 +13847,13 @@
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="356" t="s">
+      <c r="B14" s="368" t="s">
         <v>260</v>
       </c>
-      <c r="C14" s="362" t="s">
+      <c r="C14" s="381" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="358" t="s">
+      <c r="D14" s="382" t="s">
         <v>237</v>
       </c>
       <c r="E14" s="24"/>
@@ -13846,9 +13878,9 @@
       <c r="P14" s="25"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="356"/>
-      <c r="C15" s="362"/>
-      <c r="D15" s="358"/>
+      <c r="B15" s="368"/>
+      <c r="C15" s="381"/>
+      <c r="D15" s="382"/>
       <c r="E15" s="29"/>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
@@ -13871,9 +13903,9 @@
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="356"/>
-      <c r="C16" s="362"/>
-      <c r="D16" s="364" t="s">
+      <c r="B16" s="368"/>
+      <c r="C16" s="381"/>
+      <c r="D16" s="371" t="s">
         <v>248</v>
       </c>
       <c r="E16" s="24"/>
@@ -13898,9 +13930,9 @@
       <c r="P16" s="25"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="356"/>
-      <c r="C17" s="362"/>
-      <c r="D17" s="364"/>
+      <c r="B17" s="368"/>
+      <c r="C17" s="381"/>
+      <c r="D17" s="371"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -13923,11 +13955,11 @@
       <c r="P17" s="30"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="356"/>
-      <c r="C18" s="357" t="s">
+      <c r="B18" s="368"/>
+      <c r="C18" s="372" t="s">
         <v>255</v>
       </c>
-      <c r="D18" s="358" t="s">
+      <c r="D18" s="382" t="s">
         <v>256</v>
       </c>
       <c r="E18" s="24"/>
@@ -13952,9 +13984,9 @@
       <c r="P18" s="25"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="356"/>
-      <c r="C19" s="357"/>
-      <c r="D19" s="358"/>
+      <c r="B19" s="368"/>
+      <c r="C19" s="372"/>
+      <c r="D19" s="382"/>
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
@@ -13977,13 +14009,13 @@
       <c r="P19" s="30"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="356" t="s">
+      <c r="B20" s="368" t="s">
         <v>277</v>
       </c>
-      <c r="C20" s="362" t="s">
+      <c r="C20" s="381" t="s">
         <v>236</v>
       </c>
-      <c r="D20" s="358" t="s">
+      <c r="D20" s="382" t="s">
         <v>256</v>
       </c>
       <c r="E20" s="24"/>
@@ -14008,9 +14040,9 @@
       <c r="P20" s="25"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="356"/>
-      <c r="C21" s="362"/>
-      <c r="D21" s="358"/>
+      <c r="B21" s="368"/>
+      <c r="C21" s="381"/>
+      <c r="D21" s="382"/>
       <c r="E21" s="29"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
@@ -14033,9 +14065,9 @@
       <c r="P21" s="30"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="356"/>
-      <c r="C22" s="362"/>
-      <c r="D22" s="363" t="s">
+      <c r="B22" s="368"/>
+      <c r="C22" s="381"/>
+      <c r="D22" s="383" t="s">
         <v>283</v>
       </c>
       <c r="E22" s="24"/>
@@ -14056,9 +14088,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="356"/>
-      <c r="C23" s="362"/>
-      <c r="D23" s="363"/>
+      <c r="B23" s="368"/>
+      <c r="C23" s="381"/>
+      <c r="D23" s="383"/>
       <c r="E23" s="29"/>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
@@ -14077,13 +14109,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="356" t="s">
+      <c r="B24" s="368" t="s">
         <v>286</v>
       </c>
-      <c r="C24" s="357" t="s">
+      <c r="C24" s="372" t="s">
         <v>255</v>
       </c>
-      <c r="D24" s="358" t="s">
+      <c r="D24" s="382" t="s">
         <v>256</v>
       </c>
       <c r="E24" s="24" t="s">
@@ -14112,9 +14144,9 @@
       <c r="P24" s="25"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="356"/>
-      <c r="C25" s="357"/>
-      <c r="D25" s="358"/>
+      <c r="B25" s="368"/>
+      <c r="C25" s="372"/>
+      <c r="D25" s="382"/>
       <c r="E25" s="29" t="s">
         <v>199</v>
       </c>
@@ -14141,13 +14173,13 @@
       <c r="P25" s="30"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="356" t="s">
+      <c r="B26" s="368" t="s">
         <v>292</v>
       </c>
-      <c r="C26" s="357" t="s">
+      <c r="C26" s="372" t="s">
         <v>255</v>
       </c>
-      <c r="D26" s="358" t="s">
+      <c r="D26" s="382" t="s">
         <v>256</v>
       </c>
       <c r="E26" s="24"/>
@@ -14168,9 +14200,9 @@
       <c r="P26" s="25"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="356"/>
-      <c r="C27" s="357"/>
-      <c r="D27" s="358"/>
+      <c r="B27" s="368"/>
+      <c r="C27" s="372"/>
+      <c r="D27" s="382"/>
       <c r="E27" s="29"/>
       <c r="F27" s="30"/>
       <c r="G27" s="31" t="s">
@@ -14192,23 +14224,23 @@
       <c r="B29" s="34" t="s">
         <v>296</v>
       </c>
-      <c r="C29" s="359" t="s">
+      <c r="C29" s="384" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="359"/>
-      <c r="E29" s="359"/>
-      <c r="F29" s="359"/>
-      <c r="G29" s="359"/>
-      <c r="H29" s="359"/>
-      <c r="I29" s="359"/>
-      <c r="J29" s="359"/>
-      <c r="K29" s="359"/>
-      <c r="L29" s="359"/>
-      <c r="M29" s="359"/>
-      <c r="N29" s="359"/>
-      <c r="O29" s="359"/>
-      <c r="P29" s="359"/>
-      <c r="Q29" s="359"/>
+      <c r="D29" s="384"/>
+      <c r="E29" s="384"/>
+      <c r="F29" s="384"/>
+      <c r="G29" s="384"/>
+      <c r="H29" s="384"/>
+      <c r="I29" s="384"/>
+      <c r="J29" s="384"/>
+      <c r="K29" s="384"/>
+      <c r="L29" s="384"/>
+      <c r="M29" s="384"/>
+      <c r="N29" s="384"/>
+      <c r="O29" s="384"/>
+      <c r="P29" s="384"/>
+      <c r="Q29" s="384"/>
     </row>
     <row r="30" spans="2:17" s="36" customFormat="1" ht="25.5">
       <c r="B30" s="34"/>
@@ -14252,10 +14284,10 @@
       <c r="B32" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="C32" s="360" t="s">
+      <c r="C32" s="385" t="s">
         <v>301</v>
       </c>
-      <c r="D32" s="361"/>
+      <c r="D32" s="386"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="37" t="s">
@@ -14270,6 +14302,51 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -14284,51 +14361,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -17738,12 +17770,12 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AG57"/>
+  <dimension ref="A1:AU57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="Y28" sqref="Y28"/>
+      <selection pane="bottomLeft" activeCell="AJ21" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
@@ -17773,7 +17805,11 @@
     <col min="29" max="29" width="8.796875" style="219"/>
     <col min="30" max="30" width="16.296875" style="219" customWidth="1"/>
     <col min="31" max="31" width="7.09765625" style="219" customWidth="1"/>
-    <col min="32" max="16384" width="8.796875" style="219"/>
+    <col min="32" max="40" width="8.796875" style="219"/>
+    <col min="41" max="41" width="13.3984375" style="219" bestFit="1" customWidth="1"/>
+    <col min="42" max="46" width="8.796875" style="219"/>
+    <col min="47" max="47" width="12.19921875" style="219" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="8.796875" style="219"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="32.25">
@@ -17879,11 +17915,11 @@
         <v>1</v>
       </c>
       <c r="N3" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E3, 1), "")</f>
+        <f t="shared" ref="N3:N19" si="0" xml:space="preserve"> IFERROR( MID($A$25, $E3, 1), "")</f>
         <v>p</v>
       </c>
       <c r="O3" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E3, 1), "")</f>
+        <f t="shared" ref="O3:O44" si="1" xml:space="preserve"> IFERROR( MID($A$26, $E3, 1), "")</f>
         <v>ㄅ</v>
       </c>
       <c r="Q3" s="219">
@@ -17930,44 +17966,44 @@
         <v>2</v>
       </c>
       <c r="F4" s="239" t="str">
-        <f t="shared" ref="F4:F44" si="0" xml:space="preserve"> IFERROR( MID($A$6, $E4, 1), "")</f>
+        <f t="shared" ref="F4:F44" si="2" xml:space="preserve"> IFERROR( MID($A$6, $E4, 1), "")</f>
         <v>P</v>
       </c>
       <c r="G4" s="240" t="str">
-        <f t="shared" ref="G4:G44" si="1" xml:space="preserve"> IFERROR( MID($A$7, $E4, 1), "")</f>
+        <f t="shared" ref="G4:G44" si="3" xml:space="preserve"> IFERROR( MID($A$7, $E4, 1), "")</f>
         <v>q</v>
       </c>
       <c r="I4" s="219">
         <v>2</v>
       </c>
       <c r="J4" s="234" t="str">
-        <f t="shared" ref="J4:J44" si="2" xml:space="preserve"> IFERROR( MID($A$15, $E4, 1), "")</f>
+        <f t="shared" ref="J4:J44" si="4" xml:space="preserve"> IFERROR( MID($A$15, $E4, 1), "")</f>
         <v>q</v>
       </c>
       <c r="K4" s="234" t="str">
-        <f t="shared" ref="K4:K44" si="3" xml:space="preserve"> IFERROR( MID($A$16, $E4, 1), "")</f>
+        <f t="shared" ref="K4:K44" si="5" xml:space="preserve"> IFERROR( MID($A$16, $E4, 1), "")</f>
         <v>ㄆ</v>
       </c>
       <c r="M4" s="219">
         <v>2</v>
       </c>
       <c r="N4" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E4, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>P</v>
       </c>
       <c r="O4" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E4, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄆ</v>
       </c>
       <c r="Q4" s="219">
         <v>2</v>
       </c>
       <c r="R4" s="222" t="str">
-        <f t="shared" ref="R4:R44" si="4">G4</f>
+        <f t="shared" ref="R4:R44" si="6">G4</f>
         <v>q</v>
       </c>
       <c r="S4" s="236" t="str">
-        <f t="shared" ref="S4:S44" si="5">F4</f>
+        <f t="shared" ref="S4:S44" si="7">F4</f>
         <v>P</v>
       </c>
       <c r="T4" s="289" t="str">
@@ -18003,44 +18039,44 @@
         <v>3</v>
       </c>
       <c r="F5" s="239" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>m</v>
       </c>
       <c r="G5" s="240" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>a</v>
       </c>
       <c r="I5" s="219">
         <v>3</v>
       </c>
       <c r="J5" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>a</v>
       </c>
       <c r="K5" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄇ</v>
       </c>
       <c r="M5" s="219">
         <v>3</v>
       </c>
       <c r="N5" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E5, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>b</v>
       </c>
       <c r="O5" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E5, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㆠ</v>
       </c>
       <c r="Q5" s="219">
         <v>3</v>
       </c>
       <c r="R5" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>a</v>
       </c>
       <c r="S5" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>m</v>
       </c>
       <c r="T5" s="289" t="str">
@@ -18048,7 +18084,7 @@
         <v>ㄇ</v>
       </c>
       <c r="X5" s="14">
-        <f t="shared" ref="X5:X57" si="6">X4+1</f>
+        <f t="shared" ref="X5:X57" si="8">X4+1</f>
         <v>3</v>
       </c>
       <c r="Y5" s="188" t="s">
@@ -18080,44 +18116,44 @@
         <v>4</v>
       </c>
       <c r="F6" s="244" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>b</v>
       </c>
       <c r="G6" s="245" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>z</v>
       </c>
       <c r="I6" s="219">
         <v>4</v>
       </c>
       <c r="J6" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>z</v>
       </c>
       <c r="K6" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㆠ</v>
       </c>
       <c r="M6" s="219">
         <v>4</v>
       </c>
       <c r="N6" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E6, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>t</v>
       </c>
       <c r="O6" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E6, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄉ</v>
       </c>
       <c r="Q6" s="219">
         <v>4</v>
       </c>
       <c r="R6" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>z</v>
       </c>
       <c r="S6" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>b</v>
       </c>
       <c r="T6" s="289" t="str">
@@ -18125,7 +18161,7 @@
         <v>ㆠ</v>
       </c>
       <c r="X6" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="Y6" s="188" t="s">
@@ -18157,44 +18193,44 @@
         <v>5</v>
       </c>
       <c r="F7" s="239" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>t</v>
       </c>
       <c r="G7" s="240" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I7" s="219">
         <v>5</v>
       </c>
       <c r="J7" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="K7" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄉ</v>
       </c>
       <c r="M7" s="219">
         <v>5</v>
       </c>
       <c r="N7" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E7, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>T</v>
       </c>
       <c r="O7" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E7, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄊ</v>
       </c>
       <c r="Q7" s="219">
         <v>5</v>
       </c>
       <c r="R7" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="S7" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>t</v>
       </c>
       <c r="T7" s="289" t="str">
@@ -18202,7 +18238,7 @@
         <v>ㄉ</v>
       </c>
       <c r="X7" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="Y7" s="189" t="s">
@@ -18226,44 +18262,44 @@
         <v>6</v>
       </c>
       <c r="F8" s="239" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T</v>
       </c>
       <c r="G8" s="240" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>w</v>
       </c>
       <c r="I8" s="219">
         <v>6</v>
       </c>
       <c r="J8" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>w</v>
       </c>
       <c r="K8" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄊ</v>
       </c>
       <c r="M8" s="219">
         <v>6</v>
       </c>
       <c r="N8" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E8, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>d</v>
       </c>
       <c r="O8" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E8, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄌ</v>
       </c>
       <c r="Q8" s="219">
         <v>6</v>
       </c>
       <c r="R8" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>w</v>
       </c>
       <c r="S8" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>T</v>
       </c>
       <c r="T8" s="289" t="str">
@@ -18271,7 +18307,7 @@
         <v>ㄊ</v>
       </c>
       <c r="X8" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Y8" s="188" t="s">
@@ -18295,44 +18331,44 @@
         <v>7</v>
       </c>
       <c r="F9" s="239" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>n</v>
       </c>
       <c r="G9" s="240" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>s</v>
       </c>
       <c r="I9" s="219">
         <v>7</v>
       </c>
       <c r="J9" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>s</v>
       </c>
       <c r="K9" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄋ</v>
       </c>
       <c r="M9" s="219">
         <v>7</v>
       </c>
       <c r="N9" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E9, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>k</v>
       </c>
       <c r="O9" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E9, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄍ</v>
       </c>
       <c r="Q9" s="219">
         <v>7</v>
       </c>
       <c r="R9" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>s</v>
       </c>
       <c r="S9" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n</v>
       </c>
       <c r="T9" s="289" t="str">
@@ -18340,7 +18376,7 @@
         <v>ㄋ</v>
       </c>
       <c r="X9" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="Y9" s="188" t="s">
@@ -18367,52 +18403,52 @@
         <v>8</v>
       </c>
       <c r="F10" s="249" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>d</v>
       </c>
       <c r="G10" s="250" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>x</v>
       </c>
       <c r="I10" s="219">
         <v>8</v>
       </c>
       <c r="J10" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>x</v>
       </c>
       <c r="K10" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄌ</v>
       </c>
       <c r="M10" s="219">
         <v>8</v>
       </c>
       <c r="N10" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E10, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>K</v>
       </c>
       <c r="O10" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E10, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄎ</v>
       </c>
       <c r="Q10" s="219">
         <v>8</v>
       </c>
-      <c r="R10" s="222" t="str">
-        <f t="shared" si="4"/>
+      <c r="R10" s="389" t="str">
+        <f t="shared" si="6"/>
         <v>x</v>
       </c>
-      <c r="S10" s="236" t="str">
-        <f t="shared" si="5"/>
+      <c r="S10" s="390" t="str">
+        <f t="shared" si="7"/>
         <v>d</v>
       </c>
-      <c r="T10" s="289" t="str">
+      <c r="T10" s="391" t="str">
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄌ</v>
       </c>
       <c r="X10" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="Y10" s="190" t="s">
@@ -18439,44 +18475,44 @@
         <v>9</v>
       </c>
       <c r="F11" s="230" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>k</v>
       </c>
       <c r="G11" s="231" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>e</v>
       </c>
       <c r="I11" s="219">
         <v>9</v>
       </c>
       <c r="J11" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>e</v>
       </c>
       <c r="K11" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄍ</v>
       </c>
       <c r="M11" s="219">
         <v>9</v>
       </c>
       <c r="N11" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E11, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>g</v>
       </c>
       <c r="O11" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E11, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㆣ</v>
       </c>
       <c r="Q11" s="219">
         <v>9</v>
       </c>
       <c r="R11" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>e</v>
       </c>
       <c r="S11" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>k</v>
       </c>
       <c r="T11" s="289" t="str">
@@ -18484,7 +18520,7 @@
         <v>ㄍ</v>
       </c>
       <c r="X11" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Y11" s="188" t="s">
@@ -18512,44 +18548,44 @@
         <v>10</v>
       </c>
       <c r="F12" s="239" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>K</v>
       </c>
       <c r="G12" s="240" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>d</v>
       </c>
       <c r="I12" s="219">
         <v>10</v>
       </c>
       <c r="J12" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>d</v>
       </c>
       <c r="K12" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄎ</v>
       </c>
       <c r="M12" s="219">
         <v>10</v>
       </c>
       <c r="N12" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E12, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>c</v>
       </c>
       <c r="O12" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E12, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄗ</v>
       </c>
       <c r="Q12" s="219">
         <v>10</v>
       </c>
       <c r="R12" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>d</v>
       </c>
       <c r="S12" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>K</v>
       </c>
       <c r="T12" s="289" t="str">
@@ -18557,7 +18593,7 @@
         <v>ㄎ</v>
       </c>
       <c r="X12" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="Y12" s="188" t="s">
@@ -18585,44 +18621,44 @@
         <v>11</v>
       </c>
       <c r="F13" s="249" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>h</v>
       </c>
       <c r="G13" s="250" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>c</v>
       </c>
       <c r="I13" s="219">
         <v>11</v>
       </c>
       <c r="J13" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>c</v>
       </c>
       <c r="K13" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄏ</v>
       </c>
       <c r="M13" s="219">
         <v>11</v>
       </c>
       <c r="N13" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E13, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>C</v>
       </c>
       <c r="O13" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E13, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄘ</v>
       </c>
       <c r="Q13" s="219">
         <v>11</v>
       </c>
       <c r="R13" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>c</v>
       </c>
       <c r="S13" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>h</v>
       </c>
       <c r="T13" s="289" t="str">
@@ -18630,7 +18666,7 @@
         <v>ㄏ</v>
       </c>
       <c r="X13" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="Y13" s="188" t="s">
@@ -18658,44 +18694,44 @@
         <v>12</v>
       </c>
       <c r="F14" s="230" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>j</v>
       </c>
       <c r="G14" s="231" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>r</v>
       </c>
       <c r="I14" s="219">
         <v>12</v>
       </c>
       <c r="J14" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>r</v>
       </c>
       <c r="K14" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄐ</v>
       </c>
       <c r="M14" s="219">
         <v>12</v>
       </c>
       <c r="N14" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E14, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>z</v>
       </c>
       <c r="O14" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E14, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㆡ</v>
       </c>
       <c r="Q14" s="219">
         <v>12</v>
       </c>
       <c r="R14" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>r</v>
       </c>
       <c r="S14" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>j</v>
       </c>
       <c r="T14" s="289" t="str">
@@ -18703,7 +18739,7 @@
         <v>ㄐ</v>
       </c>
       <c r="X14" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="Y14" s="188" t="s">
@@ -18735,44 +18771,44 @@
         <v>13</v>
       </c>
       <c r="F15" s="239" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>J</v>
       </c>
       <c r="G15" s="240" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>f</v>
       </c>
       <c r="I15" s="219">
         <v>13</v>
       </c>
       <c r="J15" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>f</v>
       </c>
       <c r="K15" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄑ</v>
       </c>
       <c r="M15" s="219">
         <v>13</v>
       </c>
       <c r="N15" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E15, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>s</v>
       </c>
       <c r="O15" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E15, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄙ</v>
       </c>
       <c r="Q15" s="219">
         <v>13</v>
       </c>
       <c r="R15" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>f</v>
       </c>
       <c r="S15" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>J</v>
       </c>
       <c r="T15" s="289" t="str">
@@ -18780,7 +18816,7 @@
         <v>ㄑ</v>
       </c>
       <c r="X15" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="Y15" s="189" t="s">
@@ -18812,44 +18848,44 @@
         <v>14</v>
       </c>
       <c r="F16" s="244" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>S</v>
       </c>
       <c r="G16" s="245" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>v</v>
       </c>
       <c r="I16" s="219">
         <v>14</v>
       </c>
       <c r="J16" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>v</v>
       </c>
       <c r="K16" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄒ</v>
       </c>
       <c r="M16" s="219">
         <v>14</v>
       </c>
       <c r="N16" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E16, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>h</v>
       </c>
       <c r="O16" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E16, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄏ</v>
       </c>
       <c r="Q16" s="219">
         <v>14</v>
       </c>
       <c r="R16" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>v</v>
       </c>
       <c r="S16" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S</v>
       </c>
       <c r="T16" s="289" t="str">
@@ -18857,7 +18893,7 @@
         <v>ㄒ</v>
       </c>
       <c r="X16" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="Y16" s="188" t="s">
@@ -18875,50 +18911,50 @@
         <v>h</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="32.25">
+    <row r="17" spans="1:47" ht="32.25">
       <c r="E17" s="219" cm="1">
         <f t="array" ref="E17" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>15</v>
       </c>
       <c r="F17" s="230" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>g</v>
       </c>
       <c r="G17" s="231" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>t</v>
       </c>
       <c r="I17" s="219">
         <v>15</v>
       </c>
       <c r="J17" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>t</v>
       </c>
       <c r="K17" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㆣ</v>
       </c>
       <c r="M17" s="219">
         <v>15</v>
       </c>
       <c r="N17" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E17, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>i</v>
       </c>
       <c r="O17" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E17, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄧ</v>
       </c>
       <c r="Q17" s="219">
         <v>15</v>
       </c>
       <c r="R17" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>t</v>
       </c>
       <c r="S17" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>g</v>
       </c>
       <c r="T17" s="289" t="str">
@@ -18926,7 +18962,7 @@
         <v>ㆣ</v>
       </c>
       <c r="X17" s="42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="Y17" s="188" t="s">
@@ -18944,50 +18980,50 @@
         <v>b</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="32.25">
+    <row r="18" spans="1:47" ht="32.25">
       <c r="E18" s="219" cm="1">
         <f t="array" ref="E18" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>16</v>
       </c>
       <c r="F18" s="239" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>q</v>
       </c>
       <c r="G18" s="240" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>g</v>
       </c>
       <c r="I18" s="219">
         <v>16</v>
       </c>
       <c r="J18" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>g</v>
       </c>
       <c r="K18" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄫ</v>
       </c>
       <c r="M18" s="219">
         <v>16</v>
       </c>
       <c r="N18" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E18, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>u</v>
       </c>
       <c r="O18" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E18, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄨ</v>
       </c>
       <c r="Q18" s="219">
         <v>16</v>
       </c>
-      <c r="R18" s="222" t="str">
-        <f t="shared" si="4"/>
+      <c r="R18" s="387" t="str">
+        <f>G18</f>
         <v>g</v>
       </c>
-      <c r="S18" s="236" t="str">
-        <f t="shared" si="5"/>
+      <c r="S18" s="388" t="str">
+        <f t="shared" si="7"/>
         <v>q</v>
       </c>
       <c r="T18" s="289" t="str">
@@ -18995,7 +19031,7 @@
         <v>ㄫ</v>
       </c>
       <c r="X18" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="Y18" s="190" t="s">
@@ -19012,58 +19048,58 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y18, 表格1_3345[方音符號], 0)), "")</f>
         <v>n</v>
       </c>
-      <c r="AD18" s="383" t="s">
+      <c r="AD18" s="296" t="s">
         <v>820</v>
       </c>
-      <c r="AF18" s="388" t="str">
+      <c r="AF18" s="300" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AF19 &amp; "|" &amp; AF20 &amp; "|"</f>
         <v>- xlit|pPmbtTndkKhjJSgqzcCsiuBaOoMIeUYLDQGN123570|1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657|</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="32.25">
+    <row r="19" spans="1:47" ht="32.25">
       <c r="E19" s="219" cm="1">
         <f t="array" ref="E19" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>17</v>
       </c>
       <c r="F19" s="244" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>z</v>
       </c>
       <c r="G19" s="245" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>b</v>
       </c>
       <c r="I19" s="219">
         <v>17</v>
       </c>
       <c r="J19" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>b</v>
       </c>
       <c r="K19" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㆡ</v>
       </c>
       <c r="M19" s="219">
         <v>17</v>
       </c>
       <c r="N19" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E19, 1), "")</f>
+        <f t="shared" si="0"/>
         <v>a</v>
       </c>
       <c r="O19" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E19, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄚ</v>
       </c>
       <c r="Q19" s="219">
         <v>17</v>
       </c>
       <c r="R19" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>b</v>
       </c>
       <c r="S19" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>z</v>
       </c>
       <c r="T19" s="289" t="str">
@@ -19071,7 +19107,7 @@
         <v>ㆡ</v>
       </c>
       <c r="X19" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="Y19" s="188" t="s">
@@ -19088,19 +19124,29 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y19, 表格1_3345[方音符號], 0)), "")</f>
         <v>r</v>
       </c>
-      <c r="AD19" s="379" t="s">
+      <c r="AD19" s="279" t="s">
         <v>815</v>
       </c>
       <c r="AE19" s="277">
         <f xml:space="preserve"> LEN(AF19)</f>
         <v>42</v>
       </c>
-      <c r="AF19" s="386" t="str">
+      <c r="AF19" s="299" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(F$3:F$44)</f>
         <v>pPmbtTndkKhjJSgqzcCsiuBaOoMIeUYLDQGN123570</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" ht="32.25">
+      <c r="AS19" s="392" t="s">
+        <v>825</v>
+      </c>
+      <c r="AT19" s="394" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU19" s="228">
+        <f xml:space="preserve"> FIND(AT19, AF19)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" ht="32.25">
       <c r="A20" s="277" t="s">
         <v>744</v>
       </c>
@@ -19109,22 +19155,22 @@
         <v>18</v>
       </c>
       <c r="F20" s="255" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>c</v>
       </c>
       <c r="G20" s="256" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>y</v>
       </c>
       <c r="I20" s="219">
         <v>18</v>
       </c>
       <c r="J20" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>y</v>
       </c>
       <c r="K20" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄗ</v>
       </c>
       <c r="M20" s="219">
@@ -19134,18 +19180,18 @@
         <v>315</v>
       </c>
       <c r="O20" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E20, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㆦ</v>
       </c>
       <c r="Q20" s="219">
         <v>18</v>
       </c>
       <c r="R20" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>y</v>
       </c>
       <c r="S20" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>c</v>
       </c>
       <c r="T20" s="289" t="str">
@@ -19153,7 +19199,7 @@
         <v>ㄗ</v>
       </c>
       <c r="X20" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="Y20" s="188" t="s">
@@ -19170,19 +19216,28 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y20, 表格1_3345[方音符號], 0)), "")</f>
         <v>f</v>
       </c>
-      <c r="AD20" s="381" t="s">
+      <c r="AD20" s="294" t="s">
         <v>818</v>
       </c>
       <c r="AE20" s="277">
         <f xml:space="preserve"> LEN(AF20)</f>
         <v>42</v>
       </c>
-      <c r="AF20" s="386" t="str">
+      <c r="AF20" s="299" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(G$3:G$44)</f>
         <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/- 43657</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" ht="32.25">
+      <c r="AO20" s="297" t="str">
+        <f xml:space="preserve"> MID("/", AE19, 1)</f>
+        <v/>
+      </c>
+      <c r="AT20" s="297" t="str">
+        <f xml:space="preserve"> MID(AF20, AU19, 1)</f>
+        <v>/</v>
+      </c>
+      <c r="AU20" s="228"/>
+    </row>
+    <row r="21" spans="1:47" ht="32.25">
       <c r="A21" s="291" t="s">
         <v>823</v>
       </c>
@@ -19191,22 +19246,22 @@
         <v>19</v>
       </c>
       <c r="F21" s="260" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>C</v>
       </c>
       <c r="G21" s="261" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>h</v>
       </c>
       <c r="I21" s="219">
         <v>19</v>
       </c>
       <c r="J21" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>h</v>
       </c>
       <c r="K21" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄘ</v>
       </c>
       <c r="M21" s="219">
@@ -19216,18 +19271,18 @@
         <v>146</v>
       </c>
       <c r="O21" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E21, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄜ</v>
       </c>
       <c r="Q21" s="219">
         <v>19</v>
       </c>
       <c r="R21" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>h</v>
       </c>
       <c r="S21" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>C</v>
       </c>
       <c r="T21" s="289" t="str">
@@ -19235,7 +19290,7 @@
         <v>ㄘ</v>
       </c>
       <c r="X21" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="Y21" s="188" t="s">
@@ -19252,9 +19307,9 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y21, 表格1_3345[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AF21" s="384"/>
-    </row>
-    <row r="22" spans="1:33" ht="32.25">
+      <c r="AF21" s="297"/>
+    </row>
+    <row r="22" spans="1:47" ht="32.25">
       <c r="A22" s="219">
         <f xml:space="preserve"> SEARCH("|",A21,1)</f>
         <v>7</v>
@@ -19264,44 +19319,44 @@
         <v>20</v>
       </c>
       <c r="F22" s="244" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>s</v>
       </c>
       <c r="G22" s="245" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>n</v>
       </c>
       <c r="I22" s="219">
         <v>20</v>
       </c>
       <c r="J22" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>n</v>
       </c>
       <c r="K22" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄙ</v>
       </c>
       <c r="M22" s="219">
         <v>20</v>
       </c>
       <c r="N22" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E22, 1), "")</f>
+        <f t="shared" ref="N22:N44" si="9" xml:space="preserve"> IFERROR( MID($A$25, $E22, 1), "")</f>
         <v>e</v>
       </c>
       <c r="O22" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E22, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㆤ</v>
       </c>
       <c r="Q22" s="219">
         <v>20</v>
       </c>
       <c r="R22" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>n</v>
       </c>
       <c r="S22" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>s</v>
       </c>
       <c r="T22" s="289" t="str">
@@ -19309,7 +19364,7 @@
         <v>ㄙ</v>
       </c>
       <c r="X22" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="Y22" s="188" t="s">
@@ -19326,15 +19381,15 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y22, 表格1_3345[方音符號], 0)), "")</f>
         <v>v</v>
       </c>
-      <c r="AD22" s="383" t="s">
+      <c r="AD22" s="296" t="s">
         <v>821</v>
       </c>
-      <c r="AF22" s="389" t="str">
+      <c r="AF22" s="301" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AF23 &amp; "|" &amp; AF24 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-43657|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．|</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="32.25">
+    <row r="23" spans="1:47" ht="32.25">
       <c r="A23" s="219">
         <f xml:space="preserve"> SEARCH("|",A21,A22+1)</f>
         <v>34</v>
@@ -19344,44 +19399,44 @@
         <v>21</v>
       </c>
       <c r="F23" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>i</v>
       </c>
       <c r="G23" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>u</v>
       </c>
       <c r="I23" s="219">
         <v>21</v>
       </c>
       <c r="J23" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>u</v>
       </c>
       <c r="K23" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄧ</v>
       </c>
       <c r="M23" s="219">
         <v>21</v>
       </c>
       <c r="N23" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E23, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>I</v>
       </c>
       <c r="O23" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E23, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄞ</v>
       </c>
       <c r="Q23" s="219">
         <v>21</v>
       </c>
       <c r="R23" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>u</v>
       </c>
       <c r="S23" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>i</v>
       </c>
       <c r="T23" s="289" t="str">
@@ -19389,7 +19444,7 @@
         <v>ㄧ</v>
       </c>
       <c r="X23" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="Y23" s="191" t="s">
@@ -19406,19 +19461,30 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y23, 表格1_3345[方音符號], 0)), "")</f>
         <v>c</v>
       </c>
-      <c r="AD23" s="381" t="s">
+      <c r="AD23" s="294" t="s">
         <v>818</v>
       </c>
       <c r="AE23" s="277">
         <f xml:space="preserve"> LEN(AF23)</f>
         <v>41</v>
       </c>
-      <c r="AF23" s="386" t="str">
+      <c r="AF23" s="299" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(J$3:J$43)</f>
         <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-43657</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" ht="32.25">
+      <c r="AS23" s="392" t="s">
+        <v>825</v>
+      </c>
+      <c r="AT23" s="393" t="str">
+        <f>AT20</f>
+        <v>/</v>
+      </c>
+      <c r="AU23" s="228">
+        <f xml:space="preserve"> FIND(AT23, AF23)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" ht="32.25">
       <c r="A24" s="219">
         <f xml:space="preserve"> SEARCH("|",A21,A23+1)</f>
         <v>61</v>
@@ -19428,44 +19494,44 @@
         <v>22</v>
       </c>
       <c r="F24" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>u</v>
       </c>
       <c r="G24" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>j</v>
       </c>
       <c r="I24" s="219">
         <v>22</v>
       </c>
       <c r="J24" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>j</v>
       </c>
       <c r="K24" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄨ</v>
       </c>
       <c r="M24" s="219">
         <v>22</v>
       </c>
       <c r="N24" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E24, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>U</v>
       </c>
       <c r="O24" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E24, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄠ</v>
       </c>
       <c r="Q24" s="219">
         <v>22</v>
       </c>
       <c r="R24" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>j</v>
       </c>
       <c r="S24" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>u</v>
       </c>
       <c r="T24" s="289" t="str">
@@ -19473,7 +19539,7 @@
         <v>ㄨ</v>
       </c>
       <c r="X24" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="Y24" s="189" t="s">
@@ -19490,19 +19556,24 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y24, 表格1_3345[方音符號], 0)), "")</f>
         <v>8</v>
       </c>
-      <c r="AD24" s="380" t="s">
+      <c r="AD24" s="280" t="s">
         <v>411</v>
       </c>
       <c r="AE24" s="277">
         <f xml:space="preserve"> LEN(AF24)</f>
         <v>41</v>
       </c>
-      <c r="AF24" s="386" t="str">
+      <c r="AF24" s="299" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(K$3:K$43)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
       </c>
-    </row>
-    <row r="25" spans="1:33" ht="32.25">
+      <c r="AT24" s="297" t="str">
+        <f xml:space="preserve"> MID(AF24, AU23, 1)</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="AU24" s="228"/>
+    </row>
+    <row r="25" spans="1:47" ht="32.25">
       <c r="A25" s="274" t="str">
         <f xml:space="preserve"> MID($A$21,A22+1, A23-A22-1)</f>
         <v>pPbtTdkKgcCzshiuaoøeIUBDGN</v>
@@ -19516,44 +19587,44 @@
         <v>23</v>
       </c>
       <c r="F25" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
       <c r="G25" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>m</v>
       </c>
       <c r="I25" s="219">
         <v>23</v>
       </c>
       <c r="J25" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>m</v>
       </c>
       <c r="K25" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㆬ</v>
       </c>
       <c r="M25" s="219">
         <v>23</v>
       </c>
       <c r="N25" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E25, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>B</v>
       </c>
       <c r="O25" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E25, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㆬ</v>
       </c>
       <c r="Q25" s="219">
         <v>23</v>
       </c>
       <c r="R25" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>m</v>
       </c>
       <c r="S25" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>B</v>
       </c>
       <c r="T25" s="289" t="str">
@@ -19561,7 +19632,7 @@
         <v>ㆬ</v>
       </c>
       <c r="X25" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="Y25" s="188" t="s">
@@ -19578,10 +19649,10 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y25, 表格1_3345[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AG25" s="385"/>
-    </row>
-    <row r="26" spans="1:33" ht="32.25">
-      <c r="A26" s="387" t="str">
+      <c r="AG25" s="298"/>
+    </row>
+    <row r="26" spans="1:47" ht="32.25">
+      <c r="A26" s="274" t="str">
         <f xml:space="preserve"> MID($A$21,A23+1, A24-A23-1)</f>
         <v>ㄅㄆㆠㄉㄊㄌㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆦㄜㆤㄞㄠㆬㄣㆭｎ</v>
       </c>
@@ -19594,44 +19665,44 @@
         <v>24</v>
       </c>
       <c r="F26" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>a</v>
       </c>
       <c r="G26" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I26" s="219">
         <v>24</v>
       </c>
       <c r="J26" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="K26" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄚ</v>
       </c>
       <c r="M26" s="219">
         <v>24</v>
       </c>
       <c r="N26" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E26, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>D</v>
       </c>
       <c r="O26" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E26, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㄣ</v>
       </c>
       <c r="Q26" s="219">
         <v>24</v>
       </c>
       <c r="R26" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="S26" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>a</v>
       </c>
       <c r="T26" s="289" t="str">
@@ -19639,7 +19710,7 @@
         <v>ㄚ</v>
       </c>
       <c r="X26" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="Y26" s="188" t="s">
@@ -19656,15 +19727,15 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y26, 表格1_3345[方音符號], 0)), "")</f>
         <v>i</v>
       </c>
-      <c r="AD26" s="383" t="s">
+      <c r="AD26" s="296" t="s">
         <v>822</v>
       </c>
-      <c r="AF26" s="388" t="str">
+      <c r="AF26" s="300" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AF27 &amp; "|" &amp; AF28 &amp; "|"</f>
         <v>- xlit|pPbtTdkKgcCzshiuaOoeIUBDGN|ㄅㄆㆠㄉㄊㄌㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆦㄜㆤㄞㄠㆬㄣㆭｎ|</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="32.25">
+    <row r="27" spans="1:47" ht="32.25">
       <c r="E27" s="219" cm="1">
         <f t="array" ref="E27" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>25</v>
@@ -19673,39 +19744,39 @@
         <v>315</v>
       </c>
       <c r="G27" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>i</v>
       </c>
       <c r="I27" s="219">
         <v>25</v>
       </c>
       <c r="J27" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>i</v>
       </c>
       <c r="K27" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㆦ</v>
       </c>
       <c r="M27" s="219">
         <v>25</v>
       </c>
       <c r="N27" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E27, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>G</v>
       </c>
       <c r="O27" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E27, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ㆭ</v>
       </c>
       <c r="Q27" s="219">
         <v>25</v>
       </c>
       <c r="R27" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>i</v>
       </c>
-      <c r="S27" s="378" t="s">
+      <c r="S27" s="293" t="s">
         <v>315</v>
       </c>
       <c r="T27" s="289" t="str">
@@ -19713,7 +19784,7 @@
         <v>ㆦ</v>
       </c>
       <c r="X27" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="Y27" s="188" t="s">
@@ -19730,19 +19801,30 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y27, 表格1_3345[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AD27" s="379" t="s">
+      <c r="AD27" s="279" t="s">
         <v>815</v>
       </c>
       <c r="AE27" s="277">
         <f xml:space="preserve"> LEN(AF27)</f>
         <v>26</v>
       </c>
-      <c r="AF27" s="386" t="str">
+      <c r="AF27" s="299" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(N$3:N$28)</f>
         <v>pPbtTdkKgcCzshiuaOoeIUBDGN</v>
       </c>
-    </row>
-    <row r="28" spans="1:33" ht="32.25">
+      <c r="AS27" s="392" t="s">
+        <v>825</v>
+      </c>
+      <c r="AT27" s="393" t="str">
+        <f>AT19</f>
+        <v>G</v>
+      </c>
+      <c r="AU27" s="228">
+        <f xml:space="preserve"> FIND(AT27, AF27)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" ht="32.25">
       <c r="E28" s="219" cm="1">
         <f t="array" ref="E28" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>26</v>
@@ -19751,39 +19833,39 @@
         <v>146</v>
       </c>
       <c r="G28" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>k</v>
       </c>
       <c r="I28" s="219">
         <v>26</v>
       </c>
       <c r="J28" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>k</v>
       </c>
       <c r="K28" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄜ</v>
       </c>
       <c r="M28" s="219">
         <v>26</v>
       </c>
       <c r="N28" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E28, 1), "")</f>
+        <f t="shared" si="9"/>
         <v>N</v>
       </c>
       <c r="O28" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E28, 1), "")</f>
+        <f t="shared" si="1"/>
         <v>ｎ</v>
       </c>
       <c r="Q28" s="219">
         <v>26</v>
       </c>
       <c r="R28" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>k</v>
       </c>
-      <c r="S28" s="378" t="s">
+      <c r="S28" s="293" t="s">
         <v>146</v>
       </c>
       <c r="T28" s="289" t="str">
@@ -19791,7 +19873,7 @@
         <v>ㄜ</v>
       </c>
       <c r="X28" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="Y28" s="188" t="s">
@@ -19808,62 +19890,67 @@
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3345[鍵盤按鍵], MATCH($Y28, 表格1_3345[方音符號], 0)), "")</f>
         <v>k</v>
       </c>
-      <c r="AD28" s="380" t="s">
+      <c r="AD28" s="280" t="s">
         <v>411</v>
       </c>
       <c r="AE28" s="277">
         <f xml:space="preserve"> LEN(AF28)</f>
         <v>26</v>
       </c>
-      <c r="AF28" s="386" t="str">
+      <c r="AF28" s="299" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(O$3:O$28)</f>
         <v>ㄅㄆㆠㄉㄊㄌㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆦㄜㆤㄞㄠㆬㄣㆭｎ</v>
       </c>
-    </row>
-    <row r="29" spans="1:33" ht="32.25">
+      <c r="AT28" s="297" t="str">
+        <f xml:space="preserve"> MID(AF28, AU27, 1)</f>
+        <v>ㆭ</v>
+      </c>
+      <c r="AU28" s="228"/>
+    </row>
+    <row r="29" spans="1:47" ht="32.25">
       <c r="E29" s="219" cm="1">
         <f t="array" ref="E29" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>27</v>
       </c>
       <c r="F29" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>M</v>
       </c>
       <c r="G29" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>,</v>
       </c>
       <c r="I29" s="219">
         <v>27</v>
       </c>
       <c r="J29" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>,</v>
       </c>
       <c r="K29" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㆰ</v>
       </c>
       <c r="M29" s="219">
         <v>27</v>
       </c>
       <c r="N29" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E29, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O29" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E29, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q29" s="219">
         <v>27</v>
       </c>
       <c r="R29" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>,</v>
       </c>
       <c r="S29" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>M</v>
       </c>
       <c r="T29" s="289" t="str">
@@ -19871,7 +19958,7 @@
         <v>ㆰ</v>
       </c>
       <c r="X29" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="Y29" s="188" t="s">
@@ -19889,50 +19976,50 @@
         <v>o</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="32.25">
+    <row r="30" spans="1:47" ht="32.25">
       <c r="E30" s="219" cm="1">
         <f t="array" ref="E30" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>28</v>
       </c>
       <c r="F30" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>I</v>
       </c>
       <c r="G30" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I30" s="219">
         <v>28</v>
       </c>
       <c r="J30" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="K30" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄞ</v>
       </c>
       <c r="M30" s="219">
         <v>28</v>
       </c>
       <c r="N30" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E30, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O30" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E30, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q30" s="219">
         <v>28</v>
       </c>
       <c r="R30" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="S30" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>I</v>
       </c>
       <c r="T30" s="289" t="str">
@@ -19940,7 +20027,7 @@
         <v>ㄞ</v>
       </c>
       <c r="X30" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="Y30" s="190" t="s">
@@ -19958,50 +20045,50 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="32.25">
+    <row r="31" spans="1:47" ht="32.25">
       <c r="E31" s="219" cm="1">
         <f t="array" ref="E31" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>29</v>
       </c>
       <c r="F31" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>e</v>
       </c>
       <c r="G31" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>o</v>
       </c>
       <c r="I31" s="219">
         <v>29</v>
       </c>
       <c r="J31" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>o</v>
       </c>
       <c r="K31" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㆤ</v>
       </c>
       <c r="M31" s="219">
         <v>29</v>
       </c>
       <c r="N31" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E31, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O31" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E31, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q31" s="219">
         <v>29</v>
       </c>
       <c r="R31" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="S31" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>e</v>
       </c>
       <c r="T31" s="289" t="str">
@@ -20009,7 +20096,7 @@
         <v>ㆤ</v>
       </c>
       <c r="X31" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="Y31" s="189" t="s">
@@ -20027,50 +20114,50 @@
         <v>u</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="32.25">
+    <row r="32" spans="1:47" ht="32.25">
       <c r="E32" s="219" cm="1">
         <f t="array" ref="E32" xml:space="preserve"> ROW() - ROW($2:$2)</f>
         <v>30</v>
       </c>
       <c r="F32" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>U</v>
       </c>
       <c r="G32" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>l</v>
       </c>
       <c r="I32" s="219">
         <v>30</v>
       </c>
       <c r="J32" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>l</v>
       </c>
       <c r="K32" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄠ</v>
       </c>
       <c r="M32" s="219">
         <v>30</v>
       </c>
       <c r="N32" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E32, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O32" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E32, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q32" s="219">
         <v>30</v>
       </c>
       <c r="R32" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>l</v>
       </c>
       <c r="S32" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>U</v>
       </c>
       <c r="T32" s="289" t="str">
@@ -20078,7 +20165,7 @@
         <v>ㄠ</v>
       </c>
       <c r="X32" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="Y32" s="188" t="s">
@@ -20102,44 +20189,44 @@
         <v>31</v>
       </c>
       <c r="F33" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Y</v>
       </c>
       <c r="G33" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>.</v>
       </c>
       <c r="I33" s="219">
         <v>31</v>
       </c>
       <c r="J33" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>.</v>
       </c>
       <c r="K33" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㆲ</v>
       </c>
       <c r="M33" s="219">
         <v>31</v>
       </c>
       <c r="N33" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E33, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O33" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E33, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q33" s="219">
         <v>31</v>
       </c>
       <c r="R33" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>.</v>
       </c>
       <c r="S33" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Y</v>
       </c>
       <c r="T33" s="289" t="str">
@@ -20147,7 +20234,7 @@
         <v>ㆲ</v>
       </c>
       <c r="X33" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="Y33" s="188" t="s">
@@ -20171,44 +20258,44 @@
         <v>32</v>
       </c>
       <c r="F34" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>L</v>
       </c>
       <c r="G34" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I34" s="219">
         <v>32</v>
       </c>
       <c r="J34" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K34" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄢ</v>
       </c>
       <c r="M34" s="219">
         <v>32</v>
       </c>
       <c r="N34" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E34, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O34" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E34, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q34" s="219">
         <v>32</v>
       </c>
       <c r="R34" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S34" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>L</v>
       </c>
       <c r="T34" s="289" t="str">
@@ -20216,7 +20303,7 @@
         <v>ㄢ</v>
       </c>
       <c r="X34" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="Y34" s="190" t="s">
@@ -20240,44 +20327,44 @@
         <v>33</v>
       </c>
       <c r="F35" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>D</v>
       </c>
       <c r="G35" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>p</v>
       </c>
       <c r="I35" s="219">
         <v>33</v>
       </c>
       <c r="J35" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>p</v>
       </c>
       <c r="K35" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄣ</v>
       </c>
       <c r="M35" s="219">
         <v>33</v>
       </c>
       <c r="N35" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E35, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O35" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E35, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q35" s="219">
         <v>33</v>
       </c>
       <c r="R35" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>p</v>
       </c>
       <c r="S35" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>D</v>
       </c>
       <c r="T35" s="289" t="str">
@@ -20285,7 +20372,7 @@
         <v>ㄣ</v>
       </c>
       <c r="X35" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="Y35" s="188" t="s">
@@ -20309,44 +20396,44 @@
         <v>34</v>
       </c>
       <c r="F36" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>Q</v>
       </c>
       <c r="G36" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>;</v>
       </c>
       <c r="I36" s="219">
         <v>34</v>
       </c>
       <c r="J36" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>;</v>
       </c>
       <c r="K36" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㄤ</v>
       </c>
       <c r="M36" s="219">
         <v>34</v>
       </c>
       <c r="N36" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E36, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O36" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E36, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q36" s="219">
         <v>34</v>
       </c>
       <c r="R36" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>;</v>
       </c>
       <c r="S36" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>Q</v>
       </c>
       <c r="T36" s="289" t="str">
@@ -20354,7 +20441,7 @@
         <v>ㄤ</v>
       </c>
       <c r="X36" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="Y36" s="188" t="s">
@@ -20378,44 +20465,44 @@
         <v>35</v>
       </c>
       <c r="F37" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>G</v>
       </c>
       <c r="G37" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>/</v>
       </c>
       <c r="I37" s="219">
         <v>35</v>
       </c>
       <c r="J37" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>/</v>
       </c>
       <c r="K37" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ㆭ</v>
       </c>
       <c r="M37" s="219">
         <v>35</v>
       </c>
       <c r="N37" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E37, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O37" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E37, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q37" s="219">
         <v>35</v>
       </c>
       <c r="R37" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>/</v>
       </c>
       <c r="S37" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>G</v>
       </c>
       <c r="T37" s="289" t="str">
@@ -20423,7 +20510,7 @@
         <v>ㆭ</v>
       </c>
       <c r="X37" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="Y37" s="188" t="s">
@@ -20447,44 +20534,44 @@
         <v>36</v>
       </c>
       <c r="F38" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>N</v>
       </c>
       <c r="G38" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-</v>
       </c>
       <c r="I38" s="219">
         <v>36</v>
       </c>
       <c r="J38" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-</v>
       </c>
       <c r="K38" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ｎ</v>
       </c>
       <c r="M38" s="219">
         <v>36</v>
       </c>
       <c r="N38" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E38, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O38" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E38, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q38" s="219">
         <v>36</v>
       </c>
       <c r="R38" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-</v>
       </c>
       <c r="S38" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>N</v>
       </c>
       <c r="T38" s="289" t="str">
@@ -20492,7 +20579,7 @@
         <v>ｎ</v>
       </c>
       <c r="X38" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="Y38" s="188" t="s">
@@ -20516,44 +20603,44 @@
         <v>37</v>
       </c>
       <c r="F39" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G39" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I39" s="219">
         <v>37</v>
       </c>
       <c r="J39" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="K39" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ˋ</v>
       </c>
       <c r="M39" s="219">
         <v>37</v>
       </c>
       <c r="N39" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E39, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O39" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E39, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q39" s="219">
         <v>37</v>
       </c>
       <c r="R39" s="286" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S39" s="287" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T39" s="290" t="str">
@@ -20561,7 +20648,7 @@
         <v/>
       </c>
       <c r="X39" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="Y39" s="188" t="s">
@@ -20585,44 +20672,44 @@
         <v>38</v>
       </c>
       <c r="F40" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G40" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I40" s="219">
         <v>38</v>
       </c>
       <c r="J40" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="K40" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>˪</v>
       </c>
       <c r="M40" s="219">
         <v>38</v>
       </c>
       <c r="N40" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E40, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O40" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E40, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q40" s="219">
         <v>38</v>
       </c>
       <c r="R40" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="S40" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="T40" s="289" t="str">
@@ -20630,7 +20717,7 @@
         <v>ˋ</v>
       </c>
       <c r="X40" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="Y40" s="188" t="s">
@@ -20654,44 +20741,44 @@
         <v>39</v>
       </c>
       <c r="F41" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G41" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I41" s="219">
         <v>39</v>
       </c>
       <c r="J41" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="K41" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>ˊ</v>
       </c>
       <c r="M41" s="219">
         <v>39</v>
       </c>
       <c r="N41" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E41, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O41" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E41, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q41" s="219">
         <v>39</v>
       </c>
       <c r="R41" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="S41" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="T41" s="289" t="str">
@@ -20699,7 +20786,7 @@
         <v>˪</v>
       </c>
       <c r="X41" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="Y41" s="188" t="s">
@@ -20723,44 +20810,44 @@
         <v>40</v>
       </c>
       <c r="F42" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G42" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I42" s="219">
         <v>40</v>
       </c>
       <c r="J42" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="K42" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>˫</v>
       </c>
       <c r="M42" s="219">
         <v>40</v>
       </c>
       <c r="N42" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E42, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O42" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E42, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q42" s="219">
         <v>40</v>
       </c>
       <c r="R42" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="S42" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="T42" s="289" t="str">
@@ -20768,7 +20855,7 @@
         <v>ˊ</v>
       </c>
       <c r="X42" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="Y42" s="188" t="s">
@@ -20792,44 +20879,44 @@
         <v>41</v>
       </c>
       <c r="F43" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G43" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I43" s="219">
         <v>41</v>
       </c>
       <c r="J43" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="K43" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>．</v>
       </c>
       <c r="M43" s="219">
         <v>41</v>
       </c>
       <c r="N43" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E43, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O43" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E43, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q43" s="219">
         <v>41</v>
       </c>
       <c r="R43" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="S43" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="T43" s="289" t="str">
@@ -20837,7 +20924,7 @@
         <v>˫</v>
       </c>
       <c r="X43" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="Y43" s="188" t="s">
@@ -20861,44 +20948,44 @@
         <v>42</v>
       </c>
       <c r="F44" s="264" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="264" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I44" s="219">
         <v>42</v>
       </c>
       <c r="J44" s="234" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K44" s="234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M44" s="219">
         <v>42</v>
       </c>
       <c r="N44" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$25, $E44, 1), "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O44" s="233" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$26, $E44, 1), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q44" s="219">
         <v>42</v>
       </c>
       <c r="R44" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="S44" s="236" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T44" s="289" t="str">
@@ -20906,7 +20993,7 @@
         <v>．</v>
       </c>
       <c r="X44" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="Y44" s="188" t="s">
@@ -20927,7 +21014,7 @@
     <row r="45" spans="5:28" ht="32.25">
       <c r="O45" s="219"/>
       <c r="X45" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="Y45" s="188" t="s">
@@ -20946,9 +21033,9 @@
       </c>
     </row>
     <row r="46" spans="5:28" ht="32.25">
-      <c r="N46" s="382"/>
+      <c r="N46" s="295"/>
       <c r="X46" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="Y46" s="188" t="s">
@@ -20968,7 +21055,7 @@
     </row>
     <row r="47" spans="5:28" ht="32.25">
       <c r="X47" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="Y47" s="188" t="s">
@@ -20987,7 +21074,7 @@
     <row r="48" spans="5:28" ht="32.25">
       <c r="R48" s="285"/>
       <c r="X48" s="44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="Y48" s="189" t="s">
@@ -21007,7 +21094,7 @@
     </row>
     <row r="49" spans="24:28" ht="32.25">
       <c r="X49" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="Y49" s="188" t="s">
@@ -21027,7 +21114,7 @@
     </row>
     <row r="50" spans="24:28" ht="32.25">
       <c r="X50" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="Y50" s="188" t="s">
@@ -21047,7 +21134,7 @@
     </row>
     <row r="51" spans="24:28" ht="32.25">
       <c r="X51" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="Y51" s="188" t="s">
@@ -21067,7 +21154,7 @@
     </row>
     <row r="52" spans="24:28" ht="32.25">
       <c r="X52" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="Y52" s="188" t="s">
@@ -21087,7 +21174,7 @@
     </row>
     <row r="53" spans="24:28" ht="32.25">
       <c r="X53" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="Y53" s="188" t="s">
@@ -21107,7 +21194,7 @@
     </row>
     <row r="54" spans="24:28" ht="32.25">
       <c r="X54" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52</v>
       </c>
       <c r="Y54" s="188" t="s">
@@ -21127,7 +21214,7 @@
     </row>
     <row r="55" spans="24:28" ht="32.25">
       <c r="X55" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="Y55" s="188" t="s">
@@ -21147,7 +21234,7 @@
     </row>
     <row r="56" spans="24:28" ht="32.25">
       <c r="X56" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="Y56" s="188" t="s">
@@ -21167,7 +21254,7 @@
     </row>
     <row r="57" spans="24:28" ht="32.25">
       <c r="X57" s="45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="Y57" s="190" t="s">
@@ -21215,57 +21302,57 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="183" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="299">
+      <c r="C2" s="327">
         <v>1</v>
       </c>
-      <c r="D2" s="300"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="299">
+      <c r="D2" s="328"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="327">
         <v>2</v>
       </c>
-      <c r="G2" s="300"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="323">
+      <c r="G2" s="328"/>
+      <c r="H2" s="329"/>
+      <c r="I2" s="317">
         <v>3</v>
       </c>
-      <c r="J2" s="324"/>
-      <c r="K2" s="325"/>
-      <c r="L2" s="323">
+      <c r="J2" s="318"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="317">
         <v>4</v>
       </c>
-      <c r="M2" s="324"/>
-      <c r="N2" s="325"/>
-      <c r="O2" s="323">
+      <c r="M2" s="318"/>
+      <c r="N2" s="319"/>
+      <c r="O2" s="317">
         <v>5</v>
       </c>
-      <c r="P2" s="324"/>
-      <c r="Q2" s="325"/>
-      <c r="R2" s="323">
+      <c r="P2" s="318"/>
+      <c r="Q2" s="319"/>
+      <c r="R2" s="317">
         <v>6</v>
       </c>
-      <c r="S2" s="324"/>
-      <c r="T2" s="325"/>
-      <c r="U2" s="323">
+      <c r="S2" s="318"/>
+      <c r="T2" s="319"/>
+      <c r="U2" s="317">
         <v>7</v>
       </c>
-      <c r="V2" s="324"/>
-      <c r="W2" s="325"/>
-      <c r="X2" s="302">
+      <c r="V2" s="318"/>
+      <c r="W2" s="319"/>
+      <c r="X2" s="308">
         <v>8</v>
       </c>
       <c r="Y2" s="303"/>
       <c r="Z2" s="304"/>
-      <c r="AA2" s="302">
+      <c r="AA2" s="308">
         <v>9</v>
       </c>
       <c r="AB2" s="303"/>
       <c r="AC2" s="304"/>
-      <c r="AD2" s="302">
+      <c r="AD2" s="308">
         <v>0</v>
       </c>
       <c r="AE2" s="303"/>
       <c r="AF2" s="304"/>
-      <c r="AG2" s="327" t="s">
+      <c r="AG2" s="302" t="s">
         <v>473</v>
       </c>
       <c r="AH2" s="303"/>
@@ -21278,56 +21365,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="296" t="str">
+      <c r="C3" s="324" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="297"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="296" t="str">
+      <c r="D3" s="325"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="324" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="297"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="320" t="s">
+      <c r="G3" s="325"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="321" t="s">
         <v>471</v>
       </c>
-      <c r="J3" s="321"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="320" t="s">
+      <c r="J3" s="322"/>
+      <c r="K3" s="323"/>
+      <c r="L3" s="321" t="s">
         <v>470</v>
       </c>
-      <c r="M3" s="321"/>
-      <c r="N3" s="322"/>
-      <c r="O3" s="320"/>
-      <c r="P3" s="321"/>
-      <c r="Q3" s="322"/>
-      <c r="R3" s="317" t="s">
+      <c r="M3" s="322"/>
+      <c r="N3" s="323"/>
+      <c r="O3" s="321"/>
+      <c r="P3" s="322"/>
+      <c r="Q3" s="323"/>
+      <c r="R3" s="330" t="s">
         <v>469</v>
       </c>
-      <c r="S3" s="318"/>
-      <c r="T3" s="319"/>
-      <c r="U3" s="320" t="s">
+      <c r="S3" s="331"/>
+      <c r="T3" s="332"/>
+      <c r="U3" s="321" t="s">
         <v>468</v>
       </c>
-      <c r="V3" s="321"/>
-      <c r="W3" s="322"/>
-      <c r="X3" s="313" t="str">
+      <c r="V3" s="322"/>
+      <c r="W3" s="323"/>
+      <c r="X3" s="309" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="314"/>
-      <c r="Z3" s="315"/>
-      <c r="AA3" s="313"/>
-      <c r="AB3" s="314"/>
-      <c r="AC3" s="315"/>
-      <c r="AD3" s="313"/>
-      <c r="AE3" s="314"/>
-      <c r="AF3" s="315"/>
-      <c r="AG3" s="328"/>
-      <c r="AH3" s="329"/>
-      <c r="AI3" s="330"/>
+      <c r="Y3" s="310"/>
+      <c r="Z3" s="311"/>
+      <c r="AA3" s="309"/>
+      <c r="AB3" s="310"/>
+      <c r="AC3" s="311"/>
+      <c r="AD3" s="309"/>
+      <c r="AE3" s="310"/>
+      <c r="AF3" s="311"/>
+      <c r="AG3" s="305"/>
+      <c r="AH3" s="306"/>
+      <c r="AI3" s="307"/>
       <c r="AQ3" s="184" t="s">
         <v>467</v>
       </c>
@@ -21336,52 +21423,52 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="183" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="299" t="s">
+      <c r="D4" s="327" t="s">
         <v>466</v>
       </c>
-      <c r="E4" s="300"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="299" t="s">
+      <c r="E4" s="328"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="327" t="s">
         <v>401</v>
       </c>
-      <c r="H4" s="300"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="299" t="s">
+      <c r="H4" s="328"/>
+      <c r="I4" s="329"/>
+      <c r="J4" s="327" t="s">
         <v>465</v>
       </c>
-      <c r="K4" s="300"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="299" t="s">
+      <c r="K4" s="328"/>
+      <c r="L4" s="329"/>
+      <c r="M4" s="327" t="s">
         <v>464</v>
       </c>
-      <c r="N4" s="300"/>
-      <c r="O4" s="301"/>
-      <c r="P4" s="299" t="s">
+      <c r="N4" s="328"/>
+      <c r="O4" s="329"/>
+      <c r="P4" s="327" t="s">
         <v>463</v>
       </c>
-      <c r="Q4" s="300"/>
-      <c r="R4" s="301"/>
-      <c r="S4" s="299" t="s">
+      <c r="Q4" s="328"/>
+      <c r="R4" s="329"/>
+      <c r="S4" s="327" t="s">
         <v>462</v>
       </c>
-      <c r="T4" s="300"/>
-      <c r="U4" s="301"/>
-      <c r="V4" s="302" t="s">
+      <c r="T4" s="328"/>
+      <c r="U4" s="329"/>
+      <c r="V4" s="308" t="s">
         <v>461</v>
       </c>
       <c r="W4" s="303"/>
       <c r="X4" s="304"/>
-      <c r="Y4" s="302" t="s">
+      <c r="Y4" s="308" t="s">
         <v>460</v>
       </c>
       <c r="Z4" s="303"/>
       <c r="AA4" s="304"/>
-      <c r="AB4" s="302" t="s">
+      <c r="AB4" s="308" t="s">
         <v>457</v>
       </c>
       <c r="AC4" s="303"/>
       <c r="AD4" s="304"/>
-      <c r="AE4" s="302" t="s">
+      <c r="AE4" s="308" t="s">
         <v>459</v>
       </c>
       <c r="AF4" s="303"/>
@@ -21391,60 +21478,60 @@
       <c r="AL4" s="170"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="296" t="str">
+      <c r="D5" s="324" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="297"/>
-      <c r="F5" s="298"/>
-      <c r="G5" s="296" t="str">
+      <c r="E5" s="325"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="324" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="297"/>
-      <c r="I5" s="298"/>
-      <c r="J5" s="296" t="str">
+      <c r="H5" s="325"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="324" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="297"/>
-      <c r="L5" s="298"/>
-      <c r="M5" s="296"/>
-      <c r="N5" s="297"/>
-      <c r="O5" s="298"/>
-      <c r="P5" s="293" t="str">
+      <c r="K5" s="325"/>
+      <c r="L5" s="326"/>
+      <c r="M5" s="324"/>
+      <c r="N5" s="325"/>
+      <c r="O5" s="326"/>
+      <c r="P5" s="333" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="294"/>
-      <c r="R5" s="295"/>
-      <c r="S5" s="296" t="str">
+      <c r="Q5" s="334"/>
+      <c r="R5" s="335"/>
+      <c r="S5" s="324" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="297"/>
-      <c r="U5" s="298"/>
-      <c r="V5" s="313" t="str">
+      <c r="T5" s="325"/>
+      <c r="U5" s="326"/>
+      <c r="V5" s="309" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="314"/>
-      <c r="X5" s="315"/>
-      <c r="Y5" s="313" t="str">
+      <c r="W5" s="310"/>
+      <c r="X5" s="311"/>
+      <c r="Y5" s="309" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="314"/>
-      <c r="AA5" s="315"/>
-      <c r="AB5" s="313"/>
-      <c r="AC5" s="314"/>
-      <c r="AD5" s="315"/>
-      <c r="AE5" s="305" t="str">
+      <c r="Z5" s="310"/>
+      <c r="AA5" s="311"/>
+      <c r="AB5" s="309"/>
+      <c r="AC5" s="310"/>
+      <c r="AD5" s="311"/>
+      <c r="AE5" s="314" t="str">
         <f>P20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="306"/>
-      <c r="AG5" s="307"/>
+      <c r="AF5" s="315"/>
+      <c r="AG5" s="316"/>
       <c r="AQ5" s="184" t="s">
         <v>458</v>
       </c>
@@ -21454,109 +21541,109 @@
     </row>
     <row r="6" spans="2:44" s="183" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="185"/>
-      <c r="E6" s="299" t="s">
+      <c r="E6" s="327" t="s">
         <v>456</v>
       </c>
-      <c r="F6" s="300"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="299" t="s">
+      <c r="F6" s="328"/>
+      <c r="G6" s="329"/>
+      <c r="H6" s="327" t="s">
         <v>455</v>
       </c>
-      <c r="I6" s="300"/>
-      <c r="J6" s="301"/>
-      <c r="K6" s="299" t="s">
+      <c r="I6" s="328"/>
+      <c r="J6" s="329"/>
+      <c r="K6" s="327" t="s">
         <v>454</v>
       </c>
-      <c r="L6" s="300"/>
-      <c r="M6" s="301"/>
-      <c r="N6" s="299" t="s">
+      <c r="L6" s="328"/>
+      <c r="M6" s="329"/>
+      <c r="N6" s="327" t="s">
         <v>453</v>
       </c>
-      <c r="O6" s="300"/>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="299" t="s">
+      <c r="O6" s="328"/>
+      <c r="P6" s="329"/>
+      <c r="Q6" s="327" t="s">
         <v>452</v>
       </c>
-      <c r="R6" s="300"/>
-      <c r="S6" s="301"/>
-      <c r="T6" s="299" t="s">
+      <c r="R6" s="328"/>
+      <c r="S6" s="329"/>
+      <c r="T6" s="327" t="s">
         <v>451</v>
       </c>
-      <c r="U6" s="300"/>
-      <c r="V6" s="301"/>
-      <c r="W6" s="302" t="s">
+      <c r="U6" s="328"/>
+      <c r="V6" s="329"/>
+      <c r="W6" s="308" t="s">
         <v>450</v>
       </c>
       <c r="X6" s="303"/>
       <c r="Y6" s="304"/>
-      <c r="Z6" s="302" t="s">
+      <c r="Z6" s="308" t="s">
         <v>449</v>
       </c>
       <c r="AA6" s="303"/>
       <c r="AB6" s="304"/>
-      <c r="AC6" s="302" t="s">
+      <c r="AC6" s="308" t="s">
         <v>448</v>
       </c>
       <c r="AD6" s="303"/>
       <c r="AE6" s="304"/>
-      <c r="AF6" s="302" t="s">
+      <c r="AF6" s="308" t="s">
         <v>447</v>
       </c>
       <c r="AG6" s="303"/>
       <c r="AH6" s="304"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="310" t="str">
+      <c r="E7" s="336" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="311"/>
-      <c r="G7" s="312"/>
-      <c r="H7" s="296" t="str">
+      <c r="F7" s="337"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="324" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="297"/>
-      <c r="J7" s="298"/>
-      <c r="K7" s="296" t="str">
+      <c r="I7" s="325"/>
+      <c r="J7" s="326"/>
+      <c r="K7" s="324" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="297"/>
-      <c r="M7" s="298"/>
-      <c r="N7" s="296"/>
-      <c r="O7" s="297"/>
-      <c r="P7" s="298"/>
-      <c r="Q7" s="316" t="str">
+      <c r="L7" s="325"/>
+      <c r="M7" s="326"/>
+      <c r="N7" s="324"/>
+      <c r="O7" s="325"/>
+      <c r="P7" s="326"/>
+      <c r="Q7" s="339" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="294"/>
-      <c r="S7" s="295"/>
-      <c r="T7" s="296" t="str">
+      <c r="R7" s="334"/>
+      <c r="S7" s="335"/>
+      <c r="T7" s="324" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="297"/>
-      <c r="V7" s="298"/>
-      <c r="W7" s="313" t="str">
+      <c r="U7" s="325"/>
+      <c r="V7" s="326"/>
+      <c r="W7" s="309" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="314"/>
-      <c r="Y7" s="315"/>
-      <c r="Z7" s="313" t="str">
+      <c r="X7" s="310"/>
+      <c r="Y7" s="311"/>
+      <c r="Z7" s="309" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="314"/>
-      <c r="AB7" s="315"/>
-      <c r="AC7" s="313"/>
-      <c r="AD7" s="314"/>
-      <c r="AE7" s="315"/>
-      <c r="AF7" s="332"/>
-      <c r="AG7" s="314"/>
-      <c r="AH7" s="315"/>
+      <c r="AA7" s="310"/>
+      <c r="AB7" s="311"/>
+      <c r="AC7" s="309"/>
+      <c r="AD7" s="310"/>
+      <c r="AE7" s="311"/>
+      <c r="AF7" s="313"/>
+      <c r="AG7" s="310"/>
+      <c r="AH7" s="311"/>
       <c r="AQ7" s="184" t="s">
         <v>446</v>
       </c>
@@ -21565,112 +21652,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="183" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="299" t="s">
+      <c r="F8" s="327" t="s">
         <v>444</v>
       </c>
-      <c r="G8" s="300"/>
-      <c r="H8" s="301"/>
-      <c r="I8" s="299" t="s">
+      <c r="G8" s="328"/>
+      <c r="H8" s="329"/>
+      <c r="I8" s="327" t="s">
         <v>443</v>
       </c>
-      <c r="J8" s="300"/>
-      <c r="K8" s="301"/>
-      <c r="L8" s="299" t="s">
+      <c r="J8" s="328"/>
+      <c r="K8" s="329"/>
+      <c r="L8" s="327" t="s">
         <v>442</v>
       </c>
-      <c r="M8" s="300"/>
-      <c r="N8" s="301"/>
-      <c r="O8" s="299" t="s">
+      <c r="M8" s="328"/>
+      <c r="N8" s="329"/>
+      <c r="O8" s="327" t="s">
         <v>441</v>
       </c>
-      <c r="P8" s="300"/>
-      <c r="Q8" s="301"/>
-      <c r="R8" s="299" t="s">
+      <c r="P8" s="328"/>
+      <c r="Q8" s="329"/>
+      <c r="R8" s="327" t="s">
         <v>440</v>
       </c>
-      <c r="S8" s="300"/>
-      <c r="T8" s="301"/>
-      <c r="U8" s="299" t="s">
+      <c r="S8" s="328"/>
+      <c r="T8" s="329"/>
+      <c r="U8" s="327" t="s">
         <v>399</v>
       </c>
-      <c r="V8" s="300"/>
-      <c r="W8" s="301"/>
-      <c r="X8" s="302" t="s">
+      <c r="V8" s="328"/>
+      <c r="W8" s="329"/>
+      <c r="X8" s="308" t="s">
         <v>439</v>
       </c>
       <c r="Y8" s="303"/>
       <c r="Z8" s="304"/>
-      <c r="AA8" s="302" t="s">
+      <c r="AA8" s="308" t="s">
         <v>438</v>
       </c>
       <c r="AB8" s="303"/>
       <c r="AC8" s="304"/>
-      <c r="AD8" s="302" t="s">
+      <c r="AD8" s="308" t="s">
         <v>437</v>
       </c>
       <c r="AE8" s="303"/>
       <c r="AF8" s="304"/>
-      <c r="AG8" s="331" t="s">
+      <c r="AG8" s="312" t="s">
         <v>436</v>
       </c>
       <c r="AH8" s="303"/>
       <c r="AI8" s="304"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="296"/>
-      <c r="G9" s="308"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="296" t="str">
+      <c r="F9" s="324"/>
+      <c r="G9" s="340"/>
+      <c r="H9" s="341"/>
+      <c r="I9" s="324" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="297"/>
-      <c r="K9" s="298"/>
-      <c r="L9" s="296" t="str">
+      <c r="J9" s="325"/>
+      <c r="K9" s="326"/>
+      <c r="L9" s="324" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="297"/>
-      <c r="N9" s="298"/>
-      <c r="O9" s="310" t="str">
+      <c r="M9" s="325"/>
+      <c r="N9" s="326"/>
+      <c r="O9" s="336" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="311"/>
-      <c r="Q9" s="312"/>
-      <c r="R9" s="293" t="str">
+      <c r="P9" s="337"/>
+      <c r="Q9" s="338"/>
+      <c r="R9" s="333" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="294"/>
-      <c r="T9" s="295"/>
-      <c r="U9" s="296" t="str">
+      <c r="S9" s="334"/>
+      <c r="T9" s="335"/>
+      <c r="U9" s="324" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="297"/>
-      <c r="W9" s="298"/>
-      <c r="X9" s="305" t="str">
+      <c r="V9" s="325"/>
+      <c r="W9" s="326"/>
+      <c r="X9" s="314" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="306"/>
-      <c r="Z9" s="307"/>
-      <c r="AA9" s="313" t="str">
+      <c r="Y9" s="315"/>
+      <c r="Z9" s="316"/>
+      <c r="AA9" s="309" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="314"/>
-      <c r="AC9" s="315"/>
-      <c r="AD9" s="326" t="str">
+      <c r="AB9" s="310"/>
+      <c r="AC9" s="311"/>
+      <c r="AD9" s="320" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
-      <c r="AE9" s="306"/>
-      <c r="AF9" s="307"/>
-      <c r="AG9" s="313"/>
-      <c r="AH9" s="314"/>
-      <c r="AI9" s="315"/>
+      <c r="AE9" s="315"/>
+      <c r="AF9" s="316"/>
+      <c r="AG9" s="309"/>
+      <c r="AH9" s="310"/>
+      <c r="AI9" s="311"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="183"/>
@@ -22121,20 +22208,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="AD9:AF9"/>
     <mergeCell ref="U2:W2"/>
@@ -22151,58 +22276,20 @@
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="S5:U5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AC6:AE6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22276,66 +22363,66 @@
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="36" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="335" t="s">
+      <c r="B2" s="342" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="336"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="335" t="s">
+      <c r="C2" s="343"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="342" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="336"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="346" t="s">
+      <c r="F2" s="343"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="345" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="347"/>
-      <c r="J2" s="348"/>
-      <c r="K2" s="346" t="s">
+      <c r="I2" s="346"/>
+      <c r="J2" s="347"/>
+      <c r="K2" s="345" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="347"/>
-      <c r="M2" s="348"/>
-      <c r="N2" s="349" t="s">
+      <c r="L2" s="346"/>
+      <c r="M2" s="347"/>
+      <c r="N2" s="348" t="s">
         <v>801</v>
       </c>
-      <c r="O2" s="350"/>
-      <c r="P2" s="351"/>
-      <c r="Q2" s="346" t="s">
+      <c r="O2" s="349"/>
+      <c r="P2" s="350"/>
+      <c r="Q2" s="345" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="347"/>
-      <c r="S2" s="348"/>
-      <c r="T2" s="346" t="s">
+      <c r="R2" s="346"/>
+      <c r="S2" s="347"/>
+      <c r="T2" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="347"/>
-      <c r="V2" s="348"/>
-      <c r="W2" s="338" t="s">
+      <c r="U2" s="346"/>
+      <c r="V2" s="347"/>
+      <c r="W2" s="358" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="339"/>
-      <c r="Y2" s="340"/>
-      <c r="Z2" s="338" t="s">
+      <c r="X2" s="359"/>
+      <c r="Y2" s="360"/>
+      <c r="Z2" s="358" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="339"/>
-      <c r="AB2" s="340"/>
-      <c r="AC2" s="338" t="s">
+      <c r="AA2" s="359"/>
+      <c r="AB2" s="360"/>
+      <c r="AC2" s="358" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="339"/>
-      <c r="AE2" s="340"/>
-      <c r="AF2" s="343" t="s">
+      <c r="AD2" s="359"/>
+      <c r="AE2" s="360"/>
+      <c r="AF2" s="351" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="344"/>
-      <c r="AH2" s="345"/>
-      <c r="AI2" s="343" t="s">
+      <c r="AG2" s="352"/>
+      <c r="AH2" s="353"/>
+      <c r="AI2" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="AJ2" s="344"/>
-      <c r="AK2" s="345"/>
+      <c r="AJ2" s="352"/>
+      <c r="AK2" s="353"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
@@ -22377,34 +22464,34 @@
       <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="333" t="s">
+      <c r="H3" s="354" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="334"/>
+      <c r="I3" s="355"/>
       <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="333" t="s">
+      <c r="K3" s="354" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="334"/>
+      <c r="L3" s="355"/>
       <c r="M3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="333"/>
-      <c r="O3" s="334"/>
+      <c r="N3" s="354"/>
+      <c r="O3" s="355"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="333" t="s">
+      <c r="Q3" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="334"/>
+      <c r="R3" s="355"/>
       <c r="S3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="333" t="s">
+      <c r="T3" s="354" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="334"/>
+      <c r="U3" s="355"/>
       <c r="V3" s="6" t="s">
         <v>20</v>
       </c>
@@ -22426,8 +22513,8 @@
       <c r="AF3" s="69"/>
       <c r="AG3" s="70"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="341"/>
-      <c r="AJ3" s="342"/>
+      <c r="AI3" s="356"/>
+      <c r="AJ3" s="357"/>
       <c r="AK3" s="8"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
@@ -22460,71 +22547,71 @@
     <row r="4" spans="1:50" s="3" customFormat="1" ht="36" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="335" t="s">
+      <c r="C4" s="342" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="336"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="335" t="s">
+      <c r="D4" s="343"/>
+      <c r="E4" s="344"/>
+      <c r="F4" s="342" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="336"/>
-      <c r="H4" s="337"/>
-      <c r="I4" s="335" t="s">
+      <c r="G4" s="343"/>
+      <c r="H4" s="344"/>
+      <c r="I4" s="342" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="336"/>
-      <c r="K4" s="337"/>
-      <c r="L4" s="335" t="s">
+      <c r="J4" s="343"/>
+      <c r="K4" s="344"/>
+      <c r="L4" s="342" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="336"/>
-      <c r="N4" s="337"/>
-      <c r="O4" s="335" t="s">
+      <c r="M4" s="343"/>
+      <c r="N4" s="344"/>
+      <c r="O4" s="342" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="336"/>
-      <c r="Q4" s="337"/>
-      <c r="R4" s="335" t="s">
+      <c r="P4" s="343"/>
+      <c r="Q4" s="344"/>
+      <c r="R4" s="342" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="336"/>
-      <c r="T4" s="337"/>
-      <c r="U4" s="338" t="s">
+      <c r="S4" s="343"/>
+      <c r="T4" s="344"/>
+      <c r="U4" s="358" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="339"/>
-      <c r="W4" s="340"/>
-      <c r="X4" s="338" t="s">
+      <c r="V4" s="359"/>
+      <c r="W4" s="360"/>
+      <c r="X4" s="358" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="339"/>
-      <c r="Z4" s="340"/>
-      <c r="AA4" s="338" t="s">
+      <c r="Y4" s="359"/>
+      <c r="Z4" s="360"/>
+      <c r="AA4" s="358" t="s">
         <v>36</v>
       </c>
-      <c r="AB4" s="339"/>
-      <c r="AC4" s="340"/>
-      <c r="AD4" s="338" t="s">
+      <c r="AB4" s="359"/>
+      <c r="AC4" s="360"/>
+      <c r="AD4" s="358" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="339"/>
-      <c r="AF4" s="340"/>
-      <c r="AG4" s="338" t="s">
+      <c r="AE4" s="359"/>
+      <c r="AF4" s="360"/>
+      <c r="AG4" s="358" t="s">
         <v>38</v>
       </c>
-      <c r="AH4" s="339"/>
-      <c r="AI4" s="340"/>
-      <c r="AJ4" s="338" t="s">
+      <c r="AH4" s="359"/>
+      <c r="AI4" s="360"/>
+      <c r="AJ4" s="358" t="s">
         <v>39</v>
       </c>
-      <c r="AK4" s="339"/>
-      <c r="AL4" s="340"/>
-      <c r="AM4" s="343" t="s">
+      <c r="AK4" s="359"/>
+      <c r="AL4" s="360"/>
+      <c r="AM4" s="351" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="344"/>
-      <c r="AO4" s="345"/>
+      <c r="AN4" s="352"/>
+      <c r="AO4" s="353"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2"/>
       <c r="AR4" s="77"/>
@@ -22631,14 +22718,14 @@
         <f>AB14</f>
         <v>-n</v>
       </c>
-      <c r="AG5" s="341"/>
-      <c r="AH5" s="342"/>
+      <c r="AG5" s="356"/>
+      <c r="AH5" s="357"/>
       <c r="AI5" s="8"/>
-      <c r="AJ5" s="341"/>
-      <c r="AK5" s="342"/>
+      <c r="AJ5" s="356"/>
+      <c r="AK5" s="357"/>
       <c r="AL5" s="8"/>
-      <c r="AM5" s="341"/>
-      <c r="AN5" s="342"/>
+      <c r="AM5" s="356"/>
+      <c r="AN5" s="357"/>
       <c r="AO5" s="8"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
@@ -22668,61 +22755,61 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="335" t="s">
+      <c r="D6" s="342" t="s">
         <v>321</v>
       </c>
-      <c r="E6" s="336"/>
-      <c r="F6" s="337"/>
-      <c r="G6" s="335" t="s">
+      <c r="E6" s="343"/>
+      <c r="F6" s="344"/>
+      <c r="G6" s="342" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="336"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="335" t="s">
+      <c r="H6" s="343"/>
+      <c r="I6" s="344"/>
+      <c r="J6" s="342" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="336"/>
-      <c r="L6" s="337"/>
-      <c r="M6" s="335" t="s">
+      <c r="K6" s="343"/>
+      <c r="L6" s="344"/>
+      <c r="M6" s="342" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="336"/>
-      <c r="O6" s="337"/>
-      <c r="P6" s="335" t="s">
+      <c r="N6" s="343"/>
+      <c r="O6" s="344"/>
+      <c r="P6" s="342" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="336"/>
-      <c r="R6" s="337"/>
-      <c r="S6" s="335" t="s">
+      <c r="Q6" s="343"/>
+      <c r="R6" s="344"/>
+      <c r="S6" s="342" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="336"/>
-      <c r="U6" s="337"/>
-      <c r="V6" s="338" t="s">
+      <c r="T6" s="343"/>
+      <c r="U6" s="344"/>
+      <c r="V6" s="358" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="339"/>
-      <c r="X6" s="340"/>
-      <c r="Y6" s="338" t="s">
+      <c r="W6" s="359"/>
+      <c r="X6" s="360"/>
+      <c r="Y6" s="358" t="s">
         <v>66</v>
       </c>
-      <c r="Z6" s="339"/>
-      <c r="AA6" s="340"/>
-      <c r="AB6" s="338" t="s">
+      <c r="Z6" s="359"/>
+      <c r="AA6" s="360"/>
+      <c r="AB6" s="358" t="s">
         <v>67</v>
       </c>
-      <c r="AC6" s="339"/>
-      <c r="AD6" s="340"/>
-      <c r="AE6" s="338" t="s">
+      <c r="AC6" s="359"/>
+      <c r="AD6" s="360"/>
+      <c r="AE6" s="358" t="s">
         <v>68</v>
       </c>
-      <c r="AF6" s="339"/>
-      <c r="AG6" s="340"/>
-      <c r="AH6" s="343" t="s">
+      <c r="AF6" s="359"/>
+      <c r="AG6" s="360"/>
+      <c r="AH6" s="351" t="s">
         <v>69</v>
       </c>
-      <c r="AI6" s="344"/>
-      <c r="AJ6" s="345"/>
+      <c r="AI6" s="352"/>
+      <c r="AJ6" s="353"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
@@ -22836,8 +22923,8 @@
       <c r="AE7" s="73"/>
       <c r="AF7" s="70"/>
       <c r="AG7" s="7"/>
-      <c r="AH7" s="341"/>
-      <c r="AI7" s="342"/>
+      <c r="AH7" s="356"/>
+      <c r="AI7" s="357"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
@@ -22873,56 +22960,56 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="346" t="s">
+      <c r="E8" s="345" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="347"/>
-      <c r="G8" s="348"/>
-      <c r="H8" s="335" t="s">
+      <c r="F8" s="346"/>
+      <c r="G8" s="347"/>
+      <c r="H8" s="342" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="336"/>
-      <c r="J8" s="337"/>
-      <c r="K8" s="335" t="s">
+      <c r="I8" s="343"/>
+      <c r="J8" s="344"/>
+      <c r="K8" s="342" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="336"/>
-      <c r="M8" s="337"/>
-      <c r="N8" s="335" t="s">
+      <c r="L8" s="343"/>
+      <c r="M8" s="344"/>
+      <c r="N8" s="342" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="336"/>
-      <c r="P8" s="337"/>
-      <c r="Q8" s="335" t="s">
+      <c r="O8" s="343"/>
+      <c r="P8" s="344"/>
+      <c r="Q8" s="342" t="s">
         <v>90</v>
       </c>
-      <c r="R8" s="336"/>
-      <c r="S8" s="337"/>
-      <c r="T8" s="335" t="s">
+      <c r="R8" s="343"/>
+      <c r="S8" s="344"/>
+      <c r="T8" s="342" t="s">
         <v>91</v>
       </c>
-      <c r="U8" s="336"/>
-      <c r="V8" s="337"/>
-      <c r="W8" s="338" t="s">
+      <c r="U8" s="343"/>
+      <c r="V8" s="344"/>
+      <c r="W8" s="358" t="s">
         <v>92</v>
       </c>
-      <c r="X8" s="339"/>
-      <c r="Y8" s="340"/>
-      <c r="Z8" s="338" t="s">
+      <c r="X8" s="359"/>
+      <c r="Y8" s="360"/>
+      <c r="Z8" s="358" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" s="339"/>
-      <c r="AB8" s="340"/>
-      <c r="AC8" s="338" t="s">
+      <c r="AA8" s="359"/>
+      <c r="AB8" s="360"/>
+      <c r="AC8" s="358" t="s">
         <v>94</v>
       </c>
-      <c r="AD8" s="339"/>
-      <c r="AE8" s="340"/>
-      <c r="AF8" s="343" t="s">
+      <c r="AD8" s="359"/>
+      <c r="AE8" s="360"/>
+      <c r="AF8" s="351" t="s">
         <v>95</v>
       </c>
-      <c r="AG8" s="344"/>
-      <c r="AH8" s="345"/>
+      <c r="AG8" s="352"/>
+      <c r="AH8" s="353"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
@@ -22959,11 +23046,11 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="333" t="str">
+      <c r="E9" s="354" t="str">
         <f>AH13</f>
         <v>入</v>
       </c>
-      <c r="F9" s="334">
+      <c r="F9" s="355">
         <f>I32</f>
         <v>0</v>
       </c>
@@ -26636,11 +26723,46 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="AB6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="H3:I3"/>
@@ -26653,46 +26775,11 @@
     <mergeCell ref="W2:Y2"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="AB6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/輸入法鍵盤設計表_河洛注音.xlsx
+++ b/docs/輸入法鍵盤設計表_河洛注音.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383C7B48-33E2-4831-9D3B-0EA01207F472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ED5E86-5DFF-4539-BE4E-7DDC99B453B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{766DD094-9FFE-4B0A-B37A-EB3CD65DD3BC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{766DD094-9FFE-4B0A-B37A-EB3CD65DD3BC}"/>
   </bookViews>
   <sheets>
     <sheet name="RIME對映編碼" sheetId="2" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="841">
   <si>
     <t>1 !</t>
   </si>
@@ -3251,10 +3251,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>:w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    - 'xlit|bpmfdtnlgkhjqxZCSrzcsiuvaoeEAIOUMNKGR12345|1qaz2wsxedcrfv5tgbyhnujm8ik,9ol.0p;/- 6347|'</t>
   </si>
   <si>
@@ -3410,6 +3406,10 @@
   </si>
   <si>
     <t>ｎ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入聲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5019,7 +5019,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="123" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="448">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5872,267 +5872,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="22" fillId="9" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -6170,7 +5909,7 @@
     <xf numFmtId="0" fontId="25" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="162" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="162" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6185,13 +5924,10 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6215,7 +5951,7 @@
     <xf numFmtId="0" fontId="163" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="25" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="130" fillId="25" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="157" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6287,8 +6023,266 @@
     <xf numFmtId="0" fontId="169" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="170" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="10" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="10" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6299,86 +6293,6 @@
     <cellStyle name="一般 4" xfId="4" xr:uid="{EEC31A27-66EA-4D5E-A3E5-D3011515E366}"/>
   </cellStyles>
   <dxfs count="22">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Iansui 094"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <name val="Arial Narrow"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFFFF00"/>
-        <name val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6461,6 +6375,86 @@
         <sz val="18"/>
         <color auto="1"/>
         <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <name val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Iansui 094"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <name val="Arial Narrow"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -8708,19 +8702,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8844962C-5D0E-444F-9FD4-0D1C96DDD3D3}" name="表格1_3346" displayName="表格1_3346" ref="R2:T44" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8844962C-5D0E-444F-9FD4-0D1C96DDD3D3}" name="表格1_3346" displayName="表格1_3346" ref="R2:T44" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
     <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BE7FD06B-DCFC-46E4-8A28-5AD4B50A27F3}" name="鍵盤按鍵" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{BE7FD06B-DCFC-46E4-8A28-5AD4B50A27F3}" name="鍵盤按鍵" dataDxfId="8">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4C7CA1F3-D1C3-4190-B4EE-3AD155DB8473}" name="字典編碼" dataDxfId="1" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{4C7CA1F3-D1C3-4190-B4EE-3AD155DB8473}" name="字典編碼" dataDxfId="7" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{20E99A91-482C-42A3-B3DD-B03AF39ACBB1}" name="方音符號" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{20E99A91-482C-42A3-B3DD-B03AF39ACBB1}" name="方音符號" dataDxfId="6">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8729,17 +8723,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28456E6C-4285-4B6F-9853-AAC05DB79DF7}" name="表格1_3" displayName="表格1_3" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28456E6C-4285-4B6F-9853-AAC05DB79DF7}" name="表格1_3" displayName="表格1_3" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="W2:AA47" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W3:AA47">
     <sortCondition ref="W3:W47" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C7CC57E6-DD0D-4C69-8097-C90E6E1A0323}" name="鍵盤位置" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{63964A11-33C3-4775-A61B-A34CA9D7D33B}" name="方音符號" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{F5A33025-421F-49C0-AF9F-4A9A0D4562CC}" name="拼音字母" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{D331036C-A530-49C9-BE79-22670ABE9163}" name="按鍵編碼" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3CD879B3-0434-4959-B532-198774D28491}" name="國際音標" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C7CC57E6-DD0D-4C69-8097-C90E6E1A0323}" name="鍵盤位置" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{63964A11-33C3-4775-A61B-A34CA9D7D33B}" name="方音符號" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F5A33025-421F-49C0-AF9F-4A9A0D4562CC}" name="拼音字母" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D331036C-A530-49C9-BE79-22670ABE9163}" name="按鍵編碼" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3CD879B3-0434-4959-B532-198774D28491}" name="國際音標" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9047,8 +9041,8 @@
   </sheetPr>
   <dimension ref="A1:AX59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO22" sqref="AO22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="21"/>
@@ -9108,66 +9102,66 @@
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="36" customHeight="1" thickBot="1">
       <c r="C2" s="2"/>
-      <c r="D2" s="350" t="s">
+      <c r="D2" s="362" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="351"/>
-      <c r="F2" s="352"/>
-      <c r="G2" s="350" t="s">
+      <c r="E2" s="363"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="362" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="351"/>
-      <c r="I2" s="352"/>
-      <c r="J2" s="361" t="s">
+      <c r="H2" s="363"/>
+      <c r="I2" s="364"/>
+      <c r="J2" s="365" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="362"/>
-      <c r="L2" s="363"/>
-      <c r="M2" s="361" t="s">
+      <c r="K2" s="366"/>
+      <c r="L2" s="367"/>
+      <c r="M2" s="365" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="362"/>
-      <c r="O2" s="363"/>
-      <c r="P2" s="364" t="s">
+      <c r="N2" s="366"/>
+      <c r="O2" s="367"/>
+      <c r="P2" s="368" t="s">
         <v>792</v>
       </c>
-      <c r="Q2" s="365"/>
-      <c r="R2" s="366"/>
-      <c r="S2" s="361" t="s">
+      <c r="Q2" s="369"/>
+      <c r="R2" s="370"/>
+      <c r="S2" s="365" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="362"/>
-      <c r="U2" s="363"/>
-      <c r="V2" s="361" t="s">
+      <c r="T2" s="366"/>
+      <c r="U2" s="367"/>
+      <c r="V2" s="365" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="362"/>
-      <c r="X2" s="363"/>
-      <c r="Y2" s="353" t="s">
+      <c r="W2" s="366"/>
+      <c r="X2" s="367"/>
+      <c r="Y2" s="378" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="354"/>
-      <c r="AA2" s="355"/>
-      <c r="AB2" s="353" t="s">
+      <c r="Z2" s="379"/>
+      <c r="AA2" s="380"/>
+      <c r="AB2" s="378" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="354"/>
-      <c r="AD2" s="355"/>
-      <c r="AE2" s="353" t="s">
+      <c r="AC2" s="379"/>
+      <c r="AD2" s="380"/>
+      <c r="AE2" s="378" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="354"/>
-      <c r="AG2" s="355"/>
-      <c r="AH2" s="358" t="s">
+      <c r="AF2" s="379"/>
+      <c r="AG2" s="380"/>
+      <c r="AH2" s="371" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="359"/>
-      <c r="AJ2" s="360"/>
-      <c r="AK2" s="358" t="s">
+      <c r="AI2" s="372"/>
+      <c r="AJ2" s="373"/>
+      <c r="AK2" s="371" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="359"/>
-      <c r="AM2" s="360"/>
+      <c r="AL2" s="372"/>
+      <c r="AM2" s="373"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
@@ -9208,36 +9202,42 @@
       <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="348" t="s">
+      <c r="J3" s="374" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="349"/>
+      <c r="K3" s="375"/>
       <c r="L3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="348" t="s">
+      <c r="M3" s="374" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="349"/>
+      <c r="N3" s="375"/>
       <c r="O3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="348"/>
-      <c r="Q3" s="349"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="348" t="s">
+      <c r="P3" s="447" t="str">
+        <f>AL13</f>
+        <v>˫</v>
+      </c>
+      <c r="Q3" s="375"/>
+      <c r="R3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="374" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="349"/>
+      <c r="T3" s="375"/>
       <c r="U3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="348" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="349"/>
+      <c r="V3" s="447" t="str">
+        <f>AM13</f>
+        <v>˙</v>
+      </c>
+      <c r="W3" s="375"/>
       <c r="X3" s="6" t="s">
-        <v>20</v>
+        <v>840</v>
       </c>
       <c r="Y3" s="73" t="str">
         <f>X13</f>
@@ -9257,14 +9257,20 @@
         <f>AD14</f>
         <v>ai</v>
       </c>
-      <c r="AE3" s="73"/>
+      <c r="AE3" s="73" t="str">
+        <f>AF13</f>
+        <v>ㄢ</v>
+      </c>
       <c r="AF3" s="70"/>
-      <c r="AG3" s="7"/>
+      <c r="AG3" s="153" t="str">
+        <f>AF14</f>
+        <v>an</v>
+      </c>
       <c r="AH3" s="69"/>
       <c r="AI3" s="70"/>
       <c r="AJ3" s="7"/>
-      <c r="AK3" s="356"/>
-      <c r="AL3" s="357"/>
+      <c r="AK3" s="376"/>
+      <c r="AL3" s="377"/>
       <c r="AM3" s="8"/>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
@@ -9296,71 +9302,71 @@
     <row r="4" spans="1:50" s="3" customFormat="1" ht="36" customHeight="1">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="350" t="s">
+      <c r="E4" s="362" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="351"/>
-      <c r="G4" s="352"/>
-      <c r="H4" s="350" t="s">
+      <c r="F4" s="363"/>
+      <c r="G4" s="364"/>
+      <c r="H4" s="362" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="351"/>
-      <c r="J4" s="352"/>
-      <c r="K4" s="350" t="s">
+      <c r="I4" s="363"/>
+      <c r="J4" s="364"/>
+      <c r="K4" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="351"/>
-      <c r="M4" s="352"/>
-      <c r="N4" s="350" t="s">
+      <c r="L4" s="363"/>
+      <c r="M4" s="364"/>
+      <c r="N4" s="362" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="351"/>
-      <c r="P4" s="352"/>
-      <c r="Q4" s="350" t="s">
+      <c r="O4" s="363"/>
+      <c r="P4" s="364"/>
+      <c r="Q4" s="362" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="351"/>
-      <c r="S4" s="352"/>
-      <c r="T4" s="350" t="s">
+      <c r="R4" s="363"/>
+      <c r="S4" s="364"/>
+      <c r="T4" s="362" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="351"/>
-      <c r="V4" s="352"/>
-      <c r="W4" s="353" t="s">
+      <c r="U4" s="363"/>
+      <c r="V4" s="364"/>
+      <c r="W4" s="378" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="354"/>
-      <c r="Y4" s="355"/>
-      <c r="Z4" s="353" t="s">
+      <c r="X4" s="379"/>
+      <c r="Y4" s="380"/>
+      <c r="Z4" s="378" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="354"/>
-      <c r="AB4" s="355"/>
-      <c r="AC4" s="353" t="s">
+      <c r="AA4" s="379"/>
+      <c r="AB4" s="380"/>
+      <c r="AC4" s="378" t="s">
         <v>35</v>
       </c>
-      <c r="AD4" s="354"/>
-      <c r="AE4" s="355"/>
-      <c r="AF4" s="353" t="s">
+      <c r="AD4" s="379"/>
+      <c r="AE4" s="380"/>
+      <c r="AF4" s="378" t="s">
         <v>36</v>
       </c>
-      <c r="AG4" s="354"/>
-      <c r="AH4" s="355"/>
-      <c r="AI4" s="353" t="s">
+      <c r="AG4" s="379"/>
+      <c r="AH4" s="380"/>
+      <c r="AI4" s="378" t="s">
         <v>37</v>
       </c>
-      <c r="AJ4" s="354"/>
-      <c r="AK4" s="355"/>
-      <c r="AL4" s="353" t="s">
+      <c r="AJ4" s="379"/>
+      <c r="AK4" s="380"/>
+      <c r="AL4" s="378" t="s">
         <v>38</v>
       </c>
-      <c r="AM4" s="354"/>
-      <c r="AN4" s="355"/>
-      <c r="AO4" s="358" t="s">
+      <c r="AM4" s="379"/>
+      <c r="AN4" s="380"/>
+      <c r="AO4" s="371" t="s">
         <v>39</v>
       </c>
-      <c r="AP4" s="359"/>
-      <c r="AQ4" s="360"/>
+      <c r="AP4" s="372"/>
+      <c r="AQ4" s="373"/>
       <c r="AR4" s="2"/>
       <c r="AS4" s="2"/>
       <c r="AT4" s="210" cm="1">
@@ -9458,7 +9464,7 @@
         <f>AN14</f>
         <v>-nn</v>
       </c>
-      <c r="AF5" s="443" t="str">
+      <c r="AF5" s="355" t="str">
         <f>AB13</f>
         <v>ㄣ</v>
       </c>
@@ -9467,14 +9473,14 @@
         <f>AB14</f>
         <v>-n</v>
       </c>
-      <c r="AI5" s="356"/>
-      <c r="AJ5" s="357"/>
+      <c r="AI5" s="376"/>
+      <c r="AJ5" s="377"/>
       <c r="AK5" s="8"/>
-      <c r="AL5" s="356"/>
-      <c r="AM5" s="357"/>
+      <c r="AL5" s="376"/>
+      <c r="AM5" s="377"/>
       <c r="AN5" s="8"/>
-      <c r="AO5" s="356"/>
-      <c r="AP5" s="357"/>
+      <c r="AO5" s="376"/>
+      <c r="AP5" s="377"/>
       <c r="AQ5" s="8"/>
       <c r="AR5" s="4"/>
       <c r="AS5" s="4"/>
@@ -9503,61 +9509,61 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="350" t="s">
+      <c r="F6" s="362" t="s">
         <v>319</v>
       </c>
-      <c r="G6" s="351"/>
-      <c r="H6" s="352"/>
-      <c r="I6" s="350" t="s">
+      <c r="G6" s="363"/>
+      <c r="H6" s="364"/>
+      <c r="I6" s="362" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="351"/>
-      <c r="K6" s="352"/>
-      <c r="L6" s="350" t="s">
+      <c r="J6" s="363"/>
+      <c r="K6" s="364"/>
+      <c r="L6" s="362" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="351"/>
-      <c r="N6" s="352"/>
-      <c r="O6" s="350" t="s">
+      <c r="M6" s="363"/>
+      <c r="N6" s="364"/>
+      <c r="O6" s="362" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="351"/>
-      <c r="Q6" s="352"/>
-      <c r="R6" s="350" t="s">
+      <c r="P6" s="363"/>
+      <c r="Q6" s="364"/>
+      <c r="R6" s="362" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="351"/>
-      <c r="T6" s="352"/>
-      <c r="U6" s="350" t="s">
+      <c r="S6" s="363"/>
+      <c r="T6" s="364"/>
+      <c r="U6" s="362" t="s">
         <v>63</v>
       </c>
-      <c r="V6" s="351"/>
-      <c r="W6" s="352"/>
-      <c r="X6" s="353" t="s">
+      <c r="V6" s="363"/>
+      <c r="W6" s="364"/>
+      <c r="X6" s="378" t="s">
         <v>64</v>
       </c>
-      <c r="Y6" s="354"/>
-      <c r="Z6" s="355"/>
-      <c r="AA6" s="353" t="s">
+      <c r="Y6" s="379"/>
+      <c r="Z6" s="380"/>
+      <c r="AA6" s="378" t="s">
         <v>65</v>
       </c>
-      <c r="AB6" s="354"/>
-      <c r="AC6" s="355"/>
-      <c r="AD6" s="353" t="s">
+      <c r="AB6" s="379"/>
+      <c r="AC6" s="380"/>
+      <c r="AD6" s="378" t="s">
         <v>66</v>
       </c>
-      <c r="AE6" s="354"/>
-      <c r="AF6" s="355"/>
-      <c r="AG6" s="353" t="s">
+      <c r="AE6" s="379"/>
+      <c r="AF6" s="380"/>
+      <c r="AG6" s="378" t="s">
         <v>67</v>
       </c>
-      <c r="AH6" s="354"/>
-      <c r="AI6" s="355"/>
-      <c r="AJ6" s="358" t="s">
+      <c r="AH6" s="379"/>
+      <c r="AI6" s="380"/>
+      <c r="AJ6" s="371" t="s">
         <v>68</v>
       </c>
-      <c r="AK6" s="359"/>
-      <c r="AL6" s="360"/>
+      <c r="AK6" s="372"/>
+      <c r="AL6" s="373"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
@@ -9620,7 +9626,7 @@
       <c r="N7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="442" t="str">
+      <c r="O7" s="354" t="str">
         <f>P13</f>
         <v>ㆣ</v>
       </c>
@@ -9667,11 +9673,17 @@
         <f>AE14</f>
         <v>au</v>
       </c>
-      <c r="AG7" s="73"/>
+      <c r="AG7" s="73" t="str">
+        <f>AG13</f>
+        <v>ㄤ</v>
+      </c>
       <c r="AH7" s="70"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="356"/>
-      <c r="AK7" s="357"/>
+      <c r="AI7" s="153" t="str">
+        <f>AG14</f>
+        <v>ang</v>
+      </c>
+      <c r="AJ7" s="376"/>
+      <c r="AK7" s="377"/>
       <c r="AL7" s="8"/>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
@@ -9706,56 +9718,56 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="350" t="s">
+      <c r="G8" s="362" t="s">
         <v>310</v>
       </c>
-      <c r="H8" s="351"/>
-      <c r="I8" s="352"/>
-      <c r="J8" s="350" t="s">
+      <c r="H8" s="363"/>
+      <c r="I8" s="364"/>
+      <c r="J8" s="362" t="s">
         <v>85</v>
       </c>
-      <c r="K8" s="351"/>
-      <c r="L8" s="352"/>
-      <c r="M8" s="350" t="s">
+      <c r="K8" s="363"/>
+      <c r="L8" s="364"/>
+      <c r="M8" s="362" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="351"/>
-      <c r="O8" s="352"/>
-      <c r="P8" s="350" t="s">
+      <c r="N8" s="363"/>
+      <c r="O8" s="364"/>
+      <c r="P8" s="362" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="351"/>
-      <c r="R8" s="352"/>
-      <c r="S8" s="350" t="s">
+      <c r="Q8" s="363"/>
+      <c r="R8" s="364"/>
+      <c r="S8" s="362" t="s">
         <v>88</v>
       </c>
-      <c r="T8" s="351"/>
-      <c r="U8" s="352"/>
-      <c r="V8" s="350" t="s">
+      <c r="T8" s="363"/>
+      <c r="U8" s="364"/>
+      <c r="V8" s="362" t="s">
         <v>89</v>
       </c>
-      <c r="W8" s="351"/>
-      <c r="X8" s="352"/>
-      <c r="Y8" s="353" t="s">
+      <c r="W8" s="363"/>
+      <c r="X8" s="364"/>
+      <c r="Y8" s="378" t="s">
         <v>90</v>
       </c>
-      <c r="Z8" s="354"/>
-      <c r="AA8" s="355"/>
-      <c r="AB8" s="353" t="s">
+      <c r="Z8" s="379"/>
+      <c r="AA8" s="380"/>
+      <c r="AB8" s="378" t="s">
         <v>91</v>
       </c>
-      <c r="AC8" s="354"/>
-      <c r="AD8" s="355"/>
-      <c r="AE8" s="353" t="s">
+      <c r="AC8" s="379"/>
+      <c r="AD8" s="380"/>
+      <c r="AE8" s="378" t="s">
         <v>92</v>
       </c>
-      <c r="AF8" s="354"/>
-      <c r="AG8" s="355"/>
-      <c r="AH8" s="358" t="s">
+      <c r="AF8" s="379"/>
+      <c r="AG8" s="380"/>
+      <c r="AH8" s="371" t="s">
         <v>93</v>
       </c>
-      <c r="AI8" s="359"/>
-      <c r="AJ8" s="360"/>
+      <c r="AI8" s="372"/>
+      <c r="AJ8" s="373"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
@@ -9822,7 +9834,7 @@
       <c r="O9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="442" t="str">
+      <c r="P9" s="354" t="str">
         <f>Q13</f>
         <v>ㄫ</v>
       </c>
@@ -9866,7 +9878,7 @@
       <c r="AE9" s="73"/>
       <c r="AF9" s="71"/>
       <c r="AG9" s="7"/>
-      <c r="AH9" s="443" t="str">
+      <c r="AH9" s="355" t="str">
         <f>AC13</f>
         <v>ㄥ</v>
       </c>
@@ -10125,11 +10137,11 @@
         <f t="array" ref="AN11" xml:space="preserve"> COLUMN() - COLUMN($C:$C)</f>
         <v>37</v>
       </c>
-      <c r="AR11" s="447" t="s">
+      <c r="AR11" s="359" t="s">
+        <v>834</v>
+      </c>
+      <c r="AS11" s="358" t="s">
         <v>835</v>
-      </c>
-      <c r="AS11" s="446" t="s">
-        <v>836</v>
       </c>
       <c r="AT11" s="210" cm="1">
         <f t="array" ref="AT11" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -10242,14 +10254,14 @@
       <c r="AE12" s="151" t="s">
         <v>206</v>
       </c>
-      <c r="AF12" s="449">
+      <c r="AF12" s="361">
         <v>0</v>
       </c>
       <c r="AG12" s="151" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AH12" s="162" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AI12" s="151">
         <v>4</v>
@@ -10269,11 +10281,11 @@
       <c r="AN12" s="152" t="s">
         <v>340</v>
       </c>
-      <c r="AR12" s="447" t="s">
+      <c r="AR12" s="359" t="s">
+        <v>826</v>
+      </c>
+      <c r="AS12" s="358" t="s">
         <v>827</v>
-      </c>
-      <c r="AS12" s="446" t="s">
-        <v>828</v>
       </c>
       <c r="AT12" s="210" cm="1">
         <f t="array" ref="AT12" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -10409,13 +10421,13 @@
         <v>127</v>
       </c>
       <c r="AN13" s="211" t="s">
-        <v>840</v>
-      </c>
-      <c r="AR13" s="447" t="s">
+        <v>839</v>
+      </c>
+      <c r="AR13" s="359" t="s">
+        <v>828</v>
+      </c>
+      <c r="AS13" s="358" t="s">
         <v>829</v>
-      </c>
-      <c r="AS13" s="446" t="s">
-        <v>830</v>
       </c>
       <c r="AT13" s="210" cm="1">
         <f t="array" ref="AT13" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -10523,16 +10535,16 @@
         <v>326</v>
       </c>
       <c r="AD14" s="157" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AE14" s="159" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AF14" s="159" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AG14" s="159" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AH14" s="157">
         <v>1</v>
@@ -10555,11 +10567,11 @@
       <c r="AN14" s="159" t="s">
         <v>341</v>
       </c>
-      <c r="AR14" s="447" t="s">
+      <c r="AR14" s="359" t="s">
+        <v>830</v>
+      </c>
+      <c r="AS14" s="358" t="s">
         <v>831</v>
-      </c>
-      <c r="AS14" s="446" t="s">
-        <v>832</v>
       </c>
       <c r="AT14" s="210" cm="1">
         <f t="array" ref="AT14" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -10606,7 +10618,7 @@
       <c r="I15" s="156" t="s">
         <v>351</v>
       </c>
-      <c r="J15" s="444" t="s">
+      <c r="J15" s="356" t="s">
         <v>205</v>
       </c>
       <c r="K15" s="155" t="s">
@@ -10621,7 +10633,7 @@
       <c r="N15" s="155" t="s">
         <v>357</v>
       </c>
-      <c r="O15" s="444" t="s">
+      <c r="O15" s="356" t="s">
         <v>139</v>
       </c>
       <c r="P15" s="155" t="s">
@@ -10646,7 +10658,7 @@
         <v>347</v>
       </c>
       <c r="W15" s="156" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="X15" s="155" t="s">
         <v>24</v>
@@ -10664,19 +10676,19 @@
         <v>370</v>
       </c>
       <c r="AC15" s="156" t="s">
-        <v>824</v>
-      </c>
-      <c r="AD15" s="448" t="s">
+        <v>823</v>
+      </c>
+      <c r="AD15" s="360" t="s">
         <v>709</v>
       </c>
-      <c r="AE15" s="448" t="s">
+      <c r="AE15" s="360" t="s">
         <v>710</v>
       </c>
-      <c r="AF15" s="448" t="s">
-        <v>831</v>
-      </c>
-      <c r="AG15" s="448" t="s">
-        <v>833</v>
+      <c r="AF15" s="360" t="s">
+        <v>830</v>
+      </c>
+      <c r="AG15" s="360" t="s">
+        <v>832</v>
       </c>
       <c r="AH15" s="156">
         <v>1</v>
@@ -10699,11 +10711,11 @@
       <c r="AN15" s="270" t="s">
         <v>795</v>
       </c>
-      <c r="AR15" s="447" t="s">
+      <c r="AR15" s="359" t="s">
+        <v>832</v>
+      </c>
+      <c r="AS15" s="358" t="s">
         <v>833</v>
-      </c>
-      <c r="AS15" s="446" t="s">
-        <v>834</v>
       </c>
       <c r="AT15" s="210" cm="1">
         <f t="array" ref="AT15" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -10752,9 +10764,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="4" t="s">
-        <v>799</v>
-      </c>
+      <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -10768,8 +10778,8 @@
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="445"/>
-      <c r="AO16" s="445"/>
+      <c r="AN16" s="357"/>
+      <c r="AO16" s="357"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
       <c r="AR16" s="75"/>
@@ -10899,8 +10909,8 @@
         <v>37</v>
       </c>
       <c r="D19" s="82" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(D12:AG12, " ", AI12:AN12)</f>
-        <v>1qaz2wsxedcrfvyhnujm8ik,p/9l0; 43657o</v>
+        <f xml:space="preserve"> _xlfn.CONCAT(D15:AN15)</f>
+        <v>pPmbtTnlkKhjgwcCsiuMaOoeDWIULQ123570N</v>
       </c>
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
@@ -11042,7 +11052,7 @@
     <row r="21" spans="2:50" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B21" s="165" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; D19 &amp; "|" &amp; D20 &amp; "|"</f>
-        <v>- xlit|1qaz2wsxedcrfvyhnujm8ik,p/9l0; 43657o|1qaz2wsxedcrfvyhnujm8ik,p/9l0; 43657o|</v>
+        <v>- xlit|pPmbtTnlkKhjgwcCsiuMaOoeDWIULQ123570N|1qaz2wsxedcrfvyhnujm8ik,p/9l0; 43657o|</v>
       </c>
       <c r="C21" s="76"/>
       <c r="D21" s="76"/>
@@ -13488,11 +13498,45 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AG6:AI6"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AC4:AE4"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="AH2:AJ2"/>
     <mergeCell ref="AK2:AM2"/>
     <mergeCell ref="J3:K3"/>
@@ -13505,45 +13549,11 @@
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AC4:AE4"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="AF4:AH4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="AG6:AI6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14371,8 +14381,8 @@
       <c r="AN1" s="95"/>
       <c r="AO1" s="95"/>
       <c r="AP1" s="95"/>
-      <c r="AQ1" s="370"/>
-      <c r="AR1" s="370"/>
+      <c r="AQ1" s="422"/>
+      <c r="AR1" s="422"/>
       <c r="AS1" s="95"/>
       <c r="AT1" s="95"/>
       <c r="AU1" s="95"/>
@@ -15689,66 +15699,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="368" t="str">
+      <c r="C11" s="423" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="368"/>
-      <c r="E11" s="368"/>
-      <c r="F11" s="368"/>
-      <c r="G11" s="368"/>
-      <c r="H11" s="368"/>
-      <c r="I11" s="368"/>
-      <c r="J11" s="368"/>
-      <c r="K11" s="368"/>
-      <c r="L11" s="368"/>
-      <c r="M11" s="368"/>
-      <c r="N11" s="368"/>
-      <c r="O11" s="368"/>
-      <c r="P11" s="368"/>
-      <c r="Q11" s="368"/>
-      <c r="R11" s="368"/>
-      <c r="S11" s="368"/>
-      <c r="T11" s="368"/>
-      <c r="U11" s="368"/>
-      <c r="V11" s="368"/>
-      <c r="W11" s="368"/>
-      <c r="X11" s="368"/>
-      <c r="Y11" s="368"/>
-      <c r="Z11" s="368"/>
+      <c r="D11" s="423"/>
+      <c r="E11" s="423"/>
+      <c r="F11" s="423"/>
+      <c r="G11" s="423"/>
+      <c r="H11" s="423"/>
+      <c r="I11" s="423"/>
+      <c r="J11" s="423"/>
+      <c r="K11" s="423"/>
+      <c r="L11" s="423"/>
+      <c r="M11" s="423"/>
+      <c r="N11" s="423"/>
+      <c r="O11" s="423"/>
+      <c r="P11" s="423"/>
+      <c r="Q11" s="423"/>
+      <c r="R11" s="423"/>
+      <c r="S11" s="423"/>
+      <c r="T11" s="423"/>
+      <c r="U11" s="423"/>
+      <c r="V11" s="423"/>
+      <c r="W11" s="423"/>
+      <c r="X11" s="423"/>
+      <c r="Y11" s="423"/>
+      <c r="Z11" s="423"/>
     </row>
     <row r="12" spans="1:47" s="94" customFormat="1" ht="23.25">
       <c r="B12" s="103" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="369" t="str">
+      <c r="C12" s="421" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="369"/>
-      <c r="E12" s="369"/>
-      <c r="F12" s="369"/>
-      <c r="G12" s="369"/>
-      <c r="H12" s="369"/>
-      <c r="I12" s="369"/>
-      <c r="J12" s="369"/>
-      <c r="K12" s="369"/>
-      <c r="L12" s="369"/>
-      <c r="M12" s="369"/>
-      <c r="N12" s="369"/>
-      <c r="O12" s="369"/>
-      <c r="P12" s="369"/>
-      <c r="Q12" s="369"/>
-      <c r="R12" s="369"/>
-      <c r="S12" s="369"/>
-      <c r="T12" s="369"/>
-      <c r="U12" s="369"/>
-      <c r="V12" s="369"/>
-      <c r="W12" s="369"/>
-      <c r="X12" s="369"/>
-      <c r="Y12" s="369"/>
-      <c r="Z12" s="369"/>
+      <c r="D12" s="421"/>
+      <c r="E12" s="421"/>
+      <c r="F12" s="421"/>
+      <c r="G12" s="421"/>
+      <c r="H12" s="421"/>
+      <c r="I12" s="421"/>
+      <c r="J12" s="421"/>
+      <c r="K12" s="421"/>
+      <c r="L12" s="421"/>
+      <c r="M12" s="421"/>
+      <c r="N12" s="421"/>
+      <c r="O12" s="421"/>
+      <c r="P12" s="421"/>
+      <c r="Q12" s="421"/>
+      <c r="R12" s="421"/>
+      <c r="S12" s="421"/>
+      <c r="T12" s="421"/>
+      <c r="U12" s="421"/>
+      <c r="V12" s="421"/>
+      <c r="W12" s="421"/>
+      <c r="X12" s="421"/>
+      <c r="Y12" s="421"/>
+      <c r="Z12" s="421"/>
     </row>
     <row r="13" spans="1:47" s="94" customFormat="1" ht="23.25"/>
     <row r="14" spans="1:47" s="94" customFormat="1" ht="34.5">
@@ -15757,34 +15767,34 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="94" customFormat="1" ht="23.25">
-      <c r="B15" s="367" t="str">
+      <c r="B15" s="424" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="367"/>
-      <c r="D15" s="367"/>
-      <c r="E15" s="367"/>
-      <c r="F15" s="367"/>
-      <c r="G15" s="367"/>
-      <c r="H15" s="367"/>
-      <c r="I15" s="367"/>
-      <c r="J15" s="367"/>
-      <c r="K15" s="367"/>
-      <c r="L15" s="367"/>
-      <c r="M15" s="367"/>
-      <c r="N15" s="367"/>
-      <c r="O15" s="367"/>
-      <c r="P15" s="367"/>
-      <c r="Q15" s="367"/>
-      <c r="R15" s="367"/>
-      <c r="S15" s="367"/>
-      <c r="T15" s="367"/>
-      <c r="U15" s="367"/>
-      <c r="V15" s="367"/>
-      <c r="W15" s="367"/>
-      <c r="X15" s="367"/>
-      <c r="Y15" s="367"/>
-      <c r="Z15" s="367"/>
+      <c r="C15" s="424"/>
+      <c r="D15" s="424"/>
+      <c r="E15" s="424"/>
+      <c r="F15" s="424"/>
+      <c r="G15" s="424"/>
+      <c r="H15" s="424"/>
+      <c r="I15" s="424"/>
+      <c r="J15" s="424"/>
+      <c r="K15" s="424"/>
+      <c r="L15" s="424"/>
+      <c r="M15" s="424"/>
+      <c r="N15" s="424"/>
+      <c r="O15" s="424"/>
+      <c r="P15" s="424"/>
+      <c r="Q15" s="424"/>
+      <c r="R15" s="424"/>
+      <c r="S15" s="424"/>
+      <c r="T15" s="424"/>
+      <c r="U15" s="424"/>
+      <c r="V15" s="424"/>
+      <c r="W15" s="424"/>
+      <c r="X15" s="424"/>
+      <c r="Y15" s="424"/>
+      <c r="Z15" s="424"/>
     </row>
     <row r="16" spans="1:47" s="94" customFormat="1" ht="23.25"/>
     <row r="17" spans="2:26" s="94" customFormat="1" ht="34.5">
@@ -15798,66 +15808,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="368" t="str">
+      <c r="C19" s="423" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="368"/>
-      <c r="E19" s="368"/>
-      <c r="F19" s="368"/>
-      <c r="G19" s="368"/>
-      <c r="H19" s="368"/>
-      <c r="I19" s="368"/>
-      <c r="J19" s="368"/>
-      <c r="K19" s="368"/>
-      <c r="L19" s="368"/>
-      <c r="M19" s="368"/>
-      <c r="N19" s="368"/>
-      <c r="O19" s="368"/>
-      <c r="P19" s="368"/>
-      <c r="Q19" s="368"/>
-      <c r="R19" s="368"/>
-      <c r="S19" s="368"/>
-      <c r="T19" s="368"/>
-      <c r="U19" s="368"/>
-      <c r="V19" s="368"/>
-      <c r="W19" s="368"/>
-      <c r="X19" s="368"/>
-      <c r="Y19" s="368"/>
-      <c r="Z19" s="368"/>
+      <c r="D19" s="423"/>
+      <c r="E19" s="423"/>
+      <c r="F19" s="423"/>
+      <c r="G19" s="423"/>
+      <c r="H19" s="423"/>
+      <c r="I19" s="423"/>
+      <c r="J19" s="423"/>
+      <c r="K19" s="423"/>
+      <c r="L19" s="423"/>
+      <c r="M19" s="423"/>
+      <c r="N19" s="423"/>
+      <c r="O19" s="423"/>
+      <c r="P19" s="423"/>
+      <c r="Q19" s="423"/>
+      <c r="R19" s="423"/>
+      <c r="S19" s="423"/>
+      <c r="T19" s="423"/>
+      <c r="U19" s="423"/>
+      <c r="V19" s="423"/>
+      <c r="W19" s="423"/>
+      <c r="X19" s="423"/>
+      <c r="Y19" s="423"/>
+      <c r="Z19" s="423"/>
     </row>
     <row r="20" spans="2:26" s="94" customFormat="1" ht="23.25">
       <c r="B20" s="101" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="369" t="str">
+      <c r="C20" s="421" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="369"/>
-      <c r="E20" s="369"/>
-      <c r="F20" s="369"/>
-      <c r="G20" s="369"/>
-      <c r="H20" s="369"/>
-      <c r="I20" s="369"/>
-      <c r="J20" s="369"/>
-      <c r="K20" s="369"/>
-      <c r="L20" s="369"/>
-      <c r="M20" s="369"/>
-      <c r="N20" s="369"/>
-      <c r="O20" s="369"/>
-      <c r="P20" s="369"/>
-      <c r="Q20" s="369"/>
-      <c r="R20" s="369"/>
-      <c r="S20" s="369"/>
-      <c r="T20" s="369"/>
-      <c r="U20" s="369"/>
-      <c r="V20" s="369"/>
-      <c r="W20" s="369"/>
-      <c r="X20" s="369"/>
-      <c r="Y20" s="369"/>
-      <c r="Z20" s="369"/>
+      <c r="D20" s="421"/>
+      <c r="E20" s="421"/>
+      <c r="F20" s="421"/>
+      <c r="G20" s="421"/>
+      <c r="H20" s="421"/>
+      <c r="I20" s="421"/>
+      <c r="J20" s="421"/>
+      <c r="K20" s="421"/>
+      <c r="L20" s="421"/>
+      <c r="M20" s="421"/>
+      <c r="N20" s="421"/>
+      <c r="O20" s="421"/>
+      <c r="P20" s="421"/>
+      <c r="Q20" s="421"/>
+      <c r="R20" s="421"/>
+      <c r="S20" s="421"/>
+      <c r="T20" s="421"/>
+      <c r="U20" s="421"/>
+      <c r="V20" s="421"/>
+      <c r="W20" s="421"/>
+      <c r="X20" s="421"/>
+      <c r="Y20" s="421"/>
+      <c r="Z20" s="421"/>
     </row>
     <row r="21" spans="2:26" s="94" customFormat="1" ht="23.25"/>
     <row r="22" spans="2:26" s="94" customFormat="1" ht="34.5">
@@ -15866,34 +15876,34 @@
       </c>
     </row>
     <row r="23" spans="2:26" s="94" customFormat="1" ht="23.25">
-      <c r="B23" s="367" t="str">
+      <c r="B23" s="424" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="367"/>
-      <c r="D23" s="367"/>
-      <c r="E23" s="367"/>
-      <c r="F23" s="367"/>
-      <c r="G23" s="367"/>
-      <c r="H23" s="367"/>
-      <c r="I23" s="367"/>
-      <c r="J23" s="367"/>
-      <c r="K23" s="367"/>
-      <c r="L23" s="367"/>
-      <c r="M23" s="367"/>
-      <c r="N23" s="367"/>
-      <c r="O23" s="367"/>
-      <c r="P23" s="367"/>
-      <c r="Q23" s="367"/>
-      <c r="R23" s="367"/>
-      <c r="S23" s="367"/>
-      <c r="T23" s="367"/>
-      <c r="U23" s="367"/>
-      <c r="V23" s="367"/>
-      <c r="W23" s="367"/>
-      <c r="X23" s="367"/>
-      <c r="Y23" s="367"/>
-      <c r="Z23" s="367"/>
+      <c r="C23" s="424"/>
+      <c r="D23" s="424"/>
+      <c r="E23" s="424"/>
+      <c r="F23" s="424"/>
+      <c r="G23" s="424"/>
+      <c r="H23" s="424"/>
+      <c r="I23" s="424"/>
+      <c r="J23" s="424"/>
+      <c r="K23" s="424"/>
+      <c r="L23" s="424"/>
+      <c r="M23" s="424"/>
+      <c r="N23" s="424"/>
+      <c r="O23" s="424"/>
+      <c r="P23" s="424"/>
+      <c r="Q23" s="424"/>
+      <c r="R23" s="424"/>
+      <c r="S23" s="424"/>
+      <c r="T23" s="424"/>
+      <c r="U23" s="424"/>
+      <c r="V23" s="424"/>
+      <c r="W23" s="424"/>
+      <c r="X23" s="424"/>
+      <c r="Y23" s="424"/>
+      <c r="Z23" s="424"/>
     </row>
     <row r="24" spans="2:26" s="94" customFormat="1" ht="23.25"/>
     <row r="25" spans="2:26" s="94" customFormat="1" ht="34.5">
@@ -15907,66 +15917,66 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="368" t="str">
+      <c r="C27" s="423" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="368"/>
-      <c r="E27" s="368"/>
-      <c r="F27" s="368"/>
-      <c r="G27" s="368"/>
-      <c r="H27" s="368"/>
-      <c r="I27" s="368"/>
-      <c r="J27" s="368"/>
-      <c r="K27" s="368"/>
-      <c r="L27" s="368"/>
-      <c r="M27" s="368"/>
-      <c r="N27" s="368"/>
-      <c r="O27" s="368"/>
-      <c r="P27" s="368"/>
-      <c r="Q27" s="368"/>
-      <c r="R27" s="368"/>
-      <c r="S27" s="368"/>
-      <c r="T27" s="368"/>
-      <c r="U27" s="368"/>
-      <c r="V27" s="368"/>
-      <c r="W27" s="368"/>
-      <c r="X27" s="368"/>
-      <c r="Y27" s="368"/>
-      <c r="Z27" s="368"/>
+      <c r="D27" s="423"/>
+      <c r="E27" s="423"/>
+      <c r="F27" s="423"/>
+      <c r="G27" s="423"/>
+      <c r="H27" s="423"/>
+      <c r="I27" s="423"/>
+      <c r="J27" s="423"/>
+      <c r="K27" s="423"/>
+      <c r="L27" s="423"/>
+      <c r="M27" s="423"/>
+      <c r="N27" s="423"/>
+      <c r="O27" s="423"/>
+      <c r="P27" s="423"/>
+      <c r="Q27" s="423"/>
+      <c r="R27" s="423"/>
+      <c r="S27" s="423"/>
+      <c r="T27" s="423"/>
+      <c r="U27" s="423"/>
+      <c r="V27" s="423"/>
+      <c r="W27" s="423"/>
+      <c r="X27" s="423"/>
+      <c r="Y27" s="423"/>
+      <c r="Z27" s="423"/>
     </row>
     <row r="28" spans="2:26" s="94" customFormat="1" ht="23.25">
       <c r="B28" s="101" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="369" t="str">
+      <c r="C28" s="421" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="369"/>
-      <c r="E28" s="369"/>
-      <c r="F28" s="369"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="369"/>
-      <c r="I28" s="369"/>
-      <c r="J28" s="369"/>
-      <c r="K28" s="369"/>
-      <c r="L28" s="369"/>
-      <c r="M28" s="369"/>
-      <c r="N28" s="369"/>
-      <c r="O28" s="369"/>
-      <c r="P28" s="369"/>
-      <c r="Q28" s="369"/>
-      <c r="R28" s="369"/>
-      <c r="S28" s="369"/>
-      <c r="T28" s="369"/>
-      <c r="U28" s="369"/>
-      <c r="V28" s="369"/>
-      <c r="W28" s="369"/>
-      <c r="X28" s="369"/>
-      <c r="Y28" s="369"/>
-      <c r="Z28" s="369"/>
+      <c r="D28" s="421"/>
+      <c r="E28" s="421"/>
+      <c r="F28" s="421"/>
+      <c r="G28" s="421"/>
+      <c r="H28" s="421"/>
+      <c r="I28" s="421"/>
+      <c r="J28" s="421"/>
+      <c r="K28" s="421"/>
+      <c r="L28" s="421"/>
+      <c r="M28" s="421"/>
+      <c r="N28" s="421"/>
+      <c r="O28" s="421"/>
+      <c r="P28" s="421"/>
+      <c r="Q28" s="421"/>
+      <c r="R28" s="421"/>
+      <c r="S28" s="421"/>
+      <c r="T28" s="421"/>
+      <c r="U28" s="421"/>
+      <c r="V28" s="421"/>
+      <c r="W28" s="421"/>
+      <c r="X28" s="421"/>
+      <c r="Y28" s="421"/>
+      <c r="Z28" s="421"/>
     </row>
     <row r="29" spans="2:26" s="94" customFormat="1" ht="23.25"/>
     <row r="30" spans="2:26" s="94" customFormat="1" ht="34.5">
@@ -15975,34 +15985,34 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="94" customFormat="1" ht="23.25">
-      <c r="B31" s="367" t="str">
+      <c r="B31" s="424" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="367"/>
-      <c r="D31" s="367"/>
-      <c r="E31" s="367"/>
-      <c r="F31" s="367"/>
-      <c r="G31" s="367"/>
-      <c r="H31" s="367"/>
-      <c r="I31" s="367"/>
-      <c r="J31" s="367"/>
-      <c r="K31" s="367"/>
-      <c r="L31" s="367"/>
-      <c r="M31" s="367"/>
-      <c r="N31" s="367"/>
-      <c r="O31" s="367"/>
-      <c r="P31" s="367"/>
-      <c r="Q31" s="367"/>
-      <c r="R31" s="367"/>
-      <c r="S31" s="367"/>
-      <c r="T31" s="367"/>
-      <c r="U31" s="367"/>
-      <c r="V31" s="367"/>
-      <c r="W31" s="367"/>
-      <c r="X31" s="367"/>
-      <c r="Y31" s="367"/>
-      <c r="Z31" s="367"/>
+      <c r="C31" s="424"/>
+      <c r="D31" s="424"/>
+      <c r="E31" s="424"/>
+      <c r="F31" s="424"/>
+      <c r="G31" s="424"/>
+      <c r="H31" s="424"/>
+      <c r="I31" s="424"/>
+      <c r="J31" s="424"/>
+      <c r="K31" s="424"/>
+      <c r="L31" s="424"/>
+      <c r="M31" s="424"/>
+      <c r="N31" s="424"/>
+      <c r="O31" s="424"/>
+      <c r="P31" s="424"/>
+      <c r="Q31" s="424"/>
+      <c r="R31" s="424"/>
+      <c r="S31" s="424"/>
+      <c r="T31" s="424"/>
+      <c r="U31" s="424"/>
+      <c r="V31" s="424"/>
+      <c r="W31" s="424"/>
+      <c r="X31" s="424"/>
+      <c r="Y31" s="424"/>
+      <c r="Z31" s="424"/>
     </row>
     <row r="32" spans="2:26" s="94" customFormat="1" ht="23.25"/>
     <row r="33" spans="1:47" s="96" customFormat="1">
@@ -16293,8 +16303,8 @@
       <c r="AN38" s="95"/>
       <c r="AO38" s="95"/>
       <c r="AP38" s="95"/>
-      <c r="AQ38" s="370"/>
-      <c r="AR38" s="370"/>
+      <c r="AQ38" s="422"/>
+      <c r="AR38" s="422"/>
       <c r="AS38" s="95"/>
       <c r="AT38" s="95"/>
       <c r="AU38" s="95"/>
@@ -16302,17 +16312,17 @@
     <row r="39" spans="1:47" s="94" customFormat="1" ht="23.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16348,161 +16358,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="23" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="392" t="s">
+      <c r="B2" s="425" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392" t="s">
+      <c r="C2" s="425"/>
+      <c r="D2" s="425"/>
+      <c r="E2" s="425" t="s">
         <v>210</v>
       </c>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392" t="s">
+      <c r="F2" s="425"/>
+      <c r="G2" s="425" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392" t="s">
+      <c r="H2" s="425"/>
+      <c r="I2" s="425" t="s">
         <v>212</v>
       </c>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392" t="s">
+      <c r="J2" s="425"/>
+      <c r="K2" s="425" t="s">
         <v>213</v>
       </c>
-      <c r="L2" s="392"/>
-      <c r="M2" s="392"/>
-      <c r="N2" s="392"/>
-      <c r="O2" s="392" t="s">
+      <c r="L2" s="425"/>
+      <c r="M2" s="425"/>
+      <c r="N2" s="425"/>
+      <c r="O2" s="425" t="s">
         <v>214</v>
       </c>
-      <c r="P2" s="392"/>
+      <c r="P2" s="425"/>
     </row>
     <row r="3" spans="2:16" s="23" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="392" t="s">
+      <c r="B3" s="425" t="s">
         <v>215</v>
       </c>
-      <c r="C3" s="392"/>
-      <c r="D3" s="392"/>
-      <c r="E3" s="392" t="s">
+      <c r="C3" s="425"/>
+      <c r="D3" s="425"/>
+      <c r="E3" s="425" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="392"/>
-      <c r="G3" s="392" t="s">
+      <c r="F3" s="425"/>
+      <c r="G3" s="425" t="s">
         <v>216</v>
       </c>
-      <c r="H3" s="392"/>
-      <c r="I3" s="392" t="s">
+      <c r="H3" s="425"/>
+      <c r="I3" s="425" t="s">
         <v>217</v>
       </c>
-      <c r="J3" s="392"/>
-      <c r="K3" s="392" t="s">
+      <c r="J3" s="425"/>
+      <c r="K3" s="425" t="s">
         <v>218</v>
       </c>
-      <c r="L3" s="392"/>
-      <c r="M3" s="392"/>
-      <c r="N3" s="392"/>
-      <c r="O3" s="392" t="s">
+      <c r="L3" s="425"/>
+      <c r="M3" s="425"/>
+      <c r="N3" s="425"/>
+      <c r="O3" s="425" t="s">
         <v>214</v>
       </c>
-      <c r="P3" s="392"/>
+      <c r="P3" s="425"/>
     </row>
     <row r="4" spans="2:16" s="23" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="392" t="s">
+      <c r="B4" s="425" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="392"/>
-      <c r="D4" s="392"/>
-      <c r="E4" s="392" t="s">
+      <c r="C4" s="425"/>
+      <c r="D4" s="425"/>
+      <c r="E4" s="425" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="392"/>
-      <c r="G4" s="392" t="s">
+      <c r="F4" s="425"/>
+      <c r="G4" s="425" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="392"/>
-      <c r="I4" s="392" t="s">
+      <c r="H4" s="425"/>
+      <c r="I4" s="425" t="s">
         <v>217</v>
       </c>
-      <c r="J4" s="392"/>
-      <c r="K4" s="392" t="s">
+      <c r="J4" s="425"/>
+      <c r="K4" s="425" t="s">
         <v>221</v>
       </c>
-      <c r="L4" s="392"/>
-      <c r="M4" s="392"/>
-      <c r="N4" s="392"/>
-      <c r="O4" s="392" t="s">
+      <c r="L4" s="425"/>
+      <c r="M4" s="425"/>
+      <c r="N4" s="425"/>
+      <c r="O4" s="425" t="s">
         <v>214</v>
       </c>
-      <c r="P4" s="392"/>
+      <c r="P4" s="425"/>
     </row>
     <row r="5" spans="2:16" s="23" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="392" t="s">
+      <c r="B5" s="425" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="392"/>
-      <c r="D5" s="392"/>
-      <c r="E5" s="392" t="s">
+      <c r="C5" s="425"/>
+      <c r="D5" s="425"/>
+      <c r="E5" s="425" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="392"/>
-      <c r="G5" s="392" t="s">
+      <c r="F5" s="425"/>
+      <c r="G5" s="425" t="s">
         <v>224</v>
       </c>
-      <c r="H5" s="392"/>
-      <c r="I5" s="392" t="s">
+      <c r="H5" s="425"/>
+      <c r="I5" s="425" t="s">
         <v>225</v>
       </c>
-      <c r="J5" s="392"/>
-      <c r="K5" s="392" t="s">
+      <c r="J5" s="425"/>
+      <c r="K5" s="425" t="s">
         <v>224</v>
       </c>
-      <c r="L5" s="392"/>
-      <c r="M5" s="392"/>
-      <c r="N5" s="392"/>
-      <c r="O5" s="392" t="s">
+      <c r="L5" s="425"/>
+      <c r="M5" s="425"/>
+      <c r="N5" s="425"/>
+      <c r="O5" s="425" t="s">
         <v>226</v>
       </c>
-      <c r="P5" s="392"/>
+      <c r="P5" s="425"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="385" t="s">
+      <c r="B7" s="434" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="386"/>
-      <c r="D7" s="387"/>
-      <c r="E7" s="388" t="s">
+      <c r="C7" s="435"/>
+      <c r="D7" s="436"/>
+      <c r="E7" s="437" t="s">
         <v>223</v>
       </c>
-      <c r="F7" s="389"/>
-      <c r="G7" s="380" t="s">
+      <c r="F7" s="438"/>
+      <c r="G7" s="426" t="s">
         <v>228</v>
       </c>
-      <c r="H7" s="381"/>
-      <c r="I7" s="390" t="s">
+      <c r="H7" s="427"/>
+      <c r="I7" s="439" t="s">
         <v>229</v>
       </c>
-      <c r="J7" s="391"/>
-      <c r="K7" s="380" t="s">
+      <c r="J7" s="440"/>
+      <c r="K7" s="426" t="s">
         <v>230</v>
       </c>
-      <c r="L7" s="381"/>
-      <c r="M7" s="380" t="s">
+      <c r="L7" s="427"/>
+      <c r="M7" s="426" t="s">
         <v>231</v>
       </c>
-      <c r="N7" s="381"/>
-      <c r="O7" s="380" t="s">
+      <c r="N7" s="427"/>
+      <c r="O7" s="426" t="s">
         <v>232</v>
       </c>
-      <c r="P7" s="381"/>
+      <c r="P7" s="427"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="371" t="s">
+      <c r="B8" s="428" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="382" t="s">
+      <c r="C8" s="429" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="383" t="s">
+      <c r="D8" s="430" t="s">
         <v>235</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -16535,9 +16545,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="371"/>
-      <c r="C9" s="382"/>
-      <c r="D9" s="383"/>
+      <c r="B9" s="428"/>
+      <c r="C9" s="429"/>
+      <c r="D9" s="430"/>
       <c r="E9" s="29" t="s">
         <v>238</v>
       </c>
@@ -16568,9 +16578,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="371"/>
-      <c r="C10" s="382"/>
-      <c r="D10" s="379" t="s">
+      <c r="B10" s="428"/>
+      <c r="C10" s="429"/>
+      <c r="D10" s="431" t="s">
         <v>246</v>
       </c>
       <c r="E10" s="24" t="s">
@@ -16599,9 +16609,9 @@
       <c r="P10" s="25"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="371"/>
-      <c r="C11" s="382"/>
-      <c r="D11" s="379"/>
+      <c r="B11" s="428"/>
+      <c r="C11" s="429"/>
+      <c r="D11" s="431"/>
       <c r="E11" s="29" t="s">
         <v>247</v>
       </c>
@@ -16628,11 +16638,11 @@
       <c r="P11" s="30"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="371"/>
-      <c r="C12" s="372" t="s">
+      <c r="B12" s="428"/>
+      <c r="C12" s="432" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="384" t="s">
+      <c r="D12" s="433" t="s">
         <v>254</v>
       </c>
       <c r="E12" s="24" t="s">
@@ -16657,9 +16667,9 @@
       <c r="P12" s="25"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="371"/>
-      <c r="C13" s="372"/>
-      <c r="D13" s="384"/>
+      <c r="B13" s="428"/>
+      <c r="C13" s="432"/>
+      <c r="D13" s="433"/>
       <c r="E13" s="29" t="s">
         <v>198</v>
       </c>
@@ -16682,13 +16692,13 @@
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="371" t="s">
+      <c r="B14" s="428" t="s">
         <v>258</v>
       </c>
-      <c r="C14" s="377" t="s">
+      <c r="C14" s="441" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="373" t="s">
+      <c r="D14" s="442" t="s">
         <v>235</v>
       </c>
       <c r="E14" s="24"/>
@@ -16713,9 +16723,9 @@
       <c r="P14" s="25"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="371"/>
-      <c r="C15" s="377"/>
-      <c r="D15" s="373"/>
+      <c r="B15" s="428"/>
+      <c r="C15" s="441"/>
+      <c r="D15" s="442"/>
       <c r="E15" s="29"/>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
@@ -16738,9 +16748,9 @@
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="371"/>
-      <c r="C16" s="377"/>
-      <c r="D16" s="379" t="s">
+      <c r="B16" s="428"/>
+      <c r="C16" s="441"/>
+      <c r="D16" s="431" t="s">
         <v>246</v>
       </c>
       <c r="E16" s="24"/>
@@ -16765,9 +16775,9 @@
       <c r="P16" s="25"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="371"/>
-      <c r="C17" s="377"/>
-      <c r="D17" s="379"/>
+      <c r="B17" s="428"/>
+      <c r="C17" s="441"/>
+      <c r="D17" s="431"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -16790,11 +16800,11 @@
       <c r="P17" s="30"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="371"/>
-      <c r="C18" s="372" t="s">
+      <c r="B18" s="428"/>
+      <c r="C18" s="432" t="s">
         <v>253</v>
       </c>
-      <c r="D18" s="373" t="s">
+      <c r="D18" s="442" t="s">
         <v>254</v>
       </c>
       <c r="E18" s="24"/>
@@ -16819,9 +16829,9 @@
       <c r="P18" s="25"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="371"/>
-      <c r="C19" s="372"/>
-      <c r="D19" s="373"/>
+      <c r="B19" s="428"/>
+      <c r="C19" s="432"/>
+      <c r="D19" s="442"/>
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
@@ -16844,13 +16854,13 @@
       <c r="P19" s="30"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="371" t="s">
+      <c r="B20" s="428" t="s">
         <v>275</v>
       </c>
-      <c r="C20" s="377" t="s">
+      <c r="C20" s="441" t="s">
         <v>234</v>
       </c>
-      <c r="D20" s="373" t="s">
+      <c r="D20" s="442" t="s">
         <v>254</v>
       </c>
       <c r="E20" s="24"/>
@@ -16875,9 +16885,9 @@
       <c r="P20" s="25"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="371"/>
-      <c r="C21" s="377"/>
-      <c r="D21" s="373"/>
+      <c r="B21" s="428"/>
+      <c r="C21" s="441"/>
+      <c r="D21" s="442"/>
       <c r="E21" s="29"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
@@ -16900,9 +16910,9 @@
       <c r="P21" s="30"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="371"/>
-      <c r="C22" s="377"/>
-      <c r="D22" s="378" t="s">
+      <c r="B22" s="428"/>
+      <c r="C22" s="441"/>
+      <c r="D22" s="443" t="s">
         <v>281</v>
       </c>
       <c r="E22" s="24"/>
@@ -16923,9 +16933,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="371"/>
-      <c r="C23" s="377"/>
-      <c r="D23" s="378"/>
+      <c r="B23" s="428"/>
+      <c r="C23" s="441"/>
+      <c r="D23" s="443"/>
       <c r="E23" s="29"/>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
@@ -16944,13 +16954,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="371" t="s">
+      <c r="B24" s="428" t="s">
         <v>284</v>
       </c>
-      <c r="C24" s="372" t="s">
+      <c r="C24" s="432" t="s">
         <v>253</v>
       </c>
-      <c r="D24" s="373" t="s">
+      <c r="D24" s="442" t="s">
         <v>254</v>
       </c>
       <c r="E24" s="24" t="s">
@@ -16979,9 +16989,9 @@
       <c r="P24" s="25"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="371"/>
-      <c r="C25" s="372"/>
-      <c r="D25" s="373"/>
+      <c r="B25" s="428"/>
+      <c r="C25" s="432"/>
+      <c r="D25" s="442"/>
       <c r="E25" s="29" t="s">
         <v>197</v>
       </c>
@@ -17008,13 +17018,13 @@
       <c r="P25" s="30"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="371" t="s">
+      <c r="B26" s="428" t="s">
         <v>290</v>
       </c>
-      <c r="C26" s="372" t="s">
+      <c r="C26" s="432" t="s">
         <v>253</v>
       </c>
-      <c r="D26" s="373" t="s">
+      <c r="D26" s="442" t="s">
         <v>254</v>
       </c>
       <c r="E26" s="24"/>
@@ -17035,9 +17045,9 @@
       <c r="P26" s="25"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="371"/>
-      <c r="C27" s="372"/>
-      <c r="D27" s="373"/>
+      <c r="B27" s="428"/>
+      <c r="C27" s="432"/>
+      <c r="D27" s="442"/>
       <c r="E27" s="29"/>
       <c r="F27" s="30"/>
       <c r="G27" s="31" t="s">
@@ -17059,23 +17069,23 @@
       <c r="B29" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="C29" s="374" t="s">
+      <c r="C29" s="444" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="374"/>
-      <c r="E29" s="374"/>
-      <c r="F29" s="374"/>
-      <c r="G29" s="374"/>
-      <c r="H29" s="374"/>
-      <c r="I29" s="374"/>
-      <c r="J29" s="374"/>
-      <c r="K29" s="374"/>
-      <c r="L29" s="374"/>
-      <c r="M29" s="374"/>
-      <c r="N29" s="374"/>
-      <c r="O29" s="374"/>
-      <c r="P29" s="374"/>
-      <c r="Q29" s="374"/>
+      <c r="D29" s="444"/>
+      <c r="E29" s="444"/>
+      <c r="F29" s="444"/>
+      <c r="G29" s="444"/>
+      <c r="H29" s="444"/>
+      <c r="I29" s="444"/>
+      <c r="J29" s="444"/>
+      <c r="K29" s="444"/>
+      <c r="L29" s="444"/>
+      <c r="M29" s="444"/>
+      <c r="N29" s="444"/>
+      <c r="O29" s="444"/>
+      <c r="P29" s="444"/>
+      <c r="Q29" s="444"/>
     </row>
     <row r="30" spans="2:17" s="36" customFormat="1" ht="25.5">
       <c r="B30" s="34"/>
@@ -17119,10 +17129,10 @@
       <c r="B32" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="375" t="s">
+      <c r="C32" s="445" t="s">
         <v>299</v>
       </c>
-      <c r="D32" s="376"/>
+      <c r="D32" s="446"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="37" t="s">
@@ -17137,6 +17147,51 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -17151,51 +17206,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -17267,16 +17277,16 @@
         <v>722</v>
       </c>
       <c r="Q1" s="276" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V1" s="217"/>
     </row>
     <row r="2" spans="1:24" ht="25.5">
       <c r="A2" s="271" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F2" s="221" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G2" s="222" t="s">
         <v>727</v>
@@ -17288,7 +17298,7 @@
         <v>728</v>
       </c>
       <c r="N2" s="221" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O2" s="222" t="s">
         <v>729</v>
@@ -17297,7 +17307,7 @@
         <v>465</v>
       </c>
       <c r="S2" s="225" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="T2" s="225" t="s">
         <v>404</v>
@@ -17833,7 +17843,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="274" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E11" s="217" cm="1">
         <f t="array" ref="E11" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -19992,8 +20002,8 @@
   </sheetPr>
   <dimension ref="A1:AU58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="1"/>
@@ -20023,7 +20033,7 @@
     <col min="30" max="30" width="13" style="217" customWidth="1"/>
     <col min="31" max="31" width="5.5" style="217" customWidth="1"/>
     <col min="32" max="45" width="8.796875" style="217"/>
-    <col min="46" max="46" width="8.796875" style="438"/>
+    <col min="46" max="46" width="8.796875" style="350"/>
     <col min="47" max="16384" width="8.796875" style="217"/>
   </cols>
   <sheetData>
@@ -20041,7 +20051,7 @@
         <v>722</v>
       </c>
       <c r="Q1" s="276" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="W1" s="286" t="s">
         <v>708</v>
@@ -20054,10 +20064,10 @@
     </row>
     <row r="2" spans="1:47" ht="25.5">
       <c r="A2" s="289" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F2" s="221" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G2" s="222" t="s">
         <v>727</v>
@@ -20069,36 +20079,36 @@
         <v>728</v>
       </c>
       <c r="N2" s="221" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O2" s="222" t="s">
         <v>729</v>
       </c>
       <c r="R2" s="225" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="S2" s="225" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="T2" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="W2" s="426" t="s">
+      <c r="W2" s="338" t="s">
         <v>107</v>
       </c>
-      <c r="X2" s="427" t="s">
+      <c r="X2" s="339" t="s">
         <v>108</v>
       </c>
-      <c r="Y2" s="428" t="s">
+      <c r="Y2" s="340" t="s">
         <v>371</v>
       </c>
-      <c r="Z2" s="429" t="s">
+      <c r="Z2" s="341" t="s">
         <v>338</v>
       </c>
-      <c r="AA2" s="429" t="s">
-        <v>820</v>
-      </c>
-      <c r="AB2" s="430" t="s">
+      <c r="AA2" s="341" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB2" s="342" t="s">
         <v>548</v>
       </c>
     </row>
@@ -20156,14 +20166,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄅ</v>
       </c>
-      <c r="W3" s="431" cm="1">
+      <c r="W3" s="343" cm="1">
         <f t="array" ref="W3">ROW() - ROW($2:$2)</f>
         <v>1</v>
       </c>
       <c r="X3" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="410" t="s">
+      <c r="Y3" s="323" t="s">
         <v>202</v>
       </c>
       <c r="Z3" s="134" t="str">
@@ -20174,12 +20184,12 @@
         <f t="shared" ref="AA3:AA44" si="0">Z3</f>
         <v>p</v>
       </c>
-      <c r="AB3" s="398" t="str">
+      <c r="AB3" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X3, 表格1_334[方音符號], 0)), "")</f>
         <v>1</v>
       </c>
       <c r="AD3" s="294" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AF3" s="298" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AF4 &amp; "|" &amp; AF5 &amp; "|"</f>
@@ -20240,30 +20250,30 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄆ</v>
       </c>
-      <c r="W4" s="432" cm="1">
+      <c r="W4" s="344" cm="1">
         <f t="array" ref="W4">ROW() - ROW($2:$2)</f>
         <v>2</v>
       </c>
-      <c r="X4" s="393" t="s">
+      <c r="X4" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="413" t="s">
+      <c r="Y4" s="206" t="s">
         <v>130</v>
       </c>
-      <c r="Z4" s="394" t="str">
+      <c r="Z4" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X4, 表格1_334[方音符號], 0)), "")</f>
         <v>P</v>
       </c>
-      <c r="AA4" s="394" t="str">
+      <c r="AA4" s="131" t="str">
         <f t="shared" si="0"/>
         <v>P</v>
       </c>
-      <c r="AB4" s="400" t="str">
+      <c r="AB4" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X4, 表格1_334[方音符號], 0)), "")</f>
         <v>q</v>
       </c>
       <c r="AD4" s="277" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AE4" s="275">
         <f xml:space="preserve"> LEN(AF4)</f>
@@ -20274,9 +20284,9 @@
         <v>pPbtTnkKgcCzshiuaeoOIUGDBNmdqjJSQLMY123570</v>
       </c>
       <c r="AS4" s="305" t="s">
-        <v>814</v>
-      </c>
-      <c r="AT4" s="439" t="s">
+        <v>813</v>
+      </c>
+      <c r="AT4" s="351" t="s">
         <v>795</v>
       </c>
       <c r="AU4" s="226">
@@ -20338,14 +20348,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄇ</v>
       </c>
-      <c r="W5" s="433" cm="1">
+      <c r="W5" s="345" cm="1">
         <f t="array" ref="W5">ROW() - ROW($2:$2)</f>
         <v>3</v>
       </c>
       <c r="X5" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="Y5" s="411" t="s">
+      <c r="Y5" s="324" t="s">
         <v>167</v>
       </c>
       <c r="Z5" s="136" t="str">
@@ -20356,32 +20366,32 @@
         <f t="shared" si="0"/>
         <v>b</v>
       </c>
-      <c r="AB5" s="402" t="str">
+      <c r="AB5" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X5, 表格1_334[方音符號], 0)), "")</f>
         <v>z</v>
       </c>
       <c r="AD5" s="292" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AE5" s="275">
         <f xml:space="preserve"> LEN(AF5)</f>
         <v>42</v>
       </c>
-      <c r="AF5" s="424" t="s">
-        <v>823</v>
-      </c>
-      <c r="AG5" s="425"/>
-      <c r="AH5" s="425"/>
-      <c r="AI5" s="425"/>
-      <c r="AJ5" s="425"/>
-      <c r="AK5" s="425"/>
-      <c r="AL5" s="425"/>
-      <c r="AM5" s="425"/>
+      <c r="AF5" s="336" t="s">
+        <v>822</v>
+      </c>
+      <c r="AG5" s="337"/>
+      <c r="AH5" s="337"/>
+      <c r="AI5" s="337"/>
+      <c r="AJ5" s="337"/>
+      <c r="AK5" s="337"/>
+      <c r="AL5" s="337"/>
+      <c r="AM5" s="337"/>
       <c r="AO5" s="295" t="str">
         <f xml:space="preserve"> MID("/", AE4, 1)</f>
         <v/>
       </c>
-      <c r="AT5" s="440" t="str">
+      <c r="AT5" s="352" t="str">
         <f xml:space="preserve"> MID(AF5, AU4, 1)</f>
         <v>-</v>
       </c>
@@ -20445,14 +20455,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆠ</v>
       </c>
-      <c r="W6" s="431" cm="1">
+      <c r="W6" s="343" cm="1">
         <f t="array" ref="W6">ROW() - ROW($2:$2)</f>
         <v>4</v>
       </c>
       <c r="X6" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="410" t="s">
+      <c r="Y6" s="323" t="s">
         <v>14</v>
       </c>
       <c r="Z6" s="134" t="str">
@@ -20463,11 +20473,11 @@
         <f t="shared" si="0"/>
         <v>t</v>
       </c>
-      <c r="AB6" s="398" t="str">
+      <c r="AB6" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X6, 表格1_334[方音符號], 0)), "")</f>
         <v>2</v>
       </c>
-      <c r="AD6" s="423"/>
+      <c r="AD6" s="335"/>
       <c r="AE6" s="275"/>
       <c r="AF6" s="297" t="str">
         <f>AF5</f>
@@ -20533,25 +20543,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄉ</v>
       </c>
-      <c r="W7" s="432" cm="1">
+      <c r="W7" s="344" cm="1">
         <f t="array" ref="W7">ROW() - ROW($2:$2)</f>
         <v>5</v>
       </c>
-      <c r="X7" s="393" t="s">
+      <c r="X7" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" s="413" t="s">
+      <c r="Y7" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="Z7" s="394" t="str">
+      <c r="Z7" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X7, 表格1_334[方音符號], 0)), "")</f>
         <v>T</v>
       </c>
-      <c r="AA7" s="394" t="str">
+      <c r="AA7" s="131" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="AB7" s="400" t="str">
+      <c r="AB7" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X7, 表格1_334[方音符號], 0)), "")</f>
         <v>w</v>
       </c>
@@ -20607,14 +20617,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄊ</v>
       </c>
-      <c r="W8" s="433" cm="1">
+      <c r="W8" s="345" cm="1">
         <f t="array" ref="W8">ROW() - ROW($2:$2)</f>
         <v>6</v>
       </c>
       <c r="X8" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="Y8" s="411" t="s">
+      <c r="Y8" s="324" t="s">
         <v>71</v>
       </c>
       <c r="Z8" s="136" t="str">
@@ -20625,12 +20635,12 @@
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="AB8" s="402" t="str">
+      <c r="AB8" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X8, 表格1_334[方音符號], 0)), "")</f>
         <v>s</v>
       </c>
       <c r="AD8" s="294" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF8" s="298" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AF9 &amp; "|" &amp; AF10 &amp; "|"</f>
@@ -20687,14 +20697,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄋ</v>
       </c>
-      <c r="W9" s="431" cm="1">
+      <c r="W9" s="343" cm="1">
         <f t="array" ref="W9">ROW() - ROW($2:$2)</f>
         <v>7</v>
       </c>
       <c r="X9" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="Y9" s="410" t="s">
+      <c r="Y9" s="323" t="s">
         <v>45</v>
       </c>
       <c r="Z9" s="134" t="str">
@@ -20705,12 +20715,12 @@
         <f t="shared" si="0"/>
         <v>k</v>
       </c>
-      <c r="AB9" s="398" t="str">
+      <c r="AB9" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X9, 表格1_334[方音符號], 0)), "")</f>
         <v>e</v>
       </c>
       <c r="AD9" s="292" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AE9" s="275">
         <f xml:space="preserve"> LEN(AF9)</f>
@@ -20721,9 +20731,9 @@
         <v>1qz2wsedtyhbncuj8oki9l/pm-axgrfv;0,.43657</v>
       </c>
       <c r="AS9" s="305" t="s">
-        <v>814</v>
-      </c>
-      <c r="AT9" s="441">
+        <v>813</v>
+      </c>
+      <c r="AT9" s="353">
         <f ca="1">AT9</f>
         <v>0</v>
       </c>
@@ -20785,25 +20795,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄌ</v>
       </c>
-      <c r="W10" s="432" cm="1">
+      <c r="W10" s="344" cm="1">
         <f t="array" ref="W10">ROW() - ROW($2:$2)</f>
         <v>8</v>
       </c>
-      <c r="X10" s="393" t="s">
+      <c r="X10" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="Y10" s="413" t="s">
+      <c r="Y10" s="206" t="s">
         <v>132</v>
       </c>
-      <c r="Z10" s="394" t="str">
+      <c r="Z10" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X10, 表格1_334[方音符號], 0)), "")</f>
         <v>K</v>
       </c>
-      <c r="AA10" s="394" t="str">
+      <c r="AA10" s="131" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="AB10" s="400" t="str">
+      <c r="AB10" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X10, 表格1_334[方音符號], 0)), "")</f>
         <v>d</v>
       </c>
@@ -20818,7 +20828,7 @@
         <f xml:space="preserve"> _xlfn.CONCAT(X$3:X$38,X$40:X$44)</f>
         <v>ㄅㄆㆠㄉㄊㄋㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆤㄜㆦㄞㄠㆭㄣㆬ鼻ㄇㄌㄫㄐㄑㄒㄤㄢㆰㆲˋ˪ˊ˫˙</v>
       </c>
-      <c r="AT10" s="440">
+      <c r="AT10" s="352">
         <f ca="1" xml:space="preserve"> MID(AF10, AU9, 1)</f>
         <v>0</v>
       </c>
@@ -20826,7 +20836,7 @@
     </row>
     <row r="11" spans="1:47" ht="32.25">
       <c r="A11" s="289" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E11" s="217" cm="1">
         <f t="array" ref="E11" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -20877,14 +20887,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄍ</v>
       </c>
-      <c r="W11" s="433" cm="1">
+      <c r="W11" s="345" cm="1">
         <f t="array" ref="W11">ROW() - ROW($2:$2)</f>
         <v>9</v>
       </c>
       <c r="X11" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="Y11" s="411" t="s">
+      <c r="Y11" s="324" t="s">
         <v>131</v>
       </c>
       <c r="Z11" s="136" t="str">
@@ -20895,7 +20905,7 @@
         <f t="shared" si="0"/>
         <v>g</v>
       </c>
-      <c r="AB11" s="402" t="str">
+      <c r="AB11" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X11, 表格1_334[方音符號], 0)), "")</f>
         <v>t</v>
       </c>
@@ -20955,14 +20965,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄎ</v>
       </c>
-      <c r="W12" s="431" cm="1">
+      <c r="W12" s="343" cm="1">
         <f t="array" ref="W12">ROW() - ROW($2:$2)</f>
         <v>10</v>
       </c>
       <c r="X12" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="Y12" s="410" t="s">
+      <c r="Y12" s="323" t="s">
         <v>50</v>
       </c>
       <c r="Z12" s="134" t="str">
@@ -20973,12 +20983,12 @@
         <f t="shared" si="0"/>
         <v>c</v>
       </c>
-      <c r="AB12" s="398" t="str">
+      <c r="AB12" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X12, 表格1_334[方音符號], 0)), "")</f>
         <v>y</v>
       </c>
       <c r="AD12" s="294" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF12" s="298" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AF10 &amp; "|" &amp; AF9 &amp; "|"</f>
@@ -21039,30 +21049,30 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄏ</v>
       </c>
-      <c r="W13" s="432" cm="1">
+      <c r="W13" s="344" cm="1">
         <f t="array" ref="W13">ROW() - ROW($2:$2)</f>
         <v>11</v>
       </c>
-      <c r="X13" s="393" t="s">
+      <c r="X13" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="Y13" s="413" t="s">
+      <c r="Y13" s="206" t="s">
         <v>140</v>
       </c>
-      <c r="Z13" s="394" t="str">
+      <c r="Z13" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X13, 表格1_334[方音符號], 0)), "")</f>
         <v>C</v>
       </c>
-      <c r="AA13" s="394" t="str">
+      <c r="AA13" s="131" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="AB13" s="400" t="str">
+      <c r="AB13" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X13, 表格1_334[方音符號], 0)), "")</f>
         <v>h</v>
       </c>
       <c r="AD13" s="277" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AE13" s="275">
         <f xml:space="preserve"> LEN(AF13)</f>
@@ -21073,9 +21083,9 @@
         <v>pPbtTnkKgcCzshiuaeoOIUGDBN</v>
       </c>
       <c r="AS13" s="305" t="s">
-        <v>814</v>
-      </c>
-      <c r="AT13" s="441" t="str">
+        <v>813</v>
+      </c>
+      <c r="AT13" s="353" t="str">
         <f>AT4</f>
         <v>N</v>
       </c>
@@ -21138,25 +21148,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄐ</v>
       </c>
-      <c r="W14" s="432" cm="1">
+      <c r="W14" s="344" cm="1">
         <f t="array" ref="W14">ROW() - ROW($2:$2)</f>
         <v>12</v>
       </c>
-      <c r="X14" s="393" t="s">
+      <c r="X14" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="Y14" s="413" t="s">
+      <c r="Y14" s="206" t="s">
         <v>139</v>
       </c>
-      <c r="Z14" s="394" t="str">
+      <c r="Z14" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X14, 表格1_334[方音符號], 0)), "")</f>
         <v>z</v>
       </c>
-      <c r="AA14" s="394" t="str">
+      <c r="AA14" s="131" t="str">
         <f t="shared" si="0"/>
         <v>z</v>
       </c>
-      <c r="AB14" s="400" t="str">
+      <c r="AB14" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X14, 表格1_334[方音符號], 0)), "")</f>
         <v>b</v>
       </c>
@@ -21171,7 +21181,7 @@
         <f xml:space="preserve"> _xlfn.CONCAT(X3:X28)</f>
         <v>ㄅㄆㆠㄉㄊㄋㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆤㄜㆦㄞㄠㆭㄣㆬ鼻</v>
       </c>
-      <c r="AT14" s="440" t="str">
+      <c r="AT14" s="352" t="str">
         <f xml:space="preserve"> MID(AF14, AU13, 1)</f>
         <v>鼻</v>
       </c>
@@ -21235,14 +21245,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄑ</v>
       </c>
-      <c r="W15" s="433" cm="1">
+      <c r="W15" s="345" cm="1">
         <f t="array" ref="W15">ROW() - ROW($2:$2)</f>
         <v>13</v>
       </c>
       <c r="X15" s="188" t="s">
         <v>102</v>
       </c>
-      <c r="Y15" s="411" t="s">
+      <c r="Y15" s="324" t="s">
         <v>141</v>
       </c>
       <c r="Z15" s="136" t="str">
@@ -21253,7 +21263,7 @@
         <f t="shared" si="0"/>
         <v>s</v>
       </c>
-      <c r="AB15" s="402" t="str">
+      <c r="AB15" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X15, 表格1_334[方音符號], 0)), "")</f>
         <v>n</v>
       </c>
@@ -21316,14 +21326,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄒ</v>
       </c>
-      <c r="W16" s="434" cm="1">
+      <c r="W16" s="346" cm="1">
         <f t="array" ref="W16">ROW() - ROW($2:$2)</f>
         <v>14</v>
       </c>
       <c r="X16" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="Y16" s="412" t="s">
+      <c r="Y16" s="325" t="s">
         <v>134</v>
       </c>
       <c r="Z16" s="138" t="str">
@@ -21334,7 +21344,7 @@
         <f t="shared" si="0"/>
         <v>h</v>
       </c>
-      <c r="AB16" s="396" t="str">
+      <c r="AB16" s="309" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X16, 表格1_334[方音符號], 0)), "")</f>
         <v>c</v>
       </c>
@@ -21389,14 +21399,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆣ</v>
       </c>
-      <c r="W17" s="435" cm="1">
+      <c r="W17" s="347" cm="1">
         <f t="array" ref="W17">ROW() - ROW($2:$2)</f>
         <v>15</v>
       </c>
       <c r="X17" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="Y17" s="410" t="s">
+      <c r="Y17" s="323" t="s">
         <v>159</v>
       </c>
       <c r="Z17" s="134" t="str">
@@ -21407,7 +21417,7 @@
         <f t="shared" si="0"/>
         <v>i</v>
       </c>
-      <c r="AB17" s="398" t="str">
+      <c r="AB17" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X17, 表格1_334[方音符號], 0)), "")</f>
         <v>u</v>
       </c>
@@ -21462,14 +21472,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄫ</v>
       </c>
-      <c r="W18" s="436" cm="1">
+      <c r="W18" s="348" cm="1">
         <f t="array" ref="W18">ROW() - ROW($2:$2)</f>
         <v>16</v>
       </c>
       <c r="X18" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="Y18" s="411" t="s">
+      <c r="Y18" s="324" t="s">
         <v>161</v>
       </c>
       <c r="Z18" s="136" t="str">
@@ -21480,7 +21490,7 @@
         <f t="shared" si="0"/>
         <v>u</v>
       </c>
-      <c r="AB18" s="402" t="str">
+      <c r="AB18" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X18, 表格1_334[方音符號], 0)), "")</f>
         <v>j</v>
       </c>
@@ -21535,14 +21545,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆡ</v>
       </c>
-      <c r="W19" s="435" cm="1">
+      <c r="W19" s="347" cm="1">
         <f t="array" ref="W19">ROW() - ROW($2:$2)</f>
         <v>17</v>
       </c>
       <c r="X19" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="Y19" s="410" t="s">
+      <c r="Y19" s="323" t="s">
         <v>142</v>
       </c>
       <c r="Z19" s="134" t="str">
@@ -21553,7 +21563,7 @@
         <f t="shared" si="0"/>
         <v>a</v>
       </c>
-      <c r="AB19" s="398" t="str">
+      <c r="AB19" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X19, 表格1_334[方音符號], 0)), "")</f>
         <v>8</v>
       </c>
@@ -21611,32 +21621,32 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄗ</v>
       </c>
-      <c r="W20" s="437" cm="1">
+      <c r="W20" s="349" cm="1">
         <f t="array" ref="W20">ROW() - ROW($2:$2)</f>
         <v>18</v>
       </c>
-      <c r="X20" s="393" t="s">
+      <c r="X20" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="Y20" s="413" t="s">
+      <c r="Y20" s="206" t="s">
         <v>146</v>
       </c>
-      <c r="Z20" s="394" t="str">
+      <c r="Z20" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X20, 表格1_334[方音符號], 0)), "")</f>
         <v>e</v>
       </c>
-      <c r="AA20" s="394" t="str">
+      <c r="AA20" s="131" t="str">
         <f t="shared" si="0"/>
         <v>e</v>
       </c>
-      <c r="AB20" s="400" t="str">
+      <c r="AB20" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X20, 表格1_334[方音符號], 0)), "")</f>
         <v>o</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="32.25">
       <c r="A21" s="289" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E21" s="217" cm="1">
         <f t="array" ref="E21" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -21687,24 +21697,24 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄘ</v>
       </c>
-      <c r="W21" s="437" cm="1">
+      <c r="W21" s="349" cm="1">
         <f t="array" ref="W21">ROW() - ROW($2:$2)</f>
         <v>19</v>
       </c>
-      <c r="X21" s="393" t="s">
+      <c r="X21" s="186" t="s">
         <v>113</v>
       </c>
-      <c r="Y21" s="413" t="s">
+      <c r="Y21" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="Z21" s="408" t="str">
+      <c r="Z21" s="321" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X21, 表格1_334[方音符號], 0)), "")</f>
         <v>ø</v>
       </c>
-      <c r="AA21" s="408" t="s">
+      <c r="AA21" s="321" t="s">
         <v>144</v>
       </c>
-      <c r="AB21" s="400" t="str">
+      <c r="AB21" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X21, 表格1_334[方音符號], 0)), "")</f>
         <v>k</v>
       </c>
@@ -21763,24 +21773,24 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄙ</v>
       </c>
-      <c r="W22" s="436" cm="1">
+      <c r="W22" s="348" cm="1">
         <f t="array" ref="W22">ROW() - ROW($2:$2)</f>
         <v>20</v>
       </c>
       <c r="X22" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="Y22" s="411" t="s">
+      <c r="Y22" s="324" t="s">
         <v>798</v>
       </c>
-      <c r="Z22" s="409" t="str">
+      <c r="Z22" s="322" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X22, 表格1_334[方音符號], 0)), "")</f>
         <v>o</v>
       </c>
-      <c r="AA22" s="409" t="s">
+      <c r="AA22" s="322" t="s">
         <v>313</v>
       </c>
-      <c r="AB22" s="402" t="str">
+      <c r="AB22" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X22, 表格1_334[方音符號], 0)), "")</f>
         <v>i</v>
       </c>
@@ -21839,14 +21849,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄧ</v>
       </c>
-      <c r="W23" s="435" cm="1">
+      <c r="W23" s="347" cm="1">
         <f t="array" ref="W23">ROW() - ROW($2:$2)</f>
         <v>21</v>
       </c>
       <c r="X23" s="187" t="s">
-        <v>808</v>
-      </c>
-      <c r="Y23" s="410" t="s">
+        <v>807</v>
+      </c>
+      <c r="Y23" s="323" t="s">
         <v>148</v>
       </c>
       <c r="Z23" s="134" t="str">
@@ -21857,7 +21867,7 @@
         <f t="shared" si="0"/>
         <v>I</v>
       </c>
-      <c r="AB23" s="398" t="str">
+      <c r="AB23" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X23, 表格1_334[方音符號], 0)), "")</f>
         <v>9</v>
       </c>
@@ -21916,25 +21926,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄨ</v>
       </c>
-      <c r="W24" s="437" cm="1">
+      <c r="W24" s="349" cm="1">
         <f t="array" ref="W24">ROW() - ROW($2:$2)</f>
         <v>22</v>
       </c>
-      <c r="X24" s="393" t="s">
+      <c r="X24" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="Y24" s="413" t="s">
+      <c r="Y24" s="206" t="s">
         <v>150</v>
       </c>
-      <c r="Z24" s="394" t="str">
+      <c r="Z24" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X24, 表格1_334[方音符號], 0)), "")</f>
         <v>U</v>
       </c>
-      <c r="AA24" s="394" t="str">
+      <c r="AA24" s="131" t="str">
         <f t="shared" si="0"/>
         <v>U</v>
       </c>
-      <c r="AB24" s="400" t="str">
+      <c r="AB24" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X24, 表格1_334[方音符號], 0)), "")</f>
         <v>l</v>
       </c>
@@ -21997,14 +22007,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆬ</v>
       </c>
-      <c r="W25" s="435" cm="1">
+      <c r="W25" s="347" cm="1">
         <f t="array" ref="W25">ROW() - ROW($2:$2)</f>
         <v>23</v>
       </c>
       <c r="X25" s="187" t="s">
         <v>106</v>
       </c>
-      <c r="Y25" s="414" t="s">
+      <c r="Y25" s="326" t="s">
         <v>158</v>
       </c>
       <c r="Z25" s="134" t="str">
@@ -22015,7 +22025,7 @@
         <f t="shared" si="0"/>
         <v>G</v>
       </c>
-      <c r="AB25" s="398" t="str">
+      <c r="AB25" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X25, 表格1_334[方音符號], 0)), "")</f>
         <v>/</v>
       </c>
@@ -22078,25 +22088,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄚ</v>
       </c>
-      <c r="W26" s="437" cm="1">
+      <c r="W26" s="349" cm="1">
         <f t="array" ref="W26">ROW() - ROW($2:$2)</f>
         <v>24</v>
       </c>
-      <c r="X26" s="393" t="s">
+      <c r="X26" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="Y26" s="415" t="s">
+      <c r="Y26" s="327" t="s">
         <v>343</v>
       </c>
-      <c r="Z26" s="394" t="str">
+      <c r="Z26" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X26, 表格1_334[方音符號], 0)), "")</f>
         <v>D</v>
       </c>
-      <c r="AA26" s="394" t="str">
+      <c r="AA26" s="131" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="AB26" s="400" t="str">
+      <c r="AB26" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X26, 表格1_334[方音符號], 0)), "")</f>
         <v>p</v>
       </c>
@@ -22151,14 +22161,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆦ</v>
       </c>
-      <c r="W27" s="436" cm="1">
+      <c r="W27" s="348" cm="1">
         <f t="array" ref="W27">ROW() - ROW($2:$2)</f>
         <v>25</v>
       </c>
       <c r="X27" s="188" t="s">
         <v>680</v>
       </c>
-      <c r="Y27" s="416" t="s">
+      <c r="Y27" s="328" t="s">
         <v>344</v>
       </c>
       <c r="Z27" s="136" t="str">
@@ -22169,7 +22179,7 @@
         <f t="shared" si="0"/>
         <v>B</v>
       </c>
-      <c r="AB27" s="402" t="str">
+      <c r="AB27" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X27, 表格1_334[方音符號], 0)), "")</f>
         <v>m</v>
       </c>
@@ -22224,25 +22234,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄜ</v>
       </c>
-      <c r="W28" s="436" cm="1">
+      <c r="W28" s="348" cm="1">
         <f t="array" ref="W28">ROW() - ROW($2:$2)</f>
         <v>26</v>
       </c>
       <c r="X28" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="Y28" s="418" t="s">
+      <c r="Y28" s="330" t="s">
         <v>244</v>
       </c>
       <c r="Z28" s="136" t="s">
         <v>795</v>
       </c>
       <c r="AA28" s="136" t="str">
-        <f>Z28</f>
+        <f t="shared" ref="AA28:AA39" si="9">Z28</f>
         <v>N</v>
       </c>
-      <c r="AB28" s="402" t="s">
-        <v>821</v>
+      <c r="AB28" s="315" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="32.25">
@@ -22273,11 +22283,11 @@
         <v>27</v>
       </c>
       <c r="N29" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E29, 1), "")</f>
+        <f t="shared" ref="N29:N44" si="10" xml:space="preserve"> IFERROR( MID($A$23, $E29, 1), "")</f>
         <v/>
       </c>
       <c r="O29" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E29, 1), "")</f>
+        <f t="shared" ref="O29:O44" si="11" xml:space="preserve"> IFERROR( MID($A$24, $E29, 1), "")</f>
         <v/>
       </c>
       <c r="Q29" s="217">
@@ -22299,7 +22309,7 @@
         <f t="array" ref="W29">ROW() - ROW($2:$2)</f>
         <v>27</v>
       </c>
-      <c r="X29" s="422" t="s">
+      <c r="X29" s="334" t="s">
         <v>58</v>
       </c>
       <c r="Y29" s="206" t="s">
@@ -22310,7 +22320,7 @@
         <v>m</v>
       </c>
       <c r="AA29" s="131" t="str">
-        <f>Z29</f>
+        <f t="shared" si="9"/>
         <v>m</v>
       </c>
       <c r="AB29" s="132" t="str">
@@ -22346,11 +22356,11 @@
         <v>28</v>
       </c>
       <c r="N30" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E30, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O30" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E30, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q30" s="217">
@@ -22372,10 +22382,10 @@
         <f t="array" ref="W30">ROW() - ROW($2:$2)</f>
         <v>28</v>
       </c>
-      <c r="X30" s="422" t="s">
+      <c r="X30" s="334" t="s">
         <v>96</v>
       </c>
-      <c r="Y30" s="411" t="s">
+      <c r="Y30" s="324" t="s">
         <v>97</v>
       </c>
       <c r="Z30" s="136" t="str">
@@ -22383,7 +22393,7 @@
         <v>d</v>
       </c>
       <c r="AA30" s="136" t="str">
-        <f>Z30</f>
+        <f t="shared" si="9"/>
         <v>d</v>
       </c>
       <c r="AB30" s="137" t="str">
@@ -22419,11 +22429,11 @@
         <v>29</v>
       </c>
       <c r="N31" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E31, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O31" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E31, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q31" s="217">
@@ -22456,7 +22466,7 @@
         <v>q</v>
       </c>
       <c r="AA31" s="131" t="str">
-        <f>Z31</f>
+        <f t="shared" si="9"/>
         <v>q</v>
       </c>
       <c r="AB31" s="132" t="str">
@@ -22492,11 +22502,11 @@
         <v>30</v>
       </c>
       <c r="N32" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E32, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O32" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E32, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q32" s="217">
@@ -22514,14 +22524,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄠ</v>
       </c>
-      <c r="W32" s="419" cm="1">
+      <c r="W32" s="331" cm="1">
         <f t="array" ref="W32">ROW() - ROW($2:$2)</f>
         <v>30</v>
       </c>
       <c r="X32" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="Y32" s="410" t="s">
+      <c r="Y32" s="323" t="s">
         <v>135</v>
       </c>
       <c r="Z32" s="134" t="str">
@@ -22529,10 +22539,10 @@
         <v>j</v>
       </c>
       <c r="AA32" s="134" t="str">
-        <f>Z32</f>
+        <f t="shared" si="9"/>
         <v>j</v>
       </c>
-      <c r="AB32" s="398" t="str">
+      <c r="AB32" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X32, 表格1_334[方音符號], 0)), "")</f>
         <v>r</v>
       </c>
@@ -22565,11 +22575,11 @@
         <v>31</v>
       </c>
       <c r="N33" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E33, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O33" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E33, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q33" s="217">
@@ -22587,25 +22597,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆲ</v>
       </c>
-      <c r="W33" s="420" cm="1">
+      <c r="W33" s="332" cm="1">
         <f t="array" ref="W33">ROW() - ROW($2:$2)</f>
         <v>31</v>
       </c>
-      <c r="X33" s="393" t="s">
+      <c r="X33" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="Y33" s="413" t="s">
+      <c r="Y33" s="206" t="s">
         <v>137</v>
       </c>
-      <c r="Z33" s="394" t="str">
+      <c r="Z33" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X33, 表格1_334[方音符號], 0)), "")</f>
         <v>J</v>
       </c>
-      <c r="AA33" s="394" t="str">
-        <f>Z33</f>
+      <c r="AA33" s="131" t="str">
+        <f t="shared" si="9"/>
         <v>J</v>
       </c>
-      <c r="AB33" s="400" t="str">
+      <c r="AB33" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X33, 表格1_334[方音符號], 0)), "")</f>
         <v>f</v>
       </c>
@@ -22638,11 +22648,11 @@
         <v>32</v>
       </c>
       <c r="N34" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E34, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O34" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E34, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q34" s="217">
@@ -22660,14 +22670,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄢ</v>
       </c>
-      <c r="W34" s="421" cm="1">
+      <c r="W34" s="333" cm="1">
         <f t="array" ref="W34">ROW() - ROW($2:$2)</f>
         <v>32</v>
       </c>
       <c r="X34" s="188" t="s">
         <v>279</v>
       </c>
-      <c r="Y34" s="411" t="s">
+      <c r="Y34" s="324" t="s">
         <v>138</v>
       </c>
       <c r="Z34" s="136" t="str">
@@ -22675,10 +22685,10 @@
         <v>S</v>
       </c>
       <c r="AA34" s="136" t="str">
-        <f>Z34</f>
+        <f t="shared" si="9"/>
         <v>S</v>
       </c>
-      <c r="AB34" s="402" t="str">
+      <c r="AB34" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X34, 表格1_334[方音符號], 0)), "")</f>
         <v>v</v>
       </c>
@@ -22711,11 +22721,11 @@
         <v>33</v>
       </c>
       <c r="N35" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E35, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O35" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E35, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q35" s="217">
@@ -22733,25 +22743,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄣ</v>
       </c>
-      <c r="W35" s="399" cm="1">
+      <c r="W35" s="312" cm="1">
         <f t="array" ref="W35">ROW() - ROW($2:$2)</f>
         <v>33</v>
       </c>
-      <c r="X35" s="393" t="s">
+      <c r="X35" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="Y35" s="413" t="s">
+      <c r="Y35" s="206" t="s">
         <v>156</v>
       </c>
-      <c r="Z35" s="394" t="str">
+      <c r="Z35" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X35, 表格1_334[方音符號], 0)), "")</f>
         <v>Q</v>
       </c>
-      <c r="AA35" s="394" t="str">
-        <f>Z35</f>
+      <c r="AA35" s="131" t="str">
+        <f t="shared" si="9"/>
         <v>Q</v>
       </c>
-      <c r="AB35" s="400" t="str">
+      <c r="AB35" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X35, 表格1_334[方音符號], 0)), "")</f>
         <v>;</v>
       </c>
@@ -22784,11 +22794,11 @@
         <v>34</v>
       </c>
       <c r="N36" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E36, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O36" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E36, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q36" s="217">
@@ -22806,25 +22816,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄤ</v>
       </c>
-      <c r="W36" s="399" cm="1">
+      <c r="W36" s="312" cm="1">
         <f t="array" ref="W36">ROW() - ROW($2:$2)</f>
         <v>34</v>
       </c>
-      <c r="X36" s="393" t="s">
+      <c r="X36" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="Y36" s="413" t="s">
+      <c r="Y36" s="206" t="s">
         <v>154</v>
       </c>
-      <c r="Z36" s="394" t="str">
+      <c r="Z36" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X36, 表格1_334[方音符號], 0)), "")</f>
         <v>L</v>
       </c>
-      <c r="AA36" s="394" t="str">
-        <f>Z36</f>
+      <c r="AA36" s="131" t="str">
+        <f t="shared" si="9"/>
         <v>L</v>
       </c>
-      <c r="AB36" s="400" t="str">
+      <c r="AB36" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X36, 表格1_334[方音符號], 0)), "")</f>
         <v>0</v>
       </c>
@@ -22857,11 +22867,11 @@
         <v>35</v>
       </c>
       <c r="N37" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E37, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O37" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E37, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q37" s="217">
@@ -22879,25 +22889,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆭ</v>
       </c>
-      <c r="W37" s="399" cm="1">
+      <c r="W37" s="312" cm="1">
         <f t="array" ref="W37">ROW() - ROW($2:$2)</f>
         <v>35</v>
       </c>
-      <c r="X37" s="393" t="s">
+      <c r="X37" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="Y37" s="413" t="s">
+      <c r="Y37" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="Z37" s="394" t="str">
+      <c r="Z37" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X37, 表格1_334[方音符號], 0)), "")</f>
         <v>M</v>
       </c>
-      <c r="AA37" s="394" t="str">
-        <f>Z37</f>
+      <c r="AA37" s="131" t="str">
+        <f t="shared" si="9"/>
         <v>M</v>
       </c>
-      <c r="AB37" s="400" t="str">
+      <c r="AB37" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X37, 表格1_334[方音符號], 0)), "")</f>
         <v>,</v>
       </c>
@@ -22930,11 +22940,11 @@
         <v>36</v>
       </c>
       <c r="N38" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E38, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O38" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E38, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q38" s="217">
@@ -22952,14 +22962,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ｎ</v>
       </c>
-      <c r="W38" s="401" cm="1">
+      <c r="W38" s="314" cm="1">
         <f t="array" ref="W38">ROW() - ROW($2:$2)</f>
         <v>36</v>
       </c>
       <c r="X38" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="Y38" s="411" t="s">
+      <c r="Y38" s="324" t="s">
         <v>157</v>
       </c>
       <c r="Z38" s="136" t="str">
@@ -22967,10 +22977,10 @@
         <v>Y</v>
       </c>
       <c r="AA38" s="136" t="str">
-        <f>Z38</f>
+        <f t="shared" si="9"/>
         <v>Y</v>
       </c>
-      <c r="AB38" s="402" t="str">
+      <c r="AB38" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X38, 表格1_334[方音符號], 0)), "")</f>
         <v>.</v>
       </c>
@@ -23003,11 +23013,11 @@
         <v>37</v>
       </c>
       <c r="N39" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E39, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O39" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E39, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q39" s="217">
@@ -23025,25 +23035,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v/>
       </c>
-      <c r="W39" s="395" cm="1">
+      <c r="W39" s="308" cm="1">
         <f t="array" ref="W39">ROW() - ROW($2:$2)</f>
         <v>37</v>
       </c>
-      <c r="X39" s="404" t="s">
-        <v>815</v>
-      </c>
-      <c r="Y39" s="417">
+      <c r="X39" s="317" t="s">
+        <v>814</v>
+      </c>
+      <c r="Y39" s="329">
         <v>1</v>
       </c>
-      <c r="Z39" s="405">
+      <c r="Z39" s="318">
         <v>1</v>
       </c>
-      <c r="AA39" s="405">
-        <f>Z39</f>
+      <c r="AA39" s="318">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AB39" s="406" t="s">
-        <v>822</v>
+      <c r="AB39" s="319" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="40" spans="5:29" ht="32.25">
@@ -23074,11 +23084,11 @@
         <v>38</v>
       </c>
       <c r="N40" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E40, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O40" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E40, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q40" s="217">
@@ -23096,14 +23106,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ˋ</v>
       </c>
-      <c r="W40" s="397" cm="1">
+      <c r="W40" s="310" cm="1">
         <f t="array" ref="W40">ROW() - ROW($2:$2)</f>
         <v>38</v>
       </c>
       <c r="X40" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="Y40" s="410">
+      <c r="Y40" s="323">
         <v>2</v>
       </c>
       <c r="Z40" s="134" t="str">
@@ -23114,7 +23124,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AB40" s="398" t="str">
+      <c r="AB40" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X40, 表格1_334[方音符號], 0)), "")</f>
         <v>4</v>
       </c>
@@ -23147,11 +23157,11 @@
         <v>39</v>
       </c>
       <c r="N41" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E41, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O41" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E41, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q41" s="217">
@@ -23169,25 +23179,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>˪</v>
       </c>
-      <c r="W41" s="399" cm="1">
+      <c r="W41" s="312" cm="1">
         <f t="array" ref="W41">ROW() - ROW($2:$2)</f>
         <v>39</v>
       </c>
-      <c r="X41" s="393" t="s">
+      <c r="X41" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="Y41" s="413">
+      <c r="Y41" s="206">
         <v>3</v>
       </c>
-      <c r="Z41" s="394" t="str">
+      <c r="Z41" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X41, 表格1_334[方音符號], 0)), "")</f>
         <v>3</v>
       </c>
-      <c r="AA41" s="394" t="str">
+      <c r="AA41" s="131" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AB41" s="400" t="str">
+      <c r="AB41" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X41, 表格1_334[方音符號], 0)), "")</f>
         <v>3</v>
       </c>
@@ -23220,11 +23230,11 @@
         <v>40</v>
       </c>
       <c r="N42" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E42, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O42" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E42, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q42" s="217">
@@ -23242,25 +23252,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ˊ</v>
       </c>
-      <c r="W42" s="399" cm="1">
+      <c r="W42" s="312" cm="1">
         <f t="array" ref="W42">ROW() - ROW($2:$2)</f>
         <v>40</v>
       </c>
-      <c r="X42" s="393" t="s">
+      <c r="X42" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="Y42" s="413">
+      <c r="Y42" s="206">
         <v>5</v>
       </c>
-      <c r="Z42" s="394" t="str">
+      <c r="Z42" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X42, 表格1_334[方音符號], 0)), "")</f>
         <v>5</v>
       </c>
-      <c r="AA42" s="394" t="str">
+      <c r="AA42" s="131" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AB42" s="400" t="str">
+      <c r="AB42" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X42, 表格1_334[方音符號], 0)), "")</f>
         <v>6</v>
       </c>
@@ -23293,11 +23303,11 @@
         <v>41</v>
       </c>
       <c r="N43" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E43, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O43" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E43, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q43" s="217">
@@ -23315,29 +23325,29 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>˫</v>
       </c>
-      <c r="W43" s="399" cm="1">
+      <c r="W43" s="312" cm="1">
         <f t="array" ref="W43">ROW() - ROW($2:$2)</f>
         <v>41</v>
       </c>
-      <c r="X43" s="393" t="s">
+      <c r="X43" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="Y43" s="413">
+      <c r="Y43" s="206">
         <v>7</v>
       </c>
-      <c r="Z43" s="394" t="str">
+      <c r="Z43" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X43, 表格1_334[方音符號], 0)), "")</f>
         <v>7</v>
       </c>
-      <c r="AA43" s="394" t="str">
+      <c r="AA43" s="131" t="str">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AB43" s="400" t="str">
+      <c r="AB43" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X43, 表格1_334[方音符號], 0)), "")</f>
         <v>5</v>
       </c>
-      <c r="AC43" s="403"/>
+      <c r="AC43" s="316"/>
     </row>
     <row r="44" spans="5:29" ht="32.25">
       <c r="E44" s="217" cm="1">
@@ -23367,11 +23377,11 @@
         <v>42</v>
       </c>
       <c r="N44" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E44, 1), "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O44" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E44, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q44" s="217">
@@ -23389,14 +23399,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>．</v>
       </c>
-      <c r="W44" s="401" cm="1">
+      <c r="W44" s="314" cm="1">
         <f t="array" ref="W44">ROW() - ROW($2:$2)</f>
         <v>42</v>
       </c>
       <c r="X44" s="188" t="s">
         <v>127</v>
       </c>
-      <c r="Y44" s="411">
+      <c r="Y44" s="324">
         <v>8</v>
       </c>
       <c r="Z44" s="136">
@@ -23406,20 +23416,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB44" s="402">
+      <c r="AB44" s="315">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="5:29" ht="32.25">
       <c r="O45" s="217"/>
-      <c r="W45" s="407" cm="1">
+      <c r="W45" s="320" cm="1">
         <f t="array" ref="W45">ROW() - ROW($2:$2)</f>
         <v>43</v>
       </c>
       <c r="X45" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="Y45" s="412" t="s">
+      <c r="Y45" s="325" t="s">
         <v>136</v>
       </c>
       <c r="Z45" s="138" t="str">
@@ -23427,7 +23437,7 @@
         <v/>
       </c>
       <c r="AA45" s="138"/>
-      <c r="AB45" s="396" t="str">
+      <c r="AB45" s="309" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X45, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
@@ -23437,14 +23447,14 @@
         <f xml:space="preserve"> _xlfn.CONCAT(S3:S38, S40:S44)</f>
         <v>pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN23570</v>
       </c>
-      <c r="W46" s="397" cm="1">
+      <c r="W46" s="310" cm="1">
         <f t="array" ref="W46">ROW() - ROW($2:$2)</f>
         <v>44</v>
       </c>
       <c r="X46" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="Y46" s="410" t="s">
+      <c r="Y46" s="323" t="s">
         <v>160</v>
       </c>
       <c r="Z46" s="134" t="str">
@@ -23452,7 +23462,7 @@
         <v/>
       </c>
       <c r="AA46" s="134"/>
-      <c r="AB46" s="398" t="str">
+      <c r="AB46" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X46, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
@@ -23462,22 +23472,22 @@
         <f xml:space="preserve"> _xlfn.CONCAT(T3:T38, T40:T44)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
       </c>
-      <c r="W47" s="399" cm="1">
+      <c r="W47" s="312" cm="1">
         <f t="array" ref="W47">ROW() - ROW($2:$2)</f>
         <v>45</v>
       </c>
-      <c r="X47" s="393" t="s">
+      <c r="X47" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="Y47" s="413" t="s">
+      <c r="Y47" s="206" t="s">
         <v>162</v>
       </c>
-      <c r="Z47" s="394" t="str">
+      <c r="Z47" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X47, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA47" s="394"/>
-      <c r="AB47" s="400" t="str">
+      <c r="AA47" s="131"/>
+      <c r="AB47" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X47, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
@@ -23487,77 +23497,77 @@
         <f xml:space="preserve"> "xlit|" &amp; T46 &amp; "|" &amp; T47 &amp; "|"</f>
         <v>xlit|pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN23570|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．|</v>
       </c>
-      <c r="W48" s="399" cm="1">
+      <c r="W48" s="312" cm="1">
         <f t="array" ref="W48">ROW() - ROW($2:$2)</f>
         <v>46</v>
       </c>
-      <c r="X48" s="393" t="s">
+      <c r="X48" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="Y48" s="413" t="s">
+      <c r="Y48" s="206" t="s">
         <v>143</v>
       </c>
-      <c r="Z48" s="394" t="str">
+      <c r="Z48" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X48, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA48" s="394"/>
-      <c r="AB48" s="400" t="str">
+      <c r="AA48" s="131"/>
+      <c r="AB48" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X48, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="23:28" ht="32.25">
-      <c r="W49" s="399" cm="1">
+      <c r="W49" s="312" cm="1">
         <f t="array" ref="W49">ROW() - ROW($2:$2)</f>
         <v>47</v>
       </c>
-      <c r="X49" s="393" t="s">
+      <c r="X49" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="Y49" s="413" t="s">
+      <c r="Y49" s="206" t="s">
         <v>149</v>
       </c>
-      <c r="Z49" s="394" t="str">
+      <c r="Z49" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X49, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA49" s="394"/>
-      <c r="AB49" s="400" t="str">
+      <c r="AA49" s="131"/>
+      <c r="AB49" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X49, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="23:28" ht="32.25">
-      <c r="W50" s="399" cm="1">
+      <c r="W50" s="312" cm="1">
         <f t="array" ref="W50">ROW() - ROW($2:$2)</f>
         <v>48</v>
       </c>
-      <c r="X50" s="393" t="s">
+      <c r="X50" s="186" t="s">
         <v>114</v>
       </c>
-      <c r="Y50" s="413" t="s">
+      <c r="Y50" s="206" t="s">
         <v>147</v>
       </c>
-      <c r="Z50" s="394" t="str">
+      <c r="Z50" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X50, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA50" s="394"/>
-      <c r="AB50" s="400" t="str">
+      <c r="AA50" s="131"/>
+      <c r="AB50" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X50, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="23:28" ht="32.25">
-      <c r="W51" s="401" cm="1">
+      <c r="W51" s="314" cm="1">
         <f t="array" ref="W51">ROW() - ROW($2:$2)</f>
         <v>49</v>
       </c>
       <c r="X51" s="188" t="s">
         <v>112</v>
       </c>
-      <c r="Y51" s="411" t="s">
+      <c r="Y51" s="324" t="s">
         <v>145</v>
       </c>
       <c r="Z51" s="136" t="str">
@@ -23565,20 +23575,20 @@
         <v/>
       </c>
       <c r="AA51" s="136"/>
-      <c r="AB51" s="402" t="str">
+      <c r="AB51" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X51, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="23:28" ht="32.25">
-      <c r="W52" s="397" cm="1">
+      <c r="W52" s="310" cm="1">
         <f t="array" ref="W52">ROW() - ROW($2:$2)</f>
         <v>50</v>
       </c>
       <c r="X52" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="Y52" s="410" t="s">
+      <c r="Y52" s="323" t="s">
         <v>151</v>
       </c>
       <c r="Z52" s="134" t="str">
@@ -23586,20 +23596,20 @@
         <v/>
       </c>
       <c r="AA52" s="134"/>
-      <c r="AB52" s="398" t="str">
+      <c r="AB52" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X52, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="23:28" ht="32.25">
-      <c r="W53" s="401" cm="1">
+      <c r="W53" s="314" cm="1">
         <f t="array" ref="W53">ROW() - ROW($2:$2)</f>
         <v>51</v>
       </c>
       <c r="X53" s="188" t="s">
         <v>118</v>
       </c>
-      <c r="Y53" s="411" t="s">
+      <c r="Y53" s="324" t="s">
         <v>153</v>
       </c>
       <c r="Z53" s="136" t="str">
@@ -23607,20 +23617,20 @@
         <v/>
       </c>
       <c r="AA53" s="136"/>
-      <c r="AB53" s="402" t="str">
+      <c r="AB53" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X53, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="23:28" ht="32.25">
-      <c r="W54" s="397" cm="1">
+      <c r="W54" s="310" cm="1">
         <f t="array" ref="W54">ROW() - ROW($2:$2)</f>
         <v>52</v>
       </c>
       <c r="X54" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="Y54" s="414" t="s">
+      <c r="Y54" s="326" t="s">
         <v>158</v>
       </c>
       <c r="Z54" s="134" t="str">
@@ -23628,91 +23638,91 @@
         <v/>
       </c>
       <c r="AA54" s="134"/>
-      <c r="AB54" s="398" t="str">
+      <c r="AB54" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X54, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="23:28" ht="32.25">
-      <c r="W55" s="399" cm="1">
+      <c r="W55" s="312" cm="1">
         <f t="array" ref="W55">ROW() - ROW($2:$2)</f>
         <v>53</v>
       </c>
-      <c r="X55" s="393" t="s">
+      <c r="X55" s="186" t="s">
         <v>123</v>
       </c>
-      <c r="Y55" s="415" t="s">
-        <v>816</v>
-      </c>
-      <c r="Z55" s="394" t="str">
+      <c r="Y55" s="327" t="s">
+        <v>815</v>
+      </c>
+      <c r="Z55" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X55, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA55" s="394"/>
-      <c r="AB55" s="400" t="str">
+      <c r="AA55" s="131"/>
+      <c r="AB55" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X55, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="23:28" ht="32.25">
-      <c r="W56" s="399" cm="1">
+      <c r="W56" s="312" cm="1">
         <f t="array" ref="W56">ROW() - ROW($2:$2)</f>
         <v>54</v>
       </c>
-      <c r="X56" s="393" t="s">
+      <c r="X56" s="186" t="s">
         <v>124</v>
       </c>
-      <c r="Y56" s="415" t="s">
-        <v>817</v>
-      </c>
-      <c r="Z56" s="394" t="str">
+      <c r="Y56" s="327" t="s">
+        <v>816</v>
+      </c>
+      <c r="Z56" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X56, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA56" s="394"/>
-      <c r="AB56" s="400" t="str">
+      <c r="AA56" s="131"/>
+      <c r="AB56" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X56, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="23:28" ht="32.25">
-      <c r="W57" s="399" cm="1">
+      <c r="W57" s="312" cm="1">
         <f t="array" ref="W57">ROW() - ROW($2:$2)</f>
         <v>55</v>
       </c>
-      <c r="X57" s="393" t="s">
+      <c r="X57" s="186" t="s">
         <v>125</v>
       </c>
-      <c r="Y57" s="415" t="s">
-        <v>818</v>
-      </c>
-      <c r="Z57" s="394" t="str">
+      <c r="Y57" s="327" t="s">
+        <v>817</v>
+      </c>
+      <c r="Z57" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X57, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA57" s="394"/>
-      <c r="AB57" s="400" t="str">
+      <c r="AA57" s="131"/>
+      <c r="AB57" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X57, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="23:28" ht="32.25">
-      <c r="W58" s="401" cm="1">
+      <c r="W58" s="314" cm="1">
         <f t="array" ref="W58">ROW() - ROW($2:$2)</f>
         <v>56</v>
       </c>
       <c r="X58" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="Y58" s="416" t="s">
-        <v>819</v>
+      <c r="Y58" s="328" t="s">
+        <v>818</v>
       </c>
       <c r="Z58" s="136" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[字典編碼], MATCH($X58, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
       <c r="AA58" s="136"/>
-      <c r="AB58" s="402" t="str">
+      <c r="AB58" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_334[鍵盤按鍵], MATCH($X58, 表格1_334[方音符號], 0)), "")</f>
         <v/>
       </c>
@@ -23786,7 +23796,7 @@
         <v>722</v>
       </c>
       <c r="Q1" s="276" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="X1" s="286" t="s">
         <v>708</v>
@@ -23798,10 +23808,10 @@
     </row>
     <row r="2" spans="1:30" ht="26.25" thickBot="1">
       <c r="A2" s="289" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F2" s="221" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G2" s="222" t="s">
         <v>727</v>
@@ -23813,16 +23823,16 @@
         <v>728</v>
       </c>
       <c r="N2" s="221" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O2" s="222" t="s">
         <v>729</v>
       </c>
       <c r="R2" s="225" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="S2" s="225" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="T2" s="225" t="s">
         <v>404</v>
@@ -24428,7 +24438,7 @@
     </row>
     <row r="11" spans="1:30" ht="32.25">
       <c r="A11" s="289" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E11" s="217" cm="1">
         <f t="array" ref="E11" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -25009,7 +25019,7 @@
         <v>n</v>
       </c>
       <c r="AD18" s="294" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AF18" s="298" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AF19 &amp; "|" &amp; AF20 &amp; "|"</f>
@@ -25085,7 +25095,7 @@
         <v>r</v>
       </c>
       <c r="AD19" s="277" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AE19" s="275">
         <f xml:space="preserve"> LEN(AF19)</f>
@@ -25096,7 +25106,7 @@
         <v>pPmbtTndkKhjJSgqzcCsiuBaOoMIeUYLDQGN123570</v>
       </c>
       <c r="AS19" s="305" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AT19" s="307" t="s">
         <v>306</v>
@@ -25177,7 +25187,7 @@
         <v>f</v>
       </c>
       <c r="AD20" s="292" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AE20" s="275">
         <f xml:space="preserve"> LEN(AF20)</f>
@@ -25199,7 +25209,7 @@
     </row>
     <row r="21" spans="1:47" ht="32.25">
       <c r="A21" s="289" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E21" s="217" cm="1">
         <f t="array" ref="E21" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -25342,7 +25352,7 @@
         <v>v</v>
       </c>
       <c r="AD22" s="294" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF22" s="299" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AF23 &amp; "|" &amp; AF24 &amp; "|"</f>
@@ -25422,7 +25432,7 @@
         <v>c</v>
       </c>
       <c r="AD23" s="292" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AE23" s="275">
         <f xml:space="preserve"> LEN(AF23)</f>
@@ -25433,7 +25443,7 @@
         <v>1qaz2wsxedcrfvtgbyhnujm8ik,9ol.0p;/-43657</v>
       </c>
       <c r="AS23" s="305" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AT23" s="306" t="str">
         <f>AT20</f>
@@ -25688,7 +25698,7 @@
         <v>i</v>
       </c>
       <c r="AD26" s="294" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF26" s="298" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AF27 &amp; "|" &amp; AF28 &amp; "|"</f>
@@ -25762,7 +25772,7 @@
         <v/>
       </c>
       <c r="AD27" s="277" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AE27" s="275">
         <f xml:space="preserve"> LEN(AF27)</f>
@@ -25773,7 +25783,7 @@
         <v>pPbtTdkKgcCzshiuaOoeIUBDGN</v>
       </c>
       <c r="AS27" s="305" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AT27" s="306" t="str">
         <f>AT19</f>
@@ -26336,7 +26346,7 @@
         <v>33</v>
       </c>
       <c r="Y35" s="186" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="Z35" s="141" t="s">
         <v>148</v>
@@ -27138,7 +27148,7 @@
         <v>51</v>
       </c>
       <c r="Y53" s="186" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="Z53" s="141" t="s">
         <v>165</v>
@@ -27280,7 +27290,7 @@
     <col min="30" max="30" width="13" style="217" customWidth="1"/>
     <col min="31" max="31" width="5.5" style="217" customWidth="1"/>
     <col min="32" max="45" width="8.796875" style="217"/>
-    <col min="46" max="46" width="8.796875" style="438"/>
+    <col min="46" max="46" width="8.796875" style="350"/>
     <col min="47" max="16384" width="8.796875" style="217"/>
   </cols>
   <sheetData>
@@ -27298,7 +27308,7 @@
         <v>722</v>
       </c>
       <c r="Q1" s="276" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="W1" s="286" t="s">
         <v>708</v>
@@ -27311,10 +27321,10 @@
     </row>
     <row r="2" spans="1:47" ht="25.5">
       <c r="A2" s="289" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F2" s="221" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G2" s="222" t="s">
         <v>727</v>
@@ -27326,36 +27336,36 @@
         <v>728</v>
       </c>
       <c r="N2" s="221" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="O2" s="222" t="s">
         <v>729</v>
       </c>
       <c r="R2" s="225" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="S2" s="225" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="T2" s="225" t="s">
         <v>404</v>
       </c>
-      <c r="W2" s="426" t="s">
+      <c r="W2" s="338" t="s">
         <v>107</v>
       </c>
-      <c r="X2" s="427" t="s">
+      <c r="X2" s="339" t="s">
         <v>108</v>
       </c>
-      <c r="Y2" s="428" t="s">
+      <c r="Y2" s="340" t="s">
         <v>371</v>
       </c>
-      <c r="Z2" s="429" t="s">
+      <c r="Z2" s="341" t="s">
         <v>338</v>
       </c>
-      <c r="AA2" s="429" t="s">
-        <v>820</v>
-      </c>
-      <c r="AB2" s="430" t="s">
+      <c r="AA2" s="341" t="s">
+        <v>819</v>
+      </c>
+      <c r="AB2" s="342" t="s">
         <v>548</v>
       </c>
     </row>
@@ -27413,14 +27423,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄅ</v>
       </c>
-      <c r="W3" s="431" cm="1">
+      <c r="W3" s="343" cm="1">
         <f t="array" ref="W3">ROW() - ROW($2:$2)</f>
         <v>1</v>
       </c>
       <c r="X3" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="410" t="s">
+      <c r="Y3" s="323" t="s">
         <v>202</v>
       </c>
       <c r="Z3" s="134" t="str">
@@ -27431,12 +27441,12 @@
         <f t="shared" ref="AA3:AA20" si="0">Z3</f>
         <v>p</v>
       </c>
-      <c r="AB3" s="398" t="str">
+      <c r="AB3" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X3, 表格1_3346[方音符號], 0)), "")</f>
         <v>1</v>
       </c>
       <c r="AD3" s="294" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AF3" s="298" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AF4 &amp; "|" &amp; AF5 &amp; "|"</f>
@@ -27497,30 +27507,30 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄆ</v>
       </c>
-      <c r="W4" s="432" cm="1">
+      <c r="W4" s="344" cm="1">
         <f t="array" ref="W4">ROW() - ROW($2:$2)</f>
         <v>2</v>
       </c>
-      <c r="X4" s="393" t="s">
+      <c r="X4" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="Y4" s="413" t="s">
+      <c r="Y4" s="206" t="s">
         <v>130</v>
       </c>
-      <c r="Z4" s="394" t="str">
+      <c r="Z4" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X4, 表格1_3346[方音符號], 0)), "")</f>
         <v>P</v>
       </c>
-      <c r="AA4" s="394" t="str">
+      <c r="AA4" s="131" t="str">
         <f t="shared" si="0"/>
         <v>P</v>
       </c>
-      <c r="AB4" s="400" t="str">
+      <c r="AB4" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X4, 表格1_3346[方音符號], 0)), "")</f>
         <v>q</v>
       </c>
       <c r="AD4" s="277" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AE4" s="275">
         <f xml:space="preserve"> LEN(AF4)</f>
@@ -27531,9 +27541,9 @@
         <v>pPbtTnkKgcCzshiuaeoOIUGDBNmdqjJSQLMY123570</v>
       </c>
       <c r="AS4" s="305" t="s">
-        <v>814</v>
-      </c>
-      <c r="AT4" s="439" t="s">
+        <v>813</v>
+      </c>
+      <c r="AT4" s="351" t="s">
         <v>795</v>
       </c>
       <c r="AU4" s="226">
@@ -27595,14 +27605,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄇ</v>
       </c>
-      <c r="W5" s="433" cm="1">
+      <c r="W5" s="345" cm="1">
         <f t="array" ref="W5">ROW() - ROW($2:$2)</f>
         <v>3</v>
       </c>
       <c r="X5" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="Y5" s="411" t="s">
+      <c r="Y5" s="324" t="s">
         <v>167</v>
       </c>
       <c r="Z5" s="136" t="str">
@@ -27613,32 +27623,32 @@
         <f t="shared" si="0"/>
         <v>b</v>
       </c>
-      <c r="AB5" s="402" t="str">
+      <c r="AB5" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X5, 表格1_3346[方音符號], 0)), "")</f>
         <v>z</v>
       </c>
       <c r="AD5" s="292" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AE5" s="275">
         <f xml:space="preserve"> LEN(AF5)</f>
         <v>42</v>
       </c>
-      <c r="AF5" s="424" t="s">
-        <v>823</v>
-      </c>
-      <c r="AG5" s="425"/>
-      <c r="AH5" s="425"/>
-      <c r="AI5" s="425"/>
-      <c r="AJ5" s="425"/>
-      <c r="AK5" s="425"/>
-      <c r="AL5" s="425"/>
-      <c r="AM5" s="425"/>
+      <c r="AF5" s="336" t="s">
+        <v>822</v>
+      </c>
+      <c r="AG5" s="337"/>
+      <c r="AH5" s="337"/>
+      <c r="AI5" s="337"/>
+      <c r="AJ5" s="337"/>
+      <c r="AK5" s="337"/>
+      <c r="AL5" s="337"/>
+      <c r="AM5" s="337"/>
       <c r="AO5" s="295" t="str">
         <f xml:space="preserve"> MID("/", AE4, 1)</f>
         <v/>
       </c>
-      <c r="AT5" s="440" t="str">
+      <c r="AT5" s="352" t="str">
         <f xml:space="preserve"> MID(AF5, AU4, 1)</f>
         <v>-</v>
       </c>
@@ -27702,14 +27712,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆠ</v>
       </c>
-      <c r="W6" s="431" cm="1">
+      <c r="W6" s="343" cm="1">
         <f t="array" ref="W6">ROW() - ROW($2:$2)</f>
         <v>4</v>
       </c>
       <c r="X6" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="410" t="s">
+      <c r="Y6" s="323" t="s">
         <v>14</v>
       </c>
       <c r="Z6" s="134" t="str">
@@ -27720,11 +27730,11 @@
         <f t="shared" si="0"/>
         <v>t</v>
       </c>
-      <c r="AB6" s="398" t="str">
+      <c r="AB6" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X6, 表格1_3346[方音符號], 0)), "")</f>
         <v>2</v>
       </c>
-      <c r="AD6" s="423"/>
+      <c r="AD6" s="335"/>
       <c r="AE6" s="275"/>
       <c r="AF6" s="297" t="str">
         <f>AF5</f>
@@ -27790,25 +27800,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄉ</v>
       </c>
-      <c r="W7" s="432" cm="1">
+      <c r="W7" s="344" cm="1">
         <f t="array" ref="W7">ROW() - ROW($2:$2)</f>
         <v>5</v>
       </c>
-      <c r="X7" s="393" t="s">
+      <c r="X7" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" s="413" t="s">
+      <c r="Y7" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="Z7" s="394" t="str">
+      <c r="Z7" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X7, 表格1_3346[方音符號], 0)), "")</f>
         <v>T</v>
       </c>
-      <c r="AA7" s="394" t="str">
+      <c r="AA7" s="131" t="str">
         <f t="shared" si="0"/>
         <v>T</v>
       </c>
-      <c r="AB7" s="400" t="str">
+      <c r="AB7" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X7, 表格1_3346[方音符號], 0)), "")</f>
         <v>w</v>
       </c>
@@ -27864,14 +27874,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄊ</v>
       </c>
-      <c r="W8" s="433" cm="1">
+      <c r="W8" s="345" cm="1">
         <f t="array" ref="W8">ROW() - ROW($2:$2)</f>
         <v>6</v>
       </c>
       <c r="X8" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="Y8" s="411" t="s">
+      <c r="Y8" s="324" t="s">
         <v>71</v>
       </c>
       <c r="Z8" s="136" t="str">
@@ -27882,12 +27892,12 @@
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="AB8" s="402" t="str">
+      <c r="AB8" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X8, 表格1_3346[方音符號], 0)), "")</f>
         <v>s</v>
       </c>
       <c r="AD8" s="294" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF8" s="298" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AF9 &amp; "|" &amp; AF10 &amp; "|"</f>
@@ -27944,14 +27954,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄋ</v>
       </c>
-      <c r="W9" s="431" cm="1">
+      <c r="W9" s="343" cm="1">
         <f t="array" ref="W9">ROW() - ROW($2:$2)</f>
         <v>7</v>
       </c>
       <c r="X9" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="Y9" s="410" t="s">
+      <c r="Y9" s="323" t="s">
         <v>45</v>
       </c>
       <c r="Z9" s="134" t="str">
@@ -27962,12 +27972,12 @@
         <f t="shared" si="0"/>
         <v>k</v>
       </c>
-      <c r="AB9" s="398" t="str">
+      <c r="AB9" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X9, 表格1_3346[方音符號], 0)), "")</f>
         <v>e</v>
       </c>
       <c r="AD9" s="292" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AE9" s="275">
         <f xml:space="preserve"> LEN(AF9)</f>
@@ -27978,9 +27988,9 @@
         <v>1qz2wsedtyhbncuj8oki9l/pm-axgrfv;0,.43657</v>
       </c>
       <c r="AS9" s="305" t="s">
-        <v>814</v>
-      </c>
-      <c r="AT9" s="441">
+        <v>813</v>
+      </c>
+      <c r="AT9" s="353">
         <f ca="1">AT9</f>
         <v>0</v>
       </c>
@@ -28042,25 +28052,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄌ</v>
       </c>
-      <c r="W10" s="432" cm="1">
+      <c r="W10" s="344" cm="1">
         <f t="array" ref="W10">ROW() - ROW($2:$2)</f>
         <v>8</v>
       </c>
-      <c r="X10" s="393" t="s">
+      <c r="X10" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="Y10" s="413" t="s">
+      <c r="Y10" s="206" t="s">
         <v>132</v>
       </c>
-      <c r="Z10" s="394" t="str">
+      <c r="Z10" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X10, 表格1_3346[方音符號], 0)), "")</f>
         <v>K</v>
       </c>
-      <c r="AA10" s="394" t="str">
+      <c r="AA10" s="131" t="str">
         <f t="shared" si="0"/>
         <v>K</v>
       </c>
-      <c r="AB10" s="400" t="str">
+      <c r="AB10" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X10, 表格1_3346[方音符號], 0)), "")</f>
         <v>d</v>
       </c>
@@ -28075,7 +28085,7 @@
         <f xml:space="preserve"> _xlfn.CONCAT(X$3:X$38,X$40:X$44)</f>
         <v>ㄅㄆㆠㄉㄊㄋㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆤㄜㆦㄞㄠㆭㄣㆬ鼻ㄇㄌㄫㄐㄑㄒㄤㄢㆰㆲˋ˪ˊ˫˙</v>
       </c>
-      <c r="AT10" s="440">
+      <c r="AT10" s="352">
         <f ca="1" xml:space="preserve"> MID(AF10, AU9, 1)</f>
         <v>0</v>
       </c>
@@ -28083,7 +28093,7 @@
     </row>
     <row r="11" spans="1:47" ht="32.25">
       <c r="A11" s="289" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E11" s="217" cm="1">
         <f t="array" ref="E11" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -28134,14 +28144,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄍ</v>
       </c>
-      <c r="W11" s="433" cm="1">
+      <c r="W11" s="345" cm="1">
         <f t="array" ref="W11">ROW() - ROW($2:$2)</f>
         <v>9</v>
       </c>
       <c r="X11" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="Y11" s="411" t="s">
+      <c r="Y11" s="324" t="s">
         <v>131</v>
       </c>
       <c r="Z11" s="136" t="str">
@@ -28152,7 +28162,7 @@
         <f t="shared" si="0"/>
         <v>g</v>
       </c>
-      <c r="AB11" s="402" t="str">
+      <c r="AB11" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X11, 表格1_3346[方音符號], 0)), "")</f>
         <v>t</v>
       </c>
@@ -28212,14 +28222,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄎ</v>
       </c>
-      <c r="W12" s="431" cm="1">
+      <c r="W12" s="343" cm="1">
         <f t="array" ref="W12">ROW() - ROW($2:$2)</f>
         <v>10</v>
       </c>
       <c r="X12" s="187" t="s">
         <v>49</v>
       </c>
-      <c r="Y12" s="410" t="s">
+      <c r="Y12" s="323" t="s">
         <v>50</v>
       </c>
       <c r="Z12" s="134" t="str">
@@ -28230,12 +28240,12 @@
         <f t="shared" si="0"/>
         <v>c</v>
       </c>
-      <c r="AB12" s="398" t="str">
+      <c r="AB12" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X12, 表格1_3346[方音符號], 0)), "")</f>
         <v>y</v>
       </c>
       <c r="AD12" s="294" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF12" s="298" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; AF10 &amp; "|" &amp; AF9 &amp; "|"</f>
@@ -28296,30 +28306,30 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄏ</v>
       </c>
-      <c r="W13" s="432" cm="1">
+      <c r="W13" s="344" cm="1">
         <f t="array" ref="W13">ROW() - ROW($2:$2)</f>
         <v>11</v>
       </c>
-      <c r="X13" s="393" t="s">
+      <c r="X13" s="186" t="s">
         <v>77</v>
       </c>
-      <c r="Y13" s="413" t="s">
+      <c r="Y13" s="206" t="s">
         <v>140</v>
       </c>
-      <c r="Z13" s="394" t="str">
+      <c r="Z13" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X13, 表格1_3346[方音符號], 0)), "")</f>
         <v>C</v>
       </c>
-      <c r="AA13" s="394" t="str">
+      <c r="AA13" s="131" t="str">
         <f t="shared" si="0"/>
         <v>C</v>
       </c>
-      <c r="AB13" s="400" t="str">
+      <c r="AB13" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X13, 表格1_3346[方音符號], 0)), "")</f>
         <v>h</v>
       </c>
       <c r="AD13" s="277" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AE13" s="275">
         <f xml:space="preserve"> LEN(AF13)</f>
@@ -28330,9 +28340,9 @@
         <v>pPbtTnkKgcCzshiuaeoOIUGDBN</v>
       </c>
       <c r="AS13" s="305" t="s">
-        <v>814</v>
-      </c>
-      <c r="AT13" s="441" t="str">
+        <v>813</v>
+      </c>
+      <c r="AT13" s="353" t="str">
         <f>AT4</f>
         <v>N</v>
       </c>
@@ -28395,25 +28405,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄐ</v>
       </c>
-      <c r="W14" s="432" cm="1">
+      <c r="W14" s="344" cm="1">
         <f t="array" ref="W14">ROW() - ROW($2:$2)</f>
         <v>12</v>
       </c>
-      <c r="X14" s="393" t="s">
+      <c r="X14" s="186" t="s">
         <v>110</v>
       </c>
-      <c r="Y14" s="413" t="s">
+      <c r="Y14" s="206" t="s">
         <v>139</v>
       </c>
-      <c r="Z14" s="394" t="str">
+      <c r="Z14" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X14, 表格1_3346[方音符號], 0)), "")</f>
         <v>z</v>
       </c>
-      <c r="AA14" s="394" t="str">
+      <c r="AA14" s="131" t="str">
         <f t="shared" si="0"/>
         <v>z</v>
       </c>
-      <c r="AB14" s="400" t="str">
+      <c r="AB14" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X14, 表格1_3346[方音符號], 0)), "")</f>
         <v>b</v>
       </c>
@@ -28428,7 +28438,7 @@
         <f xml:space="preserve"> _xlfn.CONCAT(X3:X28)</f>
         <v>ㄅㄆㆠㄉㄊㄋㄍㄎㆣㄗㄘㆡㄙㄏㄧㄨㄚㆤㄜㆦㄞㄠㆭㄣㆬ鼻</v>
       </c>
-      <c r="AT14" s="440" t="str">
+      <c r="AT14" s="352" t="str">
         <f xml:space="preserve"> MID(AF14, AU13, 1)</f>
         <v>鼻</v>
       </c>
@@ -28492,14 +28502,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄑ</v>
       </c>
-      <c r="W15" s="433" cm="1">
+      <c r="W15" s="345" cm="1">
         <f t="array" ref="W15">ROW() - ROW($2:$2)</f>
         <v>13</v>
       </c>
       <c r="X15" s="188" t="s">
         <v>102</v>
       </c>
-      <c r="Y15" s="411" t="s">
+      <c r="Y15" s="324" t="s">
         <v>141</v>
       </c>
       <c r="Z15" s="136" t="str">
@@ -28510,7 +28520,7 @@
         <f t="shared" si="0"/>
         <v>s</v>
       </c>
-      <c r="AB15" s="402" t="str">
+      <c r="AB15" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X15, 表格1_3346[方音符號], 0)), "")</f>
         <v>n</v>
       </c>
@@ -28573,14 +28583,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄒ</v>
       </c>
-      <c r="W16" s="434" cm="1">
+      <c r="W16" s="346" cm="1">
         <f t="array" ref="W16">ROW() - ROW($2:$2)</f>
         <v>14</v>
       </c>
       <c r="X16" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="Y16" s="412" t="s">
+      <c r="Y16" s="325" t="s">
         <v>134</v>
       </c>
       <c r="Z16" s="138" t="str">
@@ -28591,7 +28601,7 @@
         <f t="shared" si="0"/>
         <v>h</v>
       </c>
-      <c r="AB16" s="396" t="str">
+      <c r="AB16" s="309" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X16, 表格1_3346[方音符號], 0)), "")</f>
         <v>c</v>
       </c>
@@ -28646,14 +28656,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆣ</v>
       </c>
-      <c r="W17" s="435" cm="1">
+      <c r="W17" s="347" cm="1">
         <f t="array" ref="W17">ROW() - ROW($2:$2)</f>
         <v>15</v>
       </c>
       <c r="X17" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="Y17" s="410" t="s">
+      <c r="Y17" s="323" t="s">
         <v>159</v>
       </c>
       <c r="Z17" s="134" t="str">
@@ -28664,7 +28674,7 @@
         <f t="shared" si="0"/>
         <v>i</v>
       </c>
-      <c r="AB17" s="398" t="str">
+      <c r="AB17" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X17, 表格1_3346[方音符號], 0)), "")</f>
         <v>u</v>
       </c>
@@ -28719,14 +28729,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄫ</v>
       </c>
-      <c r="W18" s="436" cm="1">
+      <c r="W18" s="348" cm="1">
         <f t="array" ref="W18">ROW() - ROW($2:$2)</f>
         <v>16</v>
       </c>
       <c r="X18" s="188" t="s">
         <v>79</v>
       </c>
-      <c r="Y18" s="411" t="s">
+      <c r="Y18" s="324" t="s">
         <v>161</v>
       </c>
       <c r="Z18" s="136" t="str">
@@ -28737,7 +28747,7 @@
         <f t="shared" si="0"/>
         <v>u</v>
       </c>
-      <c r="AB18" s="402" t="str">
+      <c r="AB18" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X18, 表格1_3346[方音符號], 0)), "")</f>
         <v>j</v>
       </c>
@@ -28792,14 +28802,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆡ</v>
       </c>
-      <c r="W19" s="435" cm="1">
+      <c r="W19" s="347" cm="1">
         <f t="array" ref="W19">ROW() - ROW($2:$2)</f>
         <v>17</v>
       </c>
       <c r="X19" s="187" t="s">
         <v>23</v>
       </c>
-      <c r="Y19" s="410" t="s">
+      <c r="Y19" s="323" t="s">
         <v>142</v>
       </c>
       <c r="Z19" s="134" t="str">
@@ -28810,7 +28820,7 @@
         <f t="shared" si="0"/>
         <v>a</v>
       </c>
-      <c r="AB19" s="398" t="str">
+      <c r="AB19" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X19, 表格1_3346[方音符號], 0)), "")</f>
         <v>8</v>
       </c>
@@ -28868,32 +28878,32 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄗ</v>
       </c>
-      <c r="W20" s="437" cm="1">
+      <c r="W20" s="349" cm="1">
         <f t="array" ref="W20">ROW() - ROW($2:$2)</f>
         <v>18</v>
       </c>
-      <c r="X20" s="393" t="s">
+      <c r="X20" s="186" t="s">
         <v>55</v>
       </c>
-      <c r="Y20" s="413" t="s">
+      <c r="Y20" s="206" t="s">
         <v>146</v>
       </c>
-      <c r="Z20" s="394" t="str">
+      <c r="Z20" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X20, 表格1_3346[方音符號], 0)), "")</f>
         <v>e</v>
       </c>
-      <c r="AA20" s="394" t="str">
+      <c r="AA20" s="131" t="str">
         <f t="shared" si="0"/>
         <v>e</v>
       </c>
-      <c r="AB20" s="400" t="str">
+      <c r="AB20" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X20, 表格1_3346[方音符號], 0)), "")</f>
         <v>o</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="32.25">
       <c r="A21" s="289" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E21" s="217" cm="1">
         <f t="array" ref="E21" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -28944,24 +28954,24 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄘ</v>
       </c>
-      <c r="W21" s="437" cm="1">
+      <c r="W21" s="349" cm="1">
         <f t="array" ref="W21">ROW() - ROW($2:$2)</f>
         <v>19</v>
       </c>
-      <c r="X21" s="393" t="s">
+      <c r="X21" s="186" t="s">
         <v>113</v>
       </c>
-      <c r="Y21" s="413" t="s">
+      <c r="Y21" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="Z21" s="408" t="str">
+      <c r="Z21" s="321" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X21, 表格1_3346[方音符號], 0)), "")</f>
         <v>ø</v>
       </c>
-      <c r="AA21" s="408" t="s">
+      <c r="AA21" s="321" t="s">
         <v>144</v>
       </c>
-      <c r="AB21" s="400" t="str">
+      <c r="AB21" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X21, 表格1_3346[方音符號], 0)), "")</f>
         <v>k</v>
       </c>
@@ -29020,24 +29030,24 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄙ</v>
       </c>
-      <c r="W22" s="436" cm="1">
+      <c r="W22" s="348" cm="1">
         <f t="array" ref="W22">ROW() - ROW($2:$2)</f>
         <v>20</v>
       </c>
       <c r="X22" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="Y22" s="411" t="s">
+      <c r="Y22" s="324" t="s">
         <v>798</v>
       </c>
-      <c r="Z22" s="409" t="str">
+      <c r="Z22" s="322" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X22, 表格1_3346[方音符號], 0)), "")</f>
         <v>o</v>
       </c>
-      <c r="AA22" s="409" t="s">
+      <c r="AA22" s="322" t="s">
         <v>313</v>
       </c>
-      <c r="AB22" s="402" t="str">
+      <c r="AB22" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X22, 表格1_3346[方音符號], 0)), "")</f>
         <v>i</v>
       </c>
@@ -29096,14 +29106,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄧ</v>
       </c>
-      <c r="W23" s="435" cm="1">
+      <c r="W23" s="347" cm="1">
         <f t="array" ref="W23">ROW() - ROW($2:$2)</f>
         <v>21</v>
       </c>
       <c r="X23" s="187" t="s">
-        <v>808</v>
-      </c>
-      <c r="Y23" s="410" t="s">
+        <v>807</v>
+      </c>
+      <c r="Y23" s="323" t="s">
         <v>148</v>
       </c>
       <c r="Z23" s="134" t="str">
@@ -29114,7 +29124,7 @@
         <f t="shared" ref="AA23:AA27" si="9">Z23</f>
         <v>I</v>
       </c>
-      <c r="AB23" s="398" t="str">
+      <c r="AB23" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X23, 表格1_3346[方音符號], 0)), "")</f>
         <v>9</v>
       </c>
@@ -29173,25 +29183,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄨ</v>
       </c>
-      <c r="W24" s="437" cm="1">
+      <c r="W24" s="349" cm="1">
         <f t="array" ref="W24">ROW() - ROW($2:$2)</f>
         <v>22</v>
       </c>
-      <c r="X24" s="393" t="s">
+      <c r="X24" s="186" t="s">
         <v>83</v>
       </c>
-      <c r="Y24" s="413" t="s">
+      <c r="Y24" s="206" t="s">
         <v>150</v>
       </c>
-      <c r="Z24" s="394" t="str">
+      <c r="Z24" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X24, 表格1_3346[方音符號], 0)), "")</f>
         <v>U</v>
       </c>
-      <c r="AA24" s="394" t="str">
+      <c r="AA24" s="131" t="str">
         <f t="shared" si="9"/>
         <v>U</v>
       </c>
-      <c r="AB24" s="400" t="str">
+      <c r="AB24" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X24, 表格1_3346[方音符號], 0)), "")</f>
         <v>l</v>
       </c>
@@ -29254,14 +29264,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆬ</v>
       </c>
-      <c r="W25" s="435" cm="1">
+      <c r="W25" s="347" cm="1">
         <f t="array" ref="W25">ROW() - ROW($2:$2)</f>
         <v>23</v>
       </c>
       <c r="X25" s="187" t="s">
         <v>106</v>
       </c>
-      <c r="Y25" s="414" t="s">
+      <c r="Y25" s="326" t="s">
         <v>158</v>
       </c>
       <c r="Z25" s="134" t="str">
@@ -29272,7 +29282,7 @@
         <f t="shared" si="9"/>
         <v>G</v>
       </c>
-      <c r="AB25" s="398" t="str">
+      <c r="AB25" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X25, 表格1_3346[方音符號], 0)), "")</f>
         <v>/</v>
       </c>
@@ -29335,25 +29345,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄚ</v>
       </c>
-      <c r="W26" s="437" cm="1">
+      <c r="W26" s="349" cm="1">
         <f t="array" ref="W26">ROW() - ROW($2:$2)</f>
         <v>24</v>
       </c>
-      <c r="X26" s="393" t="s">
+      <c r="X26" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="Y26" s="415" t="s">
+      <c r="Y26" s="327" t="s">
         <v>343</v>
       </c>
-      <c r="Z26" s="394" t="str">
+      <c r="Z26" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X26, 表格1_3346[方音符號], 0)), "")</f>
         <v>D</v>
       </c>
-      <c r="AA26" s="394" t="str">
+      <c r="AA26" s="131" t="str">
         <f t="shared" si="9"/>
         <v>D</v>
       </c>
-      <c r="AB26" s="400" t="str">
+      <c r="AB26" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X26, 表格1_3346[方音符號], 0)), "")</f>
         <v>p</v>
       </c>
@@ -29408,14 +29418,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆦ</v>
       </c>
-      <c r="W27" s="436" cm="1">
+      <c r="W27" s="348" cm="1">
         <f t="array" ref="W27">ROW() - ROW($2:$2)</f>
         <v>25</v>
       </c>
       <c r="X27" s="188" t="s">
         <v>680</v>
       </c>
-      <c r="Y27" s="416" t="s">
+      <c r="Y27" s="328" t="s">
         <v>344</v>
       </c>
       <c r="Z27" s="136" t="str">
@@ -29426,7 +29436,7 @@
         <f t="shared" si="9"/>
         <v>B</v>
       </c>
-      <c r="AB27" s="402" t="str">
+      <c r="AB27" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X27, 表格1_3346[方音符號], 0)), "")</f>
         <v>m</v>
       </c>
@@ -29481,25 +29491,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄜ</v>
       </c>
-      <c r="W28" s="436" cm="1">
+      <c r="W28" s="348" cm="1">
         <f t="array" ref="W28">ROW() - ROW($2:$2)</f>
         <v>26</v>
       </c>
       <c r="X28" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="Y28" s="418" t="s">
+      <c r="Y28" s="330" t="s">
         <v>244</v>
       </c>
       <c r="Z28" s="136" t="s">
         <v>795</v>
       </c>
       <c r="AA28" s="136" t="str">
-        <f>Z28</f>
+        <f t="shared" ref="AA28:AA39" si="10">Z28</f>
         <v>N</v>
       </c>
-      <c r="AB28" s="402" t="s">
-        <v>821</v>
+      <c r="AB28" s="315" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="32.25">
@@ -29530,11 +29540,11 @@
         <v>27</v>
       </c>
       <c r="N29" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E29, 1), "")</f>
+        <f t="shared" ref="N29:N44" si="11" xml:space="preserve"> IFERROR( MID($A$23, $E29, 1), "")</f>
         <v/>
       </c>
       <c r="O29" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E29, 1), "")</f>
+        <f t="shared" ref="O29:O44" si="12" xml:space="preserve"> IFERROR( MID($A$24, $E29, 1), "")</f>
         <v/>
       </c>
       <c r="Q29" s="217">
@@ -29556,7 +29566,7 @@
         <f t="array" ref="W29">ROW() - ROW($2:$2)</f>
         <v>27</v>
       </c>
-      <c r="X29" s="422" t="s">
+      <c r="X29" s="334" t="s">
         <v>58</v>
       </c>
       <c r="Y29" s="206" t="s">
@@ -29567,7 +29577,7 @@
         <v>m</v>
       </c>
       <c r="AA29" s="131" t="str">
-        <f>Z29</f>
+        <f t="shared" si="10"/>
         <v>m</v>
       </c>
       <c r="AB29" s="132" t="str">
@@ -29603,11 +29613,11 @@
         <v>28</v>
       </c>
       <c r="N30" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E30, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O30" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E30, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q30" s="217">
@@ -29629,10 +29639,10 @@
         <f t="array" ref="W30">ROW() - ROW($2:$2)</f>
         <v>28</v>
       </c>
-      <c r="X30" s="422" t="s">
+      <c r="X30" s="334" t="s">
         <v>96</v>
       </c>
-      <c r="Y30" s="411" t="s">
+      <c r="Y30" s="324" t="s">
         <v>97</v>
       </c>
       <c r="Z30" s="136" t="str">
@@ -29640,7 +29650,7 @@
         <v>d</v>
       </c>
       <c r="AA30" s="136" t="str">
-        <f>Z30</f>
+        <f t="shared" si="10"/>
         <v>d</v>
       </c>
       <c r="AB30" s="137" t="str">
@@ -29676,11 +29686,11 @@
         <v>29</v>
       </c>
       <c r="N31" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E31, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O31" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E31, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q31" s="217">
@@ -29713,7 +29723,7 @@
         <v>q</v>
       </c>
       <c r="AA31" s="131" t="str">
-        <f>Z31</f>
+        <f t="shared" si="10"/>
         <v>q</v>
       </c>
       <c r="AB31" s="132" t="str">
@@ -29749,11 +29759,11 @@
         <v>30</v>
       </c>
       <c r="N32" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E32, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O32" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E32, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q32" s="217">
@@ -29771,14 +29781,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄠ</v>
       </c>
-      <c r="W32" s="419" cm="1">
+      <c r="W32" s="331" cm="1">
         <f t="array" ref="W32">ROW() - ROW($2:$2)</f>
         <v>30</v>
       </c>
       <c r="X32" s="187" t="s">
         <v>46</v>
       </c>
-      <c r="Y32" s="410" t="s">
+      <c r="Y32" s="323" t="s">
         <v>135</v>
       </c>
       <c r="Z32" s="134" t="str">
@@ -29786,10 +29796,10 @@
         <v>j</v>
       </c>
       <c r="AA32" s="134" t="str">
-        <f>Z32</f>
+        <f t="shared" si="10"/>
         <v>j</v>
       </c>
-      <c r="AB32" s="398" t="str">
+      <c r="AB32" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X32, 表格1_3346[方音符號], 0)), "")</f>
         <v>r</v>
       </c>
@@ -29822,11 +29832,11 @@
         <v>31</v>
       </c>
       <c r="N33" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E33, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O33" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E33, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q33" s="217">
@@ -29844,25 +29854,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆲ</v>
       </c>
-      <c r="W33" s="420" cm="1">
+      <c r="W33" s="332" cm="1">
         <f t="array" ref="W33">ROW() - ROW($2:$2)</f>
         <v>31</v>
       </c>
-      <c r="X33" s="393" t="s">
+      <c r="X33" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="Y33" s="413" t="s">
+      <c r="Y33" s="206" t="s">
         <v>137</v>
       </c>
-      <c r="Z33" s="394" t="str">
+      <c r="Z33" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X33, 表格1_3346[方音符號], 0)), "")</f>
         <v>J</v>
       </c>
-      <c r="AA33" s="394" t="str">
-        <f>Z33</f>
+      <c r="AA33" s="131" t="str">
+        <f t="shared" si="10"/>
         <v>J</v>
       </c>
-      <c r="AB33" s="400" t="str">
+      <c r="AB33" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X33, 表格1_3346[方音符號], 0)), "")</f>
         <v>f</v>
       </c>
@@ -29895,11 +29905,11 @@
         <v>32</v>
       </c>
       <c r="N34" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E34, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O34" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E34, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q34" s="217">
@@ -29917,14 +29927,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄢ</v>
       </c>
-      <c r="W34" s="421" cm="1">
+      <c r="W34" s="333" cm="1">
         <f t="array" ref="W34">ROW() - ROW($2:$2)</f>
         <v>32</v>
       </c>
       <c r="X34" s="188" t="s">
         <v>279</v>
       </c>
-      <c r="Y34" s="411" t="s">
+      <c r="Y34" s="324" t="s">
         <v>138</v>
       </c>
       <c r="Z34" s="136" t="str">
@@ -29932,10 +29942,10 @@
         <v>S</v>
       </c>
       <c r="AA34" s="136" t="str">
-        <f>Z34</f>
+        <f t="shared" si="10"/>
         <v>S</v>
       </c>
-      <c r="AB34" s="402" t="str">
+      <c r="AB34" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X34, 表格1_3346[方音符號], 0)), "")</f>
         <v>v</v>
       </c>
@@ -29968,11 +29978,11 @@
         <v>33</v>
       </c>
       <c r="N35" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E35, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O35" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E35, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q35" s="217">
@@ -29990,25 +30000,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄣ</v>
       </c>
-      <c r="W35" s="399" cm="1">
+      <c r="W35" s="312" cm="1">
         <f t="array" ref="W35">ROW() - ROW($2:$2)</f>
         <v>33</v>
       </c>
-      <c r="X35" s="393" t="s">
+      <c r="X35" s="186" t="s">
         <v>84</v>
       </c>
-      <c r="Y35" s="413" t="s">
+      <c r="Y35" s="206" t="s">
         <v>156</v>
       </c>
-      <c r="Z35" s="394" t="str">
+      <c r="Z35" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X35, 表格1_3346[方音符號], 0)), "")</f>
         <v>Q</v>
       </c>
-      <c r="AA35" s="394" t="str">
-        <f>Z35</f>
+      <c r="AA35" s="131" t="str">
+        <f t="shared" si="10"/>
         <v>Q</v>
       </c>
-      <c r="AB35" s="400" t="str">
+      <c r="AB35" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X35, 表格1_3346[方音符號], 0)), "")</f>
         <v>;</v>
       </c>
@@ -30041,11 +30051,11 @@
         <v>34</v>
       </c>
       <c r="N36" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E36, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O36" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E36, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q36" s="217">
@@ -30063,25 +30073,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㄤ</v>
       </c>
-      <c r="W36" s="399" cm="1">
+      <c r="W36" s="312" cm="1">
         <f t="array" ref="W36">ROW() - ROW($2:$2)</f>
         <v>34</v>
       </c>
-      <c r="X36" s="393" t="s">
+      <c r="X36" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="Y36" s="413" t="s">
+      <c r="Y36" s="206" t="s">
         <v>154</v>
       </c>
-      <c r="Z36" s="394" t="str">
+      <c r="Z36" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X36, 表格1_3346[方音符號], 0)), "")</f>
         <v>L</v>
       </c>
-      <c r="AA36" s="394" t="str">
-        <f>Z36</f>
+      <c r="AA36" s="131" t="str">
+        <f t="shared" si="10"/>
         <v>L</v>
       </c>
-      <c r="AB36" s="400" t="str">
+      <c r="AB36" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X36, 表格1_3346[方音符號], 0)), "")</f>
         <v>0</v>
       </c>
@@ -30114,11 +30124,11 @@
         <v>35</v>
       </c>
       <c r="N37" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E37, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O37" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E37, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q37" s="217">
@@ -30136,25 +30146,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ㆭ</v>
       </c>
-      <c r="W37" s="399" cm="1">
+      <c r="W37" s="312" cm="1">
         <f t="array" ref="W37">ROW() - ROW($2:$2)</f>
         <v>35</v>
       </c>
-      <c r="X37" s="393" t="s">
+      <c r="X37" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="Y37" s="413" t="s">
+      <c r="Y37" s="206" t="s">
         <v>152</v>
       </c>
-      <c r="Z37" s="394" t="str">
+      <c r="Z37" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X37, 表格1_3346[方音符號], 0)), "")</f>
         <v>M</v>
       </c>
-      <c r="AA37" s="394" t="str">
-        <f>Z37</f>
+      <c r="AA37" s="131" t="str">
+        <f t="shared" si="10"/>
         <v>M</v>
       </c>
-      <c r="AB37" s="400" t="str">
+      <c r="AB37" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X37, 表格1_3346[方音符號], 0)), "")</f>
         <v>,</v>
       </c>
@@ -30187,11 +30197,11 @@
         <v>36</v>
       </c>
       <c r="N38" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E38, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O38" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E38, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q38" s="217">
@@ -30209,14 +30219,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ｎ</v>
       </c>
-      <c r="W38" s="401" cm="1">
+      <c r="W38" s="314" cm="1">
         <f t="array" ref="W38">ROW() - ROW($2:$2)</f>
         <v>36</v>
       </c>
       <c r="X38" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="Y38" s="411" t="s">
+      <c r="Y38" s="324" t="s">
         <v>157</v>
       </c>
       <c r="Z38" s="136" t="str">
@@ -30224,10 +30234,10 @@
         <v>Y</v>
       </c>
       <c r="AA38" s="136" t="str">
-        <f>Z38</f>
+        <f t="shared" si="10"/>
         <v>Y</v>
       </c>
-      <c r="AB38" s="402" t="str">
+      <c r="AB38" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X38, 表格1_3346[方音符號], 0)), "")</f>
         <v>.</v>
       </c>
@@ -30260,11 +30270,11 @@
         <v>37</v>
       </c>
       <c r="N39" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E39, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O39" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E39, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q39" s="217">
@@ -30282,25 +30292,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v/>
       </c>
-      <c r="W39" s="395" cm="1">
+      <c r="W39" s="308" cm="1">
         <f t="array" ref="W39">ROW() - ROW($2:$2)</f>
         <v>37</v>
       </c>
-      <c r="X39" s="404" t="s">
-        <v>815</v>
-      </c>
-      <c r="Y39" s="417">
+      <c r="X39" s="317" t="s">
+        <v>814</v>
+      </c>
+      <c r="Y39" s="329">
         <v>1</v>
       </c>
-      <c r="Z39" s="405">
+      <c r="Z39" s="318">
         <v>1</v>
       </c>
-      <c r="AA39" s="405">
-        <f>Z39</f>
+      <c r="AA39" s="318">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB39" s="406" t="s">
-        <v>822</v>
+      <c r="AB39" s="319" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="40" spans="5:29" ht="32.25">
@@ -30331,11 +30341,11 @@
         <v>38</v>
       </c>
       <c r="N40" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E40, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O40" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E40, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q40" s="217">
@@ -30353,14 +30363,14 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ˋ</v>
       </c>
-      <c r="W40" s="397" cm="1">
+      <c r="W40" s="310" cm="1">
         <f t="array" ref="W40">ROW() - ROW($2:$2)</f>
         <v>38</v>
       </c>
       <c r="X40" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="Y40" s="410">
+      <c r="Y40" s="323">
         <v>2</v>
       </c>
       <c r="Z40" s="134" t="str">
@@ -30368,10 +30378,10 @@
         <v>2</v>
       </c>
       <c r="AA40" s="134" t="str">
-        <f t="shared" ref="AA40:AA44" si="10">Z40</f>
+        <f t="shared" ref="AA40:AA44" si="13">Z40</f>
         <v>2</v>
       </c>
-      <c r="AB40" s="398" t="str">
+      <c r="AB40" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X40, 表格1_3346[方音符號], 0)), "")</f>
         <v>4</v>
       </c>
@@ -30404,11 +30414,11 @@
         <v>39</v>
       </c>
       <c r="N41" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E41, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O41" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E41, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q41" s="217">
@@ -30426,25 +30436,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>˪</v>
       </c>
-      <c r="W41" s="399" cm="1">
+      <c r="W41" s="312" cm="1">
         <f t="array" ref="W41">ROW() - ROW($2:$2)</f>
         <v>39</v>
       </c>
-      <c r="X41" s="393" t="s">
+      <c r="X41" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="Y41" s="413">
+      <c r="Y41" s="206">
         <v>3</v>
       </c>
-      <c r="Z41" s="394" t="str">
+      <c r="Z41" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X41, 表格1_3346[方音符號], 0)), "")</f>
         <v>3</v>
       </c>
-      <c r="AA41" s="394" t="str">
-        <f t="shared" si="10"/>
+      <c r="AA41" s="131" t="str">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AB41" s="400" t="str">
+      <c r="AB41" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X41, 表格1_3346[方音符號], 0)), "")</f>
         <v>3</v>
       </c>
@@ -30477,11 +30487,11 @@
         <v>40</v>
       </c>
       <c r="N42" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E42, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O42" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E42, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q42" s="217">
@@ -30499,25 +30509,25 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>ˊ</v>
       </c>
-      <c r="W42" s="399" cm="1">
+      <c r="W42" s="312" cm="1">
         <f t="array" ref="W42">ROW() - ROW($2:$2)</f>
         <v>40</v>
       </c>
-      <c r="X42" s="393" t="s">
+      <c r="X42" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="Y42" s="413">
+      <c r="Y42" s="206">
         <v>5</v>
       </c>
-      <c r="Z42" s="394" t="str">
+      <c r="Z42" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X42, 表格1_3346[方音符號], 0)), "")</f>
         <v>5</v>
       </c>
-      <c r="AA42" s="394" t="str">
-        <f t="shared" si="10"/>
+      <c r="AA42" s="131" t="str">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="AB42" s="400" t="str">
+      <c r="AB42" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X42, 表格1_3346[方音符號], 0)), "")</f>
         <v>6</v>
       </c>
@@ -30550,11 +30560,11 @@
         <v>41</v>
       </c>
       <c r="N43" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E43, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O43" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E43, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q43" s="217">
@@ -30572,29 +30582,29 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>˫</v>
       </c>
-      <c r="W43" s="399" cm="1">
+      <c r="W43" s="312" cm="1">
         <f t="array" ref="W43">ROW() - ROW($2:$2)</f>
         <v>41</v>
       </c>
-      <c r="X43" s="393" t="s">
+      <c r="X43" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="Y43" s="413">
+      <c r="Y43" s="206">
         <v>7</v>
       </c>
-      <c r="Z43" s="394" t="str">
+      <c r="Z43" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X43, 表格1_3346[方音符號], 0)), "")</f>
         <v>7</v>
       </c>
-      <c r="AA43" s="394" t="str">
-        <f t="shared" si="10"/>
+      <c r="AA43" s="131" t="str">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="AB43" s="400" t="str">
+      <c r="AB43" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X43, 表格1_3346[方音符號], 0)), "")</f>
         <v>5</v>
       </c>
-      <c r="AC43" s="403"/>
+      <c r="AC43" s="316"/>
     </row>
     <row r="44" spans="5:29" ht="32.25">
       <c r="E44" s="217" cm="1">
@@ -30624,11 +30634,11 @@
         <v>42</v>
       </c>
       <c r="N44" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$23, $E44, 1), "")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O44" s="231" t="str">
-        <f xml:space="preserve"> IFERROR( MID($A$24, $E44, 1), "")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q44" s="217">
@@ -30646,37 +30656,37 @@
         <f xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</f>
         <v>．</v>
       </c>
-      <c r="W44" s="401" cm="1">
+      <c r="W44" s="314" cm="1">
         <f t="array" ref="W44">ROW() - ROW($2:$2)</f>
         <v>42</v>
       </c>
       <c r="X44" s="188" t="s">
         <v>127</v>
       </c>
-      <c r="Y44" s="411">
+      <c r="Y44" s="324">
         <v>8</v>
       </c>
       <c r="Z44" s="136">
         <v>0</v>
       </c>
       <c r="AA44" s="136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AB44" s="402">
+      <c r="AB44" s="315">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="5:29" ht="32.25">
       <c r="O45" s="217"/>
-      <c r="W45" s="407" cm="1">
+      <c r="W45" s="320" cm="1">
         <f t="array" ref="W45">ROW() - ROW($2:$2)</f>
         <v>43</v>
       </c>
       <c r="X45" s="189" t="s">
         <v>109</v>
       </c>
-      <c r="Y45" s="412" t="s">
+      <c r="Y45" s="325" t="s">
         <v>136</v>
       </c>
       <c r="Z45" s="138" t="str">
@@ -30684,7 +30694,7 @@
         <v/>
       </c>
       <c r="AA45" s="138"/>
-      <c r="AB45" s="396" t="str">
+      <c r="AB45" s="309" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X45, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
@@ -30694,14 +30704,14 @@
         <f xml:space="preserve"> _xlfn.CONCAT(S3:S38, S40:S44)</f>
         <v>pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN23570</v>
       </c>
-      <c r="W46" s="397" cm="1">
+      <c r="W46" s="310" cm="1">
         <f t="array" ref="W46">ROW() - ROW($2:$2)</f>
         <v>44</v>
       </c>
       <c r="X46" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="Y46" s="410" t="s">
+      <c r="Y46" s="323" t="s">
         <v>160</v>
       </c>
       <c r="Z46" s="134" t="str">
@@ -30709,7 +30719,7 @@
         <v/>
       </c>
       <c r="AA46" s="134"/>
-      <c r="AB46" s="398" t="str">
+      <c r="AB46" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X46, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
@@ -30719,22 +30729,22 @@
         <f xml:space="preserve"> _xlfn.CONCAT(T3:T38, T40:T44)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．</v>
       </c>
-      <c r="W47" s="399" cm="1">
+      <c r="W47" s="312" cm="1">
         <f t="array" ref="W47">ROW() - ROW($2:$2)</f>
         <v>45</v>
       </c>
-      <c r="X47" s="393" t="s">
+      <c r="X47" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="Y47" s="413" t="s">
+      <c r="Y47" s="206" t="s">
         <v>162</v>
       </c>
-      <c r="Z47" s="394" t="str">
+      <c r="Z47" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X47, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA47" s="394"/>
-      <c r="AB47" s="400" t="str">
+      <c r="AA47" s="131"/>
+      <c r="AB47" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X47, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
@@ -30744,77 +30754,77 @@
         <f xml:space="preserve"> "xlit|" &amp; T46 &amp; "|" &amp; T47 &amp; "|"</f>
         <v>xlit|pPmbtTndkKhjJSgqzcCsiuBaoøMIeUYLDQGN23570|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㆣㄫㆡㄗㄘㄙㄧㄨㆬㄚㆦㄜㆰㄞㆤㄠㆲㄢㄣㄤㆭｎˋ˪ˊ˫．|</v>
       </c>
-      <c r="W48" s="399" cm="1">
+      <c r="W48" s="312" cm="1">
         <f t="array" ref="W48">ROW() - ROW($2:$2)</f>
         <v>46</v>
       </c>
-      <c r="X48" s="393" t="s">
+      <c r="X48" s="186" t="s">
         <v>111</v>
       </c>
-      <c r="Y48" s="413" t="s">
+      <c r="Y48" s="206" t="s">
         <v>143</v>
       </c>
-      <c r="Z48" s="394" t="str">
+      <c r="Z48" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X48, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA48" s="394"/>
-      <c r="AB48" s="400" t="str">
+      <c r="AA48" s="131"/>
+      <c r="AB48" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X48, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="23:28" ht="32.25">
-      <c r="W49" s="399" cm="1">
+      <c r="W49" s="312" cm="1">
         <f t="array" ref="W49">ROW() - ROW($2:$2)</f>
         <v>47</v>
       </c>
-      <c r="X49" s="393" t="s">
+      <c r="X49" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="Y49" s="413" t="s">
+      <c r="Y49" s="206" t="s">
         <v>149</v>
       </c>
-      <c r="Z49" s="394" t="str">
+      <c r="Z49" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X49, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA49" s="394"/>
-      <c r="AB49" s="400" t="str">
+      <c r="AA49" s="131"/>
+      <c r="AB49" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X49, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="23:28" ht="32.25">
-      <c r="W50" s="399" cm="1">
+      <c r="W50" s="312" cm="1">
         <f t="array" ref="W50">ROW() - ROW($2:$2)</f>
         <v>48</v>
       </c>
-      <c r="X50" s="393" t="s">
+      <c r="X50" s="186" t="s">
         <v>114</v>
       </c>
-      <c r="Y50" s="413" t="s">
+      <c r="Y50" s="206" t="s">
         <v>147</v>
       </c>
-      <c r="Z50" s="394" t="str">
+      <c r="Z50" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X50, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA50" s="394"/>
-      <c r="AB50" s="400" t="str">
+      <c r="AA50" s="131"/>
+      <c r="AB50" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X50, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="23:28" ht="32.25">
-      <c r="W51" s="401" cm="1">
+      <c r="W51" s="314" cm="1">
         <f t="array" ref="W51">ROW() - ROW($2:$2)</f>
         <v>49</v>
       </c>
       <c r="X51" s="188" t="s">
         <v>112</v>
       </c>
-      <c r="Y51" s="411" t="s">
+      <c r="Y51" s="324" t="s">
         <v>145</v>
       </c>
       <c r="Z51" s="136" t="str">
@@ -30822,20 +30832,20 @@
         <v/>
       </c>
       <c r="AA51" s="136"/>
-      <c r="AB51" s="402" t="str">
+      <c r="AB51" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X51, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="23:28" ht="32.25">
-      <c r="W52" s="397" cm="1">
+      <c r="W52" s="310" cm="1">
         <f t="array" ref="W52">ROW() - ROW($2:$2)</f>
         <v>50</v>
       </c>
       <c r="X52" s="187" t="s">
         <v>116</v>
       </c>
-      <c r="Y52" s="410" t="s">
+      <c r="Y52" s="323" t="s">
         <v>151</v>
       </c>
       <c r="Z52" s="134" t="str">
@@ -30843,20 +30853,20 @@
         <v/>
       </c>
       <c r="AA52" s="134"/>
-      <c r="AB52" s="398" t="str">
+      <c r="AB52" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X52, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="23:28" ht="32.25">
-      <c r="W53" s="401" cm="1">
+      <c r="W53" s="314" cm="1">
         <f t="array" ref="W53">ROW() - ROW($2:$2)</f>
         <v>51</v>
       </c>
       <c r="X53" s="188" t="s">
         <v>118</v>
       </c>
-      <c r="Y53" s="411" t="s">
+      <c r="Y53" s="324" t="s">
         <v>153</v>
       </c>
       <c r="Z53" s="136" t="str">
@@ -30864,20 +30874,20 @@
         <v/>
       </c>
       <c r="AA53" s="136"/>
-      <c r="AB53" s="402" t="str">
+      <c r="AB53" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X53, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="23:28" ht="32.25">
-      <c r="W54" s="397" cm="1">
+      <c r="W54" s="310" cm="1">
         <f t="array" ref="W54">ROW() - ROW($2:$2)</f>
         <v>52</v>
       </c>
       <c r="X54" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="Y54" s="414" t="s">
+      <c r="Y54" s="326" t="s">
         <v>158</v>
       </c>
       <c r="Z54" s="134" t="str">
@@ -30885,91 +30895,91 @@
         <v/>
       </c>
       <c r="AA54" s="134"/>
-      <c r="AB54" s="398" t="str">
+      <c r="AB54" s="311" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X54, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="23:28" ht="32.25">
-      <c r="W55" s="399" cm="1">
+      <c r="W55" s="312" cm="1">
         <f t="array" ref="W55">ROW() - ROW($2:$2)</f>
         <v>53</v>
       </c>
-      <c r="X55" s="393" t="s">
+      <c r="X55" s="186" t="s">
         <v>123</v>
       </c>
-      <c r="Y55" s="415" t="s">
-        <v>816</v>
-      </c>
-      <c r="Z55" s="394" t="str">
+      <c r="Y55" s="327" t="s">
+        <v>815</v>
+      </c>
+      <c r="Z55" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X55, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA55" s="394"/>
-      <c r="AB55" s="400" t="str">
+      <c r="AA55" s="131"/>
+      <c r="AB55" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X55, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="23:28" ht="32.25">
-      <c r="W56" s="399" cm="1">
+      <c r="W56" s="312" cm="1">
         <f t="array" ref="W56">ROW() - ROW($2:$2)</f>
         <v>54</v>
       </c>
-      <c r="X56" s="393" t="s">
+      <c r="X56" s="186" t="s">
         <v>124</v>
       </c>
-      <c r="Y56" s="415" t="s">
-        <v>817</v>
-      </c>
-      <c r="Z56" s="394" t="str">
+      <c r="Y56" s="327" t="s">
+        <v>816</v>
+      </c>
+      <c r="Z56" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X56, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA56" s="394"/>
-      <c r="AB56" s="400" t="str">
+      <c r="AA56" s="131"/>
+      <c r="AB56" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X56, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="23:28" ht="32.25">
-      <c r="W57" s="399" cm="1">
+      <c r="W57" s="312" cm="1">
         <f t="array" ref="W57">ROW() - ROW($2:$2)</f>
         <v>55</v>
       </c>
-      <c r="X57" s="393" t="s">
+      <c r="X57" s="186" t="s">
         <v>125</v>
       </c>
-      <c r="Y57" s="415" t="s">
-        <v>818</v>
-      </c>
-      <c r="Z57" s="394" t="str">
+      <c r="Y57" s="327" t="s">
+        <v>817</v>
+      </c>
+      <c r="Z57" s="131" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X57, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
-      <c r="AA57" s="394"/>
-      <c r="AB57" s="400" t="str">
+      <c r="AA57" s="131"/>
+      <c r="AB57" s="313" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X57, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="23:28" ht="32.25">
-      <c r="W58" s="401" cm="1">
+      <c r="W58" s="314" cm="1">
         <f t="array" ref="W58">ROW() - ROW($2:$2)</f>
         <v>56</v>
       </c>
       <c r="X58" s="188" t="s">
         <v>126</v>
       </c>
-      <c r="Y58" s="416" t="s">
-        <v>819</v>
+      <c r="Y58" s="328" t="s">
+        <v>818</v>
       </c>
       <c r="Z58" s="136" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[字典編碼], MATCH($X58, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
       <c r="AA58" s="136"/>
-      <c r="AB58" s="402" t="str">
+      <c r="AB58" s="315" t="str">
         <f xml:space="preserve"> IFERROR( INDEX(表格1_3346[鍵盤按鍵], MATCH($X58, 表格1_3346[方音符號], 0)), "")</f>
         <v/>
       </c>
@@ -31002,61 +31012,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="181" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="314">
+      <c r="C2" s="406">
         <v>1</v>
       </c>
-      <c r="D2" s="315"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="314">
+      <c r="D2" s="407"/>
+      <c r="E2" s="408"/>
+      <c r="F2" s="406">
         <v>2</v>
       </c>
-      <c r="G2" s="315"/>
-      <c r="H2" s="316"/>
-      <c r="I2" s="338">
+      <c r="G2" s="407"/>
+      <c r="H2" s="408"/>
+      <c r="I2" s="396">
         <v>3</v>
       </c>
-      <c r="J2" s="339"/>
-      <c r="K2" s="340"/>
-      <c r="L2" s="338">
+      <c r="J2" s="397"/>
+      <c r="K2" s="398"/>
+      <c r="L2" s="396">
         <v>4</v>
       </c>
-      <c r="M2" s="339"/>
-      <c r="N2" s="340"/>
-      <c r="O2" s="338">
+      <c r="M2" s="397"/>
+      <c r="N2" s="398"/>
+      <c r="O2" s="396">
         <v>5</v>
       </c>
-      <c r="P2" s="339"/>
-      <c r="Q2" s="340"/>
-      <c r="R2" s="338">
+      <c r="P2" s="397"/>
+      <c r="Q2" s="398"/>
+      <c r="R2" s="396">
         <v>6</v>
       </c>
-      <c r="S2" s="339"/>
-      <c r="T2" s="340"/>
-      <c r="U2" s="338">
+      <c r="S2" s="397"/>
+      <c r="T2" s="398"/>
+      <c r="U2" s="396">
         <v>7</v>
       </c>
-      <c r="V2" s="339"/>
-      <c r="W2" s="340"/>
-      <c r="X2" s="317">
+      <c r="V2" s="397"/>
+      <c r="W2" s="398"/>
+      <c r="X2" s="387">
         <v>8</v>
       </c>
-      <c r="Y2" s="318"/>
-      <c r="Z2" s="319"/>
-      <c r="AA2" s="317">
+      <c r="Y2" s="382"/>
+      <c r="Z2" s="383"/>
+      <c r="AA2" s="387">
         <v>9</v>
       </c>
-      <c r="AB2" s="318"/>
-      <c r="AC2" s="319"/>
-      <c r="AD2" s="317">
+      <c r="AB2" s="382"/>
+      <c r="AC2" s="383"/>
+      <c r="AD2" s="387">
         <v>0</v>
       </c>
-      <c r="AE2" s="318"/>
-      <c r="AF2" s="319"/>
-      <c r="AG2" s="342" t="s">
+      <c r="AE2" s="382"/>
+      <c r="AF2" s="383"/>
+      <c r="AG2" s="381" t="s">
         <v>466</v>
       </c>
-      <c r="AH2" s="318"/>
-      <c r="AI2" s="319"/>
+      <c r="AH2" s="382"/>
+      <c r="AI2" s="383"/>
       <c r="AJ2" s="168"/>
       <c r="AK2" s="168"/>
       <c r="AL2" s="168"/>
@@ -31065,56 +31075,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="311" t="str">
+      <c r="C3" s="403" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="312"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="311" t="str">
+      <c r="D3" s="404"/>
+      <c r="E3" s="405"/>
+      <c r="F3" s="403" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="312"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="335" t="s">
+      <c r="G3" s="404"/>
+      <c r="H3" s="405"/>
+      <c r="I3" s="400" t="s">
         <v>464</v>
       </c>
-      <c r="J3" s="336"/>
-      <c r="K3" s="337"/>
-      <c r="L3" s="335" t="s">
+      <c r="J3" s="401"/>
+      <c r="K3" s="402"/>
+      <c r="L3" s="400" t="s">
         <v>463</v>
       </c>
-      <c r="M3" s="336"/>
-      <c r="N3" s="337"/>
-      <c r="O3" s="335"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="337"/>
-      <c r="R3" s="332" t="s">
+      <c r="M3" s="401"/>
+      <c r="N3" s="402"/>
+      <c r="O3" s="400"/>
+      <c r="P3" s="401"/>
+      <c r="Q3" s="402"/>
+      <c r="R3" s="409" t="s">
         <v>462</v>
       </c>
-      <c r="S3" s="333"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="335" t="s">
+      <c r="S3" s="410"/>
+      <c r="T3" s="411"/>
+      <c r="U3" s="400" t="s">
         <v>461</v>
       </c>
-      <c r="V3" s="336"/>
-      <c r="W3" s="337"/>
-      <c r="X3" s="328" t="str">
+      <c r="V3" s="401"/>
+      <c r="W3" s="402"/>
+      <c r="X3" s="388" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="329"/>
-      <c r="Z3" s="330"/>
-      <c r="AA3" s="328"/>
-      <c r="AB3" s="329"/>
-      <c r="AC3" s="330"/>
-      <c r="AD3" s="328"/>
-      <c r="AE3" s="329"/>
-      <c r="AF3" s="330"/>
-      <c r="AG3" s="343"/>
-      <c r="AH3" s="344"/>
-      <c r="AI3" s="345"/>
+      <c r="Y3" s="389"/>
+      <c r="Z3" s="390"/>
+      <c r="AA3" s="388"/>
+      <c r="AB3" s="389"/>
+      <c r="AC3" s="390"/>
+      <c r="AD3" s="388"/>
+      <c r="AE3" s="389"/>
+      <c r="AF3" s="390"/>
+      <c r="AG3" s="384"/>
+      <c r="AH3" s="385"/>
+      <c r="AI3" s="386"/>
       <c r="AQ3" s="182" t="s">
         <v>460</v>
       </c>
@@ -31123,115 +31133,115 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="181" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="314" t="s">
+      <c r="D4" s="406" t="s">
         <v>459</v>
       </c>
-      <c r="E4" s="315"/>
-      <c r="F4" s="316"/>
-      <c r="G4" s="314" t="s">
+      <c r="E4" s="407"/>
+      <c r="F4" s="408"/>
+      <c r="G4" s="406" t="s">
         <v>394</v>
       </c>
-      <c r="H4" s="315"/>
-      <c r="I4" s="316"/>
-      <c r="J4" s="314" t="s">
+      <c r="H4" s="407"/>
+      <c r="I4" s="408"/>
+      <c r="J4" s="406" t="s">
         <v>458</v>
       </c>
-      <c r="K4" s="315"/>
-      <c r="L4" s="316"/>
-      <c r="M4" s="314" t="s">
+      <c r="K4" s="407"/>
+      <c r="L4" s="408"/>
+      <c r="M4" s="406" t="s">
         <v>457</v>
       </c>
-      <c r="N4" s="315"/>
-      <c r="O4" s="316"/>
-      <c r="P4" s="314" t="s">
+      <c r="N4" s="407"/>
+      <c r="O4" s="408"/>
+      <c r="P4" s="406" t="s">
         <v>456</v>
       </c>
-      <c r="Q4" s="315"/>
-      <c r="R4" s="316"/>
-      <c r="S4" s="314" t="s">
+      <c r="Q4" s="407"/>
+      <c r="R4" s="408"/>
+      <c r="S4" s="406" t="s">
         <v>455</v>
       </c>
-      <c r="T4" s="315"/>
-      <c r="U4" s="316"/>
-      <c r="V4" s="317" t="s">
+      <c r="T4" s="407"/>
+      <c r="U4" s="408"/>
+      <c r="V4" s="387" t="s">
         <v>454</v>
       </c>
-      <c r="W4" s="318"/>
-      <c r="X4" s="319"/>
-      <c r="Y4" s="317" t="s">
+      <c r="W4" s="382"/>
+      <c r="X4" s="383"/>
+      <c r="Y4" s="387" t="s">
         <v>453</v>
       </c>
-      <c r="Z4" s="318"/>
-      <c r="AA4" s="319"/>
-      <c r="AB4" s="317" t="s">
+      <c r="Z4" s="382"/>
+      <c r="AA4" s="383"/>
+      <c r="AB4" s="387" t="s">
         <v>450</v>
       </c>
-      <c r="AC4" s="318"/>
-      <c r="AD4" s="319"/>
-      <c r="AE4" s="317" t="s">
+      <c r="AC4" s="382"/>
+      <c r="AD4" s="383"/>
+      <c r="AE4" s="387" t="s">
         <v>452</v>
       </c>
-      <c r="AF4" s="318"/>
-      <c r="AG4" s="319"/>
+      <c r="AF4" s="382"/>
+      <c r="AG4" s="383"/>
       <c r="AJ4" s="168"/>
       <c r="AK4" s="168"/>
       <c r="AL4" s="168"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="311" t="str">
+      <c r="D5" s="403" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="312"/>
-      <c r="F5" s="313"/>
-      <c r="G5" s="311" t="str">
+      <c r="E5" s="404"/>
+      <c r="F5" s="405"/>
+      <c r="G5" s="403" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="312"/>
-      <c r="I5" s="313"/>
-      <c r="J5" s="311" t="str">
+      <c r="H5" s="404"/>
+      <c r="I5" s="405"/>
+      <c r="J5" s="403" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="312"/>
-      <c r="L5" s="313"/>
-      <c r="M5" s="311"/>
-      <c r="N5" s="312"/>
-      <c r="O5" s="313"/>
-      <c r="P5" s="308" t="str">
+      <c r="K5" s="404"/>
+      <c r="L5" s="405"/>
+      <c r="M5" s="403"/>
+      <c r="N5" s="404"/>
+      <c r="O5" s="405"/>
+      <c r="P5" s="412" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="309"/>
-      <c r="R5" s="310"/>
-      <c r="S5" s="311" t="str">
+      <c r="Q5" s="413"/>
+      <c r="R5" s="414"/>
+      <c r="S5" s="403" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="312"/>
-      <c r="U5" s="313"/>
-      <c r="V5" s="328" t="str">
+      <c r="T5" s="404"/>
+      <c r="U5" s="405"/>
+      <c r="V5" s="388" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="329"/>
-      <c r="X5" s="330"/>
-      <c r="Y5" s="328" t="str">
+      <c r="W5" s="389"/>
+      <c r="X5" s="390"/>
+      <c r="Y5" s="388" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="329"/>
-      <c r="AA5" s="330"/>
-      <c r="AB5" s="328"/>
-      <c r="AC5" s="329"/>
-      <c r="AD5" s="330"/>
-      <c r="AE5" s="320" t="str">
+      <c r="Z5" s="389"/>
+      <c r="AA5" s="390"/>
+      <c r="AB5" s="388"/>
+      <c r="AC5" s="389"/>
+      <c r="AD5" s="390"/>
+      <c r="AE5" s="393" t="str">
         <f>P20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="321"/>
-      <c r="AG5" s="322"/>
+      <c r="AF5" s="394"/>
+      <c r="AG5" s="395"/>
       <c r="AQ5" s="182" t="s">
         <v>451</v>
       </c>
@@ -31241,109 +31251,109 @@
     </row>
     <row r="6" spans="2:44" s="181" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="183"/>
-      <c r="E6" s="314" t="s">
+      <c r="E6" s="406" t="s">
         <v>449</v>
       </c>
-      <c r="F6" s="315"/>
-      <c r="G6" s="316"/>
-      <c r="H6" s="314" t="s">
+      <c r="F6" s="407"/>
+      <c r="G6" s="408"/>
+      <c r="H6" s="406" t="s">
         <v>448</v>
       </c>
-      <c r="I6" s="315"/>
-      <c r="J6" s="316"/>
-      <c r="K6" s="314" t="s">
+      <c r="I6" s="407"/>
+      <c r="J6" s="408"/>
+      <c r="K6" s="406" t="s">
         <v>447</v>
       </c>
-      <c r="L6" s="315"/>
-      <c r="M6" s="316"/>
-      <c r="N6" s="314" t="s">
+      <c r="L6" s="407"/>
+      <c r="M6" s="408"/>
+      <c r="N6" s="406" t="s">
         <v>446</v>
       </c>
-      <c r="O6" s="315"/>
-      <c r="P6" s="316"/>
-      <c r="Q6" s="314" t="s">
+      <c r="O6" s="407"/>
+      <c r="P6" s="408"/>
+      <c r="Q6" s="406" t="s">
         <v>445</v>
       </c>
-      <c r="R6" s="315"/>
-      <c r="S6" s="316"/>
-      <c r="T6" s="314" t="s">
+      <c r="R6" s="407"/>
+      <c r="S6" s="408"/>
+      <c r="T6" s="406" t="s">
         <v>444</v>
       </c>
-      <c r="U6" s="315"/>
-      <c r="V6" s="316"/>
-      <c r="W6" s="317" t="s">
+      <c r="U6" s="407"/>
+      <c r="V6" s="408"/>
+      <c r="W6" s="387" t="s">
         <v>443</v>
       </c>
-      <c r="X6" s="318"/>
-      <c r="Y6" s="319"/>
-      <c r="Z6" s="317" t="s">
+      <c r="X6" s="382"/>
+      <c r="Y6" s="383"/>
+      <c r="Z6" s="387" t="s">
         <v>442</v>
       </c>
-      <c r="AA6" s="318"/>
-      <c r="AB6" s="319"/>
-      <c r="AC6" s="317" t="s">
+      <c r="AA6" s="382"/>
+      <c r="AB6" s="383"/>
+      <c r="AC6" s="387" t="s">
         <v>441</v>
       </c>
-      <c r="AD6" s="318"/>
-      <c r="AE6" s="319"/>
-      <c r="AF6" s="317" t="s">
+      <c r="AD6" s="382"/>
+      <c r="AE6" s="383"/>
+      <c r="AF6" s="387" t="s">
         <v>440</v>
       </c>
-      <c r="AG6" s="318"/>
-      <c r="AH6" s="319"/>
+      <c r="AG6" s="382"/>
+      <c r="AH6" s="383"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="325" t="str">
+      <c r="E7" s="415" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="326"/>
-      <c r="G7" s="327"/>
-      <c r="H7" s="311" t="str">
+      <c r="F7" s="416"/>
+      <c r="G7" s="417"/>
+      <c r="H7" s="403" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="312"/>
-      <c r="J7" s="313"/>
-      <c r="K7" s="311" t="str">
+      <c r="I7" s="404"/>
+      <c r="J7" s="405"/>
+      <c r="K7" s="403" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="312"/>
-      <c r="M7" s="313"/>
-      <c r="N7" s="311"/>
-      <c r="O7" s="312"/>
-      <c r="P7" s="313"/>
-      <c r="Q7" s="331" t="str">
+      <c r="L7" s="404"/>
+      <c r="M7" s="405"/>
+      <c r="N7" s="403"/>
+      <c r="O7" s="404"/>
+      <c r="P7" s="405"/>
+      <c r="Q7" s="418" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="309"/>
-      <c r="S7" s="310"/>
-      <c r="T7" s="311" t="str">
+      <c r="R7" s="413"/>
+      <c r="S7" s="414"/>
+      <c r="T7" s="403" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="312"/>
-      <c r="V7" s="313"/>
-      <c r="W7" s="328" t="str">
+      <c r="U7" s="404"/>
+      <c r="V7" s="405"/>
+      <c r="W7" s="388" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="329"/>
-      <c r="Y7" s="330"/>
-      <c r="Z7" s="328" t="str">
+      <c r="X7" s="389"/>
+      <c r="Y7" s="390"/>
+      <c r="Z7" s="388" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="329"/>
-      <c r="AB7" s="330"/>
-      <c r="AC7" s="328"/>
-      <c r="AD7" s="329"/>
-      <c r="AE7" s="330"/>
-      <c r="AF7" s="347"/>
-      <c r="AG7" s="329"/>
-      <c r="AH7" s="330"/>
+      <c r="AA7" s="389"/>
+      <c r="AB7" s="390"/>
+      <c r="AC7" s="388"/>
+      <c r="AD7" s="389"/>
+      <c r="AE7" s="390"/>
+      <c r="AF7" s="392"/>
+      <c r="AG7" s="389"/>
+      <c r="AH7" s="390"/>
       <c r="AQ7" s="182" t="s">
         <v>439</v>
       </c>
@@ -31352,112 +31362,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="181" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="314" t="s">
+      <c r="F8" s="406" t="s">
         <v>437</v>
       </c>
-      <c r="G8" s="315"/>
-      <c r="H8" s="316"/>
-      <c r="I8" s="314" t="s">
+      <c r="G8" s="407"/>
+      <c r="H8" s="408"/>
+      <c r="I8" s="406" t="s">
         <v>436</v>
       </c>
-      <c r="J8" s="315"/>
-      <c r="K8" s="316"/>
-      <c r="L8" s="314" t="s">
+      <c r="J8" s="407"/>
+      <c r="K8" s="408"/>
+      <c r="L8" s="406" t="s">
         <v>435</v>
       </c>
-      <c r="M8" s="315"/>
-      <c r="N8" s="316"/>
-      <c r="O8" s="314" t="s">
+      <c r="M8" s="407"/>
+      <c r="N8" s="408"/>
+      <c r="O8" s="406" t="s">
         <v>434</v>
       </c>
-      <c r="P8" s="315"/>
-      <c r="Q8" s="316"/>
-      <c r="R8" s="314" t="s">
+      <c r="P8" s="407"/>
+      <c r="Q8" s="408"/>
+      <c r="R8" s="406" t="s">
         <v>433</v>
       </c>
-      <c r="S8" s="315"/>
-      <c r="T8" s="316"/>
-      <c r="U8" s="314" t="s">
+      <c r="S8" s="407"/>
+      <c r="T8" s="408"/>
+      <c r="U8" s="406" t="s">
         <v>392</v>
       </c>
-      <c r="V8" s="315"/>
-      <c r="W8" s="316"/>
-      <c r="X8" s="317" t="s">
+      <c r="V8" s="407"/>
+      <c r="W8" s="408"/>
+      <c r="X8" s="387" t="s">
         <v>432</v>
       </c>
-      <c r="Y8" s="318"/>
-      <c r="Z8" s="319"/>
-      <c r="AA8" s="317" t="s">
+      <c r="Y8" s="382"/>
+      <c r="Z8" s="383"/>
+      <c r="AA8" s="387" t="s">
         <v>431</v>
       </c>
-      <c r="AB8" s="318"/>
-      <c r="AC8" s="319"/>
-      <c r="AD8" s="317" t="s">
+      <c r="AB8" s="382"/>
+      <c r="AC8" s="383"/>
+      <c r="AD8" s="387" t="s">
         <v>430</v>
       </c>
-      <c r="AE8" s="318"/>
-      <c r="AF8" s="319"/>
-      <c r="AG8" s="346" t="s">
+      <c r="AE8" s="382"/>
+      <c r="AF8" s="383"/>
+      <c r="AG8" s="391" t="s">
         <v>429</v>
       </c>
-      <c r="AH8" s="318"/>
-      <c r="AI8" s="319"/>
+      <c r="AH8" s="382"/>
+      <c r="AI8" s="383"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="311"/>
-      <c r="G9" s="323"/>
-      <c r="H9" s="324"/>
-      <c r="I9" s="311" t="str">
+      <c r="F9" s="403"/>
+      <c r="G9" s="419"/>
+      <c r="H9" s="420"/>
+      <c r="I9" s="403" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="312"/>
-      <c r="K9" s="313"/>
-      <c r="L9" s="311" t="str">
+      <c r="J9" s="404"/>
+      <c r="K9" s="405"/>
+      <c r="L9" s="403" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="312"/>
-      <c r="N9" s="313"/>
-      <c r="O9" s="325" t="str">
+      <c r="M9" s="404"/>
+      <c r="N9" s="405"/>
+      <c r="O9" s="415" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="326"/>
-      <c r="Q9" s="327"/>
-      <c r="R9" s="308" t="str">
+      <c r="P9" s="416"/>
+      <c r="Q9" s="417"/>
+      <c r="R9" s="412" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="309"/>
-      <c r="T9" s="310"/>
-      <c r="U9" s="311" t="str">
+      <c r="S9" s="413"/>
+      <c r="T9" s="414"/>
+      <c r="U9" s="403" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="312"/>
-      <c r="W9" s="313"/>
-      <c r="X9" s="320" t="str">
+      <c r="V9" s="404"/>
+      <c r="W9" s="405"/>
+      <c r="X9" s="393" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="321"/>
-      <c r="Z9" s="322"/>
-      <c r="AA9" s="328" t="str">
+      <c r="Y9" s="394"/>
+      <c r="Z9" s="395"/>
+      <c r="AA9" s="388" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="329"/>
-      <c r="AC9" s="330"/>
-      <c r="AD9" s="341" t="str">
+      <c r="AB9" s="389"/>
+      <c r="AC9" s="390"/>
+      <c r="AD9" s="399" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
-      <c r="AE9" s="321"/>
-      <c r="AF9" s="322"/>
-      <c r="AG9" s="328"/>
-      <c r="AH9" s="329"/>
-      <c r="AI9" s="330"/>
+      <c r="AE9" s="394"/>
+      <c r="AF9" s="395"/>
+      <c r="AG9" s="388"/>
+      <c r="AH9" s="389"/>
+      <c r="AI9" s="390"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="181"/>
@@ -31908,20 +31918,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="AD9:AF9"/>
     <mergeCell ref="U2:W2"/>
@@ -31938,58 +31986,20 @@
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="S5:U5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AC6:AE6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/docs/輸入法鍵盤設計表_河洛注音.xlsx
+++ b/docs/輸入法鍵盤設計表_河洛注音.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19B2C03-67C4-45E6-8920-EFB2143A92EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE34E92-511A-4909-872A-77F240ED4042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{766DD094-9FFE-4B0A-B37A-EB3CD65DD3BC}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{76B4C5D7-2823-48BD-AD21-0622C3C40D27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{76B4C5D7-2823-48BD-AD21-0622C3C40D27}"/>
   </bookViews>
   <sheets>
     <sheet name="RIME對映編碼" sheetId="2" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="993">
   <si>
     <t>2 @</t>
   </si>
@@ -3367,10 +3367,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ｎ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>入聲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3740,6 +3736,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>ˉ</t>
   </si>
   <si>
     <t>ˇ</t>
@@ -4651,6 +4650,10 @@
     <t>N</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>声</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4662,7 +4665,7 @@
     <numFmt numFmtId="178" formatCode="General;;"/>
     <numFmt numFmtId="179" formatCode="General;;\(&quot;空&quot;&quot;白&quot;&quot;字&quot;&quot;元&quot;\)"/>
   </numFmts>
-  <fonts count="199">
+  <fonts count="198">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -5747,14 +5750,6 @@
     </font>
     <font>
       <b/>
-      <sz val="36"/>
-      <color rgb="FFFFC000"/>
-      <name val="KangXiZiDian.com 康熙字典體常用版"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -6451,7 +6446,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="123" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="496">
+  <cellXfs count="495">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7423,13 +7418,10 @@
     <xf numFmtId="178" fontId="165" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="166" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="167" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="166" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="167" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7438,23 +7430,23 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="172" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="171" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="176" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="177" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="175" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="178" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="179" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="175" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="176" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="174" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="177" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="178" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="179" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="178" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="178" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="180" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="179" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7466,10 +7458,10 @@
     <xf numFmtId="0" fontId="54" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="168" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="173" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7478,36 +7470,33 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="169" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="170" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="169" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="180" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="183" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="186" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="187" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="181" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="188" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="187" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7771,22 +7760,22 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="169" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="169" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="192" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="193" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="194" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="194" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7801,41 +7790,44 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="195" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="181" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="183" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="169" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="188" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="187" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="187" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="186" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="185" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="64" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="182" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{B91D425B-26B7-5B46-882C-36B2847BF71B}"/>
@@ -11115,11 +11107,11 @@
   </sheetPr>
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="1">
-      <selection activeCell="AR6" sqref="AR6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="1">
+      <selection activeCell="AH6" sqref="AH6:AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.8984375" defaultRowHeight="21"/>
@@ -11391,145 +11383,145 @@
         <v>335</v>
       </c>
       <c r="C3" s="65"/>
-      <c r="D3" s="363">
+      <c r="D3" s="362">
         <v>1</v>
       </c>
-      <c r="E3" s="363" t="s">
+      <c r="E3" s="362" t="s">
+        <v>828</v>
+      </c>
+      <c r="F3" s="363" t="s">
+        <v>328</v>
+      </c>
+      <c r="G3" s="363" t="s">
+        <v>329</v>
+      </c>
+      <c r="H3" s="362">
+        <v>2</v>
+      </c>
+      <c r="I3" s="362" t="s">
+        <v>353</v>
+      </c>
+      <c r="J3" s="362" t="s">
+        <v>354</v>
+      </c>
+      <c r="K3" s="362" t="s">
+        <v>355</v>
+      </c>
+      <c r="L3" s="362" t="s">
+        <v>356</v>
+      </c>
+      <c r="M3" s="362" t="s">
+        <v>844</v>
+      </c>
+      <c r="N3" s="362" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="362" t="s">
+        <v>331</v>
+      </c>
+      <c r="P3" s="362" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q3" s="362" t="s">
+        <v>358</v>
+      </c>
+      <c r="R3" s="362" t="s">
+        <v>314</v>
+      </c>
+      <c r="S3" s="362" t="s">
+        <v>352</v>
+      </c>
+      <c r="T3" s="362" t="s">
+        <v>359</v>
+      </c>
+      <c r="U3" s="362" t="s">
+        <v>342</v>
+      </c>
+      <c r="V3" s="362" t="s">
+        <v>351</v>
+      </c>
+      <c r="W3" s="362" t="s">
+        <v>360</v>
+      </c>
+      <c r="X3" s="362">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="362" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z3" s="362" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA3" s="362" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB3" s="362" t="s">
+        <v>344</v>
+      </c>
+      <c r="AC3" s="364" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD3" s="362">
+        <v>9</v>
+      </c>
+      <c r="AE3" s="362" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF3" s="365">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="362" t="s">
+        <v>823</v>
+      </c>
+      <c r="AH3" s="362" t="s">
+        <v>838</v>
+      </c>
+      <c r="AI3" s="362" t="s">
+        <v>839</v>
+      </c>
+      <c r="AJ3" s="362" t="s">
+        <v>840</v>
+      </c>
+      <c r="AK3" s="362" t="s">
+        <v>841</v>
+      </c>
+      <c r="AL3" s="362" t="s">
+        <v>842</v>
+      </c>
+      <c r="AM3" s="363" t="s">
         <v>829</v>
       </c>
-      <c r="F3" s="364" t="s">
-        <v>328</v>
-      </c>
-      <c r="G3" s="364" t="s">
-        <v>329</v>
-      </c>
-      <c r="H3" s="363">
-        <v>2</v>
-      </c>
-      <c r="I3" s="363" t="s">
-        <v>353</v>
-      </c>
-      <c r="J3" s="363" t="s">
-        <v>354</v>
-      </c>
-      <c r="K3" s="363" t="s">
-        <v>355</v>
-      </c>
-      <c r="L3" s="363" t="s">
-        <v>356</v>
-      </c>
-      <c r="M3" s="363" t="s">
-        <v>845</v>
-      </c>
-      <c r="N3" s="363" t="s">
-        <v>164</v>
-      </c>
-      <c r="O3" s="363" t="s">
-        <v>331</v>
-      </c>
-      <c r="P3" s="363" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q3" s="363" t="s">
-        <v>358</v>
-      </c>
-      <c r="R3" s="363" t="s">
-        <v>314</v>
-      </c>
-      <c r="S3" s="363" t="s">
-        <v>352</v>
-      </c>
-      <c r="T3" s="363" t="s">
-        <v>359</v>
-      </c>
-      <c r="U3" s="363" t="s">
-        <v>342</v>
-      </c>
-      <c r="V3" s="363" t="s">
-        <v>351</v>
-      </c>
-      <c r="W3" s="363" t="s">
-        <v>360</v>
-      </c>
-      <c r="X3" s="363">
-        <v>8</v>
-      </c>
-      <c r="Y3" s="363" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z3" s="363" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA3" s="363" t="s">
-        <v>361</v>
-      </c>
-      <c r="AB3" s="363" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC3" s="365" t="s">
-        <v>362</v>
-      </c>
-      <c r="AD3" s="363">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="363" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF3" s="366">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="363" t="s">
-        <v>823</v>
-      </c>
-      <c r="AH3" s="363" t="s">
-        <v>839</v>
-      </c>
-      <c r="AI3" s="363" t="s">
-        <v>840</v>
-      </c>
-      <c r="AJ3" s="363" t="s">
-        <v>841</v>
-      </c>
-      <c r="AK3" s="363" t="s">
-        <v>842</v>
-      </c>
-      <c r="AL3" s="363" t="s">
-        <v>843</v>
-      </c>
-      <c r="AM3" s="364" t="s">
-        <v>830</v>
-      </c>
-      <c r="AN3" s="367" t="s">
-        <v>838</v>
-      </c>
-      <c r="AO3" s="374" t="s">
+      <c r="AN3" s="366" t="s">
+        <v>837</v>
+      </c>
+      <c r="AO3" s="373" t="s">
+        <v>862</v>
+      </c>
+      <c r="AP3" s="373" t="s">
+        <v>864</v>
+      </c>
+      <c r="AQ3" s="373" t="s">
         <v>863</v>
       </c>
-      <c r="AP3" s="374" t="s">
-        <v>865</v>
-      </c>
-      <c r="AQ3" s="374" t="s">
-        <v>864</v>
-      </c>
-      <c r="AR3" s="375" t="s">
-        <v>304</v>
-      </c>
-      <c r="AS3" s="365" t="s">
-        <v>874</v>
-      </c>
-      <c r="AT3" s="363">
+      <c r="AR3" s="494" t="s">
+        <v>813</v>
+      </c>
+      <c r="AS3" s="364" t="s">
+        <v>873</v>
+      </c>
+      <c r="AT3" s="362">
         <v>4</v>
       </c>
-      <c r="AU3" s="363">
+      <c r="AU3" s="362">
         <v>3</v>
       </c>
-      <c r="AV3" s="363">
+      <c r="AV3" s="362">
         <v>6</v>
       </c>
-      <c r="AW3" s="363">
+      <c r="AW3" s="362">
         <v>5</v>
       </c>
-      <c r="AX3" s="368">
+      <c r="AX3" s="367">
         <v>7</v>
       </c>
     </row>
@@ -11542,7 +11534,7 @@
       <c r="D4" s="205" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="362" t="s">
+      <c r="E4" s="361" t="s">
         <v>90</v>
       </c>
       <c r="F4" s="205" t="s">
@@ -11566,7 +11558,7 @@
       <c r="L4" s="205" t="s">
         <v>462</v>
       </c>
-      <c r="M4" s="362" t="s">
+      <c r="M4" s="361" t="s">
         <v>44</v>
       </c>
       <c r="N4" s="205" t="s">
@@ -11581,7 +11573,7 @@
       <c r="Q4" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="362" t="s">
+      <c r="R4" s="361" t="s">
         <v>106</v>
       </c>
       <c r="S4" s="205" t="s">
@@ -11617,16 +11609,16 @@
       <c r="AC4" s="205" t="s">
         <v>115</v>
       </c>
-      <c r="AD4" s="354" t="s">
+      <c r="AD4" s="353" t="s">
         <v>22</v>
       </c>
-      <c r="AE4" s="354" t="s">
+      <c r="AE4" s="353" t="s">
         <v>80</v>
       </c>
-      <c r="AF4" s="354" t="s">
+      <c r="AF4" s="353" t="s">
         <v>23</v>
       </c>
-      <c r="AG4" s="354" t="s">
+      <c r="AG4" s="353" t="s">
         <v>81</v>
       </c>
       <c r="AH4" s="206" t="s">
@@ -11660,10 +11652,10 @@
         <v>113</v>
       </c>
       <c r="AR4" s="205" t="s">
-        <v>825</v>
+        <v>992</v>
       </c>
       <c r="AS4" s="205" t="s">
-        <v>874</v>
+        <v>904</v>
       </c>
       <c r="AT4" s="205" t="s">
         <v>14</v>
@@ -11678,17 +11670,17 @@
         <v>16</v>
       </c>
       <c r="AX4" s="205" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="BD4"/>
       <c r="BE4"/>
       <c r="BF4"/>
       <c r="BG4"/>
-      <c r="BH4" s="377" t="s">
-        <v>868</v>
-      </c>
-      <c r="BI4" s="378" t="s">
-        <v>871</v>
+      <c r="BH4" s="375" t="s">
+        <v>867</v>
+      </c>
+      <c r="BI4" s="376" t="s">
+        <v>870</v>
       </c>
     </row>
     <row r="5" spans="1:63" ht="40.5" customHeight="1">
@@ -11788,34 +11780,34 @@
         <v>824</v>
       </c>
       <c r="AH5" s="153" t="s">
+        <v>832</v>
+      </c>
+      <c r="AI5" s="153" t="s">
         <v>833</v>
       </c>
-      <c r="AI5" s="153" t="s">
+      <c r="AJ5" s="153" t="s">
         <v>834</v>
       </c>
-      <c r="AJ5" s="153" t="s">
+      <c r="AK5" s="153" t="s">
         <v>835</v>
       </c>
-      <c r="AK5" s="153" t="s">
+      <c r="AL5" s="153" t="s">
         <v>836</v>
       </c>
-      <c r="AL5" s="153" t="s">
-        <v>837</v>
-      </c>
       <c r="AM5" s="155" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN5" s="155" t="s">
         <v>831</v>
       </c>
-      <c r="AN5" s="155" t="s">
-        <v>832</v>
-      </c>
       <c r="AO5" s="155" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AP5" s="155" t="s">
+        <v>858</v>
+      </c>
+      <c r="AQ5" s="155" t="s">
         <v>859</v>
-      </c>
-      <c r="AQ5" s="155" t="s">
-        <v>860</v>
       </c>
       <c r="AR5" s="155" t="s">
         <v>336</v>
@@ -11838,11 +11830,11 @@
       <c r="AX5" s="153">
         <v>8</v>
       </c>
-      <c r="BH5" s="377" t="s">
+      <c r="BH5" s="375" t="s">
+        <v>868</v>
+      </c>
+      <c r="BI5" s="376" t="s">
         <v>869</v>
-      </c>
-      <c r="BI5" s="378" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="6" spans="1:63" s="3" customFormat="1" ht="40.5" customHeight="1">
@@ -11893,7 +11885,7 @@
       <c r="Q6" s="151" t="s">
         <v>331</v>
       </c>
-      <c r="R6" s="350" t="s">
+      <c r="R6" s="349" t="s">
         <v>135</v>
       </c>
       <c r="S6" s="151" t="s">
@@ -11929,50 +11921,50 @@
       <c r="AC6" s="152" t="s">
         <v>816</v>
       </c>
-      <c r="AD6" s="351" t="s">
+      <c r="AD6" s="350" t="s">
         <v>702</v>
       </c>
-      <c r="AE6" s="351" t="s">
+      <c r="AE6" s="350" t="s">
         <v>703</v>
       </c>
-      <c r="AF6" s="351" t="s">
+      <c r="AF6" s="350" t="s">
         <v>820</v>
       </c>
-      <c r="AG6" s="351" t="s">
+      <c r="AG6" s="350" t="s">
         <v>821</v>
       </c>
       <c r="AH6" s="152" t="s">
         <v>306</v>
       </c>
       <c r="AI6" s="152" t="s">
+        <v>845</v>
+      </c>
+      <c r="AJ6" s="152" t="s">
         <v>846</v>
       </c>
-      <c r="AJ6" s="152" t="s">
+      <c r="AK6" s="152" t="s">
+        <v>848</v>
+      </c>
+      <c r="AL6" s="152" t="s">
+        <v>844</v>
+      </c>
+      <c r="AM6" s="152" t="s">
         <v>847</v>
       </c>
-      <c r="AK6" s="152" t="s">
+      <c r="AN6" s="152" t="s">
         <v>849</v>
       </c>
-      <c r="AL6" s="152" t="s">
-        <v>845</v>
-      </c>
-      <c r="AM6" s="152" t="s">
-        <v>848</v>
-      </c>
-      <c r="AN6" s="152" t="s">
-        <v>850</v>
-      </c>
       <c r="AO6" s="152" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AP6" s="152" t="s">
+        <v>860</v>
+      </c>
+      <c r="AQ6" s="152" t="s">
         <v>861</v>
       </c>
-      <c r="AQ6" s="152" t="s">
-        <v>862</v>
-      </c>
       <c r="AR6" s="264" t="s">
-        <v>788</v>
+        <v>304</v>
       </c>
       <c r="AS6" s="152">
         <v>1</v>
@@ -12013,84 +12005,84 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="356" t="str">
+      <c r="D8" s="355" t="str">
         <f>E4</f>
         <v>ㆠ</v>
       </c>
-      <c r="E8" s="352" t="s">
-        <v>853</v>
-      </c>
-      <c r="F8" s="355" t="str">
+      <c r="E8" s="351" t="s">
+        <v>852</v>
+      </c>
+      <c r="F8" s="354" t="str">
         <f>E6</f>
         <v>b</v>
       </c>
-      <c r="G8" s="387" t="s">
+      <c r="G8" s="385" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="388"/>
-      <c r="I8" s="389"/>
-      <c r="J8" s="396" t="s">
+      <c r="H8" s="386"/>
+      <c r="I8" s="387"/>
+      <c r="J8" s="394" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="397"/>
-      <c r="L8" s="398"/>
-      <c r="M8" s="396" t="s">
+      <c r="K8" s="395"/>
+      <c r="L8" s="396"/>
+      <c r="M8" s="394" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="397"/>
-      <c r="O8" s="398"/>
-      <c r="P8" s="399" t="s">
+      <c r="N8" s="395"/>
+      <c r="O8" s="396"/>
+      <c r="P8" s="397" t="s">
         <v>785</v>
       </c>
-      <c r="Q8" s="400"/>
-      <c r="R8" s="401"/>
-      <c r="S8" s="396" t="s">
+      <c r="Q8" s="398"/>
+      <c r="R8" s="399"/>
+      <c r="S8" s="394" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="397"/>
-      <c r="U8" s="398"/>
-      <c r="V8" s="396" t="s">
+      <c r="T8" s="395"/>
+      <c r="U8" s="396"/>
+      <c r="V8" s="394" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="397"/>
-      <c r="X8" s="398"/>
-      <c r="Y8" s="357" t="str">
+      <c r="W8" s="395"/>
+      <c r="X8" s="396"/>
+      <c r="Y8" s="356" t="str">
         <f>AJ4</f>
         <v>ㆩ</v>
       </c>
-      <c r="Z8" s="353" t="s">
-        <v>855</v>
-      </c>
-      <c r="AA8" s="358" t="str">
+      <c r="Z8" s="352" t="s">
+        <v>854</v>
+      </c>
+      <c r="AA8" s="357" t="str">
         <f>AJ5</f>
         <v>an</v>
       </c>
-      <c r="AB8" s="357" t="str">
+      <c r="AB8" s="356" t="str">
         <f>AM4</f>
         <v>ㆮ</v>
       </c>
-      <c r="AC8" s="353" t="s">
-        <v>854</v>
-      </c>
-      <c r="AD8" s="358" t="str">
+      <c r="AC8" s="352" t="s">
+        <v>853</v>
+      </c>
+      <c r="AD8" s="357" t="str">
         <f>AM5</f>
         <v>ain</v>
       </c>
-      <c r="AE8" s="390" t="s">
+      <c r="AE8" s="388" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="391"/>
-      <c r="AG8" s="392"/>
-      <c r="AH8" s="384" t="s">
+      <c r="AF8" s="389"/>
+      <c r="AG8" s="390"/>
+      <c r="AH8" s="382" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="385"/>
-      <c r="AJ8" s="386"/>
-      <c r="AK8" s="384" t="s">
+      <c r="AI8" s="383"/>
+      <c r="AJ8" s="384"/>
+      <c r="AK8" s="382" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="385"/>
-      <c r="AM8" s="386"/>
+      <c r="AL8" s="383"/>
+      <c r="AM8" s="384"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -12103,32 +12095,32 @@
       <c r="AW8" s="73"/>
       <c r="AX8" s="73"/>
       <c r="AZ8" s="2"/>
-      <c r="BA8" s="369" t="s">
+      <c r="BA8" s="368" t="s">
         <v>103</v>
       </c>
-      <c r="BB8" s="373" t="s">
+      <c r="BB8" s="372" t="s">
         <v>104</v>
       </c>
-      <c r="BC8" s="370" t="s">
+      <c r="BC8" s="369" t="s">
+        <v>826</v>
+      </c>
+      <c r="BD8" s="370" t="s">
+        <v>334</v>
+      </c>
+      <c r="BE8" s="371" t="s">
         <v>827</v>
       </c>
-      <c r="BD8" s="371" t="s">
-        <v>334</v>
-      </c>
-      <c r="BE8" s="372" t="s">
-        <v>828</v>
-      </c>
-      <c r="BH8" s="369" t="s">
+      <c r="BH8" s="368" t="s">
         <v>103</v>
       </c>
-      <c r="BI8" s="380" t="s">
-        <v>872</v>
-      </c>
-      <c r="BJ8" s="376" t="s">
+      <c r="BI8" s="378" t="s">
+        <v>871</v>
+      </c>
+      <c r="BJ8" s="374" t="s">
+        <v>865</v>
+      </c>
+      <c r="BK8" s="369" t="s">
         <v>866</v>
-      </c>
-      <c r="BK8" s="370" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="9" spans="1:63" ht="42.75" customHeight="1" thickTop="1" thickBot="1">
@@ -12149,75 +12141,84 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="393" t="s">
+      <c r="J9" s="391" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="394"/>
+      <c r="K9" s="392"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="393" t="s">
+      <c r="M9" s="391" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="394"/>
+      <c r="N9" s="392"/>
       <c r="O9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="395" t="str">
+      <c r="P9" s="393" t="str">
         <f>AW4</f>
         <v>˫</v>
       </c>
-      <c r="Q9" s="394"/>
+      <c r="Q9" s="392"/>
       <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="393" t="s">
+      <c r="S9" s="391" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="394"/>
+      <c r="T9" s="392"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="395" t="str">
+      <c r="V9" s="393" t="str">
         <f>AX4</f>
         <v>．</v>
       </c>
-      <c r="W9" s="394"/>
+      <c r="W9" s="392"/>
       <c r="X9" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="Y9" s="359" t="str">
+        <v>825</v>
+      </c>
+      <c r="Y9" s="358" t="str">
         <f>X4</f>
         <v>ㄚ</v>
       </c>
-      <c r="Z9" s="71"/>
+      <c r="Z9" s="71" t="str">
+        <f>X5</f>
+        <v>a</v>
+      </c>
       <c r="AA9" s="148" t="str">
         <f>X5</f>
         <v>a</v>
       </c>
-      <c r="AB9" s="359" t="str">
+      <c r="AB9" s="358" t="str">
         <f>AD4</f>
         <v>ㄞ</v>
       </c>
-      <c r="AC9" s="71"/>
+      <c r="AC9" s="71" t="str">
+        <f>AD6</f>
+        <v>I</v>
+      </c>
       <c r="AD9" s="148" t="str">
         <f>AD5</f>
         <v>ai</v>
       </c>
-      <c r="AE9" s="359" t="str">
+      <c r="AE9" s="358" t="str">
         <f>AF4</f>
         <v>ㄢ</v>
       </c>
-      <c r="AF9" s="69"/>
-      <c r="AG9" s="149" t="str">
+      <c r="AF9" s="71" t="str">
+        <f>AF6</f>
+        <v>L</v>
+      </c>
+      <c r="AG9" s="150" t="str">
         <f>AF5</f>
         <v>an</v>
       </c>
       <c r="AH9" s="68"/>
       <c r="AI9" s="69"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="382"/>
-      <c r="AL9" s="383"/>
+      <c r="AK9" s="380"/>
+      <c r="AL9" s="381"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -12255,7 +12256,7 @@
         <f t="array" ref="BH9" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>1</v>
       </c>
-      <c r="BI9" s="381" t="str">
+      <c r="BI9" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ9, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㄅ</v>
       </c>
@@ -12263,7 +12264,7 @@
         <f xml:space="preserve"> MID($BI$4,$BH9,1)</f>
         <v>1</v>
       </c>
-      <c r="BK9" s="379" t="str">
+      <c r="BK9" s="377" t="str">
         <f xml:space="preserve"> MID($BI$5,$BH9,1)</f>
         <v>1</v>
       </c>
@@ -12273,95 +12274,95 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="387" t="s">
+      <c r="E10" s="385" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="388"/>
-      <c r="G10" s="389"/>
-      <c r="H10" s="387" t="s">
+      <c r="F10" s="386"/>
+      <c r="G10" s="387"/>
+      <c r="H10" s="385" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="388"/>
-      <c r="J10" s="389"/>
-      <c r="K10" s="356" t="str">
+      <c r="I10" s="386"/>
+      <c r="J10" s="387"/>
+      <c r="K10" s="355" t="str">
         <f>M4</f>
         <v>ㆣ</v>
       </c>
-      <c r="L10" s="352" t="s">
-        <v>844</v>
-      </c>
-      <c r="M10" s="355" t="str">
+      <c r="L10" s="351" t="s">
+        <v>843</v>
+      </c>
+      <c r="M10" s="354" t="str">
         <f>M5</f>
         <v>g</v>
       </c>
-      <c r="N10" s="387" t="s">
+      <c r="N10" s="385" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="388"/>
-      <c r="P10" s="389"/>
-      <c r="Q10" s="387" t="s">
+      <c r="O10" s="386"/>
+      <c r="P10" s="387"/>
+      <c r="Q10" s="385" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="388"/>
-      <c r="S10" s="389"/>
-      <c r="T10" s="356" t="str">
+      <c r="R10" s="386"/>
+      <c r="S10" s="387"/>
+      <c r="T10" s="355" t="str">
         <f>R4</f>
         <v>ㆡ</v>
       </c>
-      <c r="U10" s="352" t="s">
-        <v>852</v>
-      </c>
-      <c r="V10" s="355" t="str">
+      <c r="U10" s="351" t="s">
+        <v>851</v>
+      </c>
+      <c r="V10" s="354" t="str">
         <f>R5</f>
         <v>j</v>
       </c>
-      <c r="W10" s="357" t="str">
+      <c r="W10" s="356" t="str">
         <f>AH4</f>
         <v>ㆪ</v>
       </c>
-      <c r="X10" s="353" t="s">
-        <v>839</v>
-      </c>
-      <c r="Y10" s="358" t="str">
+      <c r="X10" s="352" t="s">
+        <v>838</v>
+      </c>
+      <c r="Y10" s="357" t="str">
         <f>AH5</f>
         <v>in</v>
       </c>
-      <c r="Z10" s="357" t="str">
+      <c r="Z10" s="356" t="str">
         <f>AK4</f>
         <v>ㆧ</v>
       </c>
-      <c r="AA10" s="353" t="s">
-        <v>842</v>
-      </c>
-      <c r="AB10" s="358" t="str">
+      <c r="AA10" s="352" t="s">
+        <v>841</v>
+      </c>
+      <c r="AB10" s="357" t="str">
         <f>AK5</f>
         <v>oon</v>
       </c>
-      <c r="AC10" s="390" t="s">
+      <c r="AC10" s="388" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="391"/>
-      <c r="AE10" s="392"/>
-      <c r="AF10" s="390" t="s">
+      <c r="AD10" s="389"/>
+      <c r="AE10" s="390"/>
+      <c r="AF10" s="388" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="391"/>
-      <c r="AH10" s="392"/>
-      <c r="AI10" s="390" t="s">
+      <c r="AG10" s="389"/>
+      <c r="AH10" s="390"/>
+      <c r="AI10" s="388" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="391"/>
-      <c r="AK10" s="392"/>
-      <c r="AL10" s="390" t="s">
+      <c r="AJ10" s="389"/>
+      <c r="AK10" s="390"/>
+      <c r="AL10" s="388" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="391"/>
-      <c r="AN10" s="392"/>
-      <c r="AO10" s="384" t="s">
+      <c r="AM10" s="389"/>
+      <c r="AN10" s="390"/>
+      <c r="AO10" s="382" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="385"/>
-      <c r="AQ10" s="386"/>
+      <c r="AP10" s="383"/>
+      <c r="AQ10" s="384"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="73"/>
@@ -12392,7 +12393,7 @@
         <f t="array" ref="BH10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>2</v>
       </c>
-      <c r="BI10" s="381" t="e">
+      <c r="BI10" s="379" t="e">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ10, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>#N/A</v>
       </c>
@@ -12400,7 +12401,7 @@
         <f t="shared" ref="BJ10:BJ63" si="0" xml:space="preserve"> MID($BI$4,$BH10,1)</f>
         <v>!</v>
       </c>
-      <c r="BK10" s="379" t="str">
+      <c r="BK10" s="377" t="str">
         <f t="shared" ref="BK10:BK63" si="1" xml:space="preserve"> MID($BI$5,$BH10,1)</f>
         <v>!</v>
       </c>
@@ -12439,7 +12440,10 @@
         <f>AP4</f>
         <v>ㆱ</v>
       </c>
-      <c r="O11" s="67"/>
+      <c r="O11" s="67" t="str">
+        <f>AP6</f>
+        <v>H</v>
+      </c>
       <c r="P11" s="146" t="str">
         <f>AP5</f>
         <v>om</v>
@@ -12447,7 +12451,7 @@
       <c r="Q11" s="66"/>
       <c r="R11" s="67"/>
       <c r="S11" s="146"/>
-      <c r="T11" s="360" t="str">
+      <c r="T11" s="359" t="str">
         <f>Q4</f>
         <v>ㄗ</v>
       </c>
@@ -12456,48 +12460,60 @@
         <f>Q5</f>
         <v>c</v>
       </c>
-      <c r="W11" s="361" t="s">
+      <c r="W11" s="360" t="s">
         <v>48</v>
       </c>
-      <c r="X11" s="71"/>
+      <c r="X11" s="71" t="str">
+        <f>U6</f>
+        <v>i</v>
+      </c>
       <c r="Y11" s="148" t="str">
         <f>U5</f>
         <v>i</v>
       </c>
-      <c r="Z11" s="359" t="str">
+      <c r="Z11" s="358" t="str">
         <f>Y4</f>
         <v>ㆦ</v>
       </c>
-      <c r="AA11" s="71"/>
+      <c r="AA11" s="71" t="str">
+        <f>Y6</f>
+        <v>O</v>
+      </c>
       <c r="AB11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="359" t="str">
+      <c r="AC11" s="358" t="str">
         <f>AO4</f>
         <v>ㆲ</v>
       </c>
-      <c r="AD11" s="71"/>
+      <c r="AD11" s="71" t="str">
+        <f>AO6</f>
+        <v>Y</v>
+      </c>
       <c r="AE11" s="150" t="str">
         <f>AO5</f>
         <v>ong</v>
       </c>
-      <c r="AF11" s="349" t="str">
+      <c r="AF11" s="358" t="str">
         <f>AB4</f>
         <v>ㄣ</v>
       </c>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="149" t="str">
+      <c r="AG11" s="71" t="str">
+        <f>AB6</f>
+        <v>D</v>
+      </c>
+      <c r="AH11" s="148" t="str">
         <f>AB5</f>
         <v>-n</v>
       </c>
-      <c r="AI11" s="382"/>
-      <c r="AJ11" s="383"/>
+      <c r="AI11" s="380"/>
+      <c r="AJ11" s="381"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="382"/>
-      <c r="AM11" s="383"/>
+      <c r="AL11" s="380"/>
+      <c r="AM11" s="381"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="382"/>
-      <c r="AP11" s="383"/>
+      <c r="AO11" s="380"/>
+      <c r="AP11" s="381"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="4"/>
@@ -12529,7 +12545,7 @@
         <f t="array" ref="BH11" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>3</v>
       </c>
-      <c r="BI11" s="381" t="str">
+      <c r="BI11" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ11, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆭ</v>
       </c>
@@ -12537,7 +12553,7 @@
         <f t="shared" si="0"/>
         <v>q</v>
       </c>
-      <c r="BK11" s="379" t="str">
+      <c r="BK11" s="377" t="str">
         <f t="shared" si="1"/>
         <v>q</v>
       </c>
@@ -12548,73 +12564,73 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="387" t="s">
+      <c r="F12" s="385" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="388"/>
-      <c r="H12" s="389"/>
-      <c r="I12" s="387" t="s">
+      <c r="G12" s="386"/>
+      <c r="H12" s="387"/>
+      <c r="I12" s="385" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="388"/>
-      <c r="K12" s="389"/>
-      <c r="L12" s="387" t="s">
+      <c r="J12" s="386"/>
+      <c r="K12" s="387"/>
+      <c r="L12" s="385" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="388"/>
-      <c r="N12" s="389"/>
-      <c r="O12" s="387" t="s">
+      <c r="M12" s="386"/>
+      <c r="N12" s="387"/>
+      <c r="O12" s="385" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="388"/>
-      <c r="Q12" s="389"/>
-      <c r="R12" s="387" t="s">
+      <c r="P12" s="386"/>
+      <c r="Q12" s="387"/>
+      <c r="R12" s="385" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="388"/>
-      <c r="T12" s="389"/>
-      <c r="U12" s="387" t="s">
+      <c r="S12" s="386"/>
+      <c r="T12" s="387"/>
+      <c r="U12" s="385" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="388"/>
-      <c r="W12" s="389"/>
-      <c r="X12" s="357" t="str">
+      <c r="V12" s="386"/>
+      <c r="W12" s="387"/>
+      <c r="X12" s="356" t="str">
         <f>AI4</f>
         <v>ㆫ</v>
       </c>
-      <c r="Y12" s="353" t="s">
-        <v>840</v>
-      </c>
-      <c r="Z12" s="358" t="str">
+      <c r="Y12" s="352" t="s">
+        <v>839</v>
+      </c>
+      <c r="Z12" s="357" t="str">
         <f>AI5</f>
         <v>un</v>
       </c>
-      <c r="AA12" s="390" t="s">
+      <c r="AA12" s="388" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="391"/>
-      <c r="AC12" s="392"/>
-      <c r="AD12" s="357" t="str">
+      <c r="AB12" s="389"/>
+      <c r="AC12" s="390"/>
+      <c r="AD12" s="356" t="str">
         <f>AN4</f>
         <v>ㆯ</v>
       </c>
-      <c r="AE12" s="353" t="s">
-        <v>838</v>
-      </c>
-      <c r="AF12" s="358" t="str">
+      <c r="AE12" s="352" t="s">
+        <v>837</v>
+      </c>
+      <c r="AF12" s="357" t="str">
         <f>AN5</f>
         <v>aun</v>
       </c>
-      <c r="AG12" s="390" t="s">
+      <c r="AG12" s="388" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="391"/>
-      <c r="AI12" s="392"/>
-      <c r="AJ12" s="384" t="s">
+      <c r="AH12" s="389"/>
+      <c r="AI12" s="390"/>
+      <c r="AJ12" s="382" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="385"/>
-      <c r="AL12" s="386"/>
+      <c r="AK12" s="383"/>
+      <c r="AL12" s="384"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -12653,7 +12669,7 @@
         <f t="array" ref="BH12" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>4</v>
       </c>
-      <c r="BI12" s="381" t="str">
+      <c r="BI12" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ12, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -12661,7 +12677,7 @@
         <f t="shared" si="0"/>
         <v>a</v>
       </c>
-      <c r="BK12" s="379" t="str">
+      <c r="BK12" s="377" t="str">
         <f t="shared" si="1"/>
         <v>a</v>
       </c>
@@ -12700,7 +12716,10 @@
         <f>AQ4</f>
         <v>ㆰ</v>
       </c>
-      <c r="P13" s="67"/>
+      <c r="P13" s="67" t="str">
+        <f>AQ6</f>
+        <v>B</v>
+      </c>
       <c r="Q13" s="146" t="str">
         <f>AQ5</f>
         <v>am</v>
@@ -12708,7 +12727,7 @@
       <c r="R13" s="145"/>
       <c r="S13" s="67"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="360" t="str">
+      <c r="U13" s="359" t="str">
         <f>S4</f>
         <v>ㄘ</v>
       </c>
@@ -12717,43 +12736,55 @@
         <f>S5</f>
         <v>ch</v>
       </c>
-      <c r="X13" s="359" t="str">
+      <c r="X13" s="358" t="str">
         <f>V4</f>
         <v>ㄨ</v>
       </c>
-      <c r="Y13" s="71"/>
+      <c r="Y13" s="71" t="str">
+        <f>V6</f>
+        <v>u</v>
+      </c>
       <c r="Z13" s="148" t="str">
         <f>V5</f>
         <v>u</v>
       </c>
-      <c r="AA13" s="359" t="str">
+      <c r="AA13" s="358" t="str">
         <f>Z4</f>
         <v>ㄜ</v>
       </c>
-      <c r="AB13" s="71"/>
+      <c r="AB13" s="71" t="str">
+        <f>Z6</f>
+        <v>o</v>
+      </c>
       <c r="AC13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AD13" s="359" t="str">
+      <c r="AD13" s="358" t="str">
         <f>AE4</f>
         <v>ㄠ</v>
       </c>
-      <c r="AE13" s="71"/>
+      <c r="AE13" s="71" t="str">
+        <f>AN6</f>
+        <v>F</v>
+      </c>
       <c r="AF13" s="148" t="str">
         <f>AE5</f>
         <v>au</v>
       </c>
-      <c r="AG13" s="359" t="str">
+      <c r="AG13" s="358" t="str">
         <f>AG4</f>
         <v>ㄤ</v>
       </c>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="149" t="str">
+      <c r="AH13" s="71" t="str">
+        <f>AG6</f>
+        <v>Q</v>
+      </c>
+      <c r="AI13" s="148" t="str">
         <f>AG5</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="382"/>
-      <c r="AK13" s="383"/>
+      <c r="AJ13" s="380"/>
+      <c r="AK13" s="381"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -12793,7 +12824,7 @@
         <f t="array" ref="BH13" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>5</v>
       </c>
-      <c r="BI13" s="381" t="str">
+      <c r="BI13" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ13, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -12801,7 +12832,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="BK13" s="379" t="str">
+      <c r="BK13" s="377" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -12813,62 +12844,62 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="387" t="s">
+      <c r="G14" s="385" t="s">
         <v>306</v>
       </c>
-      <c r="H14" s="388"/>
-      <c r="I14" s="389"/>
-      <c r="J14" s="387" t="s">
+      <c r="H14" s="386"/>
+      <c r="I14" s="387"/>
+      <c r="J14" s="385" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="388"/>
-      <c r="L14" s="389"/>
-      <c r="M14" s="387" t="s">
+      <c r="K14" s="386"/>
+      <c r="L14" s="387"/>
+      <c r="M14" s="385" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="388"/>
-      <c r="O14" s="389"/>
-      <c r="P14" s="387" t="s">
+      <c r="N14" s="386"/>
+      <c r="O14" s="387"/>
+      <c r="P14" s="385" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="388"/>
-      <c r="R14" s="389"/>
-      <c r="S14" s="387" t="s">
+      <c r="Q14" s="386"/>
+      <c r="R14" s="387"/>
+      <c r="S14" s="385" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="388"/>
-      <c r="U14" s="389"/>
-      <c r="V14" s="387" t="s">
+      <c r="T14" s="386"/>
+      <c r="U14" s="387"/>
+      <c r="V14" s="385" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="388"/>
-      <c r="X14" s="389"/>
-      <c r="Y14" s="390" t="s">
+      <c r="W14" s="386"/>
+      <c r="X14" s="387"/>
+      <c r="Y14" s="388" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="391"/>
-      <c r="AA14" s="392"/>
-      <c r="AB14" s="357" t="str">
+      <c r="Z14" s="389"/>
+      <c r="AA14" s="390"/>
+      <c r="AB14" s="356" t="str">
         <f>AL4</f>
         <v>ㆥ</v>
       </c>
-      <c r="AC14" s="353" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD14" s="358" t="str">
+      <c r="AC14" s="352" t="s">
+        <v>855</v>
+      </c>
+      <c r="AD14" s="357" t="str">
         <f>AL5</f>
         <v>en</v>
       </c>
-      <c r="AE14" s="390" t="s">
+      <c r="AE14" s="388" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="391"/>
-      <c r="AG14" s="392"/>
-      <c r="AH14" s="384" t="s">
+      <c r="AF14" s="389"/>
+      <c r="AG14" s="390"/>
+      <c r="AH14" s="382" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="385"/>
-      <c r="AJ14" s="386"/>
+      <c r="AI14" s="383"/>
+      <c r="AJ14" s="384"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -12909,7 +12940,7 @@
         <f t="array" ref="BH14" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>6</v>
       </c>
-      <c r="BI14" s="381" t="str">
+      <c r="BI14" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ14, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆻ</v>
       </c>
@@ -12917,7 +12948,7 @@
         <f t="shared" si="0"/>
         <v>w</v>
       </c>
-      <c r="BK14" s="379" t="str">
+      <c r="BK14" s="377" t="str">
         <f t="shared" si="1"/>
         <v>w</v>
       </c>
@@ -12958,7 +12989,7 @@
       <c r="S15" s="66"/>
       <c r="T15" s="67"/>
       <c r="U15" s="146"/>
-      <c r="V15" s="360" t="str">
+      <c r="V15" s="359" t="str">
         <f>T4</f>
         <v>ㄙ</v>
       </c>
@@ -12966,20 +12997,26 @@
       <c r="X15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="Y15" s="359" t="str">
+      <c r="Y15" s="358" t="str">
         <f>W4</f>
         <v>ㆬ</v>
       </c>
-      <c r="Z15" s="71"/>
+      <c r="Z15" s="71" t="str">
+        <f>W6</f>
+        <v>M</v>
+      </c>
       <c r="AA15" s="149" t="str">
         <f>W5</f>
         <v>-m</v>
       </c>
-      <c r="AB15" s="359" t="str">
+      <c r="AB15" s="358" t="str">
         <f>AA4</f>
         <v>ㄝ</v>
       </c>
-      <c r="AC15" s="71"/>
+      <c r="AC15" s="71" t="str">
+        <f>AA6</f>
+        <v>e</v>
+      </c>
       <c r="AD15" s="148" t="str">
         <f>AA5</f>
         <v>e</v>
@@ -12987,12 +13024,15 @@
       <c r="AE15" s="72"/>
       <c r="AF15" s="70"/>
       <c r="AG15" s="7"/>
-      <c r="AH15" s="349" t="str">
+      <c r="AH15" s="358" t="str">
         <f>AC4</f>
         <v>ㄥ</v>
       </c>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="156" t="str">
+      <c r="AI15" s="71" t="str">
+        <f>AC6</f>
+        <v>W</v>
+      </c>
+      <c r="AJ15" s="148" t="str">
         <f>AC5</f>
         <v>-ng</v>
       </c>
@@ -13035,7 +13075,7 @@
         <f t="array" ref="BH15" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>7</v>
       </c>
-      <c r="BI15" s="381" t="str">
+      <c r="BI15" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ15, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆭ</v>
       </c>
@@ -13043,7 +13083,7 @@
         <f t="shared" si="0"/>
         <v>s</v>
       </c>
-      <c r="BK15" s="379" t="str">
+      <c r="BK15" s="377" t="str">
         <f t="shared" si="1"/>
         <v>s</v>
       </c>
@@ -13124,7 +13164,7 @@
         <f t="array" ref="BH16" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>8</v>
       </c>
-      <c r="BI16" s="381" t="str">
+      <c r="BI16" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ16, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆻ</v>
       </c>
@@ -13132,7 +13172,7 @@
         <f t="shared" si="0"/>
         <v>x</v>
       </c>
-      <c r="BK16" s="379" t="str">
+      <c r="BK16" s="377" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
@@ -13169,7 +13209,7 @@
         <f t="array" ref="BH17" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>9</v>
       </c>
-      <c r="BI17" s="381" t="str">
+      <c r="BI17" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ17, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -13177,7 +13217,7 @@
         <f t="shared" si="0"/>
         <v>e</v>
       </c>
-      <c r="BK17" s="379" t="str">
+      <c r="BK17" s="377" t="str">
         <f t="shared" si="1"/>
         <v>e</v>
       </c>
@@ -13260,7 +13300,7 @@
         <f t="array" ref="BH18" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>10</v>
       </c>
-      <c r="BI18" s="381" t="str">
+      <c r="BI18" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ18, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -13268,7 +13308,7 @@
         <f t="shared" si="0"/>
         <v>E</v>
       </c>
-      <c r="BK18" s="379" t="str">
+      <c r="BK18" s="377" t="str">
         <f t="shared" si="1"/>
         <v>E</v>
       </c>
@@ -13284,7 +13324,7 @@
       </c>
       <c r="D19" s="80" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(D6:AX6)</f>
-        <v>pbPmtTnlkgKhwcjCsiuMaOoeDWIULQZXRSEVFYHBN123570</v>
+        <v>pbPmtTnlkgKhwcjCsiuMaOoeDWIULQZXRSEVFYHBz123570</v>
       </c>
       <c r="E19" s="77"/>
       <c r="F19" s="77"/>
@@ -13320,9 +13360,9 @@
       <c r="AJ19" s="75" t="s">
         <v>991</v>
       </c>
-      <c r="AK19" s="76">
+      <c r="AK19" s="76" t="e">
         <f>FIND(AJ19, D19)</f>
-        <v>41</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AL19" s="76"/>
       <c r="AM19" s="76"/>
@@ -13363,7 +13403,7 @@
         <f t="array" ref="BH19" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>11</v>
       </c>
-      <c r="BI19" s="381" t="str">
+      <c r="BI19" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ19, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -13371,7 +13411,7 @@
         <f t="shared" si="0"/>
         <v>d</v>
       </c>
-      <c r="BK19" s="379" t="str">
+      <c r="BK19" s="377" t="str">
         <f t="shared" si="1"/>
         <v>d</v>
       </c>
@@ -13387,7 +13427,7 @@
       </c>
       <c r="D20" s="88" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(D3:AX3)</f>
-        <v>1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfvz 43657</v>
+        <v>1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfv- 43657</v>
       </c>
       <c r="E20" s="87"/>
       <c r="F20" s="87"/>
@@ -13420,9 +13460,9 @@
       <c r="AG20" s="87"/>
       <c r="AH20" s="76"/>
       <c r="AI20" s="76"/>
-      <c r="AJ20" s="76" t="str">
+      <c r="AJ20" s="76" t="e">
         <f xml:space="preserve"> MID(D20,AK19,1)</f>
-        <v>z</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AL20" s="76"/>
       <c r="AM20" s="76"/>
@@ -13463,7 +13503,7 @@
         <f t="array" ref="BH20" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>12</v>
       </c>
-      <c r="BI20" s="381" t="str">
+      <c r="BI20" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ20, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -13471,7 +13511,7 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="BK20" s="379" t="str">
+      <c r="BK20" s="377" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
@@ -13479,7 +13519,7 @@
     <row r="21" spans="1:63" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B21" s="159" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; D19 &amp; "|" &amp; D20 &amp; "|"</f>
-        <v>- xlit|pbPmtTnlkgKhwcjCsiuMaOoeDWIULQZXRSEVFYHBN123570|1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfvz 43657|</v>
+        <v>- xlit|pbPmtTnlkgKhwcjCsiuMaOoeDWIULQZXRSEVFYHBz123570|1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfv- 43657|</v>
       </c>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
@@ -13555,7 +13595,7 @@
         <f t="array" ref="BH21" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>13</v>
       </c>
-      <c r="BI21" s="381" t="str">
+      <c r="BI21" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ21, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -13563,7 +13603,7 @@
         <f t="shared" si="0"/>
         <v>c</v>
       </c>
-      <c r="BK21" s="379" t="str">
+      <c r="BK21" s="377" t="str">
         <f t="shared" si="1"/>
         <v>c</v>
       </c>
@@ -13644,7 +13684,7 @@
         <f t="array" ref="BH22" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>14</v>
       </c>
-      <c r="BI22" s="381" t="str">
+      <c r="BI22" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ22, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆭ</v>
       </c>
@@ -13652,7 +13692,7 @@
         <f t="shared" si="0"/>
         <v>r</v>
       </c>
-      <c r="BK22" s="379" t="str">
+      <c r="BK22" s="377" t="str">
         <f t="shared" si="1"/>
         <v>r</v>
       </c>
@@ -13735,7 +13775,7 @@
         <f t="array" ref="BH23" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>15</v>
       </c>
-      <c r="BI23" s="381" t="str">
+      <c r="BI23" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ23, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆭ</v>
       </c>
@@ -13743,7 +13783,7 @@
         <f t="shared" si="0"/>
         <v>R</v>
       </c>
-      <c r="BK23" s="379" t="str">
+      <c r="BK23" s="377" t="str">
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
@@ -13828,7 +13868,7 @@
         <f t="array" ref="BH24" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>16</v>
       </c>
-      <c r="BI24" s="381" t="str">
+      <c r="BI24" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ24, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -13836,7 +13876,7 @@
         <f t="shared" si="0"/>
         <v>f</v>
       </c>
-      <c r="BK24" s="379" t="str">
+      <c r="BK24" s="377" t="str">
         <f t="shared" si="1"/>
         <v>f</v>
       </c>
@@ -13853,7 +13893,7 @@
       </c>
       <c r="D25" s="87" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(D3:AX3)</f>
-        <v>1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfvz 43657</v>
+        <v>1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfv- 43657</v>
       </c>
       <c r="E25" s="87"/>
       <c r="F25" s="87"/>
@@ -13887,7 +13927,7 @@
       <c r="AH25" s="76"/>
       <c r="AI25" s="76" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(D3:AR3, AT3:AX3)</f>
-        <v>1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfvz43657</v>
+        <v>1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfv-43657</v>
       </c>
       <c r="AJ25" s="76"/>
       <c r="AK25" s="76"/>
@@ -13929,7 +13969,7 @@
         <f t="array" ref="BH25" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>17</v>
       </c>
-      <c r="BI25" s="381" t="str">
+      <c r="BI25" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ25, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆻ</v>
       </c>
@@ -13937,7 +13977,7 @@
         <f t="shared" si="0"/>
         <v>v</v>
       </c>
-      <c r="BK25" s="379" t="str">
+      <c r="BK25" s="377" t="str">
         <f t="shared" si="1"/>
         <v>v</v>
       </c>
@@ -13953,7 +13993,7 @@
       </c>
       <c r="D26" s="81" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(D4:AX4)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰｎ ˋ˪ˊ˫．</v>
+        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ声ˉˋ˪ˊ˫．</v>
       </c>
       <c r="E26" s="81"/>
       <c r="F26" s="81"/>
@@ -13987,7 +14027,7 @@
       <c r="AH26" s="76"/>
       <c r="AI26" s="76" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(D32, AT4:AX4)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰｎˋ˪ˊ˫．ˋ˪ˊ˫．</v>
+        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ声ˋ˪ˊ˫．ˋ˪ˊ˫．</v>
       </c>
       <c r="AJ26" s="76"/>
       <c r="AK26" s="76"/>
@@ -14029,7 +14069,7 @@
         <f t="array" ref="BH26" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>18</v>
       </c>
-      <c r="BI26" s="381" t="str">
+      <c r="BI26" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ26, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆻ</v>
       </c>
@@ -14037,7 +14077,7 @@
         <f t="shared" si="0"/>
         <v>y</v>
       </c>
-      <c r="BK26" s="379" t="str">
+      <c r="BK26" s="377" t="str">
         <f t="shared" si="1"/>
         <v>y</v>
       </c>
@@ -14045,7 +14085,7 @@
     <row r="27" spans="1:63" ht="38.1" customHeight="1">
       <c r="B27" s="159" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; D25 &amp; "|" &amp; D26 &amp; "|"</f>
-        <v>- xlit|1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfvz 43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰｎ ˋ˪ˊ˫．|</v>
+        <v>- xlit|1!qa2wsxeEdcvyYhnujm8ik,p/9l0;UJ*I&lt;(Lrfv- 43657|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ声ˉˋ˪ˊ˫．|</v>
       </c>
       <c r="C27" s="74"/>
       <c r="D27" s="74"/>
@@ -14120,7 +14160,7 @@
         <f t="array" ref="BH27" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>19</v>
       </c>
-      <c r="BI27" s="381" t="str">
+      <c r="BI27" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ27, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆻ</v>
       </c>
@@ -14128,7 +14168,7 @@
         <f t="shared" si="0"/>
         <v>Y</v>
       </c>
-      <c r="BK27" s="379" t="str">
+      <c r="BK27" s="377" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
@@ -14208,7 +14248,7 @@
         <f t="array" ref="BH28" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>20</v>
       </c>
-      <c r="BI28" s="381" t="str">
+      <c r="BI28" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ28, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -14216,7 +14256,7 @@
         <f t="shared" si="0"/>
         <v>h</v>
       </c>
-      <c r="BK28" s="379" t="str">
+      <c r="BK28" s="377" t="str">
         <f t="shared" si="1"/>
         <v>h</v>
       </c>
@@ -14298,7 +14338,7 @@
         <f t="array" ref="BH29" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>21</v>
       </c>
-      <c r="BI29" s="381" t="str">
+      <c r="BI29" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ29, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -14306,7 +14346,7 @@
         <f t="shared" si="0"/>
         <v>n</v>
       </c>
-      <c r="BK29" s="379" t="str">
+      <c r="BK29" s="377" t="str">
         <f t="shared" si="1"/>
         <v>n</v>
       </c>
@@ -14391,7 +14431,7 @@
         <f t="array" ref="BH30" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>22</v>
       </c>
-      <c r="BI30" s="381" t="str">
+      <c r="BI30" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ30, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -14399,7 +14439,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="BK30" s="379" t="str">
+      <c r="BK30" s="377" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -14415,7 +14455,7 @@
       </c>
       <c r="D31" s="87" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(D6:AR6, AT6:AX6)</f>
-        <v>pbPmtTnlkgKhwcjCsiuMaOoeDWIULQZXRSEVFYHBN23570</v>
+        <v>pbPmtTnlkgKhwcjCsiuMaOoeDWIULQZXRSEVFYHBz23570</v>
       </c>
       <c r="E31" s="87"/>
       <c r="F31" s="87"/>
@@ -14489,7 +14529,7 @@
         <f t="array" ref="BH31" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>23</v>
       </c>
-      <c r="BI31" s="381" t="e">
+      <c r="BI31" s="379" t="e">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ31, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>#N/A</v>
       </c>
@@ -14497,7 +14537,7 @@
         <f t="shared" si="0"/>
         <v>*</v>
       </c>
-      <c r="BK31" s="379" t="str">
+      <c r="BK31" s="377" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
@@ -14514,7 +14554,7 @@
       </c>
       <c r="D32" s="81" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(D4:AR4, AT4:AX4)</f>
-        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰｎˋ˪ˊ˫．</v>
+        <v>ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ声ˋ˪ˊ˫．</v>
       </c>
       <c r="E32" s="81"/>
       <c r="F32" s="81"/>
@@ -14588,7 +14628,7 @@
         <f t="array" ref="BH32" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>24</v>
       </c>
-      <c r="BI32" s="381" t="str">
+      <c r="BI32" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ32, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -14596,7 +14636,7 @@
         <f t="shared" si="0"/>
         <v>i</v>
       </c>
-      <c r="BK32" s="379" t="str">
+      <c r="BK32" s="377" t="str">
         <f t="shared" si="1"/>
         <v>i</v>
       </c>
@@ -14604,7 +14644,7 @@
     <row r="33" spans="1:63" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B33" s="159" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; D31 &amp; "|" &amp; D32 &amp; "|"</f>
-        <v>- xlit|pbPmtTnlkgKhwcjCsiuMaOoeDWIULQZXRSEVFYHBN23570|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰｎˋ˪ˊ˫．|</v>
+        <v>- xlit|pbPmtTnlkgKhwcjCsiuMaOoeDWIULQZXRSEVFYHBz23570|ㄅㆠㄆㄇㄉㄊㄋㄌㄍㆣㄎㄏㄫㄗㆡㄘㄙㄧㄨㆬㄚㆦㄜㄝㄣㄥㄞㄠㄢㄤㆪㆫㆩㆧㆥㆮㆯㆲㆱㆰ声ˋ˪ˊ˫．|</v>
       </c>
       <c r="C33" s="74"/>
       <c r="D33" s="74"/>
@@ -14680,7 +14720,7 @@
         <f t="array" ref="BH33" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>25</v>
       </c>
-      <c r="BI33" s="381" t="str">
+      <c r="BI33" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ33, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -14688,7 +14728,7 @@
         <f t="shared" si="0"/>
         <v>I</v>
       </c>
-      <c r="BK33" s="379" t="str">
+      <c r="BK33" s="377" t="str">
         <f t="shared" si="1"/>
         <v>I</v>
       </c>
@@ -14769,7 +14809,7 @@
         <f t="array" ref="BH34" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>26</v>
       </c>
-      <c r="BI34" s="381" t="str">
+      <c r="BI34" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ34, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -14777,7 +14817,7 @@
         <f t="shared" si="0"/>
         <v>k</v>
       </c>
-      <c r="BK34" s="379" t="str">
+      <c r="BK34" s="377" t="str">
         <f t="shared" si="1"/>
         <v>k</v>
       </c>
@@ -14858,7 +14898,7 @@
         <f t="array" ref="BH35" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>27</v>
       </c>
-      <c r="BI35" s="381" t="str">
+      <c r="BI35" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ35, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆤ</v>
       </c>
@@ -14866,7 +14906,7 @@
         <f t="shared" si="0"/>
         <v>o</v>
       </c>
-      <c r="BK35" s="379" t="str">
+      <c r="BK35" s="377" t="str">
         <f t="shared" si="1"/>
         <v>o</v>
       </c>
@@ -14947,7 +14987,7 @@
         <f t="array" ref="BH36" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>28</v>
       </c>
-      <c r="BI36" s="381" t="str">
+      <c r="BI36" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ36, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆤ</v>
       </c>
@@ -14955,7 +14995,7 @@
         <f t="shared" si="0"/>
         <v>O</v>
       </c>
-      <c r="BK36" s="379" t="str">
+      <c r="BK36" s="377" t="str">
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
@@ -15036,7 +15076,7 @@
         <f t="array" ref="BH37" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>29</v>
       </c>
-      <c r="BI37" s="381" t="str">
+      <c r="BI37" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ37, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -15044,7 +15084,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="BK37" s="379" t="str">
+      <c r="BK37" s="377" t="str">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -15125,7 +15165,7 @@
         <f t="array" ref="BH38" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>30</v>
       </c>
-      <c r="BI38" s="381" t="e">
+      <c r="BI38" s="379" t="e">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ38, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>#N/A</v>
       </c>
@@ -15133,7 +15173,7 @@
         <f t="shared" si="0"/>
         <v>(</v>
       </c>
-      <c r="BK38" s="379" t="str">
+      <c r="BK38" s="377" t="str">
         <f t="shared" si="1"/>
         <v>(</v>
       </c>
@@ -15214,7 +15254,7 @@
         <f t="array" ref="BH39" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>31</v>
       </c>
-      <c r="BI39" s="381" t="str">
+      <c r="BI39" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ39, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -15222,7 +15262,7 @@
         <f t="shared" si="0"/>
         <v>l</v>
       </c>
-      <c r="BK39" s="379" t="str">
+      <c r="BK39" s="377" t="str">
         <f t="shared" si="1"/>
         <v>l</v>
       </c>
@@ -15271,7 +15311,7 @@
         <f t="array" ref="BH40" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>32</v>
       </c>
-      <c r="BI40" s="381" t="str">
+      <c r="BI40" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ40, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -15279,7 +15319,7 @@
         <f t="shared" si="0"/>
         <v>L</v>
       </c>
-      <c r="BK40" s="379" t="str">
+      <c r="BK40" s="377" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
@@ -15361,7 +15401,7 @@
         <f t="array" ref="BH41" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>33</v>
       </c>
-      <c r="BI41" s="381" t="e">
+      <c r="BI41" s="379" t="e">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ41, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>#N/A</v>
       </c>
@@ -15369,7 +15409,7 @@
         <f t="shared" si="0"/>
         <v>,</v>
       </c>
-      <c r="BK41" s="379" t="str">
+      <c r="BK41" s="377" t="str">
         <f t="shared" si="1"/>
         <v>,</v>
       </c>
@@ -15450,7 +15490,7 @@
         <f t="array" ref="BH42" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>34</v>
       </c>
-      <c r="BI42" s="381" t="e">
+      <c r="BI42" s="379" t="e">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ42, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>#N/A</v>
       </c>
@@ -15458,7 +15498,7 @@
         <f t="shared" si="0"/>
         <v>&lt;</v>
       </c>
-      <c r="BK42" s="379" t="str">
+      <c r="BK42" s="377" t="str">
         <f t="shared" si="1"/>
         <v>&lt;</v>
       </c>
@@ -15539,7 +15579,7 @@
         <f t="array" ref="BH43" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>35</v>
       </c>
-      <c r="BI43" s="381" t="str">
+      <c r="BI43" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ43, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -15547,7 +15587,7 @@
         <f t="shared" si="0"/>
         <v>m</v>
       </c>
-      <c r="BK43" s="379" t="str">
+      <c r="BK43" s="377" t="str">
         <f t="shared" si="1"/>
         <v>m</v>
       </c>
@@ -15628,7 +15668,7 @@
         <f t="array" ref="BH44" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>36</v>
       </c>
-      <c r="BI44" s="381" t="e">
+      <c r="BI44" s="379" t="e">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ44, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>#N/A</v>
       </c>
@@ -15636,7 +15676,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="BK44" s="379" t="str">
+      <c r="BK44" s="377" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -15717,7 +15757,7 @@
         <f t="array" ref="BH45" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>37</v>
       </c>
-      <c r="BI45" s="381" t="str">
+      <c r="BI45" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ45, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆭ</v>
       </c>
@@ -15725,7 +15765,7 @@
         <f t="shared" si="0"/>
         <v>p</v>
       </c>
-      <c r="BK45" s="379" t="str">
+      <c r="BK45" s="377" t="str">
         <f t="shared" si="1"/>
         <v>p</v>
       </c>
@@ -15806,7 +15846,7 @@
         <f t="array" ref="BH46" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>38</v>
       </c>
-      <c r="BI46" s="381" t="e">
+      <c r="BI46" s="379" t="e">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ46, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>#N/A</v>
       </c>
@@ -15814,7 +15854,7 @@
         <f t="shared" si="0"/>
         <v>;</v>
       </c>
-      <c r="BK46" s="379" t="str">
+      <c r="BK46" s="377" t="str">
         <f t="shared" si="1"/>
         <v>;</v>
       </c>
@@ -15895,7 +15935,7 @@
         <f t="array" ref="BH47" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>39</v>
       </c>
-      <c r="BI47" s="381" t="e">
+      <c r="BI47" s="379" t="e">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ47, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>#N/A</v>
       </c>
@@ -15903,7 +15943,7 @@
         <f t="shared" si="0"/>
         <v>:</v>
       </c>
-      <c r="BK47" s="379" t="str">
+      <c r="BK47" s="377" t="str">
         <f t="shared" si="1"/>
         <v>:</v>
       </c>
@@ -15984,7 +16024,7 @@
         <f t="array" ref="BH48" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>40</v>
       </c>
-      <c r="BI48" s="381" t="e">
+      <c r="BI48" s="379" t="e">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ48, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>#N/A</v>
       </c>
@@ -15992,7 +16032,7 @@
         <f t="shared" si="0"/>
         <v>/</v>
       </c>
-      <c r="BK48" s="379" t="str">
+      <c r="BK48" s="377" t="str">
         <f t="shared" si="1"/>
         <v>/</v>
       </c>
@@ -16055,7 +16095,7 @@
       </c>
       <c r="BB49" s="124" t="str" cm="1">
         <f t="array" aca="1" ref="BB49" ca="1" xml:space="preserve"> IFERROR( INDIRECT(ADDRESS(4, 3+$BA49)), "")</f>
-        <v>ｎ</v>
+        <v>声</v>
       </c>
       <c r="BC49" s="199" t="str" cm="1">
         <f t="array" aca="1" ref="BC49" ca="1" xml:space="preserve"> IFERROR( INDIRECT(ADDRESS(5, 3+$BA49)), "")</f>
@@ -16063,17 +16103,17 @@
       </c>
       <c r="BD49" s="129" t="str" cm="1">
         <f t="array" aca="1" ref="BD49" ca="1" xml:space="preserve"> IFERROR( INDIRECT(ADDRESS(6, 3+$BA49)), "")</f>
-        <v>N</v>
+        <v>z</v>
       </c>
       <c r="BE49" s="130" t="str" cm="1">
         <f t="array" aca="1" ref="BE49" ca="1" xml:space="preserve"> IFERROR( INDIRECT(ADDRESS(3, 3+$BA49)), "")</f>
-        <v>z</v>
+        <v>-</v>
       </c>
       <c r="BH49" s="204" cm="1">
         <f t="array" ref="BH49" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>41</v>
       </c>
-      <c r="BI49" s="381" t="e">
+      <c r="BI49" s="379" t="e">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ49, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>#N/A</v>
       </c>
@@ -16081,7 +16121,7 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="BK49" s="379" t="str">
+      <c r="BK49" s="377" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
@@ -16144,7 +16184,7 @@
       </c>
       <c r="BB50" s="124" t="str" cm="1">
         <f t="array" aca="1" ref="BB50" ca="1" xml:space="preserve"> IFERROR( INDIRECT(ADDRESS(4, 3+$BA50)), "")</f>
-        <v xml:space="preserve"> </v>
+        <v>ˉ</v>
       </c>
       <c r="BC50" s="199" cm="1">
         <f t="array" aca="1" ref="BC50" ca="1" xml:space="preserve"> IFERROR( INDIRECT(ADDRESS(5, 3+$BA50)), "")</f>
@@ -16162,7 +16202,7 @@
         <f t="array" ref="BH50" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>42</v>
       </c>
-      <c r="BI50" s="381" t="str">
+      <c r="BI50" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ50, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㄧ</v>
       </c>
@@ -16170,7 +16210,7 @@
         <f t="shared" si="0"/>
         <v>u</v>
       </c>
-      <c r="BK50" s="379" t="str">
+      <c r="BK50" s="377" t="str">
         <f t="shared" si="1"/>
         <v>u</v>
       </c>
@@ -16251,7 +16291,7 @@
         <f t="array" ref="BH51" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>43</v>
       </c>
-      <c r="BI51" s="381" t="str">
+      <c r="BI51" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ51, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㄧ</v>
       </c>
@@ -16259,7 +16299,7 @@
         <f t="shared" si="0"/>
         <v>U</v>
       </c>
-      <c r="BK51" s="379" t="str">
+      <c r="BK51" s="377" t="str">
         <f t="shared" si="1"/>
         <v>U</v>
       </c>
@@ -16340,7 +16380,7 @@
         <f t="array" ref="BH52" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>44</v>
       </c>
-      <c r="BI52" s="381" t="str">
+      <c r="BI52" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ52, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -16348,7 +16388,7 @@
         <f t="shared" si="0"/>
         <v>j</v>
       </c>
-      <c r="BK52" s="379" t="str">
+      <c r="BK52" s="377" t="str">
         <f t="shared" si="1"/>
         <v>j</v>
       </c>
@@ -16429,7 +16469,7 @@
         <f t="array" ref="BH53" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>45</v>
       </c>
-      <c r="BI53" s="381" t="str">
+      <c r="BI53" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ53, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -16437,7 +16477,7 @@
         <f t="shared" si="0"/>
         <v>J</v>
       </c>
-      <c r="BK53" s="379" t="str">
+      <c r="BK53" s="377" t="str">
         <f t="shared" si="1"/>
         <v>J</v>
       </c>
@@ -16518,7 +16558,7 @@
         <f t="array" ref="BH54" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>46</v>
       </c>
-      <c r="BI54" s="381" t="e">
+      <c r="BI54" s="379" t="e">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ54, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>#N/A</v>
       </c>
@@ -16526,7 +16566,7 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BK54" s="379" t="str">
+      <c r="BK54" s="377" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -16607,7 +16647,7 @@
         <f t="array" ref="BH55" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>47</v>
       </c>
-      <c r="BI55" s="381" t="str">
+      <c r="BI55" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ55, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -16615,7 +16655,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="BK55" s="379" t="str">
+      <c r="BK55" s="377" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -16684,7 +16724,7 @@
         <f t="array" ref="BH56" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>48</v>
       </c>
-      <c r="BI56" s="381" t="str">
+      <c r="BI56" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ56, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -16692,7 +16732,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="BK56" s="379" t="str">
+      <c r="BK56" s="377" t="str">
         <f t="shared" si="1"/>
         <v>b</v>
       </c>
@@ -16761,7 +16801,7 @@
         <f t="array" ref="BH57" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>49</v>
       </c>
-      <c r="BI57" s="381" t="str">
+      <c r="BI57" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ57, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -16769,7 +16809,7 @@
         <f t="shared" si="0"/>
         <v>b</v>
       </c>
-      <c r="BK57" s="379" t="str">
+      <c r="BK57" s="377" t="str">
         <f t="shared" si="1"/>
         <v>t</v>
       </c>
@@ -16838,7 +16878,7 @@
         <f t="array" ref="BH58" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>50</v>
       </c>
-      <c r="BI58" s="381" t="str">
+      <c r="BI58" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ58, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆭ</v>
       </c>
@@ -16846,7 +16886,7 @@
         <f t="shared" si="0"/>
         <v>t</v>
       </c>
-      <c r="BK58" s="379" t="str">
+      <c r="BK58" s="377" t="str">
         <f t="shared" si="1"/>
         <v>g</v>
       </c>
@@ -16874,7 +16914,7 @@
         <f t="array" ref="BH59" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>51</v>
       </c>
-      <c r="BI59" s="381" t="str">
+      <c r="BI59" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ59, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -16882,7 +16922,7 @@
         <f t="shared" si="0"/>
         <v>g</v>
       </c>
-      <c r="BK59" s="379" t="str">
+      <c r="BK59" s="377" t="str">
         <f t="shared" si="1"/>
         <v>z</v>
       </c>
@@ -16892,7 +16932,7 @@
         <f t="array" ref="BH60" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>52</v>
       </c>
-      <c r="BI60" s="381" t="str">
+      <c r="BI60" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ60, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆷ</v>
       </c>
@@ -16900,7 +16940,7 @@
         <f t="shared" si="0"/>
         <v>z</v>
       </c>
-      <c r="BK60" s="379" t="str">
+      <c r="BK60" s="377" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -16910,7 +16950,7 @@
         <f t="array" ref="BH61" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>53</v>
       </c>
-      <c r="BI61" s="381" t="str">
+      <c r="BI61" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ61, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -16918,7 +16958,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="BK61" s="379" t="str">
+      <c r="BK61" s="377" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -16928,7 +16968,7 @@
         <f t="array" ref="BH62" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>54</v>
       </c>
-      <c r="BI62" s="381" t="str">
+      <c r="BI62" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ62, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -16936,7 +16976,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="BK62" s="379" t="str">
+      <c r="BK62" s="377" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -16946,7 +16986,7 @@
         <f t="array" ref="BH63" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>55</v>
       </c>
-      <c r="BI63" s="381" t="str">
+      <c r="BI63" s="379" t="str">
         <f xml:space="preserve"> INDEX('RIME對映編碼 (萌台語)'!方音符號, MATCH(BJ63, 'RIME對映編碼 (萌台語)'!鍵盤位置, 1))</f>
         <v>ㆠ</v>
       </c>
@@ -16954,7 +16994,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="BK63" s="379" t="str">
+      <c r="BK63" s="377" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -25842,8 +25882,8 @@
       <c r="AN1" s="93"/>
       <c r="AO1" s="93"/>
       <c r="AP1" s="93"/>
-      <c r="AQ1" s="445"/>
-      <c r="AR1" s="445"/>
+      <c r="AQ1" s="443"/>
+      <c r="AR1" s="443"/>
       <c r="AS1" s="93"/>
       <c r="AT1" s="93"/>
       <c r="AU1" s="93"/>
@@ -27160,66 +27200,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="443" t="str">
+      <c r="C11" s="441" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="443"/>
-      <c r="E11" s="443"/>
-      <c r="F11" s="443"/>
-      <c r="G11" s="443"/>
-      <c r="H11" s="443"/>
-      <c r="I11" s="443"/>
-      <c r="J11" s="443"/>
-      <c r="K11" s="443"/>
-      <c r="L11" s="443"/>
-      <c r="M11" s="443"/>
-      <c r="N11" s="443"/>
-      <c r="O11" s="443"/>
-      <c r="P11" s="443"/>
-      <c r="Q11" s="443"/>
-      <c r="R11" s="443"/>
-      <c r="S11" s="443"/>
-      <c r="T11" s="443"/>
-      <c r="U11" s="443"/>
-      <c r="V11" s="443"/>
-      <c r="W11" s="443"/>
-      <c r="X11" s="443"/>
-      <c r="Y11" s="443"/>
-      <c r="Z11" s="443"/>
+      <c r="D11" s="441"/>
+      <c r="E11" s="441"/>
+      <c r="F11" s="441"/>
+      <c r="G11" s="441"/>
+      <c r="H11" s="441"/>
+      <c r="I11" s="441"/>
+      <c r="J11" s="441"/>
+      <c r="K11" s="441"/>
+      <c r="L11" s="441"/>
+      <c r="M11" s="441"/>
+      <c r="N11" s="441"/>
+      <c r="O11" s="441"/>
+      <c r="P11" s="441"/>
+      <c r="Q11" s="441"/>
+      <c r="R11" s="441"/>
+      <c r="S11" s="441"/>
+      <c r="T11" s="441"/>
+      <c r="U11" s="441"/>
+      <c r="V11" s="441"/>
+      <c r="W11" s="441"/>
+      <c r="X11" s="441"/>
+      <c r="Y11" s="441"/>
+      <c r="Z11" s="441"/>
     </row>
     <row r="12" spans="1:47" s="92" customFormat="1" ht="23.25">
       <c r="B12" s="101" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="444" t="str">
+      <c r="C12" s="442" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="444"/>
-      <c r="E12" s="444"/>
-      <c r="F12" s="444"/>
-      <c r="G12" s="444"/>
-      <c r="H12" s="444"/>
-      <c r="I12" s="444"/>
-      <c r="J12" s="444"/>
-      <c r="K12" s="444"/>
-      <c r="L12" s="444"/>
-      <c r="M12" s="444"/>
-      <c r="N12" s="444"/>
-      <c r="O12" s="444"/>
-      <c r="P12" s="444"/>
-      <c r="Q12" s="444"/>
-      <c r="R12" s="444"/>
-      <c r="S12" s="444"/>
-      <c r="T12" s="444"/>
-      <c r="U12" s="444"/>
-      <c r="V12" s="444"/>
-      <c r="W12" s="444"/>
-      <c r="X12" s="444"/>
-      <c r="Y12" s="444"/>
-      <c r="Z12" s="444"/>
+      <c r="D12" s="442"/>
+      <c r="E12" s="442"/>
+      <c r="F12" s="442"/>
+      <c r="G12" s="442"/>
+      <c r="H12" s="442"/>
+      <c r="I12" s="442"/>
+      <c r="J12" s="442"/>
+      <c r="K12" s="442"/>
+      <c r="L12" s="442"/>
+      <c r="M12" s="442"/>
+      <c r="N12" s="442"/>
+      <c r="O12" s="442"/>
+      <c r="P12" s="442"/>
+      <c r="Q12" s="442"/>
+      <c r="R12" s="442"/>
+      <c r="S12" s="442"/>
+      <c r="T12" s="442"/>
+      <c r="U12" s="442"/>
+      <c r="V12" s="442"/>
+      <c r="W12" s="442"/>
+      <c r="X12" s="442"/>
+      <c r="Y12" s="442"/>
+      <c r="Z12" s="442"/>
     </row>
     <row r="13" spans="1:47" s="92" customFormat="1" ht="23.25"/>
     <row r="14" spans="1:47" s="92" customFormat="1" ht="34.5">
@@ -27228,34 +27268,34 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="92" customFormat="1" ht="23.25">
-      <c r="B15" s="442" t="str">
+      <c r="B15" s="440" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="442"/>
-      <c r="D15" s="442"/>
-      <c r="E15" s="442"/>
-      <c r="F15" s="442"/>
-      <c r="G15" s="442"/>
-      <c r="H15" s="442"/>
-      <c r="I15" s="442"/>
-      <c r="J15" s="442"/>
-      <c r="K15" s="442"/>
-      <c r="L15" s="442"/>
-      <c r="M15" s="442"/>
-      <c r="N15" s="442"/>
-      <c r="O15" s="442"/>
-      <c r="P15" s="442"/>
-      <c r="Q15" s="442"/>
-      <c r="R15" s="442"/>
-      <c r="S15" s="442"/>
-      <c r="T15" s="442"/>
-      <c r="U15" s="442"/>
-      <c r="V15" s="442"/>
-      <c r="W15" s="442"/>
-      <c r="X15" s="442"/>
-      <c r="Y15" s="442"/>
-      <c r="Z15" s="442"/>
+      <c r="C15" s="440"/>
+      <c r="D15" s="440"/>
+      <c r="E15" s="440"/>
+      <c r="F15" s="440"/>
+      <c r="G15" s="440"/>
+      <c r="H15" s="440"/>
+      <c r="I15" s="440"/>
+      <c r="J15" s="440"/>
+      <c r="K15" s="440"/>
+      <c r="L15" s="440"/>
+      <c r="M15" s="440"/>
+      <c r="N15" s="440"/>
+      <c r="O15" s="440"/>
+      <c r="P15" s="440"/>
+      <c r="Q15" s="440"/>
+      <c r="R15" s="440"/>
+      <c r="S15" s="440"/>
+      <c r="T15" s="440"/>
+      <c r="U15" s="440"/>
+      <c r="V15" s="440"/>
+      <c r="W15" s="440"/>
+      <c r="X15" s="440"/>
+      <c r="Y15" s="440"/>
+      <c r="Z15" s="440"/>
     </row>
     <row r="16" spans="1:47" s="92" customFormat="1" ht="23.25"/>
     <row r="17" spans="2:26" s="92" customFormat="1" ht="34.5">
@@ -27269,66 +27309,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="443" t="str">
+      <c r="C19" s="441" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="443"/>
-      <c r="E19" s="443"/>
-      <c r="F19" s="443"/>
-      <c r="G19" s="443"/>
-      <c r="H19" s="443"/>
-      <c r="I19" s="443"/>
-      <c r="J19" s="443"/>
-      <c r="K19" s="443"/>
-      <c r="L19" s="443"/>
-      <c r="M19" s="443"/>
-      <c r="N19" s="443"/>
-      <c r="O19" s="443"/>
-      <c r="P19" s="443"/>
-      <c r="Q19" s="443"/>
-      <c r="R19" s="443"/>
-      <c r="S19" s="443"/>
-      <c r="T19" s="443"/>
-      <c r="U19" s="443"/>
-      <c r="V19" s="443"/>
-      <c r="W19" s="443"/>
-      <c r="X19" s="443"/>
-      <c r="Y19" s="443"/>
-      <c r="Z19" s="443"/>
+      <c r="D19" s="441"/>
+      <c r="E19" s="441"/>
+      <c r="F19" s="441"/>
+      <c r="G19" s="441"/>
+      <c r="H19" s="441"/>
+      <c r="I19" s="441"/>
+      <c r="J19" s="441"/>
+      <c r="K19" s="441"/>
+      <c r="L19" s="441"/>
+      <c r="M19" s="441"/>
+      <c r="N19" s="441"/>
+      <c r="O19" s="441"/>
+      <c r="P19" s="441"/>
+      <c r="Q19" s="441"/>
+      <c r="R19" s="441"/>
+      <c r="S19" s="441"/>
+      <c r="T19" s="441"/>
+      <c r="U19" s="441"/>
+      <c r="V19" s="441"/>
+      <c r="W19" s="441"/>
+      <c r="X19" s="441"/>
+      <c r="Y19" s="441"/>
+      <c r="Z19" s="441"/>
     </row>
     <row r="20" spans="2:26" s="92" customFormat="1" ht="23.25">
       <c r="B20" s="99" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="444" t="str">
+      <c r="C20" s="442" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="444"/>
-      <c r="E20" s="444"/>
-      <c r="F20" s="444"/>
-      <c r="G20" s="444"/>
-      <c r="H20" s="444"/>
-      <c r="I20" s="444"/>
-      <c r="J20" s="444"/>
-      <c r="K20" s="444"/>
-      <c r="L20" s="444"/>
-      <c r="M20" s="444"/>
-      <c r="N20" s="444"/>
-      <c r="O20" s="444"/>
-      <c r="P20" s="444"/>
-      <c r="Q20" s="444"/>
-      <c r="R20" s="444"/>
-      <c r="S20" s="444"/>
-      <c r="T20" s="444"/>
-      <c r="U20" s="444"/>
-      <c r="V20" s="444"/>
-      <c r="W20" s="444"/>
-      <c r="X20" s="444"/>
-      <c r="Y20" s="444"/>
-      <c r="Z20" s="444"/>
+      <c r="D20" s="442"/>
+      <c r="E20" s="442"/>
+      <c r="F20" s="442"/>
+      <c r="G20" s="442"/>
+      <c r="H20" s="442"/>
+      <c r="I20" s="442"/>
+      <c r="J20" s="442"/>
+      <c r="K20" s="442"/>
+      <c r="L20" s="442"/>
+      <c r="M20" s="442"/>
+      <c r="N20" s="442"/>
+      <c r="O20" s="442"/>
+      <c r="P20" s="442"/>
+      <c r="Q20" s="442"/>
+      <c r="R20" s="442"/>
+      <c r="S20" s="442"/>
+      <c r="T20" s="442"/>
+      <c r="U20" s="442"/>
+      <c r="V20" s="442"/>
+      <c r="W20" s="442"/>
+      <c r="X20" s="442"/>
+      <c r="Y20" s="442"/>
+      <c r="Z20" s="442"/>
     </row>
     <row r="21" spans="2:26" s="92" customFormat="1" ht="23.25"/>
     <row r="22" spans="2:26" s="92" customFormat="1" ht="34.5">
@@ -27337,34 +27377,34 @@
       </c>
     </row>
     <row r="23" spans="2:26" s="92" customFormat="1" ht="23.25">
-      <c r="B23" s="442" t="str">
+      <c r="B23" s="440" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="442"/>
-      <c r="D23" s="442"/>
-      <c r="E23" s="442"/>
-      <c r="F23" s="442"/>
-      <c r="G23" s="442"/>
-      <c r="H23" s="442"/>
-      <c r="I23" s="442"/>
-      <c r="J23" s="442"/>
-      <c r="K23" s="442"/>
-      <c r="L23" s="442"/>
-      <c r="M23" s="442"/>
-      <c r="N23" s="442"/>
-      <c r="O23" s="442"/>
-      <c r="P23" s="442"/>
-      <c r="Q23" s="442"/>
-      <c r="R23" s="442"/>
-      <c r="S23" s="442"/>
-      <c r="T23" s="442"/>
-      <c r="U23" s="442"/>
-      <c r="V23" s="442"/>
-      <c r="W23" s="442"/>
-      <c r="X23" s="442"/>
-      <c r="Y23" s="442"/>
-      <c r="Z23" s="442"/>
+      <c r="C23" s="440"/>
+      <c r="D23" s="440"/>
+      <c r="E23" s="440"/>
+      <c r="F23" s="440"/>
+      <c r="G23" s="440"/>
+      <c r="H23" s="440"/>
+      <c r="I23" s="440"/>
+      <c r="J23" s="440"/>
+      <c r="K23" s="440"/>
+      <c r="L23" s="440"/>
+      <c r="M23" s="440"/>
+      <c r="N23" s="440"/>
+      <c r="O23" s="440"/>
+      <c r="P23" s="440"/>
+      <c r="Q23" s="440"/>
+      <c r="R23" s="440"/>
+      <c r="S23" s="440"/>
+      <c r="T23" s="440"/>
+      <c r="U23" s="440"/>
+      <c r="V23" s="440"/>
+      <c r="W23" s="440"/>
+      <c r="X23" s="440"/>
+      <c r="Y23" s="440"/>
+      <c r="Z23" s="440"/>
     </row>
     <row r="24" spans="2:26" s="92" customFormat="1" ht="23.25"/>
     <row r="25" spans="2:26" s="92" customFormat="1" ht="34.5">
@@ -27378,66 +27418,66 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="443" t="str">
+      <c r="C27" s="441" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="443"/>
-      <c r="E27" s="443"/>
-      <c r="F27" s="443"/>
-      <c r="G27" s="443"/>
-      <c r="H27" s="443"/>
-      <c r="I27" s="443"/>
-      <c r="J27" s="443"/>
-      <c r="K27" s="443"/>
-      <c r="L27" s="443"/>
-      <c r="M27" s="443"/>
-      <c r="N27" s="443"/>
-      <c r="O27" s="443"/>
-      <c r="P27" s="443"/>
-      <c r="Q27" s="443"/>
-      <c r="R27" s="443"/>
-      <c r="S27" s="443"/>
-      <c r="T27" s="443"/>
-      <c r="U27" s="443"/>
-      <c r="V27" s="443"/>
-      <c r="W27" s="443"/>
-      <c r="X27" s="443"/>
-      <c r="Y27" s="443"/>
-      <c r="Z27" s="443"/>
+      <c r="D27" s="441"/>
+      <c r="E27" s="441"/>
+      <c r="F27" s="441"/>
+      <c r="G27" s="441"/>
+      <c r="H27" s="441"/>
+      <c r="I27" s="441"/>
+      <c r="J27" s="441"/>
+      <c r="K27" s="441"/>
+      <c r="L27" s="441"/>
+      <c r="M27" s="441"/>
+      <c r="N27" s="441"/>
+      <c r="O27" s="441"/>
+      <c r="P27" s="441"/>
+      <c r="Q27" s="441"/>
+      <c r="R27" s="441"/>
+      <c r="S27" s="441"/>
+      <c r="T27" s="441"/>
+      <c r="U27" s="441"/>
+      <c r="V27" s="441"/>
+      <c r="W27" s="441"/>
+      <c r="X27" s="441"/>
+      <c r="Y27" s="441"/>
+      <c r="Z27" s="441"/>
     </row>
     <row r="28" spans="2:26" s="92" customFormat="1" ht="23.25">
       <c r="B28" s="99" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="444" t="str">
+      <c r="C28" s="442" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="444"/>
-      <c r="E28" s="444"/>
-      <c r="F28" s="444"/>
-      <c r="G28" s="444"/>
-      <c r="H28" s="444"/>
-      <c r="I28" s="444"/>
-      <c r="J28" s="444"/>
-      <c r="K28" s="444"/>
-      <c r="L28" s="444"/>
-      <c r="M28" s="444"/>
-      <c r="N28" s="444"/>
-      <c r="O28" s="444"/>
-      <c r="P28" s="444"/>
-      <c r="Q28" s="444"/>
-      <c r="R28" s="444"/>
-      <c r="S28" s="444"/>
-      <c r="T28" s="444"/>
-      <c r="U28" s="444"/>
-      <c r="V28" s="444"/>
-      <c r="W28" s="444"/>
-      <c r="X28" s="444"/>
-      <c r="Y28" s="444"/>
-      <c r="Z28" s="444"/>
+      <c r="D28" s="442"/>
+      <c r="E28" s="442"/>
+      <c r="F28" s="442"/>
+      <c r="G28" s="442"/>
+      <c r="H28" s="442"/>
+      <c r="I28" s="442"/>
+      <c r="J28" s="442"/>
+      <c r="K28" s="442"/>
+      <c r="L28" s="442"/>
+      <c r="M28" s="442"/>
+      <c r="N28" s="442"/>
+      <c r="O28" s="442"/>
+      <c r="P28" s="442"/>
+      <c r="Q28" s="442"/>
+      <c r="R28" s="442"/>
+      <c r="S28" s="442"/>
+      <c r="T28" s="442"/>
+      <c r="U28" s="442"/>
+      <c r="V28" s="442"/>
+      <c r="W28" s="442"/>
+      <c r="X28" s="442"/>
+      <c r="Y28" s="442"/>
+      <c r="Z28" s="442"/>
     </row>
     <row r="29" spans="2:26" s="92" customFormat="1" ht="23.25"/>
     <row r="30" spans="2:26" s="92" customFormat="1" ht="34.5">
@@ -27446,34 +27486,34 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="92" customFormat="1" ht="23.25">
-      <c r="B31" s="442" t="str">
+      <c r="B31" s="440" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="442"/>
-      <c r="D31" s="442"/>
-      <c r="E31" s="442"/>
-      <c r="F31" s="442"/>
-      <c r="G31" s="442"/>
-      <c r="H31" s="442"/>
-      <c r="I31" s="442"/>
-      <c r="J31" s="442"/>
-      <c r="K31" s="442"/>
-      <c r="L31" s="442"/>
-      <c r="M31" s="442"/>
-      <c r="N31" s="442"/>
-      <c r="O31" s="442"/>
-      <c r="P31" s="442"/>
-      <c r="Q31" s="442"/>
-      <c r="R31" s="442"/>
-      <c r="S31" s="442"/>
-      <c r="T31" s="442"/>
-      <c r="U31" s="442"/>
-      <c r="V31" s="442"/>
-      <c r="W31" s="442"/>
-      <c r="X31" s="442"/>
-      <c r="Y31" s="442"/>
-      <c r="Z31" s="442"/>
+      <c r="C31" s="440"/>
+      <c r="D31" s="440"/>
+      <c r="E31" s="440"/>
+      <c r="F31" s="440"/>
+      <c r="G31" s="440"/>
+      <c r="H31" s="440"/>
+      <c r="I31" s="440"/>
+      <c r="J31" s="440"/>
+      <c r="K31" s="440"/>
+      <c r="L31" s="440"/>
+      <c r="M31" s="440"/>
+      <c r="N31" s="440"/>
+      <c r="O31" s="440"/>
+      <c r="P31" s="440"/>
+      <c r="Q31" s="440"/>
+      <c r="R31" s="440"/>
+      <c r="S31" s="440"/>
+      <c r="T31" s="440"/>
+      <c r="U31" s="440"/>
+      <c r="V31" s="440"/>
+      <c r="W31" s="440"/>
+      <c r="X31" s="440"/>
+      <c r="Y31" s="440"/>
+      <c r="Z31" s="440"/>
     </row>
     <row r="32" spans="2:26" s="92" customFormat="1" ht="23.25"/>
     <row r="33" spans="1:47" s="94" customFormat="1">
@@ -27764,8 +27804,8 @@
       <c r="AN38" s="93"/>
       <c r="AO38" s="93"/>
       <c r="AP38" s="93"/>
-      <c r="AQ38" s="445"/>
-      <c r="AR38" s="445"/>
+      <c r="AQ38" s="443"/>
+      <c r="AR38" s="443"/>
       <c r="AS38" s="93"/>
       <c r="AT38" s="93"/>
       <c r="AU38" s="93"/>
@@ -27820,161 +27860,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="23" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="467" t="s">
+      <c r="B2" s="465" t="s">
         <v>205</v>
       </c>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
-      <c r="E2" s="467" t="s">
+      <c r="C2" s="465"/>
+      <c r="D2" s="465"/>
+      <c r="E2" s="465" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="467"/>
-      <c r="G2" s="467" t="s">
+      <c r="F2" s="465"/>
+      <c r="G2" s="465" t="s">
         <v>207</v>
       </c>
-      <c r="H2" s="467"/>
-      <c r="I2" s="467" t="s">
+      <c r="H2" s="465"/>
+      <c r="I2" s="465" t="s">
         <v>208</v>
       </c>
-      <c r="J2" s="467"/>
-      <c r="K2" s="467" t="s">
+      <c r="J2" s="465"/>
+      <c r="K2" s="465" t="s">
         <v>209</v>
       </c>
-      <c r="L2" s="467"/>
-      <c r="M2" s="467"/>
-      <c r="N2" s="467"/>
-      <c r="O2" s="467" t="s">
+      <c r="L2" s="465"/>
+      <c r="M2" s="465"/>
+      <c r="N2" s="465"/>
+      <c r="O2" s="465" t="s">
         <v>210</v>
       </c>
-      <c r="P2" s="467"/>
+      <c r="P2" s="465"/>
     </row>
     <row r="3" spans="2:16" s="23" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="467" t="s">
+      <c r="B3" s="465" t="s">
         <v>211</v>
       </c>
-      <c r="C3" s="467"/>
-      <c r="D3" s="467"/>
-      <c r="E3" s="467" t="s">
+      <c r="C3" s="465"/>
+      <c r="D3" s="465"/>
+      <c r="E3" s="465" t="s">
         <v>206</v>
       </c>
-      <c r="F3" s="467"/>
-      <c r="G3" s="467" t="s">
+      <c r="F3" s="465"/>
+      <c r="G3" s="465" t="s">
         <v>212</v>
       </c>
-      <c r="H3" s="467"/>
-      <c r="I3" s="467" t="s">
+      <c r="H3" s="465"/>
+      <c r="I3" s="465" t="s">
         <v>213</v>
       </c>
-      <c r="J3" s="467"/>
-      <c r="K3" s="467" t="s">
+      <c r="J3" s="465"/>
+      <c r="K3" s="465" t="s">
         <v>214</v>
       </c>
-      <c r="L3" s="467"/>
-      <c r="M3" s="467"/>
-      <c r="N3" s="467"/>
-      <c r="O3" s="467" t="s">
+      <c r="L3" s="465"/>
+      <c r="M3" s="465"/>
+      <c r="N3" s="465"/>
+      <c r="O3" s="465" t="s">
         <v>210</v>
       </c>
-      <c r="P3" s="467"/>
+      <c r="P3" s="465"/>
     </row>
     <row r="4" spans="2:16" s="23" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="467" t="s">
+      <c r="B4" s="465" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="467"/>
-      <c r="D4" s="467"/>
-      <c r="E4" s="467" t="s">
+      <c r="C4" s="465"/>
+      <c r="D4" s="465"/>
+      <c r="E4" s="465" t="s">
         <v>206</v>
       </c>
-      <c r="F4" s="467"/>
-      <c r="G4" s="467" t="s">
+      <c r="F4" s="465"/>
+      <c r="G4" s="465" t="s">
         <v>216</v>
       </c>
-      <c r="H4" s="467"/>
-      <c r="I4" s="467" t="s">
+      <c r="H4" s="465"/>
+      <c r="I4" s="465" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="467"/>
-      <c r="K4" s="467" t="s">
+      <c r="J4" s="465"/>
+      <c r="K4" s="465" t="s">
         <v>217</v>
       </c>
-      <c r="L4" s="467"/>
-      <c r="M4" s="467"/>
-      <c r="N4" s="467"/>
-      <c r="O4" s="467" t="s">
+      <c r="L4" s="465"/>
+      <c r="M4" s="465"/>
+      <c r="N4" s="465"/>
+      <c r="O4" s="465" t="s">
         <v>210</v>
       </c>
-      <c r="P4" s="467"/>
+      <c r="P4" s="465"/>
     </row>
     <row r="5" spans="2:16" s="23" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="467" t="s">
+      <c r="B5" s="465" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="467"/>
-      <c r="D5" s="467"/>
-      <c r="E5" s="467" t="s">
+      <c r="C5" s="465"/>
+      <c r="D5" s="465"/>
+      <c r="E5" s="465" t="s">
         <v>219</v>
       </c>
-      <c r="F5" s="467"/>
-      <c r="G5" s="467" t="s">
+      <c r="F5" s="465"/>
+      <c r="G5" s="465" t="s">
         <v>220</v>
       </c>
-      <c r="H5" s="467"/>
-      <c r="I5" s="467" t="s">
+      <c r="H5" s="465"/>
+      <c r="I5" s="465" t="s">
         <v>221</v>
       </c>
-      <c r="J5" s="467"/>
-      <c r="K5" s="467" t="s">
+      <c r="J5" s="465"/>
+      <c r="K5" s="465" t="s">
         <v>220</v>
       </c>
-      <c r="L5" s="467"/>
-      <c r="M5" s="467"/>
-      <c r="N5" s="467"/>
-      <c r="O5" s="467" t="s">
+      <c r="L5" s="465"/>
+      <c r="M5" s="465"/>
+      <c r="N5" s="465"/>
+      <c r="O5" s="465" t="s">
         <v>222</v>
       </c>
-      <c r="P5" s="467"/>
+      <c r="P5" s="465"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="460" t="s">
+      <c r="B7" s="458" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="461"/>
-      <c r="D7" s="462"/>
-      <c r="E7" s="463" t="s">
+      <c r="C7" s="459"/>
+      <c r="D7" s="460"/>
+      <c r="E7" s="461" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="464"/>
-      <c r="G7" s="455" t="s">
+      <c r="F7" s="462"/>
+      <c r="G7" s="453" t="s">
         <v>224</v>
       </c>
-      <c r="H7" s="456"/>
-      <c r="I7" s="465" t="s">
+      <c r="H7" s="454"/>
+      <c r="I7" s="463" t="s">
         <v>225</v>
       </c>
-      <c r="J7" s="466"/>
-      <c r="K7" s="455" t="s">
+      <c r="J7" s="464"/>
+      <c r="K7" s="453" t="s">
         <v>226</v>
       </c>
-      <c r="L7" s="456"/>
-      <c r="M7" s="455" t="s">
+      <c r="L7" s="454"/>
+      <c r="M7" s="453" t="s">
         <v>227</v>
       </c>
-      <c r="N7" s="456"/>
-      <c r="O7" s="455" t="s">
+      <c r="N7" s="454"/>
+      <c r="O7" s="453" t="s">
         <v>228</v>
       </c>
-      <c r="P7" s="456"/>
+      <c r="P7" s="454"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="446" t="s">
+      <c r="B8" s="444" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="457" t="s">
+      <c r="C8" s="455" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="458" t="s">
+      <c r="D8" s="456" t="s">
         <v>231</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -28007,9 +28047,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="446"/>
-      <c r="C9" s="457"/>
-      <c r="D9" s="458"/>
+      <c r="B9" s="444"/>
+      <c r="C9" s="455"/>
+      <c r="D9" s="456"/>
       <c r="E9" s="29" t="s">
         <v>234</v>
       </c>
@@ -28040,9 +28080,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="446"/>
-      <c r="C10" s="457"/>
-      <c r="D10" s="454" t="s">
+      <c r="B10" s="444"/>
+      <c r="C10" s="455"/>
+      <c r="D10" s="452" t="s">
         <v>242</v>
       </c>
       <c r="E10" s="24" t="s">
@@ -28071,9 +28111,9 @@
       <c r="P10" s="25"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="446"/>
-      <c r="C11" s="457"/>
-      <c r="D11" s="454"/>
+      <c r="B11" s="444"/>
+      <c r="C11" s="455"/>
+      <c r="D11" s="452"/>
       <c r="E11" s="29" t="s">
         <v>243</v>
       </c>
@@ -28100,11 +28140,11 @@
       <c r="P11" s="30"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="446"/>
-      <c r="C12" s="447" t="s">
+      <c r="B12" s="444"/>
+      <c r="C12" s="445" t="s">
         <v>249</v>
       </c>
-      <c r="D12" s="459" t="s">
+      <c r="D12" s="457" t="s">
         <v>250</v>
       </c>
       <c r="E12" s="24" t="s">
@@ -28129,9 +28169,9 @@
       <c r="P12" s="25"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="446"/>
-      <c r="C13" s="447"/>
-      <c r="D13" s="459"/>
+      <c r="B13" s="444"/>
+      <c r="C13" s="445"/>
+      <c r="D13" s="457"/>
       <c r="E13" s="29" t="s">
         <v>194</v>
       </c>
@@ -28154,13 +28194,13 @@
       <c r="P13" s="30"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="446" t="s">
+      <c r="B14" s="444" t="s">
         <v>254</v>
       </c>
-      <c r="C14" s="452" t="s">
+      <c r="C14" s="450" t="s">
         <v>230</v>
       </c>
-      <c r="D14" s="448" t="s">
+      <c r="D14" s="446" t="s">
         <v>231</v>
       </c>
       <c r="E14" s="24"/>
@@ -28185,9 +28225,9 @@
       <c r="P14" s="25"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="446"/>
-      <c r="C15" s="452"/>
-      <c r="D15" s="448"/>
+      <c r="B15" s="444"/>
+      <c r="C15" s="450"/>
+      <c r="D15" s="446"/>
       <c r="E15" s="29"/>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
@@ -28210,9 +28250,9 @@
       <c r="P15" s="30"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="446"/>
-      <c r="C16" s="452"/>
-      <c r="D16" s="454" t="s">
+      <c r="B16" s="444"/>
+      <c r="C16" s="450"/>
+      <c r="D16" s="452" t="s">
         <v>242</v>
       </c>
       <c r="E16" s="24"/>
@@ -28237,9 +28277,9 @@
       <c r="P16" s="25"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="446"/>
-      <c r="C17" s="452"/>
-      <c r="D17" s="454"/>
+      <c r="B17" s="444"/>
+      <c r="C17" s="450"/>
+      <c r="D17" s="452"/>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
@@ -28262,11 +28302,11 @@
       <c r="P17" s="30"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="446"/>
-      <c r="C18" s="447" t="s">
+      <c r="B18" s="444"/>
+      <c r="C18" s="445" t="s">
         <v>249</v>
       </c>
-      <c r="D18" s="448" t="s">
+      <c r="D18" s="446" t="s">
         <v>250</v>
       </c>
       <c r="E18" s="24"/>
@@ -28291,9 +28331,9 @@
       <c r="P18" s="25"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="446"/>
-      <c r="C19" s="447"/>
-      <c r="D19" s="448"/>
+      <c r="B19" s="444"/>
+      <c r="C19" s="445"/>
+      <c r="D19" s="446"/>
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
@@ -28316,13 +28356,13 @@
       <c r="P19" s="30"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="446" t="s">
+      <c r="B20" s="444" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="452" t="s">
+      <c r="C20" s="450" t="s">
         <v>230</v>
       </c>
-      <c r="D20" s="448" t="s">
+      <c r="D20" s="446" t="s">
         <v>250</v>
       </c>
       <c r="E20" s="24"/>
@@ -28347,9 +28387,9 @@
       <c r="P20" s="25"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="446"/>
-      <c r="C21" s="452"/>
-      <c r="D21" s="448"/>
+      <c r="B21" s="444"/>
+      <c r="C21" s="450"/>
+      <c r="D21" s="446"/>
       <c r="E21" s="29"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
@@ -28372,9 +28412,9 @@
       <c r="P21" s="30"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="446"/>
-      <c r="C22" s="452"/>
-      <c r="D22" s="453" t="s">
+      <c r="B22" s="444"/>
+      <c r="C22" s="450"/>
+      <c r="D22" s="451" t="s">
         <v>277</v>
       </c>
       <c r="E22" s="24"/>
@@ -28395,9 +28435,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="446"/>
-      <c r="C23" s="452"/>
-      <c r="D23" s="453"/>
+      <c r="B23" s="444"/>
+      <c r="C23" s="450"/>
+      <c r="D23" s="451"/>
       <c r="E23" s="29"/>
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
@@ -28416,13 +28456,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="446" t="s">
+      <c r="B24" s="444" t="s">
         <v>280</v>
       </c>
-      <c r="C24" s="447" t="s">
+      <c r="C24" s="445" t="s">
         <v>249</v>
       </c>
-      <c r="D24" s="448" t="s">
+      <c r="D24" s="446" t="s">
         <v>250</v>
       </c>
       <c r="E24" s="24" t="s">
@@ -28451,9 +28491,9 @@
       <c r="P24" s="25"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="446"/>
-      <c r="C25" s="447"/>
-      <c r="D25" s="448"/>
+      <c r="B25" s="444"/>
+      <c r="C25" s="445"/>
+      <c r="D25" s="446"/>
       <c r="E25" s="29" t="s">
         <v>193</v>
       </c>
@@ -28480,13 +28520,13 @@
       <c r="P25" s="30"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="446" t="s">
+      <c r="B26" s="444" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="447" t="s">
+      <c r="C26" s="445" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="448" t="s">
+      <c r="D26" s="446" t="s">
         <v>250</v>
       </c>
       <c r="E26" s="24"/>
@@ -28507,9 +28547,9 @@
       <c r="P26" s="25"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="446"/>
-      <c r="C27" s="447"/>
-      <c r="D27" s="448"/>
+      <c r="B27" s="444"/>
+      <c r="C27" s="445"/>
+      <c r="D27" s="446"/>
       <c r="E27" s="29"/>
       <c r="F27" s="30"/>
       <c r="G27" s="31" t="s">
@@ -28531,23 +28571,23 @@
       <c r="B29" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="C29" s="449" t="s">
+      <c r="C29" s="447" t="s">
         <v>291</v>
       </c>
-      <c r="D29" s="449"/>
-      <c r="E29" s="449"/>
-      <c r="F29" s="449"/>
-      <c r="G29" s="449"/>
-      <c r="H29" s="449"/>
-      <c r="I29" s="449"/>
-      <c r="J29" s="449"/>
-      <c r="K29" s="449"/>
-      <c r="L29" s="449"/>
-      <c r="M29" s="449"/>
-      <c r="N29" s="449"/>
-      <c r="O29" s="449"/>
-      <c r="P29" s="449"/>
-      <c r="Q29" s="449"/>
+      <c r="D29" s="447"/>
+      <c r="E29" s="447"/>
+      <c r="F29" s="447"/>
+      <c r="G29" s="447"/>
+      <c r="H29" s="447"/>
+      <c r="I29" s="447"/>
+      <c r="J29" s="447"/>
+      <c r="K29" s="447"/>
+      <c r="L29" s="447"/>
+      <c r="M29" s="447"/>
+      <c r="N29" s="447"/>
+      <c r="O29" s="447"/>
+      <c r="P29" s="447"/>
+      <c r="Q29" s="447"/>
     </row>
     <row r="30" spans="2:17" s="36" customFormat="1" ht="25.5">
       <c r="B30" s="34"/>
@@ -28591,10 +28631,10 @@
       <c r="B32" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="C32" s="450" t="s">
+      <c r="C32" s="448" t="s">
         <v>295</v>
       </c>
-      <c r="D32" s="451"/>
+      <c r="D32" s="449"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="37" t="s">
@@ -28698,7 +28738,7 @@
   </sheetPr>
   <dimension ref="A1:AA74"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T3" sqref="T3:T57"/>
     </sheetView>
     <sheetView topLeftCell="A20" workbookViewId="1">
@@ -28749,7 +28789,7 @@
     </row>
     <row r="2" spans="1:27" ht="25.5">
       <c r="A2" s="265" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H2" s="215" t="s">
         <v>794</v>
@@ -29065,7 +29105,7 @@
         <v>ㄈ</v>
       </c>
       <c r="Z6" s="274" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AA6" s="275" t="s">
         <v>937</v>
@@ -29344,7 +29384,7 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="268" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="G11" s="211" cm="1">
         <f t="array" ref="G11" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -30020,7 +30060,7 @@
         <v>ㄖ</v>
       </c>
       <c r="Z20" s="274" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AA20" s="275" t="s">
         <v>941</v>
@@ -32291,10 +32331,10 @@
   </sheetPr>
   <dimension ref="A1:BM59"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS4" sqref="AS4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="1">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="1">
       <selection activeCell="BI18" sqref="BI18"/>
     </sheetView>
   </sheetViews>
@@ -32307,10 +32347,10 @@
     <col min="46" max="47" width="5.09765625" customWidth="1"/>
     <col min="48" max="48" width="7.8984375" customWidth="1"/>
     <col min="49" max="52" width="14.296875" customWidth="1"/>
-    <col min="61" max="61" width="60.3984375" style="490" customWidth="1"/>
-    <col min="62" max="62" width="20.8984375" style="490" customWidth="1"/>
-    <col min="63" max="63" width="16.69921875" style="492" customWidth="1"/>
-    <col min="64" max="65" width="11.8984375" style="490"/>
+    <col min="61" max="61" width="60.3984375" style="488" customWidth="1"/>
+    <col min="62" max="62" width="20.8984375" style="488" customWidth="1"/>
+    <col min="63" max="63" width="16.69921875" style="490" customWidth="1"/>
+    <col min="64" max="65" width="11.8984375" style="488"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="17.100000000000001" customHeight="1">
@@ -32541,11 +32581,11 @@
       <c r="AZ2"/>
       <c r="BA2"/>
       <c r="BB2"/>
-      <c r="BI2" s="490"/>
-      <c r="BJ2" s="490"/>
-      <c r="BK2" s="492"/>
-      <c r="BL2" s="490"/>
-      <c r="BM2" s="490"/>
+      <c r="BI2" s="488"/>
+      <c r="BJ2" s="488"/>
+      <c r="BK2" s="490"/>
+      <c r="BL2" s="488"/>
+      <c r="BM2" s="488"/>
     </row>
     <row r="3" spans="1:65" ht="40.5" customHeight="1">
       <c r="A3" s="10"/>
@@ -32553,130 +32593,130 @@
         <v>335</v>
       </c>
       <c r="C3" s="65"/>
-      <c r="D3" s="363" t="s">
+      <c r="D3" s="362" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="363" t="s">
+      <c r="E3" s="362" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="363" t="s">
+      <c r="F3" s="362" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="363" t="s">
+      <c r="G3" s="362" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="363" t="s">
+      <c r="H3" s="362" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="363" t="s">
+      <c r="I3" s="362" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="363" t="s">
+      <c r="J3" s="362" t="s">
         <v>99</v>
       </c>
-      <c r="K3" s="363" t="s">
+      <c r="K3" s="362" t="s">
         <v>172</v>
       </c>
-      <c r="L3" s="363" t="s">
+      <c r="L3" s="362" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="363" t="s">
+      <c r="M3" s="362" t="s">
         <v>164</v>
       </c>
-      <c r="N3" s="363" t="s">
+      <c r="N3" s="362" t="s">
         <v>167</v>
       </c>
-      <c r="O3" s="363" t="s">
+      <c r="O3" s="362" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="363" t="s">
+      <c r="P3" s="362" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="363" t="s">
+      <c r="Q3" s="362" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="363" t="s">
+      <c r="R3" s="362" t="s">
         <v>191</v>
       </c>
-      <c r="S3" s="363" t="s">
+      <c r="S3" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="363" t="s">
+      <c r="T3" s="362" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="363" t="s">
+      <c r="U3" s="362" t="s">
         <v>91</v>
       </c>
-      <c r="V3" s="363" t="s">
+      <c r="V3" s="362" t="s">
         <v>176</v>
       </c>
-      <c r="W3" s="363" t="s">
+      <c r="W3" s="362" t="s">
         <v>95</v>
       </c>
-      <c r="X3" s="363" t="s">
+      <c r="X3" s="362" t="s">
         <v>68</v>
       </c>
-      <c r="Y3" s="363" t="s">
+      <c r="Y3" s="362" t="s">
         <v>77</v>
       </c>
-      <c r="Z3" s="363" t="s">
+      <c r="Z3" s="362" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" s="363" t="s">
+      <c r="AA3" s="362" t="s">
         <v>66</v>
       </c>
-      <c r="AB3" s="363" t="s">
+      <c r="AB3" s="362" t="s">
         <v>177</v>
       </c>
-      <c r="AC3" s="363" t="s">
+      <c r="AC3" s="362" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="363" t="s">
+      <c r="AD3" s="362" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" s="363" t="s">
+      <c r="AE3" s="362" t="s">
         <v>181</v>
       </c>
-      <c r="AF3" s="363" t="s">
+      <c r="AF3" s="362" t="s">
         <v>179</v>
       </c>
-      <c r="AG3" s="363" t="s">
+      <c r="AG3" s="362" t="s">
         <v>79</v>
       </c>
-      <c r="AH3" s="363" t="s">
+      <c r="AH3" s="362" t="s">
         <v>93</v>
       </c>
-      <c r="AI3" s="363" t="s">
+      <c r="AI3" s="362" t="s">
         <v>771</v>
       </c>
-      <c r="AJ3" s="363" t="s">
+      <c r="AJ3" s="362" t="s">
         <v>183</v>
       </c>
-      <c r="AK3" s="363" t="s">
+      <c r="AK3" s="362" t="s">
         <v>9</v>
       </c>
-      <c r="AL3" s="363" t="s">
+      <c r="AL3" s="362" t="s">
         <v>184</v>
       </c>
-      <c r="AM3" s="363" t="s">
+      <c r="AM3" s="362" t="s">
         <v>186</v>
       </c>
-      <c r="AN3" s="363" t="s">
+      <c r="AN3" s="362" t="s">
         <v>187</v>
       </c>
-      <c r="AO3" s="363" t="s">
+      <c r="AO3" s="362" t="s">
         <v>118</v>
       </c>
-      <c r="AP3" s="363" t="s">
+      <c r="AP3" s="362" t="s">
         <v>190</v>
       </c>
-      <c r="AQ3" s="363" t="s">
+      <c r="AQ3" s="362" t="s">
         <v>189</v>
       </c>
-      <c r="AR3" s="363" t="s">
+      <c r="AR3" s="362" t="s">
         <v>188</v>
       </c>
-      <c r="AS3" s="363" t="s">
+      <c r="AS3" s="362" t="s">
         <v>192</v>
       </c>
     </row>
@@ -32858,21 +32898,21 @@
       <c r="AY4"/>
       <c r="AZ4"/>
       <c r="BA4"/>
-      <c r="BB4" s="377" t="s">
-        <v>868</v>
-      </c>
-      <c r="BC4" s="488" t="s">
+      <c r="BB4" s="375" t="s">
+        <v>867</v>
+      </c>
+      <c r="BC4" s="486" t="s">
         <v>989</v>
       </c>
-      <c r="BD4" s="489"/>
-      <c r="BE4" s="489"/>
-      <c r="BF4" s="489"/>
-      <c r="BG4" s="489"/>
-      <c r="BI4" s="490"/>
-      <c r="BJ4" s="490"/>
-      <c r="BK4" s="492"/>
-      <c r="BL4" s="490"/>
-      <c r="BM4" s="490"/>
+      <c r="BD4" s="487"/>
+      <c r="BE4" s="487"/>
+      <c r="BF4" s="487"/>
+      <c r="BG4" s="487"/>
+      <c r="BI4" s="488"/>
+      <c r="BJ4" s="488"/>
+      <c r="BK4" s="490"/>
+      <c r="BL4" s="488"/>
+      <c r="BM4" s="488"/>
     </row>
     <row r="5" spans="1:65" ht="40.5" customHeight="1">
       <c r="A5" s="10"/>
@@ -33048,16 +33088,16 @@
         <f t="array" aca="1" ref="AS5" ca="1" xml:space="preserve"> INDIRECT( ADDRESS( 8 + AS$2, COLUMN($AX:$AX)))</f>
         <v>5</v>
       </c>
-      <c r="BB5" s="377" t="s">
-        <v>869</v>
-      </c>
-      <c r="BC5" s="488" t="s">
+      <c r="BB5" s="375" t="s">
+        <v>868</v>
+      </c>
+      <c r="BC5" s="486" t="s">
         <v>990</v>
       </c>
-      <c r="BD5" s="489"/>
-      <c r="BE5" s="489"/>
-      <c r="BF5" s="489"/>
-      <c r="BG5" s="489"/>
+      <c r="BD5" s="487"/>
+      <c r="BE5" s="487"/>
+      <c r="BF5" s="487"/>
+      <c r="BG5" s="487"/>
     </row>
     <row r="6" spans="1:65" s="3" customFormat="1" ht="40.5" customHeight="1">
       <c r="A6" s="10"/>
@@ -33238,11 +33278,11 @@
       <c r="AZ6"/>
       <c r="BA6"/>
       <c r="BB6"/>
-      <c r="BI6" s="490"/>
-      <c r="BJ6" s="490"/>
-      <c r="BK6" s="492"/>
-      <c r="BL6" s="490"/>
-      <c r="BM6" s="490"/>
+      <c r="BI6" s="488"/>
+      <c r="BJ6" s="488"/>
+      <c r="BK6" s="490"/>
+      <c r="BL6" s="488"/>
+      <c r="BM6" s="488"/>
     </row>
     <row r="7" spans="1:65" s="3" customFormat="1" ht="36" customHeight="1" thickBot="1">
       <c r="A7"/>
@@ -33254,79 +33294,79 @@
       <c r="BC7" s="73"/>
       <c r="BD7"/>
       <c r="BE7"/>
-      <c r="BI7" s="490"/>
-      <c r="BJ7" s="490">
+      <c r="BI7" s="488"/>
+      <c r="BJ7" s="488">
         <f xml:space="preserve"> FIND("/", BI8)</f>
         <v>12</v>
       </c>
-      <c r="BK7" s="492"/>
-      <c r="BL7" s="490"/>
-      <c r="BM7" s="490"/>
+      <c r="BK7" s="490"/>
+      <c r="BL7" s="488"/>
+      <c r="BM7" s="488"/>
     </row>
     <row r="8" spans="1:65" ht="42.75" customHeight="1" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="356"/>
-      <c r="E8" s="352" t="s">
+      <c r="D8" s="355"/>
+      <c r="E8" s="351" t="s">
+        <v>852</v>
+      </c>
+      <c r="F8" s="354"/>
+      <c r="G8" s="385" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="386"/>
+      <c r="I8" s="387"/>
+      <c r="J8" s="394" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="395"/>
+      <c r="L8" s="396"/>
+      <c r="M8" s="394" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="395"/>
+      <c r="O8" s="396"/>
+      <c r="P8" s="355"/>
+      <c r="Q8" s="466" t="s">
+        <v>906</v>
+      </c>
+      <c r="R8" s="354"/>
+      <c r="S8" s="394" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="395"/>
+      <c r="U8" s="396"/>
+      <c r="V8" s="394" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="395"/>
+      <c r="X8" s="396"/>
+      <c r="Y8" s="356"/>
+      <c r="Z8" s="352" t="s">
+        <v>854</v>
+      </c>
+      <c r="AA8" s="357"/>
+      <c r="AB8" s="356"/>
+      <c r="AC8" s="352" t="s">
         <v>853</v>
       </c>
-      <c r="F8" s="355"/>
-      <c r="G8" s="387" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="388"/>
-      <c r="I8" s="389"/>
-      <c r="J8" s="396" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="397"/>
-      <c r="L8" s="398"/>
-      <c r="M8" s="396" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="397"/>
-      <c r="O8" s="398"/>
-      <c r="P8" s="356"/>
-      <c r="Q8" s="468" t="s">
-        <v>906</v>
-      </c>
-      <c r="R8" s="355"/>
-      <c r="S8" s="396" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="397"/>
-      <c r="U8" s="398"/>
-      <c r="V8" s="396" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="397"/>
-      <c r="X8" s="398"/>
-      <c r="Y8" s="357"/>
-      <c r="Z8" s="353" t="s">
-        <v>855</v>
-      </c>
-      <c r="AA8" s="358"/>
-      <c r="AB8" s="357"/>
-      <c r="AC8" s="353" t="s">
-        <v>854</v>
-      </c>
-      <c r="AD8" s="358"/>
-      <c r="AE8" s="390" t="s">
+      <c r="AD8" s="357"/>
+      <c r="AE8" s="388" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="391"/>
-      <c r="AG8" s="392"/>
-      <c r="AH8" s="384" t="s">
+      <c r="AF8" s="389"/>
+      <c r="AG8" s="390"/>
+      <c r="AH8" s="382" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="385"/>
-      <c r="AJ8" s="386"/>
-      <c r="AK8" s="384" t="s">
+      <c r="AI8" s="383"/>
+      <c r="AJ8" s="384"/>
+      <c r="AK8" s="382" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="385"/>
-      <c r="AM8" s="386"/>
+      <c r="AL8" s="383"/>
+      <c r="AM8" s="384"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -33335,49 +33375,49 @@
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
-      <c r="AV8" s="369" t="s">
+      <c r="AV8" s="368" t="s">
         <v>103</v>
       </c>
-      <c r="AW8" s="372" t="s">
+      <c r="AW8" s="371" t="s">
         <v>541</v>
       </c>
-      <c r="AX8" s="469" t="s">
+      <c r="AX8" s="467" t="s">
         <v>334</v>
       </c>
-      <c r="AY8" s="370" t="s">
+      <c r="AY8" s="369" t="s">
         <v>364</v>
       </c>
-      <c r="AZ8" s="470" t="s">
-        <v>872</v>
-      </c>
-      <c r="BC8" s="480" t="s">
+      <c r="AZ8" s="468" t="s">
+        <v>871</v>
+      </c>
+      <c r="BC8" s="478" t="s">
         <v>103</v>
       </c>
-      <c r="BD8" s="481" t="s">
-        <v>872</v>
-      </c>
-      <c r="BE8" s="482" t="s">
+      <c r="BD8" s="479" t="s">
+        <v>871</v>
+      </c>
+      <c r="BE8" s="480" t="s">
+        <v>865</v>
+      </c>
+      <c r="BF8" s="481" t="s">
         <v>866</v>
       </c>
-      <c r="BF8" s="483" t="s">
-        <v>867</v>
-      </c>
-      <c r="BI8" s="495" t="s">
-        <v>899</v>
-      </c>
-      <c r="BJ8" s="494" t="str">
+      <c r="BI8" s="493" t="s">
+        <v>898</v>
+      </c>
+      <c r="BJ8" s="492" t="str">
         <f xml:space="preserve"> MID(BI8, $BJ$7+1, BM8-$BJ$7-1)</f>
         <v>^m(\d)$</v>
       </c>
-      <c r="BK8" s="493" t="str">
+      <c r="BK8" s="491" t="str">
         <f>MID(BI8, BM8+1, BL8-BM8-1)</f>
         <v>mu$1</v>
       </c>
-      <c r="BL8" s="491">
+      <c r="BL8" s="489">
         <f>FIND("/",BI8, BM8+1)</f>
         <v>25</v>
       </c>
-      <c r="BM8" s="491">
+      <c r="BM8" s="489">
         <f xml:space="preserve"> FIND("/", BI8, 13)</f>
         <v>20</v>
       </c>
@@ -33404,20 +33444,20 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="477" t="str">
+      <c r="J9" s="475" t="str">
         <f ca="1">AQ4</f>
         <v>ˇ</v>
       </c>
-      <c r="K9" s="478"/>
+      <c r="K9" s="476"/>
       <c r="L9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="475" t="str">
+      <c r="M9" s="473" t="str">
         <f ca="1">AR4</f>
         <v>ˋ</v>
       </c>
-      <c r="N9" s="476"/>
-      <c r="O9" s="479" t="s">
+      <c r="N9" s="474"/>
+      <c r="O9" s="477" t="s">
         <v>987</v>
       </c>
       <c r="P9" s="66" t="str">
@@ -33432,23 +33472,23 @@
         <f ca="1">R6</f>
         <v>zh</v>
       </c>
-      <c r="S9" s="475" t="str">
+      <c r="S9" s="473" t="str">
         <f ca="1">AP4</f>
         <v>ˊ</v>
       </c>
-      <c r="T9" s="476"/>
+      <c r="T9" s="474"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="395" t="str">
+      <c r="V9" s="393" t="str">
         <f ca="1">AS4</f>
         <v>˙</v>
       </c>
-      <c r="W9" s="394"/>
-      <c r="X9" s="479" t="s">
+      <c r="W9" s="392"/>
+      <c r="X9" s="477" t="s">
         <v>988</v>
       </c>
-      <c r="Y9" s="359" t="str">
+      <c r="Y9" s="358" t="str">
         <f ca="1">AB4</f>
         <v>ㄚ</v>
       </c>
@@ -33457,7 +33497,7 @@
         <f ca="1">W6</f>
         <v>ch</v>
       </c>
-      <c r="AB9" s="359" t="str">
+      <c r="AB9" s="358" t="str">
         <f ca="1">AF4</f>
         <v>ㄞ</v>
       </c>
@@ -33469,7 +33509,7 @@
         <f ca="1">AF6</f>
         <v>ai</v>
       </c>
-      <c r="AE9" s="359" t="str">
+      <c r="AE9" s="358" t="str">
         <f ca="1">AJ4</f>
         <v>ㄢ</v>
       </c>
@@ -33481,7 +33521,7 @@
         <f ca="1">AE6</f>
         <v xml:space="preserve">ê </v>
       </c>
-      <c r="AH9" s="359" t="str">
+      <c r="AH9" s="358" t="str">
         <f ca="1">AN4</f>
         <v>ㄦ</v>
       </c>
@@ -33493,8 +33533,8 @@
         <f ca="1">AN6</f>
         <v>er</v>
       </c>
-      <c r="AK9" s="382"/>
-      <c r="AL9" s="383"/>
+      <c r="AK9" s="380"/>
+      <c r="AL9" s="381"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -33508,50 +33548,50 @@
         <f t="array" ref="AV9" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>1</v>
       </c>
-      <c r="AW9" s="471" t="s">
+      <c r="AW9" s="469" t="s">
         <v>169</v>
       </c>
-      <c r="AX9" s="472" t="s">
+      <c r="AX9" s="470" t="s">
         <v>91</v>
       </c>
-      <c r="AY9" s="473" t="s">
+      <c r="AY9" s="471" t="s">
         <v>91</v>
       </c>
-      <c r="AZ9" s="474" t="s">
+      <c r="AZ9" s="472" t="s">
         <v>947</v>
       </c>
-      <c r="BC9" s="484" cm="1">
+      <c r="BC9" s="482" cm="1">
         <f t="array" ref="BC9" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>1</v>
       </c>
-      <c r="BD9" s="485" t="str">
+      <c r="BD9" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄅ</v>
       </c>
-      <c r="BE9" s="486" t="str">
+      <c r="BE9" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC9,1)</f>
         <v>1</v>
       </c>
-      <c r="BF9" s="487" t="str">
+      <c r="BF9" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC9,1)</f>
         <v>1</v>
       </c>
-      <c r="BI9" s="495" t="s">
-        <v>900</v>
-      </c>
-      <c r="BJ9" s="494" t="str">
+      <c r="BI9" s="493" t="s">
+        <v>899</v>
+      </c>
+      <c r="BJ9" s="492" t="str">
         <f t="shared" ref="BJ9:BJ32" si="0" xml:space="preserve"> MID(BI9, $BJ$7+1, BM9-$BJ$7-1)</f>
         <v>^r5$</v>
       </c>
-      <c r="BK9" s="493" t="str">
+      <c r="BK9" s="491" t="str">
         <f>MID(BI9, BM9+1, BL9-BM9-1)</f>
         <v>er5</v>
       </c>
-      <c r="BL9" s="491">
+      <c r="BL9" s="489">
         <f>FIND("/",BI9, BM9+1)</f>
         <v>21</v>
       </c>
-      <c r="BM9" s="491">
+      <c r="BM9" s="489">
         <f xml:space="preserve"> FIND("/", BI9, 13)</f>
         <v>17</v>
       </c>
@@ -33561,120 +33601,120 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="387" t="s">
+      <c r="E10" s="385" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="388"/>
-      <c r="G10" s="389"/>
-      <c r="H10" s="387" t="s">
+      <c r="F10" s="386"/>
+      <c r="G10" s="387"/>
+      <c r="H10" s="385" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="388"/>
-      <c r="J10" s="389"/>
-      <c r="K10" s="356"/>
-      <c r="L10" s="352" t="s">
-        <v>844</v>
-      </c>
-      <c r="M10" s="355"/>
-      <c r="N10" s="387" t="s">
+      <c r="I10" s="386"/>
+      <c r="J10" s="387"/>
+      <c r="K10" s="355"/>
+      <c r="L10" s="351" t="s">
+        <v>843</v>
+      </c>
+      <c r="M10" s="354"/>
+      <c r="N10" s="385" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="388"/>
-      <c r="P10" s="389"/>
-      <c r="Q10" s="387" t="s">
+      <c r="O10" s="386"/>
+      <c r="P10" s="387"/>
+      <c r="Q10" s="385" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="388"/>
-      <c r="S10" s="389"/>
-      <c r="T10" s="356"/>
-      <c r="U10" s="352" t="s">
+      <c r="R10" s="386"/>
+      <c r="S10" s="387"/>
+      <c r="T10" s="355"/>
+      <c r="U10" s="351" t="s">
         <v>314</v>
       </c>
-      <c r="V10" s="355"/>
-      <c r="W10" s="357"/>
-      <c r="X10" s="353" t="s">
+      <c r="V10" s="354"/>
+      <c r="W10" s="356"/>
+      <c r="X10" s="352" t="s">
         <v>703</v>
       </c>
-      <c r="Y10" s="358"/>
-      <c r="Z10" s="357"/>
-      <c r="AA10" s="353" t="s">
+      <c r="Y10" s="357"/>
+      <c r="Z10" s="356"/>
+      <c r="AA10" s="352" t="s">
         <v>702</v>
       </c>
-      <c r="AB10" s="358"/>
-      <c r="AC10" s="390" t="s">
+      <c r="AB10" s="357"/>
+      <c r="AC10" s="388" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="391"/>
-      <c r="AE10" s="392"/>
-      <c r="AF10" s="390" t="s">
+      <c r="AD10" s="389"/>
+      <c r="AE10" s="390"/>
+      <c r="AF10" s="388" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="391"/>
-      <c r="AH10" s="392"/>
-      <c r="AI10" s="390" t="s">
+      <c r="AG10" s="389"/>
+      <c r="AH10" s="390"/>
+      <c r="AI10" s="388" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="391"/>
-      <c r="AK10" s="392"/>
-      <c r="AL10" s="390" t="s">
+      <c r="AJ10" s="389"/>
+      <c r="AK10" s="390"/>
+      <c r="AL10" s="388" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="391"/>
-      <c r="AN10" s="392"/>
-      <c r="AO10" s="384" t="s">
+      <c r="AM10" s="389"/>
+      <c r="AN10" s="390"/>
+      <c r="AO10" s="382" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="385"/>
-      <c r="AQ10" s="386"/>
+      <c r="AP10" s="383"/>
+      <c r="AQ10" s="384"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="204" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>2</v>
       </c>
-      <c r="AW10" s="471" t="s">
+      <c r="AW10" s="469" t="s">
         <v>165</v>
       </c>
-      <c r="AX10" s="472" t="s">
+      <c r="AX10" s="470" t="s">
         <v>9</v>
       </c>
-      <c r="AY10" s="473" t="s">
+      <c r="AY10" s="471" t="s">
         <v>9</v>
       </c>
-      <c r="AZ10" s="474" t="s">
+      <c r="AZ10" s="472" t="s">
         <v>948</v>
       </c>
-      <c r="BC10" s="484" cm="1">
+      <c r="BC10" s="482" cm="1">
         <f t="array" ref="BC10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>2</v>
       </c>
-      <c r="BD10" s="485" t="str">
+      <c r="BD10" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄆ</v>
       </c>
-      <c r="BE10" s="486" t="str">
+      <c r="BE10" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC10,1)</f>
         <v>q</v>
       </c>
-      <c r="BF10" s="487" t="str">
+      <c r="BF10" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC10,1)</f>
         <v>q</v>
       </c>
-      <c r="BI10" s="495" t="s">
-        <v>876</v>
-      </c>
-      <c r="BJ10" s="494" t="str">
+      <c r="BI10" s="493" t="s">
+        <v>875</v>
+      </c>
+      <c r="BJ10" s="492" t="str">
         <f t="shared" si="0"/>
         <v>iu</v>
       </c>
-      <c r="BK10" s="493" t="str">
+      <c r="BK10" s="491" t="str">
         <f>MID(BI10, BM10+1, BL10-BM10-1)</f>
         <v>iou</v>
       </c>
-      <c r="BL10" s="491">
+      <c r="BL10" s="489">
         <f>FIND("/",BI10, BM10+1)</f>
         <v>19</v>
       </c>
-      <c r="BM10" s="491">
+      <c r="BM10" s="489">
         <f xml:space="preserve"> FIND("/", BI10, 13)</f>
         <v>15</v>
       </c>
@@ -33743,7 +33783,7 @@
         <f ca="1">S6</f>
         <v>ch</v>
       </c>
-      <c r="T11" s="360" t="str">
+      <c r="T11" s="359" t="str">
         <f ca="1">V4</f>
         <v>ㄗ</v>
       </c>
@@ -33755,7 +33795,7 @@
         <f ca="1">V6</f>
         <v>z</v>
       </c>
-      <c r="W11" s="359" t="str">
+      <c r="W11" s="358" t="str">
         <f ca="1">Y4</f>
         <v>ㄧ</v>
       </c>
@@ -33767,7 +33807,7 @@
         <f ca="1">Y6</f>
         <v>i</v>
       </c>
-      <c r="Z11" s="359" t="str">
+      <c r="Z11" s="358" t="str">
         <f ca="1">AC4</f>
         <v>ㄛ</v>
       </c>
@@ -33779,7 +33819,7 @@
         <f ca="1">AC6</f>
         <v>o</v>
       </c>
-      <c r="AC11" s="359" t="str">
+      <c r="AC11" s="358" t="str">
         <f ca="1">AG4</f>
         <v>ㄟ</v>
       </c>
@@ -33791,7 +33831,7 @@
         <f ca="1">AG6</f>
         <v>ei</v>
       </c>
-      <c r="AF11" s="359" t="str">
+      <c r="AF11" s="358" t="str">
         <f ca="1">AK4</f>
         <v>ㄣ</v>
       </c>
@@ -33803,64 +33843,64 @@
         <f ca="1">AK6</f>
         <v>enn</v>
       </c>
-      <c r="AI11" s="382"/>
-      <c r="AJ11" s="383"/>
+      <c r="AI11" s="380"/>
+      <c r="AJ11" s="381"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="382"/>
-      <c r="AM11" s="383"/>
+      <c r="AL11" s="380"/>
+      <c r="AM11" s="381"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="382"/>
-      <c r="AP11" s="383"/>
+      <c r="AO11" s="380"/>
+      <c r="AP11" s="381"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="204" cm="1">
         <f t="array" ref="AV11" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>3</v>
       </c>
-      <c r="AW11" s="471" t="s">
+      <c r="AW11" s="469" t="s">
         <v>21</v>
       </c>
-      <c r="AX11" s="472" t="s">
+      <c r="AX11" s="470" t="s">
         <v>66</v>
       </c>
-      <c r="AY11" s="473" t="s">
+      <c r="AY11" s="471" t="s">
         <v>66</v>
       </c>
-      <c r="AZ11" s="474" t="s">
+      <c r="AZ11" s="472" t="s">
         <v>949</v>
       </c>
-      <c r="BC11" s="484" cm="1">
+      <c r="BC11" s="482" cm="1">
         <f t="array" ref="BC11" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>3</v>
       </c>
-      <c r="BD11" s="485" t="str">
+      <c r="BD11" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄇ</v>
       </c>
-      <c r="BE11" s="486" t="str">
+      <c r="BE11" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC11,1)</f>
         <v>a</v>
       </c>
-      <c r="BF11" s="487" t="str">
+      <c r="BF11" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC11,1)</f>
         <v>a</v>
       </c>
-      <c r="BI11" s="495" t="s">
-        <v>877</v>
-      </c>
-      <c r="BJ11" s="494" t="str">
+      <c r="BI11" s="493" t="s">
+        <v>876</v>
+      </c>
+      <c r="BJ11" s="492" t="str">
         <f t="shared" si="0"/>
         <v>ui</v>
       </c>
-      <c r="BK11" s="493" t="str">
+      <c r="BK11" s="491" t="str">
         <f>MID(BI11, BM11+1, BL11-BM11-1)</f>
         <v>uei</v>
       </c>
-      <c r="BL11" s="491">
+      <c r="BL11" s="489">
         <f>FIND("/",BI11, BM11+1)</f>
         <v>19</v>
       </c>
-      <c r="BM11" s="491">
+      <c r="BM11" s="489">
         <f xml:space="preserve"> FIND("/", BI11, 13)</f>
         <v>15</v>
       </c>
@@ -33871,61 +33911,61 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="387" t="s">
+      <c r="F12" s="385" t="s">
         <v>315</v>
       </c>
-      <c r="G12" s="388"/>
-      <c r="H12" s="389"/>
-      <c r="I12" s="387" t="s">
+      <c r="G12" s="386"/>
+      <c r="H12" s="387"/>
+      <c r="I12" s="385" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="388"/>
-      <c r="K12" s="389"/>
-      <c r="L12" s="387" t="s">
+      <c r="J12" s="386"/>
+      <c r="K12" s="387"/>
+      <c r="L12" s="385" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="388"/>
-      <c r="N12" s="389"/>
-      <c r="O12" s="387" t="s">
+      <c r="M12" s="386"/>
+      <c r="N12" s="387"/>
+      <c r="O12" s="385" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="388"/>
-      <c r="Q12" s="389"/>
-      <c r="R12" s="387" t="s">
+      <c r="P12" s="386"/>
+      <c r="Q12" s="387"/>
+      <c r="R12" s="385" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="388"/>
-      <c r="T12" s="389"/>
-      <c r="U12" s="387" t="s">
+      <c r="S12" s="386"/>
+      <c r="T12" s="387"/>
+      <c r="U12" s="385" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="388"/>
-      <c r="W12" s="389"/>
-      <c r="X12" s="357"/>
-      <c r="Y12" s="353" t="s">
-        <v>840</v>
-      </c>
-      <c r="Z12" s="358"/>
-      <c r="AA12" s="390" t="s">
+      <c r="V12" s="386"/>
+      <c r="W12" s="387"/>
+      <c r="X12" s="356"/>
+      <c r="Y12" s="352" t="s">
+        <v>839</v>
+      </c>
+      <c r="Z12" s="357"/>
+      <c r="AA12" s="388" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="391"/>
-      <c r="AC12" s="392"/>
-      <c r="AD12" s="357"/>
-      <c r="AE12" s="353" t="s">
+      <c r="AB12" s="389"/>
+      <c r="AC12" s="390"/>
+      <c r="AD12" s="356"/>
+      <c r="AE12" s="352" t="s">
         <v>820</v>
       </c>
-      <c r="AF12" s="358"/>
-      <c r="AG12" s="390" t="s">
+      <c r="AF12" s="357"/>
+      <c r="AG12" s="388" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="391"/>
-      <c r="AI12" s="392"/>
-      <c r="AJ12" s="384" t="s">
+      <c r="AH12" s="389"/>
+      <c r="AI12" s="390"/>
+      <c r="AJ12" s="382" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="385"/>
-      <c r="AL12" s="386"/>
+      <c r="AK12" s="383"/>
+      <c r="AL12" s="384"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -33939,50 +33979,50 @@
         <f t="array" ref="AV12" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>4</v>
       </c>
-      <c r="AW12" s="471" t="s">
+      <c r="AW12" s="469" t="s">
         <v>166</v>
       </c>
-      <c r="AX12" s="472" t="s">
+      <c r="AX12" s="470" t="s">
         <v>174</v>
       </c>
-      <c r="AY12" s="473" t="s">
+      <c r="AY12" s="471" t="s">
         <v>174</v>
       </c>
-      <c r="AZ12" s="474" t="s">
+      <c r="AZ12" s="472" t="s">
         <v>950</v>
       </c>
-      <c r="BC12" s="484" cm="1">
+      <c r="BC12" s="482" cm="1">
         <f t="array" ref="BC12" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>4</v>
       </c>
-      <c r="BD12" s="485" t="str">
+      <c r="BD12" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄈ</v>
       </c>
-      <c r="BE12" s="486" t="str">
+      <c r="BE12" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC12,1)</f>
         <v>z</v>
       </c>
-      <c r="BF12" s="487" t="str">
+      <c r="BF12" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC12,1)</f>
         <v>z</v>
       </c>
-      <c r="BI12" s="495" t="s">
-        <v>878</v>
-      </c>
-      <c r="BJ12" s="494" t="str">
+      <c r="BI12" s="493" t="s">
+        <v>877</v>
+      </c>
+      <c r="BJ12" s="492" t="str">
         <f t="shared" si="0"/>
         <v>ong</v>
       </c>
-      <c r="BK12" s="493" t="str">
+      <c r="BK12" s="491" t="str">
         <f>MID(BI12, BM12+1, BL12-BM12-1)</f>
         <v>ung</v>
       </c>
-      <c r="BL12" s="491">
+      <c r="BL12" s="489">
         <f>FIND("/",BI12, BM12+1)</f>
         <v>20</v>
       </c>
-      <c r="BM12" s="491">
+      <c r="BM12" s="489">
         <f xml:space="preserve"> FIND("/", BI12, 13)</f>
         <v>16</v>
       </c>
@@ -34052,7 +34092,7 @@
         <f ca="1">T6</f>
         <v>sh</v>
       </c>
-      <c r="U13" s="360" t="str">
+      <c r="U13" s="359" t="str">
         <f ca="1">W4</f>
         <v>ㄘ</v>
       </c>
@@ -34064,7 +34104,7 @@
         <f ca="1">W6</f>
         <v>ch</v>
       </c>
-      <c r="X13" s="359" t="str">
+      <c r="X13" s="358" t="str">
         <f ca="1">Z4</f>
         <v>ㄨ</v>
       </c>
@@ -34076,7 +34116,7 @@
         <f ca="1">Z6</f>
         <v>u</v>
       </c>
-      <c r="AA13" s="359" t="str">
+      <c r="AA13" s="358" t="str">
         <f ca="1">AD4</f>
         <v>ㄜ</v>
       </c>
@@ -34088,7 +34128,7 @@
         <f ca="1">AD6</f>
         <v>e</v>
       </c>
-      <c r="AD13" s="359" t="str">
+      <c r="AD13" s="358" t="str">
         <f ca="1">AH4</f>
         <v>ㄠ</v>
       </c>
@@ -34100,7 +34140,7 @@
         <f ca="1">AH6</f>
         <v>ao</v>
       </c>
-      <c r="AG13" s="359" t="str">
+      <c r="AG13" s="358" t="str">
         <f ca="1">AL4</f>
         <v>ㄤ</v>
       </c>
@@ -34112,8 +34152,8 @@
         <f ca="1">AL6</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="382"/>
-      <c r="AK13" s="383"/>
+      <c r="AJ13" s="380"/>
+      <c r="AK13" s="381"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -34128,50 +34168,50 @@
         <f t="array" ref="AV13" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>5</v>
       </c>
-      <c r="AW13" s="471" t="s">
+      <c r="AW13" s="469" t="s">
         <v>170</v>
       </c>
-      <c r="AX13" s="472" t="s">
+      <c r="AX13" s="470" t="s">
         <v>164</v>
       </c>
-      <c r="AY13" s="473" t="s">
+      <c r="AY13" s="471" t="s">
         <v>164</v>
       </c>
-      <c r="AZ13" s="474" t="s">
+      <c r="AZ13" s="472" t="s">
         <v>951</v>
       </c>
-      <c r="BC13" s="484" cm="1">
+      <c r="BC13" s="482" cm="1">
         <f t="array" ref="BC13" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>5</v>
       </c>
-      <c r="BD13" s="485" t="str">
+      <c r="BD13" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄉ</v>
       </c>
-      <c r="BE13" s="486" t="str">
+      <c r="BE13" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC13,1)</f>
         <v>2</v>
       </c>
-      <c r="BF13" s="487" t="str">
+      <c r="BF13" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC13,1)</f>
         <v>2</v>
       </c>
-      <c r="BI13" s="495" t="s">
-        <v>879</v>
-      </c>
-      <c r="BJ13" s="494" t="str">
+      <c r="BI13" s="493" t="s">
+        <v>878</v>
+      </c>
+      <c r="BJ13" s="492" t="str">
         <f t="shared" si="0"/>
         <v>^yi?</v>
       </c>
-      <c r="BK13" s="493" t="str">
+      <c r="BK13" s="491" t="str">
         <f>MID(BI13, BM13+1, BL13-BM13-1)</f>
         <v>i</v>
       </c>
-      <c r="BL13" s="491">
+      <c r="BL13" s="489">
         <f>FIND("/",BI13, BM13+1)</f>
         <v>19</v>
       </c>
-      <c r="BM13" s="491">
+      <c r="BM13" s="489">
         <f xml:space="preserve"> FIND("/", BI13, 13)</f>
         <v>17</v>
       </c>
@@ -34183,56 +34223,56 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="387" t="s">
+      <c r="G14" s="385" t="s">
         <v>306</v>
       </c>
-      <c r="H14" s="388"/>
-      <c r="I14" s="389"/>
-      <c r="J14" s="387" t="s">
+      <c r="H14" s="386"/>
+      <c r="I14" s="387"/>
+      <c r="J14" s="385" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="388"/>
-      <c r="L14" s="389"/>
-      <c r="M14" s="387" t="s">
+      <c r="K14" s="386"/>
+      <c r="L14" s="387"/>
+      <c r="M14" s="385" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="388"/>
-      <c r="O14" s="389"/>
-      <c r="P14" s="387" t="s">
+      <c r="N14" s="386"/>
+      <c r="O14" s="387"/>
+      <c r="P14" s="385" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="388"/>
-      <c r="R14" s="389"/>
-      <c r="S14" s="387" t="s">
+      <c r="Q14" s="386"/>
+      <c r="R14" s="387"/>
+      <c r="S14" s="385" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="388"/>
-      <c r="U14" s="389"/>
-      <c r="V14" s="387" t="s">
+      <c r="T14" s="386"/>
+      <c r="U14" s="387"/>
+      <c r="V14" s="385" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="388"/>
-      <c r="X14" s="389"/>
-      <c r="Y14" s="390" t="s">
+      <c r="W14" s="386"/>
+      <c r="X14" s="387"/>
+      <c r="Y14" s="388" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="391"/>
-      <c r="AA14" s="392"/>
-      <c r="AB14" s="357"/>
-      <c r="AC14" s="353" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD14" s="358"/>
-      <c r="AE14" s="390" t="s">
+      <c r="Z14" s="389"/>
+      <c r="AA14" s="390"/>
+      <c r="AB14" s="356"/>
+      <c r="AC14" s="352" t="s">
+        <v>855</v>
+      </c>
+      <c r="AD14" s="357"/>
+      <c r="AE14" s="388" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="391"/>
-      <c r="AG14" s="392"/>
-      <c r="AH14" s="384" t="s">
+      <c r="AF14" s="389"/>
+      <c r="AG14" s="390"/>
+      <c r="AH14" s="382" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="385"/>
-      <c r="AJ14" s="386"/>
+      <c r="AI14" s="383"/>
+      <c r="AJ14" s="384"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -34248,50 +34288,50 @@
         <f t="array" ref="AV14" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>6</v>
       </c>
-      <c r="AW14" s="471" t="s">
+      <c r="AW14" s="469" t="s">
         <v>171</v>
       </c>
-      <c r="AX14" s="472" t="s">
+      <c r="AX14" s="470" t="s">
         <v>11</v>
       </c>
-      <c r="AY14" s="473" t="s">
+      <c r="AY14" s="471" t="s">
         <v>11</v>
       </c>
-      <c r="AZ14" s="474" t="s">
+      <c r="AZ14" s="472" t="s">
         <v>952</v>
       </c>
-      <c r="BC14" s="484" cm="1">
+      <c r="BC14" s="482" cm="1">
         <f t="array" ref="BC14" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>6</v>
       </c>
-      <c r="BD14" s="485" t="str">
+      <c r="BD14" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄊ</v>
       </c>
-      <c r="BE14" s="486" t="str">
+      <c r="BE14" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC14,1)</f>
         <v>w</v>
       </c>
-      <c r="BF14" s="487" t="str">
+      <c r="BF14" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC14,1)</f>
         <v>w</v>
       </c>
-      <c r="BI14" s="495" t="s">
-        <v>880</v>
-      </c>
-      <c r="BJ14" s="494" t="str">
+      <c r="BI14" s="493" t="s">
+        <v>879</v>
+      </c>
+      <c r="BJ14" s="492" t="str">
         <f t="shared" si="0"/>
         <v>^wu?</v>
       </c>
-      <c r="BK14" s="493" t="str">
+      <c r="BK14" s="491" t="str">
         <f>MID(BI14, BM14+1, BL14-BM14-1)</f>
         <v>u</v>
       </c>
-      <c r="BL14" s="491">
+      <c r="BL14" s="489">
         <f>FIND("/",BI14, BM14+1)</f>
         <v>19</v>
       </c>
-      <c r="BM14" s="491">
+      <c r="BM14" s="489">
         <f xml:space="preserve"> FIND("/", BI14, 13)</f>
         <v>17</v>
       </c>
@@ -34360,7 +34400,7 @@
         <f ca="1">U6</f>
         <v>r</v>
       </c>
-      <c r="V15" s="360" t="str">
+      <c r="V15" s="359" t="str">
         <f ca="1">X4</f>
         <v>ㄙ</v>
       </c>
@@ -34372,7 +34412,7 @@
         <f ca="1">X6</f>
         <v>s</v>
       </c>
-      <c r="Y15" s="359" t="str">
+      <c r="Y15" s="358" t="str">
         <f ca="1">AA4</f>
         <v>ㄩ</v>
       </c>
@@ -34384,7 +34424,7 @@
         <f ca="1">AA6</f>
         <v xml:space="preserve">ü </v>
       </c>
-      <c r="AB15" s="359" t="str">
+      <c r="AB15" s="358" t="str">
         <f ca="1">AF4</f>
         <v>ㄞ</v>
       </c>
@@ -34408,7 +34448,7 @@
         <f ca="1">AI6</f>
         <v>ou</v>
       </c>
-      <c r="AH15" s="359" t="str">
+      <c r="AH15" s="358" t="str">
         <f ca="1">AM4</f>
         <v>ㄥ</v>
       </c>
@@ -34435,50 +34475,50 @@
         <f t="array" ref="AV15" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>7</v>
       </c>
-      <c r="AW15" s="471" t="s">
+      <c r="AW15" s="469" t="s">
         <v>99</v>
       </c>
-      <c r="AX15" s="472" t="s">
+      <c r="AX15" s="470" t="s">
         <v>68</v>
       </c>
-      <c r="AY15" s="473" t="s">
+      <c r="AY15" s="471" t="s">
         <v>68</v>
       </c>
-      <c r="AZ15" s="474" t="s">
+      <c r="AZ15" s="472" t="s">
         <v>953</v>
       </c>
-      <c r="BC15" s="484" cm="1">
+      <c r="BC15" s="482" cm="1">
         <f t="array" ref="BC15" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>7</v>
       </c>
-      <c r="BD15" s="485" t="str">
+      <c r="BD15" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄋ</v>
       </c>
-      <c r="BE15" s="486" t="str">
+      <c r="BE15" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC15,1)</f>
         <v>s</v>
       </c>
-      <c r="BF15" s="487" t="str">
+      <c r="BF15" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC15,1)</f>
         <v>s</v>
       </c>
-      <c r="BI15" s="495" t="s">
-        <v>881</v>
-      </c>
-      <c r="BJ15" s="494" t="str">
+      <c r="BI15" s="493" t="s">
+        <v>880</v>
+      </c>
+      <c r="BJ15" s="492" t="str">
         <f t="shared" si="0"/>
         <v>iu</v>
       </c>
-      <c r="BK15" s="493" t="str">
+      <c r="BK15" s="491" t="str">
         <f>MID(BI15, BM15+1, BL15-BM15-1)</f>
         <v>v</v>
       </c>
-      <c r="BL15" s="491">
+      <c r="BL15" s="489">
         <f>FIND("/",BI15, BM15+1)</f>
         <v>17</v>
       </c>
-      <c r="BM15" s="491">
+      <c r="BM15" s="489">
         <f xml:space="preserve"> FIND("/", BI15, 13)</f>
         <v>15</v>
       </c>
@@ -34535,50 +34575,50 @@
         <f t="array" ref="AV16" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>8</v>
       </c>
-      <c r="AW16" s="471" t="s">
+      <c r="AW16" s="469" t="s">
         <v>172</v>
       </c>
-      <c r="AX16" s="472" t="s">
+      <c r="AX16" s="470" t="s">
         <v>93</v>
       </c>
-      <c r="AY16" s="473" t="s">
+      <c r="AY16" s="471" t="s">
         <v>93</v>
       </c>
-      <c r="AZ16" s="474" t="s">
+      <c r="AZ16" s="472" t="s">
         <v>954</v>
       </c>
-      <c r="BC16" s="484" cm="1">
+      <c r="BC16" s="482" cm="1">
         <f t="array" ref="BC16" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>8</v>
       </c>
-      <c r="BD16" s="485" t="str">
+      <c r="BD16" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄌ</v>
       </c>
-      <c r="BE16" s="486" t="str">
+      <c r="BE16" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC16,1)</f>
         <v>x</v>
       </c>
-      <c r="BF16" s="487" t="str">
+      <c r="BF16" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC16,1)</f>
         <v>x</v>
       </c>
-      <c r="BI16" s="495" t="s">
-        <v>882</v>
-      </c>
-      <c r="BJ16" s="494" t="str">
+      <c r="BI16" s="493" t="s">
+        <v>881</v>
+      </c>
+      <c r="BJ16" s="492" t="str">
         <f t="shared" si="0"/>
         <v>^([jqx])u</v>
       </c>
-      <c r="BK16" s="493" t="str">
+      <c r="BK16" s="491" t="str">
         <f>MID(BI16, BM16+1, BL16-BM16-1)</f>
         <v>$1v</v>
       </c>
-      <c r="BL16" s="491">
+      <c r="BL16" s="489">
         <f>FIND("/",BI16, BM16+1)</f>
         <v>26</v>
       </c>
-      <c r="BM16" s="491">
+      <c r="BM16" s="489">
         <f xml:space="preserve"> FIND("/", BI16, 13)</f>
         <v>22</v>
       </c>
@@ -34591,50 +34631,50 @@
         <f t="array" ref="AV17" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>9</v>
       </c>
-      <c r="AW17" s="471" t="s">
+      <c r="AW17" s="469" t="s">
         <v>53</v>
       </c>
-      <c r="AX17" s="472" t="s">
+      <c r="AX17" s="470" t="s">
         <v>45</v>
       </c>
-      <c r="AY17" s="473" t="s">
+      <c r="AY17" s="471" t="s">
         <v>45</v>
       </c>
-      <c r="AZ17" s="474" t="s">
+      <c r="AZ17" s="472" t="s">
         <v>955</v>
       </c>
-      <c r="BC17" s="484" cm="1">
+      <c r="BC17" s="482" cm="1">
         <f t="array" ref="BC17" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>9</v>
       </c>
-      <c r="BD17" s="485" t="str">
+      <c r="BD17" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄍ</v>
       </c>
-      <c r="BE17" s="486" t="str">
+      <c r="BE17" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC17,1)</f>
         <v>e</v>
       </c>
-      <c r="BF17" s="487" t="str">
+      <c r="BF17" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC17,1)</f>
         <v>e</v>
       </c>
-      <c r="BI17" s="495" t="s">
-        <v>883</v>
-      </c>
-      <c r="BJ17" s="494" t="str">
+      <c r="BI17" s="493" t="s">
+        <v>882</v>
+      </c>
+      <c r="BJ17" s="492" t="str">
         <f t="shared" si="0"/>
         <v>([iuv])n</v>
       </c>
-      <c r="BK17" s="493" t="str">
+      <c r="BK17" s="491" t="str">
         <f>MID(BI17, BM17+1, BL17-BM17-1)</f>
         <v>$1en</v>
       </c>
-      <c r="BL17" s="491">
+      <c r="BL17" s="489">
         <f>FIND("/",BI17, BM17+1)</f>
         <v>26</v>
       </c>
-      <c r="BM17" s="491">
+      <c r="BM17" s="489">
         <f xml:space="preserve"> FIND("/", BI17, 13)</f>
         <v>21</v>
       </c>
@@ -34694,50 +34734,50 @@
         <f t="array" ref="AV18" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>10</v>
       </c>
-      <c r="AW18" s="471" t="s">
+      <c r="AW18" s="469" t="s">
         <v>164</v>
       </c>
-      <c r="AX18" s="472" t="s">
+      <c r="AX18" s="470" t="s">
         <v>42</v>
       </c>
-      <c r="AY18" s="473" t="s">
+      <c r="AY18" s="471" t="s">
         <v>42</v>
       </c>
-      <c r="AZ18" s="474" t="s">
+      <c r="AZ18" s="472" t="s">
         <v>956</v>
       </c>
-      <c r="BC18" s="484" cm="1">
+      <c r="BC18" s="482" cm="1">
         <f t="array" ref="BC18" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>10</v>
       </c>
-      <c r="BD18" s="485" t="str">
+      <c r="BD18" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄎ</v>
       </c>
-      <c r="BE18" s="486" t="str">
+      <c r="BE18" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC18,1)</f>
         <v>d</v>
       </c>
-      <c r="BF18" s="487" t="str">
+      <c r="BF18" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC18,1)</f>
         <v>d</v>
       </c>
-      <c r="BI18" s="495" t="s">
-        <v>884</v>
-      </c>
-      <c r="BJ18" s="494" t="str">
+      <c r="BI18" s="493" t="s">
+        <v>883</v>
+      </c>
+      <c r="BJ18" s="492" t="str">
         <f t="shared" si="0"/>
         <v>^zhi?</v>
       </c>
-      <c r="BK18" s="493" t="str">
+      <c r="BK18" s="491" t="str">
         <f>MID(BI18, BM18+1, BL18-BM18-1)</f>
         <v>Z</v>
       </c>
-      <c r="BL18" s="491">
+      <c r="BL18" s="489">
         <f>FIND("/",BI18, BM18+1)</f>
         <v>20</v>
       </c>
-      <c r="BM18" s="491">
+      <c r="BM18" s="489">
         <f xml:space="preserve"> FIND("/", BI18, 13)</f>
         <v>18</v>
       </c>
@@ -34749,11 +34789,11 @@
       </c>
       <c r="C19" s="208">
         <f ca="1" xml:space="preserve"> LEN(D19)</f>
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D19" s="80" t="str">
-        <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D6:AU6)</f>
-        <v>bpmfdtnlgkhjqxzhchshrzchsiuü aoeê aieiaoouanennangengeromanninnunnenn</v>
+        <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D5:AS5)</f>
+        <v>bpmfdtnlgkhjqxZCSrzcsiuvaoeEAIOUMNKGR12345</v>
       </c>
       <c r="E19" s="77"/>
       <c r="F19" s="77"/>
@@ -34802,50 +34842,50 @@
         <f t="array" ref="AV19" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>11</v>
       </c>
-      <c r="AW19" s="471" t="s">
+      <c r="AW19" s="469" t="s">
         <v>167</v>
       </c>
-      <c r="AX19" s="472" t="s">
+      <c r="AX19" s="470" t="s">
         <v>95</v>
       </c>
-      <c r="AY19" s="473" t="s">
+      <c r="AY19" s="471" t="s">
         <v>95</v>
       </c>
-      <c r="AZ19" s="474" t="s">
+      <c r="AZ19" s="472" t="s">
         <v>957</v>
       </c>
-      <c r="BC19" s="484" cm="1">
+      <c r="BC19" s="482" cm="1">
         <f t="array" ref="BC19" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>11</v>
       </c>
-      <c r="BD19" s="485" t="str">
+      <c r="BD19" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄏ</v>
       </c>
-      <c r="BE19" s="486" t="str">
+      <c r="BE19" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC19,1)</f>
         <v>c</v>
       </c>
-      <c r="BF19" s="487" t="str">
+      <c r="BF19" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC19,1)</f>
         <v>c</v>
       </c>
-      <c r="BI19" s="495" t="s">
-        <v>885</v>
-      </c>
-      <c r="BJ19" s="494" t="str">
+      <c r="BI19" s="493" t="s">
+        <v>884</v>
+      </c>
+      <c r="BJ19" s="492" t="str">
         <f t="shared" si="0"/>
         <v>^chi?</v>
       </c>
-      <c r="BK19" s="493" t="str">
+      <c r="BK19" s="491" t="str">
         <f>MID(BI19, BM19+1, BL19-BM19-1)</f>
         <v>C</v>
       </c>
-      <c r="BL19" s="491">
+      <c r="BL19" s="489">
         <f>FIND("/",BI19, BM19+1)</f>
         <v>20</v>
       </c>
-      <c r="BM19" s="491">
+      <c r="BM19" s="489">
         <f xml:space="preserve"> FIND("/", BI19, 13)</f>
         <v>18</v>
       </c>
@@ -34910,50 +34950,50 @@
         <f t="array" ref="AV20" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>12</v>
       </c>
-      <c r="AW20" s="471" t="s">
+      <c r="AW20" s="469" t="s">
         <v>173</v>
       </c>
-      <c r="AX20" s="472" t="s">
+      <c r="AX20" s="470" t="s">
         <v>97</v>
       </c>
-      <c r="AY20" s="473" t="s">
+      <c r="AY20" s="471" t="s">
         <v>97</v>
       </c>
-      <c r="AZ20" s="474" t="s">
+      <c r="AZ20" s="472" t="s">
         <v>958</v>
       </c>
-      <c r="BC20" s="484" cm="1">
+      <c r="BC20" s="482" cm="1">
         <f t="array" ref="BC20" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>12</v>
       </c>
-      <c r="BD20" s="485" t="str">
+      <c r="BD20" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄐ</v>
       </c>
-      <c r="BE20" s="486" t="str">
+      <c r="BE20" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC20,1)</f>
         <v>r</v>
       </c>
-      <c r="BF20" s="487" t="str">
+      <c r="BF20" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC20,1)</f>
         <v>r</v>
       </c>
-      <c r="BI20" s="495" t="s">
-        <v>886</v>
-      </c>
-      <c r="BJ20" s="494" t="str">
+      <c r="BI20" s="493" t="s">
+        <v>885</v>
+      </c>
+      <c r="BJ20" s="492" t="str">
         <f t="shared" si="0"/>
         <v>^shi?</v>
       </c>
-      <c r="BK20" s="493" t="str">
+      <c r="BK20" s="491" t="str">
         <f>MID(BI20, BM20+1, BL20-BM20-1)</f>
         <v>S</v>
       </c>
-      <c r="BL20" s="491">
+      <c r="BL20" s="489">
         <f>FIND("/",BI20, BM20+1)</f>
         <v>20</v>
       </c>
-      <c r="BM20" s="491">
+      <c r="BM20" s="489">
         <f xml:space="preserve"> FIND("/", BI20, 13)</f>
         <v>18</v>
       </c>
@@ -34961,7 +35001,7 @@
     <row r="21" spans="1:65" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B21" s="159" t="str">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; D19 &amp; "|" &amp; D20 &amp; "|"</f>
-        <v>- xlit|bpmfdtnlgkhjqxzhchshrzchsiuü aoeê aieiaoouanennangengeromanninnunnenn|1qaz2wsxedcrfv5tgbyhnujm8ik,9ol.0p;/- 6347|</v>
+        <v>- xlit|bpmfdtnlgkhjqxZCSrzcsiuvaoeEAIOUMNKGR12345|1qaz2wsxedcrfv5tgbyhnujm8ik,9ol.0p;/- 6347|</v>
       </c>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
@@ -35012,50 +35052,50 @@
         <f t="array" ref="AV21" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>13</v>
       </c>
-      <c r="AW21" s="471" t="s">
+      <c r="AW21" s="469" t="s">
         <v>174</v>
       </c>
-      <c r="AX21" s="472" t="s">
+      <c r="AX21" s="470" t="s">
         <v>165</v>
       </c>
-      <c r="AY21" s="473" t="s">
+      <c r="AY21" s="471" t="s">
         <v>165</v>
       </c>
-      <c r="AZ21" s="474" t="s">
+      <c r="AZ21" s="472" t="s">
         <v>959</v>
       </c>
-      <c r="BC21" s="484" cm="1">
+      <c r="BC21" s="482" cm="1">
         <f t="array" ref="BC21" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>13</v>
       </c>
-      <c r="BD21" s="485" t="str">
+      <c r="BD21" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄑ</v>
       </c>
-      <c r="BE21" s="486" t="str">
+      <c r="BE21" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC21,1)</f>
         <v>f</v>
       </c>
-      <c r="BF21" s="487" t="str">
+      <c r="BF21" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC21,1)</f>
         <v>f</v>
       </c>
-      <c r="BI21" s="495" t="s">
-        <v>887</v>
-      </c>
-      <c r="BJ21" s="494" t="str">
+      <c r="BI21" s="493" t="s">
+        <v>886</v>
+      </c>
+      <c r="BJ21" s="492" t="str">
         <f t="shared" si="0"/>
         <v>^([zcsr])i</v>
       </c>
-      <c r="BK21" s="493" t="str">
+      <c r="BK21" s="491" t="str">
         <f>MID(BI21, BM21+1, BL21-BM21-1)</f>
         <v>$1</v>
       </c>
-      <c r="BL21" s="491">
+      <c r="BL21" s="489">
         <f>FIND("/",BI21, BM21+1)</f>
         <v>26</v>
       </c>
-      <c r="BM21" s="491">
+      <c r="BM21" s="489">
         <f xml:space="preserve"> FIND("/", BI21, 13)</f>
         <v>23</v>
       </c>
@@ -35111,50 +35151,50 @@
         <f t="array" ref="AV22" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>14</v>
       </c>
-      <c r="AW22" s="471" t="s">
+      <c r="AW22" s="469" t="s">
         <v>175</v>
       </c>
-      <c r="AX22" s="472" t="s">
+      <c r="AX22" s="470" t="s">
         <v>172</v>
       </c>
-      <c r="AY22" s="473" t="s">
+      <c r="AY22" s="471" t="s">
         <v>172</v>
       </c>
-      <c r="AZ22" s="474" t="s">
+      <c r="AZ22" s="472" t="s">
         <v>960</v>
       </c>
-      <c r="BC22" s="484" cm="1">
+      <c r="BC22" s="482" cm="1">
         <f t="array" ref="BC22" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>14</v>
       </c>
-      <c r="BD22" s="485" t="str">
+      <c r="BD22" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄒ</v>
       </c>
-      <c r="BE22" s="486" t="str">
+      <c r="BE22" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC22,1)</f>
         <v>v</v>
       </c>
-      <c r="BF22" s="487" t="str">
+      <c r="BF22" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC22,1)</f>
         <v>v</v>
       </c>
-      <c r="BI22" s="495" t="s">
-        <v>888</v>
-      </c>
-      <c r="BJ22" s="494" t="str">
+      <c r="BI22" s="493" t="s">
+        <v>887</v>
+      </c>
+      <c r="BJ22" s="492" t="str">
         <f t="shared" si="0"/>
         <v>ai</v>
       </c>
-      <c r="BK22" s="493" t="str">
+      <c r="BK22" s="491" t="str">
         <f>MID(BI22, BM22+1, BL22-BM22-1)</f>
         <v>A</v>
       </c>
-      <c r="BL22" s="491">
+      <c r="BL22" s="489">
         <f>FIND("/",BI22, BM22+1)</f>
         <v>17</v>
       </c>
-      <c r="BM22" s="491">
+      <c r="BM22" s="489">
         <f xml:space="preserve"> FIND("/", BI22, 13)</f>
         <v>15</v>
       </c>
@@ -35212,50 +35252,50 @@
         <f t="array" ref="AV23" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>15</v>
       </c>
-      <c r="AW23" s="471" t="s">
+      <c r="AW23" s="469" t="s">
         <v>191</v>
       </c>
-      <c r="AX23" s="472" t="s">
-        <v>902</v>
-      </c>
-      <c r="AY23" s="473" t="s">
+      <c r="AX23" s="470" t="s">
+        <v>901</v>
+      </c>
+      <c r="AY23" s="471" t="s">
         <v>907</v>
       </c>
-      <c r="AZ23" s="474" t="s">
+      <c r="AZ23" s="472" t="s">
         <v>961</v>
       </c>
-      <c r="BC23" s="484" cm="1">
+      <c r="BC23" s="482" cm="1">
         <f t="array" ref="BC23" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>15</v>
       </c>
-      <c r="BD23" s="485" t="str">
+      <c r="BD23" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄓ</v>
       </c>
-      <c r="BE23" s="486" t="str">
+      <c r="BE23" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC23,1)</f>
         <v>5</v>
       </c>
-      <c r="BF23" s="487" t="str">
+      <c r="BF23" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC23,1)</f>
         <v>5</v>
       </c>
-      <c r="BI23" s="495" t="s">
-        <v>889</v>
-      </c>
-      <c r="BJ23" s="494" t="str">
+      <c r="BI23" s="493" t="s">
+        <v>888</v>
+      </c>
+      <c r="BJ23" s="492" t="str">
         <f t="shared" si="0"/>
         <v>ei</v>
       </c>
-      <c r="BK23" s="493" t="str">
+      <c r="BK23" s="491" t="str">
         <f>MID(BI23, BM23+1, BL23-BM23-1)</f>
         <v>I</v>
       </c>
-      <c r="BL23" s="491">
+      <c r="BL23" s="489">
         <f>FIND("/",BI23, BM23+1)</f>
         <v>17</v>
       </c>
-      <c r="BM23" s="491">
+      <c r="BM23" s="489">
         <f xml:space="preserve"> FIND("/", BI23, 13)</f>
         <v>15</v>
       </c>
@@ -35315,50 +35355,50 @@
         <f t="array" ref="AV24" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>16</v>
       </c>
-      <c r="AW24" s="471" t="s">
+      <c r="AW24" s="469" t="s">
         <v>11</v>
       </c>
-      <c r="AX24" s="472" t="s">
+      <c r="AX24" s="470" t="s">
         <v>83</v>
       </c>
-      <c r="AY24" s="473" t="s">
-        <v>903</v>
-      </c>
-      <c r="AZ24" s="474" t="s">
+      <c r="AY24" s="471" t="s">
+        <v>902</v>
+      </c>
+      <c r="AZ24" s="472" t="s">
         <v>962</v>
       </c>
-      <c r="BC24" s="484" cm="1">
+      <c r="BC24" s="482" cm="1">
         <f t="array" ref="BC24" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>16</v>
       </c>
-      <c r="BD24" s="485" t="str">
+      <c r="BD24" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄔ</v>
       </c>
-      <c r="BE24" s="486" t="str">
+      <c r="BE24" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC24,1)</f>
         <v>t</v>
       </c>
-      <c r="BF24" s="487" t="str">
+      <c r="BF24" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC24,1)</f>
         <v>t</v>
       </c>
-      <c r="BI24" s="495" t="s">
-        <v>890</v>
-      </c>
-      <c r="BJ24" s="494" t="str">
+      <c r="BI24" s="493" t="s">
+        <v>889</v>
+      </c>
+      <c r="BJ24" s="492" t="str">
         <f t="shared" si="0"/>
         <v>ao</v>
       </c>
-      <c r="BK24" s="493" t="str">
+      <c r="BK24" s="491" t="str">
         <f>MID(BI24, BM24+1, BL24-BM24-1)</f>
         <v>O</v>
       </c>
-      <c r="BL24" s="491">
+      <c r="BL24" s="489">
         <f>FIND("/",BI24, BM24+1)</f>
         <v>17</v>
       </c>
-      <c r="BM24" s="491">
+      <c r="BM24" s="489">
         <f xml:space="preserve"> FIND("/", BI24, 13)</f>
         <v>15</v>
       </c>
@@ -35374,7 +35414,7 @@
         <v>42</v>
       </c>
       <c r="D25" s="87" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(D3:AU3)</f>
+        <f xml:space="preserve"> _xlfn.CONCAT(D3:AS3)</f>
         <v>1qaz2wsxedcrfv5tgbyhnujm8ik,9ol.0p;/- 6347</v>
       </c>
       <c r="E25" s="87"/>
@@ -35424,50 +35464,50 @@
         <f t="array" ref="AV25" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>17</v>
       </c>
-      <c r="AW25" s="471" t="s">
+      <c r="AW25" s="469" t="s">
         <v>45</v>
       </c>
-      <c r="AX25" s="472" t="s">
+      <c r="AX25" s="470" t="s">
         <v>56</v>
       </c>
-      <c r="AY25" s="473" t="s">
+      <c r="AY25" s="471" t="s">
         <v>909</v>
       </c>
-      <c r="AZ25" s="474" t="s">
+      <c r="AZ25" s="472" t="s">
         <v>963</v>
       </c>
-      <c r="BC25" s="484" cm="1">
+      <c r="BC25" s="482" cm="1">
         <f t="array" ref="BC25" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>17</v>
       </c>
-      <c r="BD25" s="485" t="str">
+      <c r="BD25" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄕ</v>
       </c>
-      <c r="BE25" s="486" t="str">
+      <c r="BE25" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC25,1)</f>
         <v>g</v>
       </c>
-      <c r="BF25" s="487" t="str">
+      <c r="BF25" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC25,1)</f>
         <v>g</v>
       </c>
-      <c r="BI25" s="495" t="s">
-        <v>891</v>
-      </c>
-      <c r="BJ25" s="494" t="str">
+      <c r="BI25" s="493" t="s">
+        <v>890</v>
+      </c>
+      <c r="BJ25" s="492" t="str">
         <f t="shared" si="0"/>
         <v>ou</v>
       </c>
-      <c r="BK25" s="493" t="str">
+      <c r="BK25" s="491" t="str">
         <f>MID(BI25, BM25+1, BL25-BM25-1)</f>
         <v>U</v>
       </c>
-      <c r="BL25" s="491">
+      <c r="BL25" s="489">
         <f>FIND("/",BI25, BM25+1)</f>
         <v>17</v>
       </c>
-      <c r="BM25" s="491">
+      <c r="BM25" s="489">
         <f xml:space="preserve"> FIND("/", BI25, 13)</f>
         <v>15</v>
       </c>
@@ -35482,7 +35522,7 @@
         <v>42</v>
       </c>
       <c r="D26" s="81" t="str">
-        <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D4:AU4)</f>
+        <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D4:AS4)</f>
         <v>ㄅㄆㄇㄈㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㄓㄔㄕㄖㄗㄘㄙㄧㄨㄩㄚㄛㄜㄝㄞㄟㄠㄡㄢㄣㄤㄥㄦˉˊˇˋ˙</v>
       </c>
       <c r="E26" s="81"/>
@@ -35532,50 +35572,50 @@
         <f t="array" ref="AV26" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>18</v>
       </c>
-      <c r="AW26" s="471" t="s">
+      <c r="AW26" s="469" t="s">
         <v>91</v>
       </c>
-      <c r="AX26" s="472" t="s">
+      <c r="AX26" s="470" t="s">
         <v>173</v>
       </c>
-      <c r="AY26" s="473" t="s">
+      <c r="AY26" s="471" t="s">
         <v>173</v>
       </c>
-      <c r="AZ26" s="474" t="s">
+      <c r="AZ26" s="472" t="s">
         <v>964</v>
       </c>
-      <c r="BC26" s="484" cm="1">
+      <c r="BC26" s="482" cm="1">
         <f t="array" ref="BC26" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>18</v>
       </c>
-      <c r="BD26" s="485" t="str">
+      <c r="BD26" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄖ</v>
       </c>
-      <c r="BE26" s="486" t="str">
+      <c r="BE26" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC26,1)</f>
         <v>b</v>
       </c>
-      <c r="BF26" s="487" t="str">
+      <c r="BF26" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC26,1)</f>
         <v>b</v>
       </c>
-      <c r="BI26" s="495" t="s">
-        <v>892</v>
-      </c>
-      <c r="BJ26" s="494" t="str">
+      <c r="BI26" s="493" t="s">
+        <v>891</v>
+      </c>
+      <c r="BJ26" s="492" t="str">
         <f t="shared" si="0"/>
         <v>ang</v>
       </c>
-      <c r="BK26" s="493" t="str">
+      <c r="BK26" s="491" t="str">
         <f>MID(BI26, BM26+1, BL26-BM26-1)</f>
         <v>K</v>
       </c>
-      <c r="BL26" s="491">
+      <c r="BL26" s="489">
         <f>FIND("/",BI26, BM26+1)</f>
         <v>18</v>
       </c>
-      <c r="BM26" s="491">
+      <c r="BM26" s="489">
         <f xml:space="preserve"> FIND("/", BI26, 13)</f>
         <v>16</v>
       </c>
@@ -35634,50 +35674,50 @@
         <f t="array" ref="AV27" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>19</v>
       </c>
-      <c r="AW27" s="471" t="s">
+      <c r="AW27" s="469" t="s">
         <v>176</v>
       </c>
-      <c r="AX27" s="472" t="s">
+      <c r="AX27" s="470" t="s">
         <v>166</v>
       </c>
-      <c r="AY27" s="473" t="s">
+      <c r="AY27" s="471" t="s">
         <v>166</v>
       </c>
-      <c r="AZ27" s="474" t="s">
+      <c r="AZ27" s="472" t="s">
         <v>965</v>
       </c>
-      <c r="BC27" s="484" cm="1">
+      <c r="BC27" s="482" cm="1">
         <f t="array" ref="BC27" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>19</v>
       </c>
-      <c r="BD27" s="485" t="str">
+      <c r="BD27" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄗ</v>
       </c>
-      <c r="BE27" s="486" t="str">
+      <c r="BE27" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC27,1)</f>
         <v>y</v>
       </c>
-      <c r="BF27" s="487" t="str">
+      <c r="BF27" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC27,1)</f>
         <v>y</v>
       </c>
-      <c r="BI27" s="495" t="s">
-        <v>893</v>
-      </c>
-      <c r="BJ27" s="494" t="str">
+      <c r="BI27" s="493" t="s">
+        <v>892</v>
+      </c>
+      <c r="BJ27" s="492" t="str">
         <f t="shared" si="0"/>
         <v>eng</v>
       </c>
-      <c r="BK27" s="493" t="str">
+      <c r="BK27" s="491" t="str">
         <f>MID(BI27, BM27+1, BL27-BM27-1)</f>
         <v>G</v>
       </c>
-      <c r="BL27" s="491">
+      <c r="BL27" s="489">
         <f>FIND("/",BI27, BM27+1)</f>
         <v>18</v>
       </c>
-      <c r="BM27" s="491">
+      <c r="BM27" s="489">
         <f xml:space="preserve"> FIND("/", BI27, 13)</f>
         <v>16</v>
       </c>
@@ -35733,50 +35773,50 @@
         <f t="array" ref="AV28" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>20</v>
       </c>
-      <c r="AW28" s="471" t="s">
+      <c r="AW28" s="469" t="s">
         <v>95</v>
       </c>
-      <c r="AX28" s="472" t="s">
+      <c r="AX28" s="470" t="s">
         <v>167</v>
       </c>
-      <c r="AY28" s="473" t="s">
-        <v>903</v>
-      </c>
-      <c r="AZ28" s="474" t="s">
+      <c r="AY28" s="471" t="s">
+        <v>902</v>
+      </c>
+      <c r="AZ28" s="472" t="s">
         <v>966</v>
       </c>
-      <c r="BC28" s="484" cm="1">
+      <c r="BC28" s="482" cm="1">
         <f t="array" ref="BC28" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>20</v>
       </c>
-      <c r="BD28" s="485" t="str">
+      <c r="BD28" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄘ</v>
       </c>
-      <c r="BE28" s="486" t="str">
+      <c r="BE28" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC28,1)</f>
         <v>h</v>
       </c>
-      <c r="BF28" s="487" t="str">
+      <c r="BF28" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC28,1)</f>
         <v>h</v>
       </c>
-      <c r="BI28" s="495" t="s">
-        <v>894</v>
-      </c>
-      <c r="BJ28" s="494" t="str">
+      <c r="BI28" s="493" t="s">
+        <v>893</v>
+      </c>
+      <c r="BJ28" s="492" t="str">
         <f t="shared" si="0"/>
         <v>an</v>
       </c>
-      <c r="BK28" s="493" t="str">
+      <c r="BK28" s="491" t="str">
         <f>MID(BI28, BM28+1, BL28-BM28-1)</f>
         <v>M</v>
       </c>
-      <c r="BL28" s="491">
+      <c r="BL28" s="489">
         <f>FIND("/",BI28, BM28+1)</f>
         <v>17</v>
       </c>
-      <c r="BM28" s="491">
+      <c r="BM28" s="489">
         <f xml:space="preserve"> FIND("/", BI28, 13)</f>
         <v>15</v>
       </c>
@@ -35834,50 +35874,50 @@
         <f t="array" ref="AV29" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>21</v>
       </c>
-      <c r="AW29" s="471" t="s">
+      <c r="AW29" s="469" t="s">
         <v>68</v>
       </c>
-      <c r="AX29" s="472" t="s">
+      <c r="AX29" s="470" t="s">
         <v>99</v>
       </c>
-      <c r="AY29" s="473" t="s">
+      <c r="AY29" s="471" t="s">
         <v>99</v>
       </c>
-      <c r="AZ29" s="474" t="s">
+      <c r="AZ29" s="472" t="s">
         <v>967</v>
       </c>
-      <c r="BC29" s="484" cm="1">
+      <c r="BC29" s="482" cm="1">
         <f t="array" ref="BC29" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>21</v>
       </c>
-      <c r="BD29" s="485" t="str">
+      <c r="BD29" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄙ</v>
       </c>
-      <c r="BE29" s="486" t="str">
+      <c r="BE29" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC29,1)</f>
         <v>n</v>
       </c>
-      <c r="BF29" s="487" t="str">
+      <c r="BF29" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC29,1)</f>
         <v>n</v>
       </c>
-      <c r="BI29" s="495" t="s">
-        <v>895</v>
-      </c>
-      <c r="BJ29" s="494" t="str">
+      <c r="BI29" s="493" t="s">
+        <v>894</v>
+      </c>
+      <c r="BJ29" s="492" t="str">
         <f t="shared" si="0"/>
         <v>en</v>
       </c>
-      <c r="BK29" s="493" t="str">
+      <c r="BK29" s="491" t="str">
         <f>MID(BI29, BM29+1, BL29-BM29-1)</f>
         <v>N</v>
       </c>
-      <c r="BL29" s="491">
+      <c r="BL29" s="489">
         <f>FIND("/",BI29, BM29+1)</f>
         <v>17</v>
       </c>
-      <c r="BM29" s="491">
+      <c r="BM29" s="489">
         <f xml:space="preserve"> FIND("/", BI29, 13)</f>
         <v>15</v>
       </c>
@@ -35937,50 +35977,50 @@
         <f t="array" ref="AV30" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>22</v>
       </c>
-      <c r="AW30" s="471" t="s">
+      <c r="AW30" s="469" t="s">
         <v>77</v>
       </c>
-      <c r="AX30" s="472" t="s">
+      <c r="AX30" s="470" t="s">
         <v>49</v>
       </c>
-      <c r="AY30" s="473" t="s">
+      <c r="AY30" s="471" t="s">
         <v>49</v>
       </c>
-      <c r="AZ30" s="474" t="s">
+      <c r="AZ30" s="472" t="s">
         <v>968</v>
       </c>
-      <c r="BC30" s="484" cm="1">
+      <c r="BC30" s="482" cm="1">
         <f t="array" ref="BC30" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>22</v>
       </c>
-      <c r="BD30" s="485" t="str">
+      <c r="BD30" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄧ</v>
       </c>
-      <c r="BE30" s="486" t="str">
+      <c r="BE30" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC30,1)</f>
         <v>u</v>
       </c>
-      <c r="BF30" s="487" t="str">
+      <c r="BF30" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC30,1)</f>
         <v>u</v>
       </c>
-      <c r="BI30" s="495" t="s">
-        <v>896</v>
-      </c>
-      <c r="BJ30" s="494" t="str">
+      <c r="BI30" s="493" t="s">
+        <v>895</v>
+      </c>
+      <c r="BJ30" s="492" t="str">
         <f t="shared" si="0"/>
         <v>er</v>
       </c>
-      <c r="BK30" s="493" t="str">
+      <c r="BK30" s="491" t="str">
         <f>MID(BI30, BM30+1, BL30-BM30-1)</f>
         <v>R</v>
       </c>
-      <c r="BL30" s="491">
+      <c r="BL30" s="489">
         <f>FIND("/",BI30, BM30+1)</f>
         <v>17</v>
       </c>
-      <c r="BM30" s="491">
+      <c r="BM30" s="489">
         <f xml:space="preserve"> FIND("/", BI30, 13)</f>
         <v>15</v>
       </c>
@@ -35992,11 +36032,11 @@
       </c>
       <c r="C31" s="209">
         <f ca="1" xml:space="preserve"> LEN(D31)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" s="87" t="str">
-        <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D5:AQ5, AS6:AU6)</f>
-        <v>bpmfdtnlgkhjqxZCSrzcsiuvaoeEAIOUMNKGR123enn</v>
+        <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D5:AS5)</f>
+        <v>bpmfdtnlgkhjqxZCSrzcsiuvaoeEAIOUMNKGR12345</v>
       </c>
       <c r="E31" s="87"/>
       <c r="F31" s="87"/>
@@ -36045,50 +36085,50 @@
         <f t="array" ref="AV31" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>23</v>
       </c>
-      <c r="AW31" s="471" t="s">
+      <c r="AW31" s="469" t="s">
         <v>97</v>
       </c>
-      <c r="AX31" s="472" t="s">
+      <c r="AX31" s="470" t="s">
         <v>77</v>
       </c>
-      <c r="AY31" s="473" t="s">
+      <c r="AY31" s="471" t="s">
         <v>77</v>
       </c>
-      <c r="AZ31" s="474" t="s">
+      <c r="AZ31" s="472" t="s">
         <v>969</v>
       </c>
-      <c r="BC31" s="484" cm="1">
+      <c r="BC31" s="482" cm="1">
         <f t="array" ref="BC31" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>23</v>
       </c>
-      <c r="BD31" s="485" t="str">
+      <c r="BD31" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄨ</v>
       </c>
-      <c r="BE31" s="486" t="str">
+      <c r="BE31" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC31,1)</f>
         <v>j</v>
       </c>
-      <c r="BF31" s="487" t="str">
+      <c r="BF31" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC31,1)</f>
         <v>j</v>
       </c>
-      <c r="BI31" s="495" t="s">
-        <v>897</v>
-      </c>
-      <c r="BJ31" s="494" t="str">
+      <c r="BI31" s="493" t="s">
+        <v>896</v>
+      </c>
+      <c r="BJ31" s="492" t="str">
         <f t="shared" si="0"/>
         <v>eh</v>
       </c>
-      <c r="BK31" s="493" t="str">
+      <c r="BK31" s="491" t="str">
         <f>MID(BI31, BM31+1, BL31-BM31-1)</f>
         <v>E</v>
       </c>
-      <c r="BL31" s="491">
+      <c r="BL31" s="489">
         <f>FIND("/",BI31, BM31+1)</f>
         <v>17</v>
       </c>
-      <c r="BM31" s="491">
+      <c r="BM31" s="489">
         <f xml:space="preserve"> FIND("/", BI31, 13)</f>
         <v>15</v>
       </c>
@@ -36101,11 +36141,11 @@
       </c>
       <c r="C32" s="210">
         <f ca="1">LEN(D32)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" s="81" t="str">
-        <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D4:AQ4, AS4:AU4)</f>
-        <v>ㄅㄆㄇㄈㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㄓㄔㄕㄖㄗㄘㄙㄧㄨㄩㄚㄛㄜㄝㄞㄟㄠㄡㄢㄣㄤㄥㄦˉˊˇ˙</v>
+        <f ca="1" xml:space="preserve"> _xlfn.CONCAT(D4:AS4)</f>
+        <v>ㄅㄆㄇㄈㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㄓㄔㄕㄖㄗㄘㄙㄧㄨㄩㄚㄛㄜㄝㄞㄟㄠㄡㄢㄣㄤㄥㄦˉˊˇˋ˙</v>
       </c>
       <c r="E32" s="81"/>
       <c r="F32" s="81"/>
@@ -36154,50 +36194,50 @@
         <f t="array" ref="AV32" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>24</v>
       </c>
-      <c r="AW32" s="471" t="s">
+      <c r="AW32" s="469" t="s">
         <v>66</v>
       </c>
-      <c r="AX32" s="472" t="s">
+      <c r="AX32" s="470" t="s">
         <v>175</v>
       </c>
-      <c r="AY32" s="473" t="s">
+      <c r="AY32" s="471" t="s">
         <v>933</v>
       </c>
-      <c r="AZ32" s="474" t="s">
+      <c r="AZ32" s="472" t="s">
         <v>970</v>
       </c>
-      <c r="BC32" s="484" cm="1">
+      <c r="BC32" s="482" cm="1">
         <f t="array" ref="BC32" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>24</v>
       </c>
-      <c r="BD32" s="485" t="str">
+      <c r="BD32" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄩ</v>
       </c>
-      <c r="BE32" s="486" t="str">
+      <c r="BE32" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC32,1)</f>
         <v>m</v>
       </c>
-      <c r="BF32" s="487" t="str">
+      <c r="BF32" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC32,1)</f>
         <v>m</v>
       </c>
-      <c r="BI32" s="495" t="s">
-        <v>898</v>
-      </c>
-      <c r="BJ32" s="494" t="str">
+      <c r="BI32" s="493" t="s">
+        <v>897</v>
+      </c>
+      <c r="BJ32" s="492" t="str">
         <f t="shared" si="0"/>
         <v>([iv])e</v>
       </c>
-      <c r="BK32" s="493" t="str">
+      <c r="BK32" s="491" t="str">
         <f>MID(BI32, BM32+1, BL32-BM32-1)</f>
         <v>$1E</v>
       </c>
-      <c r="BL32" s="491">
+      <c r="BL32" s="489">
         <f>FIND("/",BI32, BM32+1)</f>
         <v>24</v>
       </c>
-      <c r="BM32" s="491">
+      <c r="BM32" s="489">
         <f xml:space="preserve"> FIND("/", BI32, 13)</f>
         <v>20</v>
       </c>
@@ -36205,7 +36245,7 @@
     <row r="33" spans="1:65" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B33" s="159" t="str">
         <f ca="1" xml:space="preserve"> "- xlit|" &amp; D31 &amp; "|" &amp; D32 &amp; "|"</f>
-        <v>- xlit|bpmfdtnlgkhjqxZCSrzcsiuvaoeEAIOUMNKGR123enn|ㄅㄆㄇㄈㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㄓㄔㄕㄖㄗㄘㄙㄧㄨㄩㄚㄛㄜㄝㄞㄟㄠㄡㄢㄣㄤㄥㄦˉˊˇ˙|</v>
+        <v>- xlit|bpmfdtnlgkhjqxZCSrzcsiuvaoeEAIOUMNKGR12345|ㄅㄆㄇㄈㄉㄊㄋㄌㄍㄎㄏㄐㄑㄒㄓㄔㄕㄖㄗㄘㄙㄧㄨㄩㄚㄛㄜㄝㄞㄟㄠㄡㄢㄣㄤㄥㄦˉˊˇˋ˙|</v>
       </c>
       <c r="C33" s="74"/>
       <c r="D33" s="74"/>
@@ -36256,39 +36296,39 @@
         <f t="array" ref="AV33" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>25</v>
       </c>
-      <c r="AW33" s="471" t="s">
+      <c r="AW33" s="469" t="s">
         <v>177</v>
       </c>
-      <c r="AX33" s="472" t="s">
+      <c r="AX33" s="470" t="s">
         <v>21</v>
       </c>
-      <c r="AY33" s="473" t="s">
+      <c r="AY33" s="471" t="s">
         <v>21</v>
       </c>
-      <c r="AZ33" s="474" t="s">
+      <c r="AZ33" s="472" t="s">
         <v>971</v>
       </c>
-      <c r="BC33" s="484" cm="1">
+      <c r="BC33" s="482" cm="1">
         <f t="array" ref="BC33" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>25</v>
       </c>
-      <c r="BD33" s="485" t="str">
+      <c r="BD33" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄚ</v>
       </c>
-      <c r="BE33" s="486" t="str">
+      <c r="BE33" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC33,1)</f>
         <v>8</v>
       </c>
-      <c r="BF33" s="487" t="str">
+      <c r="BF33" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC33,1)</f>
         <v>8</v>
       </c>
-      <c r="BI33" s="490"/>
-      <c r="BJ33" s="490"/>
-      <c r="BK33" s="492"/>
-      <c r="BL33" s="490"/>
-      <c r="BM33" s="490"/>
+      <c r="BI33" s="488"/>
+      <c r="BJ33" s="488"/>
+      <c r="BK33" s="490"/>
+      <c r="BL33" s="488"/>
+      <c r="BM33" s="488"/>
     </row>
     <row r="34" spans="1:65" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B34" s="76"/>
@@ -36341,39 +36381,39 @@
         <f t="array" ref="AV34" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>26</v>
       </c>
-      <c r="AW34" s="471" t="s">
+      <c r="AW34" s="469" t="s">
         <v>49</v>
       </c>
-      <c r="AX34" s="472" t="s">
+      <c r="AX34" s="470" t="s">
         <v>79</v>
       </c>
-      <c r="AY34" s="473" t="s">
+      <c r="AY34" s="471" t="s">
         <v>79</v>
       </c>
-      <c r="AZ34" s="474" t="s">
+      <c r="AZ34" s="472" t="s">
         <v>972</v>
       </c>
-      <c r="BC34" s="484" cm="1">
+      <c r="BC34" s="482" cm="1">
         <f t="array" ref="BC34" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>26</v>
       </c>
-      <c r="BD34" s="485" t="str">
+      <c r="BD34" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄛ</v>
       </c>
-      <c r="BE34" s="486" t="str">
+      <c r="BE34" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC34,1)</f>
         <v>i</v>
       </c>
-      <c r="BF34" s="487" t="str">
+      <c r="BF34" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC34,1)</f>
         <v>i</v>
       </c>
-      <c r="BI34" s="490"/>
-      <c r="BJ34" s="490"/>
-      <c r="BK34" s="492"/>
-      <c r="BL34" s="490"/>
-      <c r="BM34" s="490"/>
+      <c r="BI34" s="488"/>
+      <c r="BJ34" s="488"/>
+      <c r="BK34" s="490"/>
+      <c r="BL34" s="488"/>
+      <c r="BM34" s="488"/>
     </row>
     <row r="35" spans="1:65" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B35" s="76"/>
@@ -36426,39 +36466,39 @@
         <f t="array" ref="AV35" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>27</v>
       </c>
-      <c r="AW35" s="471" t="s">
+      <c r="AW35" s="469" t="s">
         <v>42</v>
       </c>
-      <c r="AX35" s="472" t="s">
+      <c r="AX35" s="470" t="s">
         <v>53</v>
       </c>
-      <c r="AY35" s="473" t="s">
+      <c r="AY35" s="471" t="s">
         <v>53</v>
       </c>
-      <c r="AZ35" s="474" t="s">
+      <c r="AZ35" s="472" t="s">
         <v>973</v>
       </c>
-      <c r="BC35" s="484" cm="1">
+      <c r="BC35" s="482" cm="1">
         <f t="array" ref="BC35" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>27</v>
       </c>
-      <c r="BD35" s="485" t="str">
+      <c r="BD35" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄜ</v>
       </c>
-      <c r="BE35" s="486" t="str">
+      <c r="BE35" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC35,1)</f>
         <v>k</v>
       </c>
-      <c r="BF35" s="487" t="str">
+      <c r="BF35" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC35,1)</f>
         <v>k</v>
       </c>
-      <c r="BI35" s="490"/>
-      <c r="BJ35" s="490"/>
-      <c r="BK35" s="492"/>
-      <c r="BL35" s="490"/>
-      <c r="BM35" s="490"/>
+      <c r="BI35" s="488"/>
+      <c r="BJ35" s="488"/>
+      <c r="BK35" s="490"/>
+      <c r="BL35" s="488"/>
+      <c r="BM35" s="488"/>
     </row>
     <row r="36" spans="1:65" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B36" s="76"/>
@@ -36511,39 +36551,39 @@
         <f t="array" ref="AV36" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>28</v>
       </c>
-      <c r="AW36" s="471" t="s">
+      <c r="AW36" s="469" t="s">
         <v>181</v>
       </c>
-      <c r="AX36" s="472" t="s">
+      <c r="AX36" s="470" t="s">
         <v>26</v>
       </c>
-      <c r="AY36" s="473" t="s">
+      <c r="AY36" s="471" t="s">
         <v>935</v>
       </c>
-      <c r="AZ36" s="474" t="s">
+      <c r="AZ36" s="472" t="s">
         <v>974</v>
       </c>
-      <c r="BC36" s="484" cm="1">
+      <c r="BC36" s="482" cm="1">
         <f t="array" ref="BC36" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>28</v>
       </c>
-      <c r="BD36" s="485" t="str">
+      <c r="BD36" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄝ</v>
       </c>
-      <c r="BE36" s="486" t="str">
+      <c r="BE36" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC36,1)</f>
         <v>,</v>
       </c>
-      <c r="BF36" s="487" t="str">
+      <c r="BF36" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC36,1)</f>
         <v>,</v>
       </c>
-      <c r="BI36" s="490"/>
-      <c r="BJ36" s="490"/>
-      <c r="BK36" s="492"/>
-      <c r="BL36" s="490"/>
-      <c r="BM36" s="490"/>
+      <c r="BI36" s="488"/>
+      <c r="BJ36" s="488"/>
+      <c r="BK36" s="490"/>
+      <c r="BL36" s="488"/>
+      <c r="BM36" s="488"/>
     </row>
     <row r="37" spans="1:65" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B37"/>
@@ -36596,39 +36636,39 @@
         <f t="array" ref="AV37" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>29</v>
       </c>
-      <c r="AW37" s="471" t="s">
+      <c r="AW37" s="469" t="s">
         <v>179</v>
       </c>
-      <c r="AX37" s="472" t="s">
-        <v>904</v>
-      </c>
-      <c r="AY37" s="473" t="s">
+      <c r="AX37" s="470" t="s">
+        <v>903</v>
+      </c>
+      <c r="AY37" s="471" t="s">
         <v>481</v>
       </c>
-      <c r="AZ37" s="474" t="s">
+      <c r="AZ37" s="472" t="s">
         <v>975</v>
       </c>
-      <c r="BC37" s="484" cm="1">
+      <c r="BC37" s="482" cm="1">
         <f t="array" ref="BC37" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>29</v>
       </c>
-      <c r="BD37" s="485" t="str">
+      <c r="BD37" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄞ</v>
       </c>
-      <c r="BE37" s="486" t="str">
+      <c r="BE37" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC37,1)</f>
         <v>9</v>
       </c>
-      <c r="BF37" s="487" t="str">
+      <c r="BF37" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC37,1)</f>
         <v>9</v>
       </c>
-      <c r="BI37" s="490"/>
-      <c r="BJ37" s="490"/>
-      <c r="BK37" s="492"/>
-      <c r="BL37" s="490"/>
-      <c r="BM37" s="490"/>
+      <c r="BI37" s="488"/>
+      <c r="BJ37" s="488"/>
+      <c r="BK37" s="490"/>
+      <c r="BL37" s="488"/>
+      <c r="BM37" s="488"/>
     </row>
     <row r="38" spans="1:65" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B38" s="76"/>
@@ -36681,39 +36721,39 @@
         <f t="array" ref="AV38" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>30</v>
       </c>
-      <c r="AW38" s="471" t="s">
+      <c r="AW38" s="469" t="s">
         <v>79</v>
       </c>
-      <c r="AX38" s="472" t="s">
+      <c r="AX38" s="470" t="s">
         <v>31</v>
       </c>
-      <c r="AY38" s="473" t="s">
+      <c r="AY38" s="471" t="s">
         <v>911</v>
       </c>
-      <c r="AZ38" s="474" t="s">
+      <c r="AZ38" s="472" t="s">
         <v>976</v>
       </c>
-      <c r="BC38" s="484" cm="1">
+      <c r="BC38" s="482" cm="1">
         <f t="array" ref="BC38" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>30</v>
       </c>
-      <c r="BD38" s="485" t="str">
+      <c r="BD38" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄟ</v>
       </c>
-      <c r="BE38" s="486" t="str">
+      <c r="BE38" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC38,1)</f>
         <v>o</v>
       </c>
-      <c r="BF38" s="487" t="str">
+      <c r="BF38" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC38,1)</f>
         <v>o</v>
       </c>
-      <c r="BI38" s="490"/>
-      <c r="BJ38" s="490"/>
-      <c r="BK38" s="492"/>
-      <c r="BL38" s="490"/>
-      <c r="BM38" s="490"/>
+      <c r="BI38" s="488"/>
+      <c r="BJ38" s="488"/>
+      <c r="BK38" s="490"/>
+      <c r="BL38" s="488"/>
+      <c r="BM38" s="488"/>
     </row>
     <row r="39" spans="1:65" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="B39" s="76"/>
@@ -36766,39 +36806,39 @@
         <f t="array" ref="AV39" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>31</v>
       </c>
-      <c r="AW39" s="471" t="s">
+      <c r="AW39" s="469" t="s">
         <v>93</v>
       </c>
-      <c r="AX39" s="472" t="s">
+      <c r="AX39" s="470" t="s">
         <v>32</v>
       </c>
-      <c r="AY39" s="473" t="s">
+      <c r="AY39" s="471" t="s">
         <v>913</v>
       </c>
-      <c r="AZ39" s="474" t="s">
+      <c r="AZ39" s="472" t="s">
         <v>977</v>
       </c>
-      <c r="BC39" s="484" cm="1">
+      <c r="BC39" s="482" cm="1">
         <f t="array" ref="BC39" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>31</v>
       </c>
-      <c r="BD39" s="485" t="str">
+      <c r="BD39" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄠ</v>
       </c>
-      <c r="BE39" s="486" t="str">
+      <c r="BE39" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC39,1)</f>
         <v>l</v>
       </c>
-      <c r="BF39" s="487" t="str">
+      <c r="BF39" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC39,1)</f>
         <v>l</v>
       </c>
-      <c r="BI39" s="490"/>
-      <c r="BJ39" s="490"/>
-      <c r="BK39" s="492"/>
-      <c r="BL39" s="490"/>
-      <c r="BM39" s="490"/>
+      <c r="BI39" s="488"/>
+      <c r="BJ39" s="488"/>
+      <c r="BK39" s="490"/>
+      <c r="BL39" s="488"/>
+      <c r="BM39" s="488"/>
     </row>
     <row r="40" spans="1:65" s="12" customFormat="1" ht="38.1" customHeight="1">
       <c r="AH40" s="78"/>
@@ -36819,39 +36859,39 @@
         <f t="array" ref="AV40" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>32</v>
       </c>
-      <c r="AW40" s="471" t="s">
+      <c r="AW40" s="469" t="s">
         <v>771</v>
       </c>
-      <c r="AX40" s="472" t="s">
+      <c r="AX40" s="470" t="s">
         <v>30</v>
       </c>
-      <c r="AY40" s="473" t="s">
+      <c r="AY40" s="471" t="s">
         <v>930</v>
       </c>
-      <c r="AZ40" s="474" t="s">
+      <c r="AZ40" s="472" t="s">
         <v>978</v>
       </c>
-      <c r="BC40" s="484" cm="1">
+      <c r="BC40" s="482" cm="1">
         <f t="array" ref="BC40" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>32</v>
       </c>
-      <c r="BD40" s="485" t="str">
+      <c r="BD40" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄡ</v>
       </c>
-      <c r="BE40" s="486" t="str">
+      <c r="BE40" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC40,1)</f>
         <v>.</v>
       </c>
-      <c r="BF40" s="487" t="str">
+      <c r="BF40" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC40,1)</f>
         <v>.</v>
       </c>
-      <c r="BI40" s="490"/>
-      <c r="BJ40" s="490"/>
-      <c r="BK40" s="492"/>
-      <c r="BL40" s="490"/>
-      <c r="BM40" s="490"/>
+      <c r="BI40" s="488"/>
+      <c r="BJ40" s="488"/>
+      <c r="BK40" s="490"/>
+      <c r="BL40" s="488"/>
+      <c r="BM40" s="488"/>
     </row>
     <row r="41" spans="1:65" ht="38.1" customHeight="1">
       <c r="A41" s="12"/>
@@ -36905,31 +36945,31 @@
         <f t="array" ref="AV41" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>33</v>
       </c>
-      <c r="AW41" s="471" t="s">
+      <c r="AW41" s="469" t="s">
         <v>183</v>
       </c>
-      <c r="AX41" s="472" t="s">
+      <c r="AX41" s="470" t="s">
         <v>87</v>
       </c>
-      <c r="AY41" s="473" t="s">
+      <c r="AY41" s="471" t="s">
         <v>648</v>
       </c>
-      <c r="AZ41" s="474" t="s">
+      <c r="AZ41" s="472" t="s">
         <v>979</v>
       </c>
-      <c r="BC41" s="484" cm="1">
+      <c r="BC41" s="482" cm="1">
         <f t="array" ref="BC41" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>33</v>
       </c>
-      <c r="BD41" s="485" t="str">
+      <c r="BD41" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄢ</v>
       </c>
-      <c r="BE41" s="486" t="str">
+      <c r="BE41" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC41,1)</f>
         <v>0</v>
       </c>
-      <c r="BF41" s="487" t="str">
+      <c r="BF41" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC41,1)</f>
         <v>0</v>
       </c>
@@ -36985,31 +37025,31 @@
         <f t="array" ref="AV42" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>34</v>
       </c>
-      <c r="AW42" s="471" t="s">
+      <c r="AW42" s="469" t="s">
         <v>9</v>
       </c>
-      <c r="AX42" s="472" t="s">
+      <c r="AX42" s="470" t="s">
         <v>86</v>
       </c>
-      <c r="AY42" s="473" t="s">
+      <c r="AY42" s="471" t="s">
         <v>319</v>
       </c>
-      <c r="AZ42" s="474" t="s">
+      <c r="AZ42" s="472" t="s">
         <v>980</v>
       </c>
-      <c r="BC42" s="484" cm="1">
+      <c r="BC42" s="482" cm="1">
         <f t="array" ref="BC42" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>34</v>
       </c>
-      <c r="BD42" s="485" t="str">
+      <c r="BD42" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄣ</v>
       </c>
-      <c r="BE42" s="486" t="str">
+      <c r="BE42" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC42,1)</f>
         <v>p</v>
       </c>
-      <c r="BF42" s="487" t="str">
+      <c r="BF42" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC42,1)</f>
         <v>p</v>
       </c>
@@ -37065,31 +37105,31 @@
         <f t="array" ref="AV43" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>35</v>
       </c>
-      <c r="AW43" s="471" t="s">
+      <c r="AW43" s="469" t="s">
         <v>184</v>
       </c>
-      <c r="AX43" s="472" t="s">
+      <c r="AX43" s="470" t="s">
         <v>62</v>
       </c>
-      <c r="AY43" s="473" t="s">
+      <c r="AY43" s="471" t="s">
         <v>657</v>
       </c>
-      <c r="AZ43" s="474" t="s">
+      <c r="AZ43" s="472" t="s">
         <v>981</v>
       </c>
-      <c r="BC43" s="484" cm="1">
+      <c r="BC43" s="482" cm="1">
         <f t="array" ref="BC43" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>35</v>
       </c>
-      <c r="BD43" s="485" t="str">
+      <c r="BD43" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄤ</v>
       </c>
-      <c r="BE43" s="486" t="str">
+      <c r="BE43" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC43,1)</f>
         <v>;</v>
       </c>
-      <c r="BF43" s="487" t="str">
+      <c r="BF43" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC43,1)</f>
         <v>;</v>
       </c>
@@ -37145,31 +37185,31 @@
         <f t="array" ref="AV44" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>36</v>
       </c>
-      <c r="AW44" s="471" t="s">
+      <c r="AW44" s="469" t="s">
         <v>186</v>
       </c>
-      <c r="AX44" s="472" t="s">
+      <c r="AX44" s="470" t="s">
         <v>59</v>
       </c>
-      <c r="AY44" s="473" t="s">
+      <c r="AY44" s="471" t="s">
         <v>925</v>
       </c>
-      <c r="AZ44" s="474" t="s">
+      <c r="AZ44" s="472" t="s">
         <v>982</v>
       </c>
-      <c r="BC44" s="484" cm="1">
+      <c r="BC44" s="482" cm="1">
         <f t="array" ref="BC44" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>36</v>
       </c>
-      <c r="BD44" s="485" t="str">
+      <c r="BD44" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄥ</v>
       </c>
-      <c r="BE44" s="486" t="str">
+      <c r="BE44" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC44,1)</f>
         <v>/</v>
       </c>
-      <c r="BF44" s="487" t="str">
+      <c r="BF44" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC44,1)</f>
         <v>/</v>
       </c>
@@ -37225,31 +37265,31 @@
         <f t="array" ref="AV45" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>37</v>
       </c>
-      <c r="AW45" s="471" t="s">
+      <c r="AW45" s="469" t="s">
         <v>187</v>
       </c>
-      <c r="AX45" s="472" t="s">
+      <c r="AX45" s="470" t="s">
         <v>27</v>
       </c>
-      <c r="AY45" s="473" t="s">
+      <c r="AY45" s="471" t="s">
         <v>921</v>
       </c>
-      <c r="AZ45" s="474" t="s">
+      <c r="AZ45" s="472" t="s">
         <v>983</v>
       </c>
-      <c r="BC45" s="484" cm="1">
+      <c r="BC45" s="482" cm="1">
         <f t="array" ref="BC45" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>37</v>
       </c>
-      <c r="BD45" s="485" t="str">
+      <c r="BD45" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ㄦ</v>
       </c>
-      <c r="BE45" s="486" t="str">
+      <c r="BE45" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC45,1)</f>
         <v>-</v>
       </c>
-      <c r="BF45" s="487" t="str">
+      <c r="BF45" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC45,1)</f>
         <v>-</v>
       </c>
@@ -37305,31 +37345,31 @@
         <f t="array" ref="AV46" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>38</v>
       </c>
-      <c r="AW46" s="471" t="s">
+      <c r="AW46" s="469" t="s">
         <v>118</v>
       </c>
-      <c r="AX46" s="472" t="s">
+      <c r="AX46" s="470" t="s">
         <v>169</v>
       </c>
-      <c r="AY46" s="473" t="s">
+      <c r="AY46" s="471" t="s">
         <v>639</v>
       </c>
-      <c r="AZ46" s="474" t="s">
+      <c r="AZ46" s="472" t="s">
         <v>984</v>
       </c>
-      <c r="BC46" s="484" cm="1">
+      <c r="BC46" s="482" cm="1">
         <f t="array" ref="BC46" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>38</v>
       </c>
-      <c r="BD46" s="485" t="str">
+      <c r="BD46" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ˉ</v>
       </c>
-      <c r="BE46" s="486" t="str">
+      <c r="BE46" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC46,1)</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BF46" s="487" t="str">
+      <c r="BF46" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC46,1)</f>
         <v/>
       </c>
@@ -37385,31 +37425,31 @@
         <f t="array" ref="AV47" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>39</v>
       </c>
-      <c r="AW47" s="471" t="s">
+      <c r="AW47" s="469" t="s">
         <v>190</v>
       </c>
-      <c r="AX47" s="472" t="s">
+      <c r="AX47" s="470" t="s">
         <v>170</v>
       </c>
-      <c r="AY47" s="473" t="s">
+      <c r="AY47" s="471" t="s">
         <v>317</v>
       </c>
-      <c r="AZ47" s="474" t="s">
+      <c r="AZ47" s="472" t="s">
         <v>985</v>
       </c>
-      <c r="BC47" s="484" cm="1">
+      <c r="BC47" s="482" cm="1">
         <f t="array" ref="BC47" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>39</v>
       </c>
-      <c r="BD47" s="485" t="str">
+      <c r="BD47" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ˊ</v>
       </c>
-      <c r="BE47" s="486" t="str">
+      <c r="BE47" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC47,1)</f>
         <v>6</v>
       </c>
-      <c r="BF47" s="487" t="str">
+      <c r="BF47" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC47,1)</f>
         <v/>
       </c>
@@ -37465,31 +37505,31 @@
         <f t="array" ref="AV48" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>40</v>
       </c>
-      <c r="AW48" s="471" t="s">
+      <c r="AW48" s="469" t="s">
         <v>189</v>
       </c>
-      <c r="AX48" s="472" t="s">
+      <c r="AX48" s="470" t="s">
         <v>189</v>
       </c>
-      <c r="AY48" s="473" t="s">
+      <c r="AY48" s="471" t="s">
         <v>320</v>
       </c>
-      <c r="AZ48" s="474" t="s">
+      <c r="AZ48" s="472" t="s">
         <v>905</v>
       </c>
-      <c r="BC48" s="484" cm="1">
+      <c r="BC48" s="482" cm="1">
         <f t="array" ref="BC48" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>40</v>
       </c>
-      <c r="BD48" s="485" t="str">
+      <c r="BD48" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ˇ</v>
       </c>
-      <c r="BE48" s="486" t="str">
+      <c r="BE48" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC48,1)</f>
         <v>3</v>
       </c>
-      <c r="BF48" s="487" t="str">
+      <c r="BF48" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC48,1)</f>
         <v/>
       </c>
@@ -37545,31 +37585,31 @@
         <f t="array" ref="AV49" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>41</v>
       </c>
-      <c r="AW49" s="471" t="s">
+      <c r="AW49" s="469" t="s">
         <v>188</v>
       </c>
-      <c r="AX49" s="472" t="s">
+      <c r="AX49" s="470" t="s">
         <v>188</v>
       </c>
-      <c r="AY49" s="473" t="s">
+      <c r="AY49" s="471" t="s">
         <v>321</v>
       </c>
-      <c r="AZ49" s="474" t="s">
+      <c r="AZ49" s="472" t="s">
         <v>986</v>
       </c>
-      <c r="BC49" s="484" cm="1">
+      <c r="BC49" s="482" cm="1">
         <f t="array" ref="BC49" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>41</v>
       </c>
-      <c r="BD49" s="485" t="str">
+      <c r="BD49" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>ˋ</v>
       </c>
-      <c r="BE49" s="486" t="str">
+      <c r="BE49" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC49,1)</f>
         <v>4</v>
       </c>
-      <c r="BF49" s="487" t="str">
+      <c r="BF49" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC49,1)</f>
         <v/>
       </c>
@@ -37625,31 +37665,31 @@
         <f t="array" ref="AV50" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>42</v>
       </c>
-      <c r="AW50" s="471" t="s">
+      <c r="AW50" s="469" t="s">
         <v>192</v>
       </c>
-      <c r="AX50" s="472" t="s">
+      <c r="AX50" s="470" t="s">
         <v>191</v>
       </c>
-      <c r="AY50" s="473" t="s">
+      <c r="AY50" s="471" t="s">
         <v>319</v>
       </c>
-      <c r="AZ50" s="474" t="s">
+      <c r="AZ50" s="472" t="s">
         <v>123</v>
       </c>
-      <c r="BC50" s="484" cm="1">
+      <c r="BC50" s="482" cm="1">
         <f t="array" ref="BC50" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>42</v>
       </c>
-      <c r="BD50" s="485" t="str">
+      <c r="BD50" s="483" t="str">
         <f>表格7_9[[#This Row],[注音符號]]</f>
         <v>˙</v>
       </c>
-      <c r="BE50" s="486" t="str">
+      <c r="BE50" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC50,1)</f>
         <v>7</v>
       </c>
-      <c r="BF50" s="487" t="str">
+      <c r="BF50" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC50,1)</f>
         <v/>
       </c>
@@ -37709,16 +37749,16 @@
       <c r="AX51" s="124"/>
       <c r="AY51" s="199"/>
       <c r="AZ51" s="129"/>
-      <c r="BC51" s="484" cm="1">
+      <c r="BC51" s="482" cm="1">
         <f t="array" ref="BC51" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>43</v>
       </c>
-      <c r="BD51" s="485"/>
-      <c r="BE51" s="486" t="str">
+      <c r="BD51" s="483"/>
+      <c r="BE51" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC51,1)</f>
         <v/>
       </c>
-      <c r="BF51" s="487" t="str">
+      <c r="BF51" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC51,1)</f>
         <v/>
       </c>
@@ -37778,16 +37818,16 @@
       <c r="AX52" s="124"/>
       <c r="AY52" s="199"/>
       <c r="AZ52" s="129"/>
-      <c r="BC52" s="484" cm="1">
+      <c r="BC52" s="482" cm="1">
         <f t="array" ref="BC52" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>44</v>
       </c>
-      <c r="BD52" s="485"/>
-      <c r="BE52" s="486" t="str">
+      <c r="BD52" s="483"/>
+      <c r="BE52" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC52,1)</f>
         <v/>
       </c>
-      <c r="BF52" s="487" t="str">
+      <c r="BF52" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC52,1)</f>
         <v/>
       </c>
@@ -37847,16 +37887,16 @@
       <c r="AX53" s="124"/>
       <c r="AY53" s="199"/>
       <c r="AZ53" s="129"/>
-      <c r="BC53" s="484" cm="1">
+      <c r="BC53" s="482" cm="1">
         <f t="array" ref="BC53" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>45</v>
       </c>
-      <c r="BD53" s="485"/>
-      <c r="BE53" s="486" t="str">
+      <c r="BD53" s="483"/>
+      <c r="BE53" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC53,1)</f>
         <v/>
       </c>
-      <c r="BF53" s="487" t="str">
+      <c r="BF53" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC53,1)</f>
         <v/>
       </c>
@@ -37916,16 +37956,16 @@
       <c r="AX54" s="124"/>
       <c r="AY54" s="199"/>
       <c r="AZ54" s="129"/>
-      <c r="BC54" s="484" cm="1">
+      <c r="BC54" s="482" cm="1">
         <f t="array" ref="BC54" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>46</v>
       </c>
-      <c r="BD54" s="485"/>
-      <c r="BE54" s="486" t="str">
+      <c r="BD54" s="483"/>
+      <c r="BE54" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC54,1)</f>
         <v/>
       </c>
-      <c r="BF54" s="487" t="str">
+      <c r="BF54" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC54,1)</f>
         <v/>
       </c>
@@ -37985,16 +38025,16 @@
       <c r="AX55" s="124"/>
       <c r="AY55" s="199"/>
       <c r="AZ55" s="129"/>
-      <c r="BC55" s="484" cm="1">
+      <c r="BC55" s="482" cm="1">
         <f t="array" ref="BC55" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>47</v>
       </c>
-      <c r="BD55" s="485"/>
-      <c r="BE55" s="486" t="str">
+      <c r="BD55" s="483"/>
+      <c r="BE55" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC55,1)</f>
         <v/>
       </c>
-      <c r="BF55" s="487" t="str">
+      <c r="BF55" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC55,1)</f>
         <v/>
       </c>
@@ -38054,16 +38094,16 @@
       <c r="AX56" s="124"/>
       <c r="AY56" s="199"/>
       <c r="AZ56" s="129"/>
-      <c r="BC56" s="484" cm="1">
+      <c r="BC56" s="482" cm="1">
         <f t="array" ref="BC56" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>48</v>
       </c>
-      <c r="BD56" s="485"/>
-      <c r="BE56" s="486" t="str">
+      <c r="BD56" s="483"/>
+      <c r="BE56" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC56,1)</f>
         <v/>
       </c>
-      <c r="BF56" s="487" t="str">
+      <c r="BF56" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC56,1)</f>
         <v/>
       </c>
@@ -38123,16 +38163,16 @@
       <c r="AX57" s="124"/>
       <c r="AY57" s="199"/>
       <c r="AZ57" s="129"/>
-      <c r="BC57" s="484" cm="1">
+      <c r="BC57" s="482" cm="1">
         <f t="array" ref="BC57" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>49</v>
       </c>
-      <c r="BD57" s="485"/>
-      <c r="BE57" s="486" t="str">
+      <c r="BD57" s="483"/>
+      <c r="BE57" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC57,1)</f>
         <v/>
       </c>
-      <c r="BF57" s="487" t="str">
+      <c r="BF57" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC57,1)</f>
         <v/>
       </c>
@@ -38192,16 +38232,16 @@
       <c r="AX58" s="124"/>
       <c r="AY58" s="199"/>
       <c r="AZ58" s="129"/>
-      <c r="BC58" s="484" cm="1">
+      <c r="BC58" s="482" cm="1">
         <f t="array" ref="BC58" xml:space="preserve"> ROW() - ROW($8:$8)</f>
         <v>50</v>
       </c>
-      <c r="BD58" s="485"/>
-      <c r="BE58" s="486" t="str">
+      <c r="BD58" s="483"/>
+      <c r="BE58" s="484" t="str">
         <f xml:space="preserve"> MID($BC$4,$BC58,1)</f>
         <v/>
       </c>
-      <c r="BF58" s="487" t="str">
+      <c r="BF58" s="485" t="str">
         <f xml:space="preserve"> MID($BC$5,$BC58,1)</f>
         <v/>
       </c>
@@ -38334,7 +38374,7 @@
     </row>
     <row r="2" spans="1:24" ht="25.5">
       <c r="A2" s="265" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F2" s="215" t="s">
         <v>794</v>
@@ -38894,7 +38934,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="268" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E11" s="211" cm="1">
         <f t="array" ref="E11" xml:space="preserve"> ROW() - ROW($2:$2)</f>
@@ -55434,61 +55474,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="175" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="408">
+      <c r="C2" s="406">
         <v>1</v>
       </c>
-      <c r="D2" s="409"/>
-      <c r="E2" s="410"/>
-      <c r="F2" s="408">
+      <c r="D2" s="407"/>
+      <c r="E2" s="408"/>
+      <c r="F2" s="406">
         <v>2</v>
       </c>
-      <c r="G2" s="409"/>
-      <c r="H2" s="410"/>
-      <c r="I2" s="432">
+      <c r="G2" s="407"/>
+      <c r="H2" s="408"/>
+      <c r="I2" s="430">
         <v>3</v>
       </c>
-      <c r="J2" s="433"/>
-      <c r="K2" s="434"/>
-      <c r="L2" s="432">
+      <c r="J2" s="431"/>
+      <c r="K2" s="432"/>
+      <c r="L2" s="430">
         <v>4</v>
       </c>
-      <c r="M2" s="433"/>
-      <c r="N2" s="434"/>
-      <c r="O2" s="432">
+      <c r="M2" s="431"/>
+      <c r="N2" s="432"/>
+      <c r="O2" s="430">
         <v>5</v>
       </c>
-      <c r="P2" s="433"/>
-      <c r="Q2" s="434"/>
-      <c r="R2" s="432">
+      <c r="P2" s="431"/>
+      <c r="Q2" s="432"/>
+      <c r="R2" s="430">
         <v>6</v>
       </c>
-      <c r="S2" s="433"/>
-      <c r="T2" s="434"/>
-      <c r="U2" s="432">
+      <c r="S2" s="431"/>
+      <c r="T2" s="432"/>
+      <c r="U2" s="430">
         <v>7</v>
       </c>
-      <c r="V2" s="433"/>
-      <c r="W2" s="434"/>
-      <c r="X2" s="411">
+      <c r="V2" s="431"/>
+      <c r="W2" s="432"/>
+      <c r="X2" s="409">
         <v>8</v>
       </c>
-      <c r="Y2" s="412"/>
-      <c r="Z2" s="413"/>
-      <c r="AA2" s="411">
+      <c r="Y2" s="410"/>
+      <c r="Z2" s="411"/>
+      <c r="AA2" s="409">
         <v>9</v>
       </c>
-      <c r="AB2" s="412"/>
-      <c r="AC2" s="413"/>
-      <c r="AD2" s="411">
+      <c r="AB2" s="410"/>
+      <c r="AC2" s="411"/>
+      <c r="AD2" s="409">
         <v>0</v>
       </c>
-      <c r="AE2" s="412"/>
-      <c r="AF2" s="413"/>
-      <c r="AG2" s="436" t="s">
+      <c r="AE2" s="410"/>
+      <c r="AF2" s="411"/>
+      <c r="AG2" s="434" t="s">
         <v>459</v>
       </c>
-      <c r="AH2" s="412"/>
-      <c r="AI2" s="413"/>
+      <c r="AH2" s="410"/>
+      <c r="AI2" s="411"/>
       <c r="AJ2" s="162"/>
       <c r="AK2" s="162"/>
       <c r="AL2" s="162"/>
@@ -55497,56 +55537,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="405" t="str">
+      <c r="C3" s="403" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="406"/>
-      <c r="E3" s="407"/>
-      <c r="F3" s="405" t="str">
+      <c r="D3" s="404"/>
+      <c r="E3" s="405"/>
+      <c r="F3" s="403" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="406"/>
-      <c r="H3" s="407"/>
-      <c r="I3" s="429" t="s">
+      <c r="G3" s="404"/>
+      <c r="H3" s="405"/>
+      <c r="I3" s="427" t="s">
         <v>457</v>
       </c>
-      <c r="J3" s="430"/>
-      <c r="K3" s="431"/>
-      <c r="L3" s="429" t="s">
+      <c r="J3" s="428"/>
+      <c r="K3" s="429"/>
+      <c r="L3" s="427" t="s">
         <v>456</v>
       </c>
-      <c r="M3" s="430"/>
-      <c r="N3" s="431"/>
-      <c r="O3" s="429"/>
-      <c r="P3" s="430"/>
-      <c r="Q3" s="431"/>
-      <c r="R3" s="426" t="s">
+      <c r="M3" s="428"/>
+      <c r="N3" s="429"/>
+      <c r="O3" s="427"/>
+      <c r="P3" s="428"/>
+      <c r="Q3" s="429"/>
+      <c r="R3" s="424" t="s">
         <v>455</v>
       </c>
-      <c r="S3" s="427"/>
-      <c r="T3" s="428"/>
-      <c r="U3" s="429" t="s">
+      <c r="S3" s="425"/>
+      <c r="T3" s="426"/>
+      <c r="U3" s="427" t="s">
         <v>454</v>
       </c>
-      <c r="V3" s="430"/>
-      <c r="W3" s="431"/>
-      <c r="X3" s="422" t="str">
+      <c r="V3" s="428"/>
+      <c r="W3" s="429"/>
+      <c r="X3" s="420" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="423"/>
-      <c r="Z3" s="424"/>
-      <c r="AA3" s="422"/>
-      <c r="AB3" s="423"/>
-      <c r="AC3" s="424"/>
-      <c r="AD3" s="422"/>
-      <c r="AE3" s="423"/>
-      <c r="AF3" s="424"/>
-      <c r="AG3" s="437"/>
-      <c r="AH3" s="438"/>
-      <c r="AI3" s="439"/>
+      <c r="Y3" s="421"/>
+      <c r="Z3" s="422"/>
+      <c r="AA3" s="420"/>
+      <c r="AB3" s="421"/>
+      <c r="AC3" s="422"/>
+      <c r="AD3" s="420"/>
+      <c r="AE3" s="421"/>
+      <c r="AF3" s="422"/>
+      <c r="AG3" s="435"/>
+      <c r="AH3" s="436"/>
+      <c r="AI3" s="437"/>
       <c r="AQ3" s="176" t="s">
         <v>453</v>
       </c>
@@ -55555,115 +55595,115 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="175" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="408" t="s">
+      <c r="D4" s="406" t="s">
         <v>452</v>
       </c>
-      <c r="E4" s="409"/>
-      <c r="F4" s="410"/>
-      <c r="G4" s="408" t="s">
+      <c r="E4" s="407"/>
+      <c r="F4" s="408"/>
+      <c r="G4" s="406" t="s">
         <v>387</v>
       </c>
-      <c r="H4" s="409"/>
-      <c r="I4" s="410"/>
-      <c r="J4" s="408" t="s">
+      <c r="H4" s="407"/>
+      <c r="I4" s="408"/>
+      <c r="J4" s="406" t="s">
         <v>451</v>
       </c>
-      <c r="K4" s="409"/>
-      <c r="L4" s="410"/>
-      <c r="M4" s="408" t="s">
+      <c r="K4" s="407"/>
+      <c r="L4" s="408"/>
+      <c r="M4" s="406" t="s">
         <v>450</v>
       </c>
-      <c r="N4" s="409"/>
-      <c r="O4" s="410"/>
-      <c r="P4" s="408" t="s">
+      <c r="N4" s="407"/>
+      <c r="O4" s="408"/>
+      <c r="P4" s="406" t="s">
         <v>449</v>
       </c>
-      <c r="Q4" s="409"/>
-      <c r="R4" s="410"/>
-      <c r="S4" s="408" t="s">
+      <c r="Q4" s="407"/>
+      <c r="R4" s="408"/>
+      <c r="S4" s="406" t="s">
         <v>448</v>
       </c>
-      <c r="T4" s="409"/>
-      <c r="U4" s="410"/>
-      <c r="V4" s="411" t="s">
+      <c r="T4" s="407"/>
+      <c r="U4" s="408"/>
+      <c r="V4" s="409" t="s">
         <v>447</v>
       </c>
-      <c r="W4" s="412"/>
-      <c r="X4" s="413"/>
-      <c r="Y4" s="411" t="s">
+      <c r="W4" s="410"/>
+      <c r="X4" s="411"/>
+      <c r="Y4" s="409" t="s">
         <v>446</v>
       </c>
-      <c r="Z4" s="412"/>
-      <c r="AA4" s="413"/>
-      <c r="AB4" s="411" t="s">
+      <c r="Z4" s="410"/>
+      <c r="AA4" s="411"/>
+      <c r="AB4" s="409" t="s">
         <v>443</v>
       </c>
-      <c r="AC4" s="412"/>
-      <c r="AD4" s="413"/>
-      <c r="AE4" s="411" t="s">
+      <c r="AC4" s="410"/>
+      <c r="AD4" s="411"/>
+      <c r="AE4" s="409" t="s">
         <v>445</v>
       </c>
-      <c r="AF4" s="412"/>
-      <c r="AG4" s="413"/>
+      <c r="AF4" s="410"/>
+      <c r="AG4" s="411"/>
       <c r="AJ4" s="162"/>
       <c r="AK4" s="162"/>
       <c r="AL4" s="162"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="405" t="str">
+      <c r="D5" s="403" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="406"/>
-      <c r="F5" s="407"/>
-      <c r="G5" s="405" t="str">
+      <c r="E5" s="404"/>
+      <c r="F5" s="405"/>
+      <c r="G5" s="403" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="406"/>
-      <c r="I5" s="407"/>
-      <c r="J5" s="405" t="str">
+      <c r="H5" s="404"/>
+      <c r="I5" s="405"/>
+      <c r="J5" s="403" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="406"/>
-      <c r="L5" s="407"/>
-      <c r="M5" s="405"/>
-      <c r="N5" s="406"/>
-      <c r="O5" s="407"/>
-      <c r="P5" s="402" t="str">
+      <c r="K5" s="404"/>
+      <c r="L5" s="405"/>
+      <c r="M5" s="403"/>
+      <c r="N5" s="404"/>
+      <c r="O5" s="405"/>
+      <c r="P5" s="400" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="403"/>
-      <c r="R5" s="404"/>
-      <c r="S5" s="405" t="str">
+      <c r="Q5" s="401"/>
+      <c r="R5" s="402"/>
+      <c r="S5" s="403" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="406"/>
-      <c r="U5" s="407"/>
-      <c r="V5" s="422" t="str">
+      <c r="T5" s="404"/>
+      <c r="U5" s="405"/>
+      <c r="V5" s="420" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="423"/>
-      <c r="X5" s="424"/>
-      <c r="Y5" s="422" t="str">
+      <c r="W5" s="421"/>
+      <c r="X5" s="422"/>
+      <c r="Y5" s="420" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="423"/>
-      <c r="AA5" s="424"/>
-      <c r="AB5" s="422"/>
-      <c r="AC5" s="423"/>
-      <c r="AD5" s="424"/>
-      <c r="AE5" s="414" t="str">
+      <c r="Z5" s="421"/>
+      <c r="AA5" s="422"/>
+      <c r="AB5" s="420"/>
+      <c r="AC5" s="421"/>
+      <c r="AD5" s="422"/>
+      <c r="AE5" s="412" t="str">
         <f>P20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="415"/>
-      <c r="AG5" s="416"/>
+      <c r="AF5" s="413"/>
+      <c r="AG5" s="414"/>
       <c r="AQ5" s="176" t="s">
         <v>444</v>
       </c>
@@ -55673,109 +55713,109 @@
     </row>
     <row r="6" spans="2:44" s="175" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="177"/>
-      <c r="E6" s="408" t="s">
+      <c r="E6" s="406" t="s">
         <v>442</v>
       </c>
-      <c r="F6" s="409"/>
-      <c r="G6" s="410"/>
-      <c r="H6" s="408" t="s">
+      <c r="F6" s="407"/>
+      <c r="G6" s="408"/>
+      <c r="H6" s="406" t="s">
         <v>441</v>
       </c>
-      <c r="I6" s="409"/>
-      <c r="J6" s="410"/>
-      <c r="K6" s="408" t="s">
+      <c r="I6" s="407"/>
+      <c r="J6" s="408"/>
+      <c r="K6" s="406" t="s">
         <v>440</v>
       </c>
-      <c r="L6" s="409"/>
-      <c r="M6" s="410"/>
-      <c r="N6" s="408" t="s">
+      <c r="L6" s="407"/>
+      <c r="M6" s="408"/>
+      <c r="N6" s="406" t="s">
         <v>439</v>
       </c>
-      <c r="O6" s="409"/>
-      <c r="P6" s="410"/>
-      <c r="Q6" s="408" t="s">
+      <c r="O6" s="407"/>
+      <c r="P6" s="408"/>
+      <c r="Q6" s="406" t="s">
         <v>438</v>
       </c>
-      <c r="R6" s="409"/>
-      <c r="S6" s="410"/>
-      <c r="T6" s="408" t="s">
+      <c r="R6" s="407"/>
+      <c r="S6" s="408"/>
+      <c r="T6" s="406" t="s">
         <v>437</v>
       </c>
-      <c r="U6" s="409"/>
-      <c r="V6" s="410"/>
-      <c r="W6" s="411" t="s">
+      <c r="U6" s="407"/>
+      <c r="V6" s="408"/>
+      <c r="W6" s="409" t="s">
         <v>436</v>
       </c>
-      <c r="X6" s="412"/>
-      <c r="Y6" s="413"/>
-      <c r="Z6" s="411" t="s">
+      <c r="X6" s="410"/>
+      <c r="Y6" s="411"/>
+      <c r="Z6" s="409" t="s">
         <v>435</v>
       </c>
-      <c r="AA6" s="412"/>
-      <c r="AB6" s="413"/>
-      <c r="AC6" s="411" t="s">
+      <c r="AA6" s="410"/>
+      <c r="AB6" s="411"/>
+      <c r="AC6" s="409" t="s">
         <v>434</v>
       </c>
-      <c r="AD6" s="412"/>
-      <c r="AE6" s="413"/>
-      <c r="AF6" s="411" t="s">
+      <c r="AD6" s="410"/>
+      <c r="AE6" s="411"/>
+      <c r="AF6" s="409" t="s">
         <v>433</v>
       </c>
-      <c r="AG6" s="412"/>
-      <c r="AH6" s="413"/>
+      <c r="AG6" s="410"/>
+      <c r="AH6" s="411"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="419" t="str">
+      <c r="E7" s="417" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="420"/>
-      <c r="G7" s="421"/>
-      <c r="H7" s="405" t="str">
+      <c r="F7" s="418"/>
+      <c r="G7" s="419"/>
+      <c r="H7" s="403" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="406"/>
-      <c r="J7" s="407"/>
-      <c r="K7" s="405" t="str">
+      <c r="I7" s="404"/>
+      <c r="J7" s="405"/>
+      <c r="K7" s="403" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="406"/>
-      <c r="M7" s="407"/>
-      <c r="N7" s="405"/>
-      <c r="O7" s="406"/>
-      <c r="P7" s="407"/>
-      <c r="Q7" s="425" t="str">
+      <c r="L7" s="404"/>
+      <c r="M7" s="405"/>
+      <c r="N7" s="403"/>
+      <c r="O7" s="404"/>
+      <c r="P7" s="405"/>
+      <c r="Q7" s="423" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="403"/>
-      <c r="S7" s="404"/>
-      <c r="T7" s="405" t="str">
+      <c r="R7" s="401"/>
+      <c r="S7" s="402"/>
+      <c r="T7" s="403" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="406"/>
-      <c r="V7" s="407"/>
-      <c r="W7" s="422" t="str">
+      <c r="U7" s="404"/>
+      <c r="V7" s="405"/>
+      <c r="W7" s="420" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="423"/>
-      <c r="Y7" s="424"/>
-      <c r="Z7" s="422" t="str">
+      <c r="X7" s="421"/>
+      <c r="Y7" s="422"/>
+      <c r="Z7" s="420" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="423"/>
-      <c r="AB7" s="424"/>
-      <c r="AC7" s="422"/>
-      <c r="AD7" s="423"/>
-      <c r="AE7" s="424"/>
-      <c r="AF7" s="441"/>
-      <c r="AG7" s="423"/>
-      <c r="AH7" s="424"/>
+      <c r="AA7" s="421"/>
+      <c r="AB7" s="422"/>
+      <c r="AC7" s="420"/>
+      <c r="AD7" s="421"/>
+      <c r="AE7" s="422"/>
+      <c r="AF7" s="439"/>
+      <c r="AG7" s="421"/>
+      <c r="AH7" s="422"/>
       <c r="AQ7" s="176" t="s">
         <v>432</v>
       </c>
@@ -55784,112 +55824,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="175" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="408" t="s">
+      <c r="F8" s="406" t="s">
         <v>430</v>
       </c>
-      <c r="G8" s="409"/>
-      <c r="H8" s="410"/>
-      <c r="I8" s="408" t="s">
+      <c r="G8" s="407"/>
+      <c r="H8" s="408"/>
+      <c r="I8" s="406" t="s">
         <v>429</v>
       </c>
-      <c r="J8" s="409"/>
-      <c r="K8" s="410"/>
-      <c r="L8" s="408" t="s">
+      <c r="J8" s="407"/>
+      <c r="K8" s="408"/>
+      <c r="L8" s="406" t="s">
         <v>428</v>
       </c>
-      <c r="M8" s="409"/>
-      <c r="N8" s="410"/>
-      <c r="O8" s="408" t="s">
+      <c r="M8" s="407"/>
+      <c r="N8" s="408"/>
+      <c r="O8" s="406" t="s">
         <v>427</v>
       </c>
-      <c r="P8" s="409"/>
-      <c r="Q8" s="410"/>
-      <c r="R8" s="408" t="s">
+      <c r="P8" s="407"/>
+      <c r="Q8" s="408"/>
+      <c r="R8" s="406" t="s">
         <v>426</v>
       </c>
-      <c r="S8" s="409"/>
-      <c r="T8" s="410"/>
-      <c r="U8" s="408" t="s">
+      <c r="S8" s="407"/>
+      <c r="T8" s="408"/>
+      <c r="U8" s="406" t="s">
         <v>385</v>
       </c>
-      <c r="V8" s="409"/>
-      <c r="W8" s="410"/>
-      <c r="X8" s="411" t="s">
+      <c r="V8" s="407"/>
+      <c r="W8" s="408"/>
+      <c r="X8" s="409" t="s">
         <v>425</v>
       </c>
-      <c r="Y8" s="412"/>
-      <c r="Z8" s="413"/>
-      <c r="AA8" s="411" t="s">
+      <c r="Y8" s="410"/>
+      <c r="Z8" s="411"/>
+      <c r="AA8" s="409" t="s">
         <v>424</v>
       </c>
-      <c r="AB8" s="412"/>
-      <c r="AC8" s="413"/>
-      <c r="AD8" s="411" t="s">
+      <c r="AB8" s="410"/>
+      <c r="AC8" s="411"/>
+      <c r="AD8" s="409" t="s">
         <v>423</v>
       </c>
-      <c r="AE8" s="412"/>
-      <c r="AF8" s="413"/>
-      <c r="AG8" s="440" t="s">
+      <c r="AE8" s="410"/>
+      <c r="AF8" s="411"/>
+      <c r="AG8" s="438" t="s">
         <v>422</v>
       </c>
-      <c r="AH8" s="412"/>
-      <c r="AI8" s="413"/>
+      <c r="AH8" s="410"/>
+      <c r="AI8" s="411"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="405"/>
-      <c r="G9" s="417"/>
-      <c r="H9" s="418"/>
-      <c r="I9" s="405" t="str">
+      <c r="F9" s="403"/>
+      <c r="G9" s="415"/>
+      <c r="H9" s="416"/>
+      <c r="I9" s="403" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="406"/>
-      <c r="K9" s="407"/>
-      <c r="L9" s="405" t="str">
+      <c r="J9" s="404"/>
+      <c r="K9" s="405"/>
+      <c r="L9" s="403" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="406"/>
-      <c r="N9" s="407"/>
-      <c r="O9" s="419" t="str">
+      <c r="M9" s="404"/>
+      <c r="N9" s="405"/>
+      <c r="O9" s="417" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="420"/>
-      <c r="Q9" s="421"/>
-      <c r="R9" s="402" t="str">
+      <c r="P9" s="418"/>
+      <c r="Q9" s="419"/>
+      <c r="R9" s="400" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="403"/>
-      <c r="T9" s="404"/>
-      <c r="U9" s="405" t="str">
+      <c r="S9" s="401"/>
+      <c r="T9" s="402"/>
+      <c r="U9" s="403" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="406"/>
-      <c r="W9" s="407"/>
-      <c r="X9" s="414" t="str">
+      <c r="V9" s="404"/>
+      <c r="W9" s="405"/>
+      <c r="X9" s="412" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="415"/>
-      <c r="Z9" s="416"/>
-      <c r="AA9" s="422" t="str">
+      <c r="Y9" s="413"/>
+      <c r="Z9" s="414"/>
+      <c r="AA9" s="420" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="423"/>
-      <c r="AC9" s="424"/>
-      <c r="AD9" s="435" t="str">
+      <c r="AB9" s="421"/>
+      <c r="AC9" s="422"/>
+      <c r="AD9" s="433" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
-      <c r="AE9" s="415"/>
-      <c r="AF9" s="416"/>
-      <c r="AG9" s="422"/>
-      <c r="AH9" s="423"/>
-      <c r="AI9" s="424"/>
+      <c r="AE9" s="413"/>
+      <c r="AF9" s="414"/>
+      <c r="AG9" s="420"/>
+      <c r="AH9" s="421"/>
+      <c r="AI9" s="422"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="175"/>
